--- a/sentence_pairs_result.xlsx
+++ b/sentence_pairs_result.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justin/workspace/corpus_parallel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6BC4DB-FA32-F14F-9BCD-55D552CA575E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-3020" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="354">
   <si>
     <t>ja</t>
   </si>
@@ -43,28 +49,28 @@
     <t>このような物理ブロックが増えると、記憶領域が有効に活用できない。</t>
   </si>
   <si>
-    <t>記憶領域を有効に活用するために、コンパクション又はガベージコレクション(以下、ガベージコレクション又はg cと称する)と呼ばれる処理が行われる。</t>
-  </si>
-  <si>
-    <t>ガベージコレクションでは、データが消去されているフリーブロックの個数を増やすため、有効クラスタと無効クラスタが混在する物理ブロックを含む論理ブロック(g c元論理ブロックと称する)内の全ての有効クラスタのデータが消去済み論理ブロック(g c先論理ブロックと称する)に移動される。</t>
-  </si>
-  <si>
-    <t>全ての有効クラスタのデータがg c先論理ブロックに移動されたg c元論理ブロックの全てのデータは消去される。</t>
-  </si>
-  <si>
-    <t>消去済みのg c元論理ブロックはフリーブロックとして解放され、g c先論理ブロックとして再利用することが可能となる。</t>
-  </si>
-  <si>
-    <t>g c元論理ブロック内のクラスタのデータをリードする際、リードデータにエラーが生じ、かつそのエラーが訂正不能な場合がある。</t>
+    <t>記憶領域を有効に活用するために、コンパクション又はガベージコレクション(以下、ガベージコレクション又はGCと称する)と呼ばれる処理が行われる。</t>
+  </si>
+  <si>
+    <t>ガベージコレクションでは、データが消去されているフリーブロックの個数を増やすため、有効クラスタと無効クラスタが混在する物理ブロックを含む論理ブロック(GC元論理ブロックと称する)内の全ての有効クラスタのデータが消去済み論理ブロック(GC先論理ブロックと称する)に移動される。</t>
+  </si>
+  <si>
+    <t>全ての有効クラスタのデータがGC先論理ブロックに移動されたGC元論理ブロックの全てのデータは消去される。</t>
+  </si>
+  <si>
+    <t>消去済みのGC元論理ブロックはフリーブロックとして解放され、GC先論理ブロックとして再利用することが可能となる。</t>
+  </si>
+  <si>
+    <t>GC元論理ブロック内のクラスタのデータをリードする際、リードデータにエラーが生じ、かつそのエラーが訂正不能な場合がある。</t>
   </si>
   <si>
     <t>この場合、データがリードされたクラスタは有効クラスタであるか無効クラスタであるか判断できない。</t>
   </si>
   <si>
-    <t>そのため、あるクラスタのデータにリードエラーが生じ、かつそのエラーが訂正不能な場合、ガベージコレクションを実行できず、g c元論理ブロックのデータを消去することができず、g c元論理ブロックをg c先論理ブロックとして再利用することができない。</t>
-  </si>
-  <si>
-    <t>先行技術文献特許文献特許文献1特開2013- 200722号公報特許文献2特開2013- 174975号公報特許文献3米国特許第8825946号明細書特許文献4特許第6313242号公報特許文献5米国特許出願公開第2013/0124842号明細書発明の概要発明が解決しようとする課題従来の記憶装置では、g c元論理ブロックのクラスタのデータをリードする際、リードエラーが生じ、かつそのエラーが訂正不能な場合、g c先論理ブロックが枯渇し、ガベージコレクションを実行できなくなる恐れがある。</t>
+    <t>そのため、あるクラスタのデータにリードエラーが生じ、かつそのエラーが訂正不能な場合、ガベージコレクションを実行できず、GC元論理ブロックのデータを消去することができず、GC元論理ブロックをGC先論理ブロックとして再利用することができない。</t>
+  </si>
+  <si>
+    <t>先行技術文献特許文献特許文献1特開2013- 200722号公報特許文献2特開2013- 174975号公報特許文献3米国特許第8825946号明細書特許文献4特許第6313242号公報特許文献5米国特許出願公開第2013/0124842号明細書発明の概要発明が解決しようとする課題従来の記憶装置では、GC元論理ブロックのクラスタのデータをリードする際、リードエラーが生じ、かつそのエラーが訂正不能な場合、GC先論理ブロックが枯渇し、ガベージコレクションを実行できなくなる恐れがある。</t>
   </si>
   <si>
     <t>図面の簡単な説明図1実施形態による記憶装置の一例の構成を示すブロック図である。</t>
@@ -88,19 +94,19 @@
     <t>図7ガベージコレクションの一例を説明する図である。</t>
   </si>
   <si>
-    <t>図8g c先論理ブロックが枯渇する場合のガベージコレクションの一例を説明する図である。</t>
-  </si>
-  <si>
-    <t>図9g c先論理ブロックが枯渇する場合のガベージコレクションの一例を説明する図である。</t>
-  </si>
-  <si>
-    <t>図10g c先論理ブロックの枯渇を回避するガベージコレクションの一例を説明する図である。</t>
-  </si>
-  <si>
-    <t>図11g c先論理ブロックの枯渇を回避するガベージコレクションの一例を説明する図である。</t>
-  </si>
-  <si>
-    <t>図12g c先論理ブロックの枯渇を回避するガベージコレクションの他の例を説明する図である。</t>
+    <t>図8GC先論理ブロックが枯渇する場合のガベージコレクションの一例を説明する図である。</t>
+  </si>
+  <si>
+    <t>図9GC先論理ブロックが枯渇する場合のガベージコレクションの一例を説明する図である。</t>
+  </si>
+  <si>
+    <t>図10GC先論理ブロックの枯渇を回避するガベージコレクションの一例を説明する図である。</t>
+  </si>
+  <si>
+    <t>図11GC先論理ブロックの枯渇を回避するガベージコレクションの一例を説明する図である。</t>
+  </si>
+  <si>
+    <t>図12GC先論理ブロックの枯渇を回避するガベージコレクションの他の例を説明する図である。</t>
   </si>
   <si>
     <t>発明を実施するための形態以下、実施の形態について図面を参照して説明する。</t>
@@ -124,43 +130,19 @@
     <t>SSD20は、不揮発性半導体メモリにデータをライトするとともに、不揮発性半導体メモリからデータをリードするように構成された半導体ストレージデバイスである。</t>
   </si>
   <si>
-    <t>SSD20は、ホスト10に接続される。</t>
-  </si>
-  <si>
-    <t>ホスト10は、SSD20にアクセスし、SSD20にデータをライトするとともに、SSD20からデータをリードする。</t>
-  </si>
-  <si>
-    <t>ホスト10は、大量且つ多様なデータをSSD20に保存するサーバ(ストレージサーバとも称する)であっても良いし、パーソナルコンピュータであっても良い。</t>
-  </si>
-  <si>
-    <t>SSD20は、ホスト10のメインストレージとして使用され得る。</t>
-  </si>
-  <si>
-    <t>SSD20は、ホスト10に内蔵されても良いし、ホスト10にケーブルまたはネットワークを介して接続されても良い。</t>
-  </si>
-  <si>
-    <t>SSD20は、コントローラ22、NAND型フラッシュメモリ(以下、フラッシュメモリと称する)24、RAM26を備える。</t>
-  </si>
-  <si>
-    <t>コントローラ22は、ホストインタフェース(I/F)32、CPU34、NANDインタフェース(I/F)36、RAMインタフェース(I/F)38を備える。</t>
-  </si>
-  <si>
-    <t>CPU34、ホストI/F32、NAND I/F36、RAM I/F38はバスライン40に接続され得る。</t>
-  </si>
-  <si>
-    <t>コントローラ22は、ソフトウェアに従って動作するCPUから構成しても良いし、system-on-chip(SoC)、ASIC、FPGA等のような回路によって構成しても良い。</t>
-  </si>
-  <si>
-    <t>ホスト10とSSD20とを電気的に相互接続するためのホストI/F32としては、例えばSmall Computer System Interface(SCSI)(登録商標)、PCI Express(登録商標)(PCI E(登録商標)とも称する)、Serial Attached SCSI(SAS)(登録商標)、Serial Advanced Technology Attachment(SATA)(登録商標)、Non Volatile Memory Express(NVMe(登録商標))、Universal Serial Bus(USB)(登録商標)等の規格が使用され得るが、これらに限定されない。</t>
-  </si>
-  <si>
-    <t>ホストI/F32は、ホスト10から様々なコマンド、例えばI/Oコマンド、各種制御コマンド等を受信する回路として機能する。</t>
-  </si>
-  <si>
-    <t>I/Oコマンドには、ライトコマンド、リードコマンド等が含まれ得る。</t>
-  </si>
-  <si>
-    <t>不揮発性半導体メモリとしてのフラッシュメモリ24は、例えばNAND型のフラッシュメモリからなるが、NAND型のフラッシュメモリに限らず、他の不揮発性半導体メモリ、例えば、NOR型フラッシュメモリ、MRAM(magnetoresistive random access memory)、PRAM(phase change random access memory)、ReRAM(resistive random access memory)又はFeRAM(ferroelectric random access memory)等から構成されても良い。</t>
+    <t>ホスト10は、SSD20にアクセスし、SSD20にデータをライトするとともに、SSD20からデータをリードする。 ホスト10は、大量且つ多様なデータをSSD20に保存するサーバ(ストレージサーバとも称する)であっても良いし、パーソナルコンピュータであっても良い。</t>
+  </si>
+  <si>
+    <t>SSD20は、ホスト10のメインストレージとして使用され得る。 SSD20は、ホスト10に内蔵されても良いし、ホスト10にケーブルまたはネットワークを介して接続されても良い。</t>
+  </si>
+  <si>
+    <t>ホスト10とSSD20とを電気的に相互接続するためのホストI/F32としては、例えばSmal lComput er Syst em I nt erf ace(SCSI)(登録商標)、PCIExpress(登録商標)(PCIe(登録商標)とも称する)、Seri alAt t ached SCSI (SAS)(登録商標)、Seri alAdvanced Technol ogy At t achment (SATA)(登録商標)、Non Vol at i le Memory Express(NVMe(登録商標))、Uni versalSeri alBus(USB)(登録商標)等の規格が使用され得るが、これらに限定されない。</t>
+  </si>
+  <si>
+    <t>ホストI/F32は、ホスト10から様々なコマンド、例えばI/Oコマンド、各種制御コマンド等を受信する回路として機能する。 I/Oコマンドには、ライトコマンド、リードコマンド等が含まれ得る。</t>
+  </si>
+  <si>
+    <t>不揮発性半導体メモリとしてのフラッシュメモリ24は、例えばNAND型のフラッシュメモリからなるが、NAND型のフラッシュメモリに限らず、他の不揮発性半導体メモリ、例えば、NOR型フラッシュメモリ、MRAM(Magnet oresi st i ve Random Access Memory)、PRAM(Phasechange Random Access Memory)、ReRAM(Resi st i ve Random Access Memory)又はFeRAM(Ferroel ect ri c Random Access Memory)等から構成されても良い。</t>
   </si>
   <si>
     <t>フラッシュメモリ24は、複数のフラッシュメモリチップ(すなわち、複数のフラッシュメモリダイ)を含んでいても良い。</t>
@@ -190,46 +172,25 @@
     <t>1クラスタは1つの論理アドレス範囲に関連づけられたデータ、又は1つの論理アドレス範囲の一部分に関連づけられたデータを含む。</t>
   </si>
   <si>
-    <t>フラッシュメモリ24のリード、ライトはコントローラ22により制御される。</t>
-  </si>
-  <si>
-    <t>フラッシュメモリ24はNAND I/F36に接続される。</t>
-  </si>
-  <si>
-    <t>1ビット又は複数ビットのデータがメモリセルに格納可能である。</t>
-  </si>
-  <si>
-    <t>メモリセル当たりに複数ビットを格納可能に構成されたフラッシュメモリの例には、メモリセル当たりに2ビットのデータを格納可能なマルチレベルセル(multi-level cell( Ml c) 、あるいはfour-level cell( 4l cと称する) )フラッシュメモリ、メモリセル当たりに3ビットのデータを格納可能なトリプルレベルセル(triple-level cell( Tl cと称する) 、あるいはeight-level cell( 8l cと称する) )フラッシュメモリ、メモリセル当たりに4ビットのデータを格納可能なクワッドレベルセル(quad-level cell( Ql cと称する) 、あるいはsixteen-level cell( 16l cと称する) )フラッシュメモリ、等が含まれる。</t>
-  </si>
-  <si>
-    <t>メモリセル当たりに1ビットを格納するように構成されたフラッシュメモリは、シングルレベルセル(single-level cell( Sl c又は2l cと称する) )フラッシュメモリと称される。</t>
-  </si>
-  <si>
-    <t>RAM26は、揮発性メモリであるDRAM又はSRAM等からなり、コントローラ22の外部に設けるのではなく、コントローラ22に内蔵されていても良い。</t>
-  </si>
-  <si>
-    <t>RAM26には、フラッシュメモリ24にライトされるデータを一時的に格納するためのバッファ領域であるライトバッファ52と、フラッシュメモリ24からリードしたデータを一時的に格納するためのバッファ領域であるリードバッファ54と、アドレス変換テーブル(論理アドレス/物理アドレス変換テーブルとも称する)として機能するルックアップテーブル(LUTと称する)56と、論理ブロックと物理ブロックとの割り当て関係を示す論理ブロックテーブル58を備える。</t>
+    <t>フラッシュメモリ24のリード、ライトはコントローラ22により制御される。 フラッシュメモリ24はNANDI/F36に接続される。 1ビット又は複数ビットのデータがメモリセルに格納可能である。</t>
+  </si>
+  <si>
+    <t>メモリセル当たりに複数ビットを格納可能に構成されたフラッシュメモリの例には、メモリセル当たりに2ビットのデータを格納可能なマルチレベルセル(Mul t i - LevelCel l ( MLC) 、あるいはFour- LevelCel l ( 4LCと称する) )フラッシュメモリ、メモリセル当たりに3ビットのデータを格納可能なトリプルレベルセル(Tri pl e- LevelCel l ( TLCと称する) 、あるいはEi ght - LevelCel l ( 8LCと称する) )フラッシュメモリ、メモリセル当たりに4ビットのデータを格納可能なクワッドレベルセル(Quad- LevelCel l ( QLCと称する) 、あるいはSi xt een- LevelCel l ( 16LCと称する) )フラッシュメモリ、等が含まれる。</t>
+  </si>
+  <si>
+    <t>メモリセル当たりに1ビットを格納するように構成されたフラッシュメモリは、シングルレベルセル(Si ngl e- LevelCel l ( SLC又は2LCと称する) )フラッシュメモリと称される。</t>
+  </si>
+  <si>
+    <t>RAM26は、揮発性メモリであるDRAM又はSRAM等からなり、コントローラ22の外部に設けるのではなく、コントローラ22に内蔵されていても良い。 RAM26には、フラッシュメモリ24にライトされるデータを一時的に格納するためのバッファ領域であるライトバッファ52と、フラッシュメモリ24からリードしたデータを一時的に格納するためのバッファ領域であるリードバッファ54と、アドレス変換テーブル(論理アドレス/物理アドレス変換テーブルとも称する)として機能するルックアップテーブル(LUTと称する)56と、論理ブロックと物理ブロックとの割り当て関係を示す論理ブロックテーブル58を備える。</t>
   </si>
   <si>
     <t>LUT56は、論理クラスタアドレスと疑似物理クラスタアドレスの間のマッピングを管理する。</t>
   </si>
   <si>
-    <t>RAM26はRAM I/F38に接続される。</t>
-  </si>
-  <si>
-    <t>コントローラ22は、フラッシュメモリ24のデータ管理およびブロック管理を実行するように構成されたフラッシュトランスレーション層(FTL)として機能しても良い。</t>
-  </si>
-  <si>
-    <t>このFTLによって実行されるデータ管理には、(1)SSD20の論理アドレス(論理クラスタアドレス)とフラッシュメモリ24の物理アドレス(疑似物理クラスタアドレス)との間の対応関係を示すマッピング情報の管理、(2)クラスタ単位のリード/ライトとブロック単位の消去動作とを隠�するための処理、等が含まれる。</t>
-  </si>
-  <si>
-    <t>論理アドレスは、SSD20をアドレス指定するためにホスト10によって指定されるアドレスである。</t>
-  </si>
-  <si>
-    <t>論理アドレスと物理アドレスとの間のマッピングの管理は、LUT56を用いて実行される。</t>
-  </si>
-  <si>
-    <t>コントローラ22は、LUT56を使用して、論理アドレスと物理アドレスとの間のマッピングをクラスタサイズ単位で管理する。</t>
+    <t>コントローラ22は、フラッシュメモリ24のデータ管理およびブロック管理を実行するように構成されたフラッシュトランスレーション層(FTL)として機能しても良い。 このFTLによって実行されるデータ管理には、(1)SSD20の論理アドレス(論理クラスタアドレス)とフラッシュメモリ24の物理アドレス(疑似物理クラスタアドレス)との間の対応関係を示すマッピング情報の管理、(2)クラスタ単位のリード/ライトとブロック単位の消去動作とを隠�するための処理、等が含まれる。</t>
+  </si>
+  <si>
+    <t>論理アドレスと物理アドレスとの間のマッピングの管理は、LUT56を用いて実行される。 コントローラ22は、LUT56を使用して、論理アドレスと物理アドレスとの間のマッピングをクラスタサイズ単位で管理する。</t>
   </si>
   <si>
     <t>ある論理アドレスに対応する物理アドレスは、この論理アドレスで指定されるデータがライトされたフラッシュメモリ24内の物理記憶位置を示す。</t>
@@ -238,22 +199,13 @@
     <t>LUT56は、SSD20の電源オン時にフラッシュメモリ24からRAM26にロードされても良い。</t>
   </si>
   <si>
-    <t>CPU34は、リード制御部42、ライト制御部44、ガベージコレクション(g cと称する)制御部46等として機能することができる。</t>
-  </si>
-  <si>
-    <t>なお、リード制御部42、ライト制御部44、g c制御部46の一部または全部も、コントローラ22内の専用ハードウェアによって実現しても良い。</t>
-  </si>
-  <si>
-    <t>ライト制御部44は、ライトデータを誤り訂正符号化し、符号化データをフラッシュメモリ24にライトする。</t>
-  </si>
-  <si>
-    <t>リード制御部42は、フラッシュメモリ24からリードしたデータに誤り訂正復号し、リードデータの誤りを訂正する。</t>
-  </si>
-  <si>
-    <t>誤り訂正符号化及び誤り訂正復号はコントローラ22内の専用ハードウェアによって実現しても良い。</t>
-  </si>
-  <si>
-    <t>g c制御部46は適宜なタイミングでガベージコレクションを実行する。</t>
+    <t>CPU34は、リード制御部42、ライト制御部44、ガベージコレクション(GCと称する)制御部46等として機能することができる。</t>
+  </si>
+  <si>
+    <t>ライト制御部44は、ライトデータを誤り訂正符号化し、符号化データをフラッシュメモリ24にライトする。 リード制御部42は、フラッシュメモリ24からリードしたデータに誤り訂正復号し、リードデータの誤りを訂正する。</t>
+  </si>
+  <si>
+    <t>誤り訂正符号化及び誤り訂正復号はコントローラ22内の専用ハードウェアによって実現しても良い。 GC制御部46は適宜なタイミングでガベージコレクションを実行する。</t>
   </si>
   <si>
     <t>ライト制御部44は、ある論理アドレスに対応する更新データを、この論理アドレスに対応する物理アドレスで指定されるクラスタではなく、別のクラスタにライトする。</t>
@@ -268,22 +220,10 @@
     <t>ブロック管理には、バッドブロックの管理、ウェアレベリング、ガベージコレクション、等が含まれる。</t>
   </si>
   <si>
-    <t>CPU34は、ホストI/F32、NAND I/F36、RAM I/F38を制御するように構成されたプロセッサである。</t>
-  </si>
-  <si>
-    <t>CPU34は、図示しないROM等に格納されている制御プログラム(ファームウェア)を実行することによって様々な処理を行う。</t>
-  </si>
-  <si>
-    <t>このCPU34は、上述のFTL処理に加え、ホスト10からの様々なコマンドを処理するためのコマンド処理等を実行することができる。</t>
-  </si>
-  <si>
-    <t>CPU34の動作は、CPU34によって実行される上述のファームウェアによって制御される。</t>
-  </si>
-  <si>
-    <t>なお、FTL処理およびコマンド処理の一部または全部は、コントローラ22内の専用ハードウェアによって実行しても良い。</t>
-  </si>
-  <si>
-    <t>図2は、物理ブロック、論理ブロック及び疑似物理クラスタの関係を説明する図である。</t>
+    <t>CPU34は、ホストI/F32、NANDI/F36、RAMI/F38を制御するように構成されたプロセッサである。 CPU34は、図示しないROM等に格納されている制御プログラム(ファームウェア)を実行することによって様々な処理を行う。</t>
+  </si>
+  <si>
+    <t>このCPU34は、上述のFTL処理に加え、ホスト10からの様々なコマンドを処理するためのコマンド処理等を実行することができる。 CPU34の動作は、CPU34によって実行される上述のファームウェアによって制御される。</t>
   </si>
   <si>
     <t>上述したように、NANDチップは複数の物理ブロックを含み、複数の物理ブロックが1つの論理ブロックに割り当てられる。</t>
@@ -310,19 +250,13 @@
     <t>ホスト10は疑似物理アドレスにアクセスする際、論理クラスタアドレスを指定する。</t>
   </si>
   <si>
-    <t>論理アドレスに対応する物理アドレス、即ち論理クラスタアドレスと疑似物理クラスタアドレスとのマッピングを示す情報がLUT56に格納される。</t>
-  </si>
-  <si>
-    <t>図3は、LUT56の一例を示す。</t>
-  </si>
-  <si>
-    <t>LUT56は疑似物理クラスタアドレスを記憶し、疑似物理クラスタアドレスのインデックスが論理クラスタアドレスに対応する。</t>
+    <t>論理アドレスに対応する物理アドレス、即ち論理クラスタアドレスと疑似物理クラスタアドレスとのマッピングを示す情報がLUT56に格納される。 図3は、LUT56の一例を示す。</t>
   </si>
   <si>
     <t>論理クラスタアドレスはインデックス× クラスタサイズ(4KiB)で表される。</t>
   </si>
   <si>
-    <t>なお、4KiBは論理クラスタサイズであり、物理クラスタサイズは4KiB+12bytesである。</t>
+    <t>なお、4KiBは論理クラスタサイズであり、物理クラスタサイズは4KiB+12Byt esである。</t>
   </si>
   <si>
     <t>ホスト10から与えられた論理クラスタアドレスをクラスタサイズで除することにより、インデックスが求められると、論理クラスタアドレスに対応する疑似物理クラスタアドレスが求められる。</t>
@@ -349,19 +283,13 @@
     <t>すなわち、LUT56のある疑似物理クラスタアドレスで指定される疑似物理クラスタが格納する情報内の論理クラスタアドレスに対応する疑似物理クラスタアドレスが上記ある疑似物理クラスタと一致する場合、当該疑似物理クラスタは有効クラスタであり、一致しない場合、当該疑似物理クラスタは無効クラスタである。</t>
   </si>
   <si>
-    <t>例えば、ホスト10からある論理クラスタアドレスl c1にデータda1をライトするコマンドが送信されると、ライト制御部44はいずれかの疑似物理クラスタ(このクラスタの疑似物理クラスタアドレスをPC1とする)にデータda1をライトする。</t>
-  </si>
-  <si>
-    <t>ライト制御部44は論理クラスタアドレスl c1と疑似物理クラスタアドレスPC1とのマッピングをLUT56に設定する。</t>
-  </si>
-  <si>
-    <t>この後、ホスト10から論理クラスタアドレスl c1に対してデータda2を上書きするライトコマンドが送信されると、ライト制御部44は先の疑似物理クラスタとは別のいずれかの疑似物理クラスタ(このクラスタの疑似物理クラスタアドレスPC2とする)にデータda2をライトする。</t>
-  </si>
-  <si>
-    <t>ライト制御部44は論理クラスタアドレスl c1と疑似物理クラスタアドレスPC2とのマッピングをLUT56に設定する。</t>
-  </si>
-  <si>
-    <t>これにより、疑似物理クラスタアドレスPC1はLUT56から指定されなくなり、データda1がライトされた疑似物理クラスタ(疑似物理クラスタアドレスはPC1)が無効クラスタとなり、データda1が無効データとなる。</t>
+    <t>例えば、ホスト10からある論理クラスタアドレスLC1にデータDA1をライトするコマンドが送信されると、ライト制御部44はいずれかの疑似物理クラスタ(このクラスタの疑似物理クラスタアドレスをPC1とする)にデータDA1をライトする。</t>
+  </si>
+  <si>
+    <t>ライト制御部44は論理クラスタアドレスLC1と疑似物理クラスタアドレスPC1とのマッピングをLUT56に設定する。 この後、ホスト10から論理クラスタアドレスLC1に対してデータDA2を上書きするライトコマンドが送信されると、ライト制御部44は先の疑似物理クラスタとは別のいずれかの疑似物理クラスタ(このクラスタの疑似物理クラスタアドレスPC2とする)にデータDA2をライトする。</t>
+  </si>
+  <si>
+    <t>ライト制御部44は論理クラスタアドレスLC1と疑似物理クラスタアドレスPC2とのマッピングをLUT56に設定する。 これにより、疑似物理クラスタアドレスPC1はLUT56から指定されなくなり、データDA1がライトされた疑似物理クラスタ(疑似物理クラスタアドレスはPC1)が無効クラスタとなり、データDA1が無効データとなる。</t>
   </si>
   <si>
     <t>このようにデータの上書きにより無効クラスタが生じ、有効クラスタと無効クラスタとが混在する物理ブロックが増えると、記憶領域を有効に活用するために、このような物理ブロックを含む論理ブロックに対してガベージコレクション処理が行われる。</t>
@@ -370,25 +298,16 @@
     <t>図4は、ガベージコレクション処理の一例を示すフローチャートである。</t>
   </si>
   <si>
-    <t>コントローラ22(リード制御部42、ライト制御部44、g c制御部46を含む)は、ブロック102で、ガベージコレクションの開始タイミングになったか否かを判定する。</t>
-  </si>
-  <si>
-    <t>コントローラ22は、ホスト10からガベージコレクション命令を受信したか否かに基づいてガベージコレクションの開始タイミングになったか否かを判定することができる。</t>
-  </si>
-  <si>
-    <t>また、コントローラ22はブロックの状態を管理しているので、コントローラ22は、有効クラスタと無効クラスタが混在する物理ブロックが増えたことを検出することによっても、ガベージコレクションの開始タイミングになったか否かを判定できる。</t>
+    <t>コントローラ22(リード制御部42、ライト制御部44、GC制御部46を含む)は、ブロック102で、ガベージコレクションの開始タイミングになったか否かを判定する。</t>
+  </si>
+  <si>
+    <t>コントローラ22は、ホスト10からガベージコレクション命令を受信したか否かに基づいてガベージコレクションの開始タイミングになったか否かを判定することができる。 また、コントローラ22はブロックの状態を管理しているので、コントローラ22は、有効クラスタと無効クラスタが混在する物理ブロックが増えたことを検出することによっても、ガベージコレクションの開始タイミングになったか否かを判定できる。</t>
   </si>
   <si>
     <t>コントローラ22は、ガベージコレクションの開始タイミングになったことを判定するまで、ブロック102の判定を繰り返す。</t>
   </si>
   <si>
-    <t>コントローラ22は、ブロック102でガベージコレクションの開始タイミングになったことを判定すると、ブロック104で、有効クラスタと無効クラスタが混在する物理ブロックを含むガベージコレクションの対象候補の論理ブロックの中の1つ(g c元論理ブロックと称する)の1疑似物理クラスタからデータをリードする。</t>
-  </si>
-  <si>
-    <t>リードデータはリードバッファ54に格納される。</t>
-  </si>
-  <si>
-    <t>コントローラ22は、ブロック106で、ブロック104でリードしたデータは訂正不能なリードエラーを含むか否かを判定する。</t>
+    <t>コントローラ22は、ブロック102でガベージコレクションの開始タイミングになったことを判定すると、ブロック104で、有効クラスタと無効クラスタが混在する物理ブロックを含むガベージコレクションの対象候補の論理ブロックの中の1つ(GC元論理ブロックと称する)の1疑似物理クラスタからデータをリードする。 リードデータはリードバッファ54に格納される。</t>
   </si>
   <si>
     <t>リードしたデータがリードエラーを含む場合、コントローラ22は、リードエラーを訂正する。</t>
@@ -397,73 +316,52 @@
     <t>しかし、エラーの種類や程度によっては、コントローラ22が訂正できないエラーもある。</t>
   </si>
   <si>
-    <t>リードエラーを生じ、しかもそのエラーが訂正不能なデータを格納するクラスタは、有効クラスタであるか無効クラスタであるかの判定ができないので、当該疑似物理クラスタのデータはg c先論理ブロックに移動できない。</t>
-  </si>
-  <si>
-    <t>コントローラ22は、リードしたデータは訂正不能なリードエラーを含むとブロック106で判定した場合、ブロック108で、当該疑似物理クラスタを論理不明クラスタとして管理する。</t>
-  </si>
-  <si>
-    <t>コントローラ22は、リードしたデータは訂正不能なリードエラーを含まないとブロック106で判定した場合、ブロック110で、疑似物理クラスタは有効クラスタであるか否か判定する。</t>
-  </si>
-  <si>
-    <t>この判定は、上述したように、疑似物理クラスタの冗長部の論理クラスタアドレスがLUT56の何処を指しているかに基づいて行われる。</t>
-  </si>
-  <si>
-    <t>コントローラ22は、ブロック110で疑似物理クラスタは有効クラスタであると判定すると、ブロック112で、リードバッファ54に格納されている有効クラスタからリードしたデータをg c先論理ブロックの疑似物理クラスタにライトする。</t>
-  </si>
-  <si>
-    <t>g c先論理ブロックは全データが消去されている論理ブロック(フリーブロックとも称する)の中から選ばれる。</t>
-  </si>
-  <si>
-    <t>ブロック112でデータのg c先論理ブロックへのライトが完了すると、LUT56内のg c元論理ブロック内の疑似物理クラスタアドレスがg c先論理ブロック内の疑似物理クラスタアドレスに変更され、LUT56が更新される。</t>
-  </si>
-  <si>
-    <t>コントローラ22は、ブロック108又はブロック112の処理を実行後、又はブロック110で疑似物理クラスタは無効クラスタであると判定すると、ブロック114で、g c元論理ブロックの中の全ての疑似物理クラスタからデータをリードしたか否かを判定する。</t>
-  </si>
-  <si>
-    <t>コントローラ22は、ブロック114でg c元論理ブロックの中の全ての疑似物理クラスタからデータをリードしていないと判定すると、ブロック104を再度実行する。</t>
-  </si>
-  <si>
-    <t>すなわち、コントローラ22は、g c元論理ブロックの中の他の疑似物理クラスタからデータをリードし、同様の処理を繰り返す。</t>
-  </si>
-  <si>
-    <t>コントローラ22は、ブロック114でg c元論理ブロックの中の全ての疑似物理クラスタからデータをリードしたと判定すると、ブロック116で、g c元論理ブロックは論理不明クラスタを含むか否かを判定する。</t>
-  </si>
-  <si>
-    <t>g c元論理ブロックが論理不明クラスタを含まない場合、g c元論理ブロック内の有効クラスタの全てのデータはg c先論理ブロックに移動されていて、g c元論理ブロックは消去可能であると判断できる。</t>
-  </si>
-  <si>
-    <t>g c元論理ブロックが論理不明クラスタを含む場合、有効クラスタの全てのデータがg c先論理ブロックに移動されているか不明であり、g c元論理ブロックは消去不可能であると判断できる。</t>
-  </si>
-  <si>
-    <t>そのため、コントローラ22は、ブロック116でg c元論理ブロックは論理不明クラスタを含まないと判定すると、ブロック118で、g c元論理ブロックの全ての物理ブロックのデータを消去する。</t>
-  </si>
-  <si>
-    <t>コントローラ22は、ブロック122で、ブロック118で全データが消去されたg c元論理ブロックをg c先論理ブロックの候補とし、処理を終了する。</t>
-  </si>
-  <si>
-    <t>コントローラ22は、ブロック116でg c元論理ブロックは論理不明クラスタを含むと判定すると、ブロック124で、新論理ブロックを作成し、g c元論理ブロックに割り当てられていた全ての物理ブロックのデータを消去し、データ消去後の物理ブロックを新論理ブロックに割り当てる。</t>
-  </si>
-  <si>
-    <t>コントローラ22は、ブロック126で、g c元論理ブロックを物理ブロックが割り当てられない論理不明ブロックとする。</t>
-  </si>
-  <si>
-    <t>例えば、コントローラ22は、g c元論理ブロックに割り当てられていた全ての物理ブロックを、存在し得ない物理ブロックとする。</t>
-  </si>
-  <si>
-    <t>論理ブロックテーブル58が論理ブロックに割り当てられる物理ブロックの物理アドレスを示す場合、物理アドレスとして使われないアドレスが論理ブロックテーブル58内のg c元論理ブロックに割り当てられる物理ブロック欄にライトされる。</t>
-  </si>
-  <si>
-    <t>これにより、ホスト10が論理不明クラスタ内のデータをリードしようとした場合、論理不明クラスタアドレスに対応する疑似物理クラスタアドレスが存在しないので、データはリードできず、リードエラーがホスト10に返される。</t>
-  </si>
-  <si>
-    <t>コントローラ22は、ブロック128で、新論理ブロックをg c先論理ブロックの候補とし、処理を終了する。</t>
-  </si>
-  <si>
-    <t>なお、ブロック126とブロック128の実行順番は図4の逆でも良い。</t>
-  </si>
-  <si>
-    <t>なお、図4は、ブロック128の後、処理が終了する例を示したが、ブロック102の判定処理を定期的に実行し、ガベージコレクションの開始タイミングになると、図4の処理が割り込みとして実行されても良い。</t>
+    <t>リードエラーを生じ、しかもそのエラーが訂正不能なデータを格納するクラスタは、有効クラスタであるか無効クラスタであるかの判定ができないので、当該疑似物理クラスタのデータはGC先論理ブロックに移動できない。</t>
+  </si>
+  <si>
+    <t>コントローラ22は、リードしたデータは訂正不能なリードエラーを含むとブロック106で判定した場合、ブロック108で、当該疑似物理クラスタを論理不明クラスタとして管理する。 コントローラ22は、リードしたデータは訂正不能なリードエラーを含まないとブロック106で判定した場合、ブロック110で、疑似物理クラスタは有効クラスタであるか否か判定する。</t>
+  </si>
+  <si>
+    <t>コントローラ22は、ブロック110で疑似物理クラスタは有効クラスタであると判定すると、ブロック112で、リードバッファ54に格納されている有効クラスタからリードしたデータをGC先論理ブロックの疑似物理クラスタにライトする。 GC先論理ブロックは全データが消去されている論理ブロック(フリーブロックとも称する)の中から選ばれる。</t>
+  </si>
+  <si>
+    <t>ブロック112でデータのGC先論理ブロックへのライトが完了すると、LUT56内のGC元論理ブロック内の疑似物理クラスタアドレスがGC先論理ブロック内の疑似物理クラスタアドレスに変更され、LUT56が更新される。</t>
+  </si>
+  <si>
+    <t>コントローラ22は、ブロック108又はブロック112の処理を実行後、又はブロック110で疑似物理クラスタは無効クラスタであると判定すると、ブロック114で、GC元論理ブロックの中の全ての疑似物理クラスタからデータをリードしたか否かを判定する。</t>
+  </si>
+  <si>
+    <t>コントローラ22は、ブロック114でGC元論理ブロックの中の全ての疑似物理クラスタからデータをリードしていないと判定すると、ブロック104を再度実行する。</t>
+  </si>
+  <si>
+    <t>すなわち、コントローラ22は、GC元論理ブロックの中の他の疑似物理クラスタからデータをリードし、同様の処理を繰り返す。</t>
+  </si>
+  <si>
+    <t>コントローラ22は、ブロック114でGC元論理ブロックの中の全ての疑似物理クラスタからデータをリードしたと判定すると、ブロック116で、GC元論理ブロックは論理不明クラスタを含むか否かを判定する。</t>
+  </si>
+  <si>
+    <t>GC元論理ブロックが論理不明クラスタを含まない場合、GC元論理ブロック内の有効クラスタの全てのデータはGC先論理ブロックに移動されていて、GC元論理ブロックは消去可能であると判断できる。</t>
+  </si>
+  <si>
+    <t>GC元論理ブロックが論理不明クラスタを含む場合、有効クラスタの全てのデータがGC先論理ブロックに移動されているか不明であり、GC元論理ブロックは消去不可能であると判断できる。</t>
+  </si>
+  <si>
+    <t>そのため、コントローラ22は、ブロック116でGC元論理ブロックは論理不明クラスタを含まないと判定すると、ブロック118で、GC元論理ブロックの全ての物理ブロックのデータを消去する。 コントローラ22は、ブロック122で、ブロック118で全データが消去されたGC元論理ブロックをGC先論理ブロックの候補とし、処理を終了する。</t>
+  </si>
+  <si>
+    <t>コントローラ22は、ブロック116でGC元論理ブロックは論理不明クラスタを含むと判定すると、ブロック124で、新論理ブロックを作成し、GC元論理ブロックに割り当てられていた全ての物理ブロックのデータを消去し、データ消去後の物理ブロックを新論理ブロックに割り当てる。</t>
+  </si>
+  <si>
+    <t>コントローラ22は、ブロック126で、GC元論理ブロックを物理ブロックが割り当てられない論理不明ブロックとする。</t>
+  </si>
+  <si>
+    <t>例えば、コントローラ22は、GC元論理ブロックに割り当てられていた全ての物理ブロックを、存在し得ない物理ブロックとする。</t>
+  </si>
+  <si>
+    <t>論理ブロックテーブル58が論理ブロックに割り当てられる物理ブロックの物理アドレスを示す場合、物理アドレスとして使われないアドレスが論理ブロックテーブル58内のGC元論理ブロックに割り当てられる物理ブロック欄にライトされる。 これにより、ホスト10が論理不明クラスタ内のデータをリードしようとした場合、論理不明クラスタアドレスに対応する疑似物理クラスタアドレスが存在しないので、データはリードできず、リードエラーがホスト10に返される。</t>
+  </si>
+  <si>
+    <t>なお、ブロック126とブロック128の実行順番は図4の逆でも良い。 なお、図4は、ブロック128の後、処理が終了する例を示したが、ブロック102の判定処理を定期的に実行し、ガベージコレクションの開始タイミングになると、図4の処理が割り込みとして実行されても良い。</t>
   </si>
   <si>
     <t>図5を参照して、新論理ブロックの作成を説明する。</t>
@@ -481,88 +379,70 @@
     <t>図5(c)は、ブロック126の処理が完了した時の論理ブロックテーブル58を示す。</t>
   </si>
   <si>
-    <t>(m+1)個の論理ブロック(論理ブロックアドレスl b0~l bmの論理ブロック)が作成されているとする。</t>
-  </si>
-  <si>
-    <t>論理ブロックアドレスl b0で示される論理ブロックには物理ブロックアドレスPB0、PB1、… 等で指定される物理ブロックが割り当てられ、論理ブロックアドレスl bmで示される論理ブロックには物理ブロックアドレスPBi、PBi+1、… 等で指定される物理ブロックが割り当てられている。</t>
+    <t>(m+1)個の論理ブロック(論理ブロックアドレスLB0~LBmの論理ブロック)が作成されているとする。</t>
+  </si>
+  <si>
+    <t>論理ブロックアドレスLB0で示される論理ブロックには物理ブロックアドレスPB0、PB1、… 等で指定される物理ブロックが割り当てられ、論理ブロックアドレスLBmで示される論理ブロックには物理ブロックアドレスPBi、PBi+1、… 等で指定される物理ブロックが割り当てられている。</t>
   </si>
   <si>
     <t>図5では、論理ブロックには連続する物理ブロックアドレスの物理ブロックが割り当てられているが、これはあくまでも一例であり、任意の離散的な物理ブロックアドレスの物理ブロックが論理ブロックに割り当てられていても良い。</t>
   </si>
   <si>
-    <t>論理ブロックアドレスLBmの論理ブロックが論理不明クラスタを含むg c元論理ブロック(論理不明ブロック)であるとする。</t>
+    <t>論理ブロックアドレスLBmの論理ブロックが論理不明クラスタを含むGC元論理ブロック(論理不明ブロック)であるとする。</t>
   </si>
   <si>
     <t>ブロック124で作成された新論理ブロックの論理ブロックアドレスは、図5(b)に示すように、LBm+1であるとする。</t>
   </si>
   <si>
-    <t>コントローラ22は、ブロック126で、図5(c)に示すように、論理ブロックテーブル58内の論理ブロックアドレスLBmで指定されるg c元論理ブロックに対応する全ての物理ブロックの物理ブロックアドレスを、アドレスとして存在しえない値Nullとする。</t>
-  </si>
-  <si>
-    <t>これにより、g c元論理ブロックは不明物理ブロックとされる。</t>
+    <t>コントローラ22は、ブロック126で、図5(c)に示すように、論理ブロックテーブル58内の論理ブロックアドレスLBmで指定されるGC元論理ブロックに対応する全ての物理ブロックの物理ブロックアドレスを、アドレスとして存在しえない値Nullとする。 これにより、GC元論理ブロックは不明物理ブロックとされる。</t>
   </si>
   <si>
     <t>Nullの例は、16ビットアドレスの場合、" FF" 等がある。</t>
   </si>
   <si>
-    <t>これにより、ホスト10が論理不明クラスタ内のデータをリードしようとした場合、論理不明クラスタに対応する疑似物理クラスタのデータはリードできず、リードエラーがホスト10に返される。</t>
-  </si>
-  <si>
-    <t>ブロック124のタイミングでは、論理ブロックアドレスLBmのg c元論理ブロック内の有効クラスタのデータは全てg c先論理ブロックに移動されており、g c元論理ブロックに残っているデータは論理不明クラスタのデータのみであり、g c元論理ブロック内のデータはホスト10により今後リードされることがないデータ、あるいはホスト10に返送されないデータである。</t>
-  </si>
-  <si>
-    <t>すなわち、g c元論理ブロックに割り当てられていた物理ブロックは今後使われないので消去可能な物理ブロックである。</t>
-  </si>
-  <si>
-    <t>このため、ブロック124で、論理ブロックアドレスLBmで指定されるCG元論理ブロックに割り当てられていた物理ブロックアドレスPBi、PBi+1、… 等で指定される物理ブロックのデータが消去され、データ消去後の物理ブロックが新論理ブロックに割り当てられ、消去済みの新論理ブロックがg c先論理ブロックとして使用され得る。</t>
-  </si>
-  <si>
-    <t>これにより、論理不明クラスタが存在しても、ガベージコレクション処理に必要な消去済みのg c先論理ブロックを確保でき、ガベージコレクション処理が実行不能となる状態を回避できる。</t>
+    <t>これにより、ホスト10が論理不明クラスタ内のデータをリードしようとした場合、論理不明クラスタに対応する疑似物理クラスタのデータはリードできず、リードエラーがホスト10に返される。 ブロック124のタイミングでは、論理ブロックアドレスLBmのGC元論理ブロック内の有効クラスタのデータは全てGC先論理ブロックに移動されており、GC元論理ブロックに残っているデータは論理不明クラスタのデータのみであり、GC元論理ブロック内のデータはホスト10により今後リードされることがないデータ、あるいはホスト10に返送されないデータである。</t>
+  </si>
+  <si>
+    <t>このため、ブロック124で、論理ブロックアドレスLBmで指定されるCG元論理ブロックに割り当てられていた物理ブロックアドレスPBi、PBi+1、… 等で指定される物理ブロックのデータが消去され、データ消去後の物理ブロックが新論理ブロックに割り当てられ、消去済みの新論理ブロックがGC先論理ブロックとして使用され得る。</t>
+  </si>
+  <si>
+    <t>これにより、論理不明クラスタが存在しても、ガベージコレクション処理に必要な消去済みのGC先論理ブロックを確保でき、ガベージコレクション処理が実行不能となる状態を回避できる。</t>
   </si>
   <si>
     <t>以下、具体的な状況毎のガベージコレクションの動作例を説明する。</t>
   </si>
   <si>
-    <t>図6、図7は、g c先論理ブロックが順次生成され、ガベージコレクションが実行され続ける場合の例を示す。</t>
-  </si>
-  <si>
-    <t>論理ブロックbl0、bl1、bl2、bl4、… がプログラム済みであり、論理ブロックbl3が消去済みである。</t>
+    <t>図6、図7は、GC先論理ブロックが順次生成され、ガベージコレクションが実行され続ける場合の例を示す。</t>
+  </si>
+  <si>
+    <t>論理ブロックBL0、BL1、BL2、BL4、… がプログラム済みであり、論理ブロックBL3が消去済みである。</t>
   </si>
   <si>
     <t>プログラム済みとは、新たなデータをライトする余地がない程度までデータがライトされている状態である。</t>
   </si>
   <si>
-    <t>消去済み論理ブロックbl3はg c先論理ブロックとなり得る。</t>
-  </si>
-  <si>
-    <t>プログラム済みの論理ブロックbl0、bl1、bl2、bl4、… では有効クラスタと無効クラスタが混在し、これらの論理ブロックbl0、bl1、bl2、bl4、… はg c元論理ブロックの候補であるとする。</t>
-  </si>
-  <si>
-    <t>先ず、図6(a)に示すように、g c元論理ブロックの候補の中の1つ、例えば論理ブロックbl0がg c元論理ブロックとされ、g c元論理ブロックbl0から疑似物理クラスタ単位でデータがリードされ、疑似物理クラスタが有効クラスタである場合、リードデータがg c先論理ブロックbl3に移動される。</t>
-  </si>
-  <si>
-    <t>g c先論理ブロックbl3の状態は消去済みからプログラム中に変化する。</t>
-  </si>
-  <si>
-    <t>g c元論理ブロックbl0の全ての有効クラスタからリードしたデータがg c先論理ブロックbl3に移動されると、図6(b)に示すように、g c元論理ブロックbl0の全てのデータが消去される。</t>
-  </si>
-  <si>
-    <t>消去済み論理ブロックbl0はg c先論理ブロックとなり得る。</t>
-  </si>
-  <si>
-    <t>次に、図6(c)に示すように、g c元論理ブロックの候補の中の別の1つ、例えば論理ブロックbl1がg c元論理ブロックとされ、g c元論理ブロックbl1から疑似物理クラスタ単位でデータがリードされ、疑似物理クラスタが有効クラスタである場合、リードデータがg c先論理ブロックbl3に移動される。</t>
-  </si>
-  <si>
-    <t>g c先論理ブロックbl3に移動(ライト)されるデータの量が増えると、図7(a)に示すように、g c先論理ブロックbl3の状態がプログラム済みになり、これ以上g c元論理ブロックbl1からg c先論理ブロックbl3にデータを移動することができなくなる。</t>
-  </si>
-  <si>
-    <t>しかし、g c先論理ブロックとなり得る消去済み論理ブロックbl0が存在しているので、この後は、図7(b)に示すように、g c元論理ブロックbl1の有効クラスタからリードしたデータがg c先論理ブロックbl0に移動され、ガベージコレクションが続行される。</t>
-  </si>
-  <si>
-    <t>g c元論理ブロックbl1の全ての有効クラスタからデータがリードされ、g c先論理ブロックbl0にデータが移動されると、図7(c)に示すように、g c元論理ブロックbl1の全てのデータが消去される。</t>
-  </si>
-  <si>
-    <t>消去済み論理ブロックbl1はg c先論理ブロックとなり得る。</t>
+    <t>消去済み論理ブロックBL3はGC先論理ブロックとなり得る。</t>
+  </si>
+  <si>
+    <t>プログラム済みの論理ブロックBL0、BL1、BL2、BL4、… では有効クラスタと無効クラスタが混在し、これらの論理ブロックBL0、BL1、BL2、BL4、… はGC元論理ブロックの候補であるとする。</t>
+  </si>
+  <si>
+    <t>先ず、図6(a)に示すように、GC元論理ブロックの候補の中の1つ、例えば論理ブロックBL0がGC元論理ブロックとされ、GC元論理ブロックBL0から疑似物理クラスタ単位でデータがリードされ、疑似物理クラスタが有効クラスタである場合、リードデータがGC先論理ブロックBL3に移動される。 GC先論理ブロックBL3の状態は消去済みからプログラム中に変化する。</t>
+  </si>
+  <si>
+    <t>GC元論理ブロックBL0の全ての有効クラスタからリードしたデータがGC先論理ブロックBL3に移動されると、図6(b)に示すように、GC元論理ブロックBL0の全てのデータが消去される。</t>
+  </si>
+  <si>
+    <t>消去済み論理ブロックBL0はGC先論理ブロックとなり得る。</t>
+  </si>
+  <si>
+    <t>GC先論理ブロックBL3に移動(ライト)されるデータの量が増えると、図7(a)に示すように、GC先論理ブロックBL3の状態がプログラム済みになり、これ以上GC元論理ブロックBL1からGC先論理ブロックBL3にデータを移動することができなくなる。 しかし、GC先論理ブロックとなり得る消去済み論理ブロックBL0が存在しているので、この後は、図7(b)に示すように、GC元論理ブロックBL1の有効クラスタからリードしたデータがGC先論理ブロックBL0に移動され、ガベージコレクションが続行される。</t>
+  </si>
+  <si>
+    <t>GC元論理ブロックBL1の全ての有効クラスタからデータがリードされ、GC先論理ブロックBL0にデータが移動されると、図7(c)に示すように、GC元論理ブロックBL1の全てのデータが消去される。</t>
+  </si>
+  <si>
+    <t>消去済み論理ブロックBL1はGC先論理ブロックとなり得る。</t>
   </si>
   <si>
     <t>このように、消去済み論理ブロックが新規に生成される限り、ガベージコレクションが継続される。</t>
@@ -571,37 +451,31 @@
     <t>次に、図8、図9を参照して、ガベージコレクションの実行が継続できなくなる場合の例を示す。</t>
   </si>
   <si>
-    <t>図6(a)の場合と同様に、図8(a)に示すように、g c元論理ブロックbl0の有効クラスタからリードしたデータがg c先論理ブロックbl3に移動され、ガベージコレクションが実行される。</t>
-  </si>
-  <si>
-    <t>図8(b)に示すように、ガベージコレクションの途中でg c元論理ブロックbl0の疑似物理クラスタからリードしたデータがリードエラーを含み、かつリードエラーが訂正不能である場合、当該クラスタが有効クラスタか無効クラスタかを判定できず、当該クラスタからリードしたデータをg c先論理ブロックbl3に移動することができない。</t>
-  </si>
-  <si>
-    <t>g c元論理ブロックbl0の全ての有効クラスタからリードしたデータがg c先論理ブロックbl3に移動されると、図8(c)に示すように、論理ブロックbl1がg c元論理ブロックとされ、g c元論理ブロックbl1の有効クラスタからリードしたデータがg c先論理ブロックbl3に移動される。</t>
-  </si>
-  <si>
-    <t>g c先論理ブロックbl3にライトされるデータの量が増えると、図9(a)に示すように、g c先論理ブロックbl3の状態がプログラム済みになり、これ以上g c元論理ブロックbl1からg c先論理ブロックbl3にデータを移動することができなくなる。</t>
-  </si>
-  <si>
-    <t>図6、図7に示した例では、この段階(図7(a))で消去済み論理ブロックbl0が存在していたので、g c元論理ブロックbl1についてのガベージコレクションが続行可能であった。</t>
-  </si>
-  <si>
-    <t>しかし、図9(a)に示すように、g c先論理ブロックbl3の状態がプログラム済みになった時、消去済み論理ブロックが1つも存在していないので、図9(b)に示すように、g c元論理ブロックbl1の有効クラスタからリードしたデータの移動先のg c先論理ブロックが無く、これ以上ガベージコレクションを続行することが不可能である。</t>
-  </si>
-  <si>
-    <t>なお、図8(b)に示す訂正不能なリードエラーが発生してから、図9(a)に示すg c先論理ブロックbl3の状態がプログラム済みになり、かつ消去済み論理ブロックが1つも存在していない状態となるまでの期間に、LUT56の全ての論理アドレスと物理アドレスとの対応関係を調べれば、訂正不能なリードエラーが生じたデータを格納する疑似物理クラスタが有効クラスタであるか無効クラスタであるかを判定できる。</t>
+    <t>図6(a)の場合と同様に、図8(a)に示すように、GC元論理ブロックBL0の有効クラスタからリードしたデータがGC先論理ブロックBL3に移動され、ガベージコレクションが実行される。</t>
+  </si>
+  <si>
+    <t>図8(b)に示すように、ガベージコレクションの途中でGC元論理ブロックBL0の疑似物理クラスタからリードしたデータがリードエラーを含み、かつリードエラーが訂正不能である場合、当該クラスタが有効クラスタか無効クラスタかを判定できず、当該クラスタからリードしたデータをGC先論理ブロックBL3に移動することができない。 GC元論理ブロックBL0の全ての有効クラスタからリードしたデータがGC先論理ブロックBL3に移動されると、図8(c)に示すように、論理ブロックBL1がGC元論理ブロックとされ、GC元論理ブロックBL1の有効クラスタからリードしたデータがGC先論理ブロックBL3に移動される。</t>
+  </si>
+  <si>
+    <t>GC先論理ブロックBL3にライトされるデータの量が増えると、図9(a)に示すように、GC先論理ブロックBL3の状態がプログラム済みになり、これ以上GC元論理ブロックBL1からGC先論理ブロックBL3にデータを移動することができなくなる。 図6、図7に示した例では、この段階(図7(a))で消去済み論理ブロックBL0が存在していたので、GC元論理ブロックBL1についてのガベージコレクションが続行可能であった。</t>
+  </si>
+  <si>
+    <t>しかし、図9(a)に示すように、GC先論理ブロックBL3の状態がプログラム済みになった時、消去済み論理ブロックが1つも存在していないので、図9(b)に示すように、GC元論理ブロックBL1の有効クラスタからリードしたデータの移動先のGC先論理ブロックが無く、これ以上ガベージコレクションを続行することが不可能である。</t>
+  </si>
+  <si>
+    <t>なお、図8(b)に示す訂正不能なリードエラーが発生してから、図9(a)に示すGC先論理ブロックBL3の状態がプログラム済みになり、かつ消去済み論理ブロックが1つも存在していない状態となるまでの期間に、LUT56の全ての論理アドレスと物理アドレスとの対応関係を調べれば、訂正不能なリードエラーが生じたデータを格納する疑似物理クラスタが有効クラスタであるか無効クラスタであるかを判定できる。</t>
   </si>
   <si>
     <t>しかし、LUT56のサイズが大きいと、この期間内にLUT56の全ての論理アドレスと物理アドレスとの対応関係を調べることは不可能である。</t>
   </si>
   <si>
-    <t>このような状況を避けるため、g c先論理ブロックとなり得る多数の消去済み論理ブロックを予め準備しておくことが考えられる。</t>
+    <t>このような状況を避けるため、GC先論理ブロックとなり得る多数の消去済み論理ブロックを予め準備しておくことが考えられる。</t>
   </si>
   <si>
     <t>図10、図11は、消去済み論理ブロックを予め準備しておく場合のガベージコレクションの例を示す。</t>
   </si>
   <si>
-    <t>論理ブロックbl0、bl1、bl2、bl4、… がプログラム済みであり、論理ブロックbl3、ebl0、ebl1、… が消去済みである。</t>
+    <t>論理ブロックBL0、BL1、BL2、BL4、… がプログラム済みであり、論理ブロックBL3、eBL0、eBL1、… が消去済みである。</t>
   </si>
   <si>
     <t>消去済み論理ブロックeBL0、eBL1、… はCG先論理ブロックとしてのみ使用され、ユーザデータの記憶には使用されない。</t>
@@ -610,31 +484,19 @@
     <t>消去済み論理ブロックeBL0、eBL1、… は一度もユーザデータが記憶されていない論理ブロックでも良いし、ユーザデータが記憶されていたが、ガベージコレクションにより全てのデータが消去され、今後はユーザデータの記憶には使用されない論理ブロックでも良い。</t>
   </si>
   <si>
-    <t>図10(a)に示すように、g c元論理ブロックbl0の有効クラスタからリードしたデータがg c先論理ブロックbl3に移動される。</t>
-  </si>
-  <si>
-    <t>図10(b)に示すように、ガベージコレクションの途中でg c元論理ブロックbl0の疑似物理クラスタからリードしたデータが訂正不能である場合、リードデータをg c先論理ブロックbl3に移動することができない。</t>
-  </si>
-  <si>
-    <t>g c元論理ブロックbl0の全ての有効クラスタからリードしたデータがg c先論理ブロックbl3に移動されると、図10(c)に示すように、論理ブロックbl1がg c元論理ブロックとされ、g c元論理ブロックbl1の有効クラスタからリードしたデータがg c先論理ブロックbl3に移動される。</t>
-  </si>
-  <si>
-    <t>g c先論理ブロックbl3にライトされるデータの量が増えると、図11(a)に示すように、g c先論理ブロックbl3の状態がプログラム済みになり、これ以上g c元論理ブロックbl1からg c先論理ブロックbl3にデータを移動することができなくなる。</t>
-  </si>
-  <si>
-    <t>図8、図9に示した例では、図9(a)、(b)に示すように、g c先論理ブロックbl3の状態がプログラム済みになった時、消去済み論理ブロックが1つも存在していないので、ガベージコレクションは続行不可能であった。</t>
-  </si>
-  <si>
-    <t>しかし、図10、図11に示す例では、g c先論理ブロックとして使用可能な消去済み論理ブロックeBL0、eBL1、…が予め準備されているので、論理不明ブロックが生じても、ガベージコレクションは続行可能である。</t>
-  </si>
-  <si>
-    <t>すなわち、図11(a)に示すように、g c先論理ブロックbl3の状態がプログラム中からプログラム済みに変化した場合、図11(b)に示すように、消去済み論理ブロックebl0がg c先論理ブロックとされ、g c元論理ブロックbl1の有効クラスタからリードしたデータがg c先論理ブロックebl0に移動され、ガベージコレクションが続行される。</t>
-  </si>
-  <si>
-    <t>g c元論理ブロックbl1の全ての有効クラスタからデータがリードされ、g c先論理ブロックebl0にデータが移動されると、図11(c)に示すように、g c元論理ブロックbl1の全てのデータが消去される。</t>
-  </si>
-  <si>
-    <t>このように、消去済み論理ブロックを予め用意しておくことにより、論理不明ブロックが生じても、g c先論理ブロックが枯渇する可能性は小さくなる。</t>
+    <t>図10(a)に示すように、GC元論理ブロックBL0の有効クラスタからリードしたデータがGC先論理ブロックBL3に移動される。 GC先論理ブロックBL3の状態は消去済みからプログラム中に変化する。</t>
+  </si>
+  <si>
+    <t>しかし、図10、図11に示す例では、GC先論理ブロックとして使用可能な消去済み論理ブロックeBL0、eBL1、…が予め準備されているので、論理不明ブロックが生じても、ガベージコレクションは続行可能である。</t>
+  </si>
+  <si>
+    <t>すなわち、図11(a)に示すように、GC先論理ブロックBL3の状態がプログラム中からプログラム済みに変化した場合、図11(b)に示すように、消去済み論理ブロックeBL0がGC先論理ブロックとされ、GC元論理ブロックBL1の有効クラスタからリードしたデータがGC先論理ブロックeBL0に移動され、ガベージコレクションが続行される。</t>
+  </si>
+  <si>
+    <t>GC元論理ブロックBL1の全ての有効クラスタからデータがリードされ、GC先論理ブロックeBL0にデータが移動されると、図11(c)に示すように、GC元論理ブロックBL1の全てのデータが消去される。</t>
+  </si>
+  <si>
+    <t>このように、消去済み論理ブロックを予め用意しておくことにより、論理不明ブロックが生じても、GC先論理ブロックが枯渇する可能性は小さくなる。</t>
   </si>
   <si>
     <t>しかし、予め準備する消去済み論理ブロックのためにフラッシュメモリの記憶コストが高くなるデメリットもある。</t>
@@ -643,67 +505,43 @@
     <t>図10、図11の例では、LUT56の全ての論理アドレスと物理アドレスとの対応関係を調べ、論理不明ブロックが有効クラスタであるか無効クラスタであるかを判定するための期間は、図10(b)に示す訂正不能リードエラーが発生してから消去済み論理ブロックが1つも無くなるまでの期間である。</t>
   </si>
   <si>
-    <t>このため、図8、図9に示す場合に比べて長時間であり、LUT56を調べて論理不明ブロックが有効クラスタであるか無効クラスタであるかを判定するための時間的余裕がある、図12、図13は、消去済み論理ブロックを予め用意することなく、g c先論理ブロックの枯渇を防ぐことができるガベージコレクションの動作を示す。</t>
-  </si>
-  <si>
-    <t>図12(a)に示すように、g c元論理ブロックbl0の有効クラスタからリードしたデータがg c先論理ブロックbl3に移動される。</t>
-  </si>
-  <si>
-    <t>図12(b)に示すように、ガベージコレクションの途中でg c元論理ブロックbl0からリードしたデータが訂正不能である場合、当該クラスタが有効クラスタか無効クラスタかを判定できず、当該クラスタからリードしたデータをg c先論理ブロックbl3に移動することができない。</t>
-  </si>
-  <si>
-    <t>g c元論理ブロックbl0の全ての有効クラスタからリードしたデータがg c先論理ブロックbl3に移動されると、図12(c)に示すように、新論理ブロックnbl0が生成される。</t>
-  </si>
-  <si>
-    <t>新論理ブロックn bl0に割り当てられる物理ブロックはg c元論理ブロックbl0に割り当てられていた物理ブロックであり、そのデータは消去されている。</t>
-  </si>
-  <si>
-    <t>とともに、g c元論理ブロックbl0が物理ブロックが割り当てられない論理不明ブロックに変更される。</t>
-  </si>
-  <si>
-    <t>さらに、図12(c)に示すように、論理ブロックbl1がg c元論理ブロックとされ、g c元論理ブロックbl1の有効クラスタからリードしたデータがg c先論理ブロックbl3にデータが移動される。</t>
-  </si>
-  <si>
-    <t>g c先論理ブロックbl3にライトされるデータが増えると、図13(a)に示すように、g c先論理ブロックbl3の状態がプログラム済みになり、g c元論理ブロックbl1からg c先論理ブロックbl3にデータを移動することができなくなる。</t>
-  </si>
-  <si>
-    <t>しかし、消去済み論理ブロックn bl0が存在するので、論理不明クラスタを含む論理不明ブロックが生じても、g c先論理ブロックn bl0が確保でき、図13(b)に示すように、g c元論理ブロックbl1の有効クラスタからリードしたデータがg c先論理ブロックn bl0に移動される。</t>
-  </si>
-  <si>
-    <t>g c元論理ブロックbl1のデータリード中に訂正不能なリードエラーが生じず、g c元論理ブロックbl1の有効クラスタの全てのデータがg c先論理ブロックnbl0に移動されると、図13(c)に示すように、g c元論理ブロックbl1の全てのデータが消去され、消去済み論理ブロックbl1はg c先論理ブロックとなり得る。</t>
-  </si>
-  <si>
-    <t>図12、図13の動作によれば、ガベージコレクションにおいてg c元論理ブロックの疑似物理クラスタからデータがリードされる際、リードエラーが発生し、リードエラーが訂正不能な場合、g c元論理ブロックの有効クラスタからg c先論理ブロックにデータが移動された後、新論理ブロックを作成する。</t>
-  </si>
-  <si>
-    <t>g c元論理ブロックに割り当てられていた物理ブロックのデータを消去してから、消去済み物理ブロックを新論理ブロックに割り当てる。</t>
-  </si>
-  <si>
-    <t>これにより、消去済みのg c先論理ブロックを確保することができる。</t>
-  </si>
-  <si>
-    <t>g c元論理ブロックは、物理ブロックが割り当てられない論理不明ブロックとされる。</t>
-  </si>
-  <si>
-    <t>g c元論理ブロックの有効クラスタのデータはg c先論理ブロックに移動されるので、以後、このデータに関するリードコマンドがホスト10からコントローラ22に送信されると、LUT56はg c先論理ブロック内の疑似物理クラスタ又は物理ブロックを指すので、g c先論理ブロック内の疑似物理クラスタ又は物理ブロックからデータがリードされる。</t>
-  </si>
-  <si>
-    <t>g c元論理ブロックの無効クラスタ及び論理不明クラスタのデータはg c元論理ブロックに残るが、g c元論理ブロックにはもはや物理ブロックが割り当てられていないので、以後、無効クラスタ及び論理不明クラスタのデータに関するリードコマンドがホスト10からコントローラ22に送信されると、データがリードされず、ホスト10にリードエラーが返送される。</t>
-  </si>
-  <si>
-    <t>コントローラ22内では、LUT56が存在しない疑似物理クラスタを指す物理的なリードエラーと、データが訂正不能なエラーを含むリードエラーが区別されているが、コントローラ22がホスト10に返送するリードエラーにおいて上記2つのエラーの区別は無い。</t>
-  </si>
-  <si>
-    <t>論理不明クラスタに関するリードリクエストに対してリードエラーが返送されるのは、新論理ブロックを作成しない場合でも、同様である。</t>
+    <t>このため、図8、図9に示す場合に比べて長時間であり、LUT56を調べて論理不明ブロックが有効クラスタであるか無効クラスタであるかを判定するための時間的余裕がある、図12、図13は、消去済み論理ブロックを予め用意することなく、GC先論理ブロックの枯渇を防ぐことができるガベージコレクションの動作を示す。</t>
+  </si>
+  <si>
+    <t>図12(b)に示すように、ガベージコレクションの途中でGC元論理ブロックBL0からリードしたデータが訂正不能である場合、当該クラスタが有効クラスタか無効クラスタかを判定できず、当該クラスタからリードしたデータをGC先論理ブロックBL3に移動することができない。 GC元論理ブロックBL0の全ての有効クラスタからリードしたデータがGC先論理ブロックBL3に移動されると、図12(c)に示すように、新論理ブロックnBL0が生成される。</t>
+  </si>
+  <si>
+    <t>新論理ブロックnBL0に割り当てられる物理ブロックはGC元論理ブロックBL0に割り当てられていた物理ブロックであり、そのデータは消去されている。</t>
+  </si>
+  <si>
+    <t>とともに、GC元論理ブロックBL0が物理ブロックが割り当てられない論理不明ブロックに変更される。</t>
+  </si>
+  <si>
+    <t>図12、図13の動作によれば、ガベージコレクションにおいてGC元論理ブロックの疑似物理クラスタからデータがリードされる際、リードエラーが発生し、リードエラーが訂正不能な場合、GC元論理ブロックの有効クラスタからGC先論理ブロックにデータが移動された後、新論理ブロックを作成する。</t>
+  </si>
+  <si>
+    <t>GC元論理ブロックに割り当てられていた物理ブロックのデータを消去してから、消去済み物理ブロックを新論理ブロックに割り当てる。</t>
+  </si>
+  <si>
+    <t>これにより、消去済みのGC先論理ブロックを確保することができる。</t>
+  </si>
+  <si>
+    <t>GC元論理ブロックは、物理ブロックが割り当てられない論理不明ブロックとされる。</t>
+  </si>
+  <si>
+    <t>GC元論理ブロックの有効クラスタのデータはGC先論理ブロックに移動されるので、以後、このデータに関するリードコマンドがホスト10からコントローラ22に送信されると、LUT56はGC先論理ブロック内の疑似物理クラスタ又は物理ブロックを指すので、GC先論理ブロック内の疑似物理クラスタ又は物理ブロックからデータがリードされる。</t>
+  </si>
+  <si>
+    <t>コントローラ22内では、LUT56が存在しない疑似物理クラスタを指す物理的なリードエラーと、データが訂正不能なエラーを含むリードエラーが区別されているが、コントローラ22がホスト10に返送するリードエラーにおいて上記2つのエラーの区別は無い。 論理不明クラスタに関するリードリクエストに対してリードエラーが返送されるのは、新論理ブロックを作成しない場合でも、同様である。</t>
   </si>
   <si>
     <t>このため、訂正不能なリードエラーが生じた場合、ホスト10から見たSSD20の動作は、新論理ブロックを作成しない場合でも新論理ブロックを作成する場合も変わらない。</t>
   </si>
   <si>
-    <t>図12、図13の動作によれば、論理不明クラスタを含むg c元論理ブロックのデータが消去できない状況に対応するために、g c先論理ブロックとして使用され得る消去済み論理ブロックを設ける必要がない。</t>
-  </si>
-  <si>
-    <t>1論理ブロックサイズが大きくなると、論理ブロック数が減るので、g c先論理ブロックが枯渇し易い。</t>
+    <t>図12、図13の動作によれば、論理不明クラスタを含むGC元論理ブロックのデータが消去できない状況に対応するために、GC先論理ブロックとして使用され得る消去済み論理ブロックを設ける必要がない。</t>
+  </si>
+  <si>
+    <t>1論理ブロックサイズが大きくなると、論理ブロック数が減るので、GC先論理ブロックが枯渇し易い。</t>
   </si>
   <si>
     <t>しかし、図12、図13に示すように、論理不明ブロックが生じると、新論理ブロックが作成されるので、CG先論理ブロックが枯渇しにくい。</t>
@@ -712,49 +550,10 @@
     <t>なお、本発明は上記実施形態そのままに限定されるものではなく、実施段階ではその要旨を逸脱しない範囲で構成要素を変形して具体化できる。 また、上記実施形態に開示されている複数の構成要素の適宜な組み合せにより種々の発明を形成できる。</t>
   </si>
   <si>
-    <t>更に、異なる実施形態に亘る構成要素を適宜組み合せても良い。 符号の説明10… ホスト、20… SSD、22… コントローラ、24… NAND型フラッシュメモリ、26… RAM、42… リード制御部、44… ライト制御部、46… g c制御部、56…LUT、58… 論理ブロックテーブル。</t>
-  </si>
-  <si>
-    <t>書類名特許請求の範囲請求項1複数の物理ブロックを有し、各物理ブロックは複数のクラスタを有し、物理ブロック単位でデータが消去され、クラスタ単位でデータがリード又はライトされる不揮発性メモリと、外部装置により指定される論理アドレスと、前記論理アドレスに対応する前記不揮発性メモリの物理アドレスとの関係を記憶する第1テーブルと、前記不揮発性メモリの複数の物理ブロックが割り当てられる論理ブロックと、前記複数の物理ブロックとの関係を記憶する第2テーブルと、ガベージコレクション元論理ブロックの全ての有効クラスタからリードしたデータをガベージコレクション先論理ブロックに移動し、前記ガベージコレクション元論理ブロックの全てのデータを消去し、前記第1テーブルを更新するコントローラと、を具備し、前記コントローラは、前記ガベージコレクション元論理ブロックのクラスタからリードしたデータが訂正不能な場合、新論理ブロックを作成し、前記ガベージコレクション元論理ブロックに割り当てられていた複数の物理ブロックの全てのデータを消去し、データが消去された前記複数の物理ブロックを前記新論理ブロックに割り当て、前記ガベージコレクション元論理ブロックに実質的に物理ブロックが割り当てられないように前記第2テーブルを更新する記憶装置。</t>
-  </si>
-  <si>
-    <t>請求項2前記コントローラは、前記ガベージコレクション元論理ブロックに存在し得ない物理ブロックを割り当てることにより、前記ガベージコレクション元論理ブロックに実質的に物理ブロックが割り当てられないように前記第2テーブルを更新する請求項1記載の記憶装置。</t>
-  </si>
-  <si>
-    <t>請求項3前記論理ブロックには複数の疑似物理クラスタが割り当てられ、前記複数の疑似物理クラスタの中の1つの疑似物理クラスタはユーザデータと論理クラスタアドレスを格納し、前記論理クラスタアドレスは前記1つの疑似物理クラスタに対応する論理アドレスを示し、前記第1テーブルは、前記論理クラスタアドレスに対応する疑似物理クラスタアドレスを格納し、前記疑似物理クラスタアドレスは、前記1つの疑似物理クラスタが含まれる前記複数の論理ブロックを特定する情報と、特定された前記論理ブロック内の前記1つの疑似物理クラスタの相対位置を示す情報を含む請求項1記載の記憶装置。</t>
-  </si>
-  <si>
-    <t>請求項4前記コントローラは、前記ガベージコレクション元論理ブロックの有効疑似物理クラスタからリードしたデータを前記ガベージコレクション先論理ブロックの疑似物理クラスタに移動し、前記第1テーブルの前記有効疑似物理クラスタに対応する論理アドレスに対応する前記疑似物理クラスタアドレスを前記ガベージコレクション先論理ブロックの前記疑似物理クラスタのアドレスに変更する請求項3記載の記憶装置。</t>
-  </si>
-  <si>
-    <t>請求項5前記第1テーブル内の第1疑似物理クラスタアドレスにより指定される第1疑似物理クラスタが格納する第1論理クラスタアドレスに対応する第2疑似物理クラスタアドレスが前記第1疑似物理クラスタアドレスと等しい場合、前記第1疑似物理クラスタは有効疑似物理クラスタであり、第2疑似物理クラスタアドレスが前記第1疑似物理クラスタアドレスと等しくない場合、前記第1疑似物理クラスタは無効疑似物理クラスタである請求項3記載の記憶装置。</t>
-  </si>
-  <si>
-    <t>請求項6前記コントローラは、前記第2テーブルを更新後、前記外部装置から、リードしたデータが訂正不能な前記ガベージコレクション元論理ブロックの前記クラスタに関するリードコマンドを受けると、リードエラーを示す情報を前記外部装置へ返信する請求項1記載の記憶装置。</t>
-  </si>
-  <si>
-    <t>請求項7複数の物理ブロックを有し、各物理ブロックは複数のクラスタを有し、物理ブロック単位でデータが消去され、クラスタ単位でデータがリード又はライトされる不揮発性メモリと、外部装置により指定される論理アドレスと、前記論理アドレスに対応する前記不揮発性メモリの物理アドレスとの関係を記憶する第1テーブルと、前記不揮発性メモリの複数の物理ブロックが割り当てられる論理ブロックと、前記複数の物理ブロックとの関係を記憶する第2テーブルと、ガベージコレクション元論理ブロックの全ての有効クラスタからリードしたデータをガベージコレクション先論理ブロックに移動し、前記ガベージコレクション元論理ブロックの全てのデータを消去し、前記第1テーブルを更新するコントローラと、を具備する記憶装置の記憶制御方法であって、前記ガベージコレクション元論理ブロックのクラスタからリードしたデータが訂正不能な場合、前記コントローラにより、新論理ブロックを作成し、前記ガベージコレクション元論理ブロックに割り当てられていた複数の物理ブロックの全てのデータを消去し、データが消去された前記複数の物理ブロックを前記新論理ブロックに割り当て、前記ガベージコレクション元論理ブロックに実質的に物理ブロックが割り当てられないように前記第2テーブルを更新する記憶制御方法。</t>
-  </si>
-  <si>
-    <t>請求項8前記コントローラにより、前記ガベージコレクション元論理ブロックに存在し得ない物理ブロックを割り当てることにより、前記ガベージコレクション元論理ブロックに実質的に物理ブロックが割り当てられないように前記第2テーブルを更新する請求項7記載の記憶制御方法。</t>
-  </si>
-  <si>
-    <t>請求項9前記論理ブロックには複数の疑似物理クラスタが割り当てられ、前記複数の疑似物理クラスタの中の1つの疑似物理クラスタはユーザデータと論理クラスタアドレスを格納し、前記論理クラスタアドレスは前記1つの疑似物理クラスタに対応する論理アドレスを示し、前記第1テーブルは、前記論理クラスタアドレスに対応する疑似物理クラスタアドレスを格納し、前記疑似物理クラスタアドレスは、前記1つの疑似物理クラスタが含まれる前記複数の論理ブロックを特定する情報と、特定された前記論理ブロック内の前記1つの疑似物理クラスタの相対位置を示す情報を含む請求項7記載の記憶制御方法。</t>
-  </si>
-  <si>
-    <t>請求項10前記コントローラにより、前記ガベージコレクション元論理ブロックの有効疑似物理クラスタからリードしたデータを前記ガベージコレクション先論理ブロックの疑似物理クラスタに移動し、前記第1テーブルの前記有効疑似物理クラスタに対応する論理アドレスに対応する前記疑似物理クラスタアドレスを前記ガベージコレクション先論理ブロックの前記疑似物理クラスタのアドレスに変更する請求項9記載の記憶制御方法。</t>
-  </si>
-  <si>
-    <t>請求項11前記第1テーブル内の第1疑似物理クラスタアドレスにより指定される第1疑似物理クラスタが格納する第1論理クラスタアドレスに対応する第2疑似物理クラスタアドレスが前記第1疑似物理クラスタアドレスと等しい場合、前記第1疑似物理クラスタは有効疑似物理クラスタであり、第2疑似物理クラスタアドレスが前記第1疑似物理クラスタアドレスと等しくない場合、前記第1疑似物理クラスタは無効疑似物理クラスタである請求項9記載の記憶制御方法。</t>
-  </si>
-  <si>
-    <t>請求項12前記コントローラにより、前記第2テーブルを更新後、前記外部装置から、リードしたデータが訂正不能な前記ガベージコレクション元論理ブロックの前記クラスタに関するリードコマンドを受けると、リードエラーを示す情報を前記外部装置へ返信する請求項7記載の記憶制御方法。</t>
-  </si>
-  <si>
     <t>解決手段実施形態によれば、記憶装置は、不揮発性メモリと、外部装置により指定される論理アドレスと不揮発性メモリの物理アドレスとの関係を記憶する第1テーブルと、論理ブロックと複数の物理ブロックとの関係を記憶する第2テーブルと、ガベージコレクションにより第1テーブルを更新するコントローラと、を具備する。</t>
   </si>
   <si>
-    <t>コントローラは、g c元論理ブロックのクラスタからリードしたデータが訂正不能な場合、新論理ブロックを作成し、g c元論理ブロックに割り当てられていた複数の物理ブロックの全てのデータを消去し、データが消去された複数の物理ブロックを新論理ブロックに割り当て、g c元論理ブロックに実質的に物理ブロックが割り当てられないように第2テーブルを更新する。</t>
+    <t>コントローラは、GC元論理ブロックのクラスタからリードしたデータが訂正不能な場合、新論理ブロックを作成し、GC元論理ブロックに割り当てられていた複数の物理ブロックの全てのデータを消去し、データが消去された複数の物理ブロックを新論理ブロックに割り当て、GC元論理ブロックに実質的に物理ブロックが割り当てられないように第2テーブルを更新する。</t>
   </si>
   <si>
     <t>FIELD Embodiments described herein relate generally to a storage device and a storage control method.</t>
@@ -799,10 +598,10 @@
     <t>Accordingly, if a read error occurs in data of a certain cluster and the error cannot be corrected, the garbage collection cannot be performed, the data of the GC original logical block cannot be erased, and the GC original logical block cannot be reused as the GC destination logical block.</t>
   </si>
   <si>
-    <t>In a storage device in the related art, when reading data of a cluster of a GC original logical block, if a read error occurs and the error cannot be corrected, there is a concern that a GC destination logical block is exhausted and the garbage collection cannot be performed. Examples of related art include JP-A-2013-200722, JP-A-2013-174975, US Patent No. 8825946, Japanese Patent No. 6313242, and US-A-2013/0124842.</t>
-  </si>
-  <si>
-    <t>DESCRIPTION OF THE DRAWINGS FIG.1 is a block diagram illustrating a configuration of an example of a storage device according to an embodiment.</t>
+    <t>In a storage device in the related art, when reading data of a cluster of a GC original logical block, if a read error occurs and the error cannot be corrected, there is a concern that a GC destination logical block is exhausted and the garbage collection cannot be performed.</t>
+  </si>
+  <si>
+    <t>Examples of related art include JP-A-2013-200722, JP-A-2013-174975, US Patent No. 8825946, Japanese Patent No. 6313242, and US-A-2013/DESCRIPTION OF THE DRAWINGS FIG.1 is a block diagram illustrating a configuration of an example of a storage device according to an embodiment.</t>
   </si>
   <si>
     <t>FIG.2 is a diagram illustrating a relationship between a physical block, a logical block, and a pseudo physical cluster.</t>
@@ -859,40 +658,16 @@
     <t>The SSD 20 is a semiconductor storage device configured to write data in a nonvolatile semiconductor memory and to read data from the nonvolatile semiconductor memory.</t>
   </si>
   <si>
-    <t>The SSD 20 is connected to a host 10.</t>
-  </si>
-  <si>
-    <t>The host 10 accesses the SSD 20, writes data to the SSD 20, and reads the data from the SSD 20.</t>
-  </si>
-  <si>
-    <t>The host 10 may be a server (also referred to as a storage server) that stores a large amount of data and various types of data in the SSD 20 or may be a personal computer.</t>
-  </si>
-  <si>
-    <t>The SSD 20 can be used as a main storage of the host 10.</t>
-  </si>
-  <si>
-    <t>The SSD 20 may be embedded in the host 10 or may be connected to the host 10 via a cable or a network.</t>
-  </si>
-  <si>
-    <t>The SSD 20 includes a controller 22, a NAND flash memory (hereinafter, referred to as flash memory) 24, and a RAM 26.</t>
-  </si>
-  <si>
-    <t>The controller 22 includes a host interface (I/F) 32, a CPU 34, a NAND interface (I/F) 36, and a RAM interface (I/F) 38.</t>
-  </si>
-  <si>
-    <t>The CPU 34, the host I/F 32, the NAND I/F 36, and the RAM I/F 38 can be connected to a bus line 40.</t>
-  </si>
-  <si>
-    <t>The controller 22 may be configured by a CPU operating according to software or may be configured by a circuit such as a system-on-chip (SoC), an ASIC, an FPGA, or the like.</t>
+    <t>The SSD 20 is connected to a hostThe host 10 accesses the SSD 20, writes data to the SSD 20, and reads the data from the SSDThe host 10 may be a server (also referred to as a storage server) that stores a large amount of data and various types of data in the SSD 20 or may be a personal computer.</t>
+  </si>
+  <si>
+    <t>The SSD 20 can be used as a main storage of the hostThe SSD 20 may be embedded in the host 10 or may be connected to the host 10 via a cable or a network.</t>
   </si>
   <si>
     <t>The host I/F 32 for electrically interconnecting the host 10 with the SSD 20 can use standards, such as Small Computer System Interface (SCSI) (registered trademark), PCI Express (registered trademark) (also referred to as PCIe (registered trademark)), Serial Attached SCSI (SAS) (registered trademark), Serial Advanced Technology Attachment (SATA) (registered trademark), Non Volatile Memory Express (NVMe (registered trademark)), and Universal Serial Bus (USB) (registered trademark), and is not limited to this.</t>
   </si>
   <si>
-    <t>The host I/F 32 functions as a circuit that receives various commands, such as I/O commands and various control commands from the host 10.</t>
-  </si>
-  <si>
-    <t>The I/O command can include a write command, a read command, and the like.</t>
+    <t>The host I/F 32 functions as a circuit that receives various commands, such as I/O commands and various control commands from the hostThe I/O command can include a write command, a read command, and the like.</t>
   </si>
   <si>
     <t>The flash memory 24 as a nonvolatile semiconductor memory is configured with, for example, a NAND type flash memory, is not limited to the NAND type flash memory, and may be configured with other nonvolatile semiconductor memory, such as a NOR type flash memory, a magnetoresistive random access memory (MRAM), a phase change random access memory (PRAM), a resistive random access memory (ReRAM), or a ferroelectric random access memory (FeRAM).</t>
@@ -925,13 +700,7 @@
     <t>One cluster includes data associated with one logical address range, or data associated with a part of the one logical address range.</t>
   </si>
   <si>
-    <t>Read and write of the flash memory 24 are controlled by the controller 22.</t>
-  </si>
-  <si>
-    <t>The flash memory 24 is connected to the NAND I/F 36.</t>
-  </si>
-  <si>
-    <t>One bit or a plurality of bits of data can be stored in a memory cell.</t>
+    <t>Read and write of the flash memory 24 are controlled by the controllerThe flash memory 24 is connected to the NAND I/FOne bit or a plurality of bits of data can be stored in a memory cell.</t>
   </si>
   <si>
     <t>An example of a flash memory configured to be capable of storing a plurality of bits per memory cell includes a multi-level cell (MLC) flash memory or a four-level cell (4LC) flash memory capable of storing 2-bit data per memory cell, a triple-level cell (TLC) flash memory or an eight-level cell (8LC)) flash memory capable of storing 3-bit data per memory cell, a quad-level cell (QLC) flash memory or a sixteen-level cell (16LC) flash memory capable of storing 4-bit data per memory cell, and the like.</t>
@@ -940,31 +709,16 @@
     <t>The flash memory configured to store one bit per memory cell is referred to as a single-level cell (referred to as SLC or 2LC)) flash memory.</t>
   </si>
   <si>
-    <t>The RAM 26 is configured by a DRAM, an SRAM, or the like which is a volatile memory, and may be embedded in the controller 22 without being provided outside the controller 22.</t>
-  </si>
-  <si>
-    <t>The RAM 26 includes a write buffer 52 which is a buffer area for temporarily storing data to be written to the flash memory 24, a read buffer 54 which is a buffer area for temporarily storing data read from the flash memory 24, a lookup table (referred to as an LUT) 56 functioning as an address translation table (also referred to as a logical address/physical address translation table), and a logical block table 58 illustrating an assignment relation between the logical block and the physical block.</t>
+    <t>The RAM 26 is configured by a DRAM, an SRAM, or the like which is a volatile memory, and may be embedded in the controller 22 without being provided outside the controllerThe RAM 26 includes a write buffer 52 which is a buffer area for temporarily storing data to be written to the flash memory 24, a read buffer 54 which is a buffer area for temporarily storing data read from the flash memory 24, a lookup table (referred to as an LUT) 56 functioning as an address translation table (also referred to as a logical address/physical address translation table), and a logical block table 58 illustrating an assignment relation between the logical block and the physical block.</t>
   </si>
   <si>
     <t>The LUT 56 manages mapping between a logical cluster address and a pseudo physical cluster address.</t>
   </si>
   <si>
-    <t>The RAM 26 is connected to the RAM I/F 38.</t>
-  </si>
-  <si>
-    <t>The controller 22 may function as a flash translation layer (FTL) configured to perform data management and block management of the flash memory 24.</t>
-  </si>
-  <si>
-    <t>The data management performed by the FTL includes (1) management of mapping information illustrating a correspondence relationship between the logical address (logical cluster address) of the SSD 20 and the physical address (pseudo physical cluster address) of the flash memory 24, (2) a process for hiding read/write of the cluster and a block erase operation, and the like.</t>
-  </si>
-  <si>
-    <t>The logical address is designated by the host 10 so as to designate an address of the SSD 20.</t>
-  </si>
-  <si>
-    <t>Management of the mapping between the logical address and the physical address is performed by using the LUT 56.</t>
-  </si>
-  <si>
-    <t>The controller 22 uses the LUT 56 to manage the mapping between the logical address and the physical address on a cluster size basis.</t>
+    <t>The RAM 26 is connected to the RAM I/FThe controller 22 may function as a flash translation layer (FTL) configured to perform data management and block management of the flash memoryThe data management performed by the FTL includes (1) management of mapping information illustrating a correspondence relationship between the logical address (logical cluster address) of the SSD 20 and the physical address (pseudo physical cluster address) of the flash memory 24, (2) a process for hiding read/write of the cluster and a block erase operation, and the like.</t>
+  </si>
+  <si>
+    <t>The logical address is designated by the host 10 so as to designate an address of the SSDManagement of the mapping between the logical address and the physical address is performed by using the LUTThe controller 22 uses the LUT 56 to manage the mapping between the logical address and the physical address on a cluster size basis.</t>
   </si>
   <si>
     <t>A physical address corresponding to a certain logical address indicates a physical storage location in the flash memory 24 to which data designated by this logical address is written.</t>
@@ -976,19 +730,10 @@
     <t>The CPU 34 can function as a read control unit 42, a wriht control unit 44, a garbage collection (GC) control unit 46, and the like.</t>
   </si>
   <si>
-    <t>A part or all of the read control unit 42, the write control unit 44, and the GC control unit 46 may also be realized by dedicated hardware in the controller 22.</t>
-  </si>
-  <si>
-    <t>The write control unit 44 performs error correction coding of the write data and writes the encoded data into the flash memory 24.</t>
-  </si>
-  <si>
-    <t>The read control unit 42 performs the error correction decoding of the data read from the flash memory 24 and corrects an error in the read data.</t>
-  </si>
-  <si>
-    <t>The error correction coding and the error correction decoding may be performed by dedicated hardware in the controller 22.</t>
-  </si>
-  <si>
-    <t>The GC control unit 46 performs a garbage collection at an appropriate timing.</t>
+    <t>A part or all of the read control unit 42, the write control unit 44, and the GC control unit 46 may also be realized by dedicated hardware in the controllerThe write control unit 44 performs error correction coding of the write data and writes the encoded data into the flash memoryThe read control unit 42 performs the error correction decoding of the data read from the flash memory 24 and corrects an error in the read data.</t>
+  </si>
+  <si>
+    <t>The error correction coding and the error correction decoding may be performed by dedicated hardware in the controllerThe GC control unit 46 performs a garbage collection at an appropriate timing.</t>
   </si>
   <si>
     <t>The write control unit 44 writes the update data corresponding to a certain logical address into another cluster instead of a cluster designated by the physical address corresponding to the logical address.</t>
@@ -1003,19 +748,10 @@
     <t>The block management includes a defective block management, wear leveling, a garbage collection, and the like.</t>
   </si>
   <si>
-    <t>The CPU 34 is a processor configured to control the host I/F 32, the NAND I/F 36, and the RAM I/F 38.</t>
-  </si>
-  <si>
-    <t>The CPU 34 performs various processes by executing a control program (e.g., firmware) stored in a ROM (not illustrated) or the like.</t>
-  </si>
-  <si>
-    <t>In addition to the above-described FTL process, the CPU 34 can perform a command process and the like for processing various commands from the host 10.</t>
-  </si>
-  <si>
-    <t>An operation of the CPU 34 is controlled by the above-mentioned firmware performed by the CPU 34.</t>
-  </si>
-  <si>
-    <t>A part or all of the FTL process and the command process may be performed by dedicated hardware in the controller 22.</t>
+    <t>The CPU 34 is a processor configured to control the host I/F 32, the NAND I/F 36, and the RAM I/FThe CPU 34 performs various processes by executing a control program (e.g., firmware) stored in a ROM (not illustrated) or the like.</t>
+  </si>
+  <si>
+    <t>In addition to the above-described FTL process, the CPU 34 can perform a command process and the like for processing various commands from the hostAn operation of the CPU 34 is controlled by the above-mentioned firmware performed by the CPUA part or all of the FTL process and the command process may be performed by dedicated hardware in the controllerFIG.2 is a diagram illustrating a relationship between a physical block, a logical block, and a pseudo physical cluster.</t>
   </si>
   <si>
     <t>As described above, the NAND chip includes a plurality of physical blocks, and the plurality of physical blocks are assigned to one logical block.</t>
@@ -1042,13 +778,7 @@
     <t>When accessing the pseudo physical address, the host 10 designates a logical cluster address.</t>
   </si>
   <si>
-    <t>Information indicating mapping between the physical address corresponding to the logical address, that is, the logical cluster address and the pseudo physical cluster address is stored in the LUT 56.</t>
-  </si>
-  <si>
-    <t>FIG.3 illustrates an example of the LUT 56.</t>
-  </si>
-  <si>
-    <t>The LUT 56 stores the pseudo physical cluster address, and an index of the pseudo physical cluster address corresponds to the logical cluster address.</t>
+    <t>Information indicating mapping between the physical address corresponding to the logical address, that is, the logical cluster address and the pseudo physical cluster address is stored in the LUTFIG.3 illustrates an example of the LUTThe LUT 56 stores the pseudo physical cluster address, and an index of the pseudo physical cluster address corresponds to the logical cluster address.</t>
   </si>
   <si>
     <t>The logical cluster address is represented by index × cluster size (4 KiB).</t>
@@ -1084,16 +814,10 @@
     <t>For example, if a command for writing data DA1 into a certain logical cluster address LC1 is sent from the host 10, the write control unit 44 writes the data DA1 into a certain pseudo physical cluster (a pseudo physical cluster address of this cluster is referred to as PC1).</t>
   </si>
   <si>
-    <t>The write control unit 44 sets mapping between the logical cluster address LC1 and the pseudo physical cluster address PC1 to the LUT 56.</t>
-  </si>
-  <si>
-    <t>Thereafter, if a write command for reprogramming data DA2 to the logical cluster address LC1 is transmitted from the host 10, the write control unit 44 writes the data DA2 into the pseudo physical cluster different from the previous pseudo physical cluster (referred to as a pseudo physical cluster address PC2 of this cluster).</t>
-  </si>
-  <si>
-    <t>The write control unit 44 sets the mapping between the logical cluster address LC1 and the pseudo physical cluster address PC2 to the LUT 56.</t>
-  </si>
-  <si>
-    <t>Thereby, the pseudo physical cluster address PC1 is no longer designated from the LUT 56, and the pseudo physical cluster (pseudo physical cluster address PC1) to which the data DA1 is written becomes an invalid cluster, and the data DA1 becomes invalid data.</t>
+    <t>The write control unit 44 sets mapping between the logical cluster address LC1 and the pseudo physical cluster address PC1 to the LUTThereafter, if a write command for reprogramming data DA2 to the logical cluster address LC1 is transmitted from the host 10, the write control unit 44 writes the data DA2 into the pseudo physical cluster different from the previous pseudo physical cluster (referred to as a pseudo physical cluster address PC2 of this cluster).</t>
+  </si>
+  <si>
+    <t>The write control unit 44 sets the mapping between the logical cluster address LC1 and the pseudo physical cluster address PC2 to the LUTThereby, the pseudo physical cluster address PC1 is no longer designated from the LUT 56, and the pseudo physical cluster (pseudo physical cluster address PC1) to which the data DA1 is written becomes an invalid cluster, and the data DA1 becomes invalid data.</t>
   </si>
   <si>
     <t>As such, if reprogramming the data causes an invalid cluster to be generated and the number of physical blocks in which the valid cluster and the invalid cluster coexist increases, in order to effectively utilize a storage area, a garbage collection process is performed for the logical block including the physical block.</t>
@@ -1105,22 +829,13 @@
     <t>In block 102, the controller 22 (including the read control unit 42, the write control unit 44, and the GC control unit 46) determines whether or not it is time to start a garbage collection.</t>
   </si>
   <si>
-    <t>The controller 22 can determine whether or not it is time to start the garbage collection, based on whether or not a garbage collection command is received from the host 10.</t>
-  </si>
-  <si>
-    <t>In addition, since the controller 22 manages a state of the block, the controller 22 can also determine whether or not it is time to start the garbage collection by detecting that the number of physical blocks in which the valid cluster and the invalid cluster coexist increases.</t>
+    <t>The controller 22 can determine whether or not it is time to start the garbage collection, based on whether or not a garbage collection command is received from the hostIn addition, since the controller 22 manages a state of the block, the controller 22 can also determine whether or not it is time to start the garbage collection by detecting that the number of physical blocks in which the valid cluster and the invalid cluster coexist increases.</t>
   </si>
   <si>
     <t>The controller 22 repeats the determination of block 102 until it is determined that it is time to start the garbage collection.</t>
   </si>
   <si>
-    <t>If it is determined that it is time to start the garbage collection in block 102, the controller 22 reads data from one pseudo physical cluster in one logical block (referred to as a GC original logical block) among garbage collection target candidate logical blocks including the physical block in which the valid cluster and the invalid cluster coexist in block 104.</t>
-  </si>
-  <si>
-    <t>The read data is stored in the read buffer 54.</t>
-  </si>
-  <si>
-    <t>In block 106, the controller 22 determines whether or not the data read in block 104 includes an uncorrectable read error.</t>
+    <t>If it is determined that it is time to start the garbage collection in block 102, the controller 22 reads data from one pseudo physical cluster in one logical block (referred to as a GC original logical block) among garbage collection target candidate logical blocks including the physical block in which the valid cluster and the invalid cluster coexist in blockThe read data is stored in the read bufferIn block 106, the controller 22 determines whether or not the data read in block 104 includes an uncorrectable read error.</t>
   </si>
   <si>
     <t>When the read data includes the read error, the controller 22 corrects the read error.</t>
@@ -1132,19 +847,10 @@
     <t>It is impossible to determine whether a cluster in which a read error occurs and moreover the error is uncorrectable is a valid cluster or an invalid cluster, and thereby, data of the pseudo physical cluster cannot be moved to the GC destination logical block.</t>
   </si>
   <si>
-    <t>When it is determined in block 106 that the read data includes an uncorrectable read error, the controller 22 manages the pseudo physical cluster as a logically unclear cluster in block 108.</t>
-  </si>
-  <si>
-    <t>If it is determined in block 106 that the read data does not include an uncorrectable read error, the controller 22 determines in block 110 whether or not the pseudo physical cluster is a valid cluster.</t>
-  </si>
-  <si>
-    <t>As described above, the determination is made based on where the logical cluster address of a redundant portion of the pseudo physical cluster points in the LUT 56.</t>
-  </si>
-  <si>
-    <t>If it is determined in block 110 that the pseudo physical cluster is a valid cluster, the controller 22 writes the data read from the valid cluster stored in the read buffer 54 into the pseudo physical cluster of the GC destination logical block, in block 112.</t>
-  </si>
-  <si>
-    <t>The GC destination logical block is selected from among the logical blocks (also, referred to as free blocks) in which all data are erased.</t>
+    <t>When it is determined in block 106 that the read data includes an uncorrectable read error, the controller 22 manages the pseudo physical cluster as a logically unclear cluster in blockIf it is determined in block 106 that the read data does not include an uncorrectable read error, the controller 22 determines in block 110 whether or not the pseudo physical cluster is a valid cluster.</t>
+  </si>
+  <si>
+    <t>As described above, the determination is made based on where the logical cluster address of a redundant portion of the pseudo physical cluster points in the LUTIf it is determined in block 110 that the pseudo physical cluster is a valid cluster, the controller 22 writes the data read from the valid cluster stored in the read buffer 54 into the pseudo physical cluster of the GC destination logical block, in blockThe GC destination logical block is selected from among the logical blocks (also, referred to as free blocks) in which all data are erased.</t>
   </si>
   <si>
     <t>If writing of data into the GC destination logical block is completed in block 112, the pseudo physical cluster address in the GC original logical block in the LUT 56 is changed to the pseudo physical cluster address in the GC destination logical block, and the LUT 56 is updated.</t>
@@ -1168,10 +874,7 @@
     <t>When the GC original logical block includes the logically unclear cluster, it is unknown whether all the data of the valid cluster is moved to the GC destination logical block, and it can be determined that the GC original logical block cannot be erased.</t>
   </si>
   <si>
-    <t>Accordingly, If it is determined that the GC original logical block does not include the logically unclear cluster in block 116, the controller 22 erases the data of all the physical blocks of the GC original logical block in block 118.</t>
-  </si>
-  <si>
-    <t>In block 122, the controller 22 sets the GC original logical block whose all data is erased in block 118 as a candidate for a GC destination logical block and ends the process.</t>
+    <t>Accordingly, If it is determined that the GC original logical block does not include the logically unclear cluster in block 116, the controller 22 erases the data of all the physical blocks of the GC original logical block in blockIn block 122, the controller 22 sets the GC original logical block whose all data is erased in block 118 as a candidate for a GC destination logical block and ends the process.</t>
   </si>
   <si>
     <t>If it is determined in block 116 that the GC original logical block includes the logically unclear cluster, the controller 22 generates a new logical block in block 124, erases the data of all the physical blocks assigned to the GC original logical block, and assigns the data-erased physical block to a new logical block.</t>
@@ -1183,19 +886,10 @@
     <t>For example, the controller 22 sets all the physical blocks assigned to the GC original logical block as physical blocks which cannot exist.</t>
   </si>
   <si>
-    <t>When the logical block table 58 indicates the physical address of the physical block assigned to the logical block, an address not used as a physical address is written into a physical block column assigned to the GC original logical block in the logical block table 58.</t>
-  </si>
-  <si>
-    <t>Thereby, when the host 10 tries to read the data in the logically unclear cluster, since there is no pseudo physical cluster address corresponding to the logically unclear cluster address, the data cannot be read and a read error is returned to the host 10.</t>
-  </si>
-  <si>
-    <t>In block 128, the controller 22 sets the new logical block as a candidate for the GC destination logical block and ends the process.</t>
-  </si>
-  <si>
-    <t>The order of performing the blocks 126 and 128 may be reversed against the order in FIG.4.</t>
-  </si>
-  <si>
-    <t>FIG.4 illustrates an example in which the process ends after the block 128, and if the determination process of the block 102 is periodically performed and it is time to start the garbage collection, the process of FIG.4 may be is performed as an interrupt.</t>
+    <t>When the logical block table 58 indicates the physical address of the physical block assigned to the logical block, an address not used as a physical address is written into a physical block column assigned to the GC original logical block in the logical block tableThereby, when the host 10 tries to read the data in the logically unclear cluster, since there is no pseudo physical cluster address corresponding to the logically unclear cluster address, the data cannot be read and a read error is returned to the hostIn block 128, the controller 22 sets the new logical block as a candidate for the GC destination logical block and ends the process.</t>
+  </si>
+  <si>
+    <t>The order of performing the blocks 126 and 128 may be reversed against the order in FIG.FIG.4 illustrates an example in which the process ends after the block 128, and if the determination process of the block 102 is periodically performed and it is time to start the garbage collection, the process of FIG.4 may be is performed as an interrupt.</t>
   </si>
   <si>
     <t>Generating a new logical block will be described with reference to FIGS.5A to 5C.</t>
@@ -1228,22 +922,13 @@
     <t>It is assumed that the logical block address of the new logical block generated in block 124 is LBm+1 as illustrated in FIG.5B.</t>
   </si>
   <si>
-    <t>As illustrated in FIG.5C, the controller 22 sets the physical block addresses of all the physical blocks corresponding to the GC original logical block designated by the logical block address LBm in the logical block table 58 as a value Null that does not exist as an address in block 126.</t>
-  </si>
-  <si>
-    <t>Thereby, the GC original logical block is regarded as an unknown physical block.</t>
+    <t>As illustrated in FIG.5C, the controller 22 sets the physical block addresses of all the physical blocks corresponding to the GC original logical block designated by the logical block address LBm in the logical block table 58 as a value Null that does not exist as an address in blockThereby, the GC original logical block is regarded as an unknown physical block.</t>
   </si>
   <si>
     <t>An example of Null is "FF" and the like in a case of a 16-bit address.</t>
   </si>
   <si>
-    <t>Thereby, when the host 10 tries to read data in a logically unclear cluster, the data of the pseudo physical cluster corresponding to the logically unclear cluster cannot be read and a read error is returned to the host 10.</t>
-  </si>
-  <si>
-    <t>At timing of block 124, all the data of the valid cluster in the GC original logical block of the logical block address LBm is moved to the GC destination logical block, and the data in the GC original logical block is data which is not read by the host 10 in the future or the data which is not returned to the host 10.</t>
-  </si>
-  <si>
-    <t>That is, the physical block assigned to the GC original logical block is an erasable physical block because the physical block will not be used in the future.</t>
+    <t>Thereby, when the host 10 tries to read data in a logically unclear cluster, the data of the pseudo physical cluster corresponding to the logically unclear cluster cannot be read and a read error is returned to the hostAt timing of block 124, all the data of the valid cluster in the GC original logical block of the logical block address LBm is moved to the GC destination logical block, and the data in the GC original logical block is data which is not read by the host 10 in the future or the data which is not returned to the hostThat is, the physical block assigned to the GC original logical block is an erasable physical block because the physical block will not be used in the future.</t>
   </si>
   <si>
     <t>Accordingly, in block 124, the data of the physical block designated by the physical block addresses PBi, PBi+1, … and the like assigned to the GC original logical block designated by the logical block address LBm is erased, the data-erased physical block is assigned to a new logical block, and the data-erased new logical block can be used as a GC destination logical block.</t>
@@ -1270,10 +955,7 @@
     <t>It is assumed that valid clusters and invalid clusters coexist in the program-completed logical blocks BL0, BL1, BL2, BL 4, …, and the logical blocks BL0, BL1, BL2, BL4, … are candidates for GC original logical blocks.</t>
   </si>
   <si>
-    <t>First, as illustrated in FIG.6A, one of the GC original logical block candidates, for example, the logical block BL0 is set as the GC original logical block, data is read from the GC original logical block BL0 on a pseudo physical cluster basis, and when the pseudo physical cluster is a valid cluster, the read data is moved to the GC destination logical block BL3.</t>
-  </si>
-  <si>
-    <t>The GC destination logical block BL3 changes from a data-erased state to a programming state.</t>
+    <t>First, as illustrated in FIG.6A, one of the GC original logical block candidates, for example, the logical block BL0 is set as the GC original logical block, data is read from the GC original logical block BL0 on a pseudo physical cluster basis, and when the pseudo physical cluster is a valid cluster, the read data is moved to the GC destination logical block BLThe GC destination logical block BL3 changes from a data-erased state to a programming state.</t>
   </si>
   <si>
     <t>If data read from all valid clusters of the GC original logical block BL0 is moved to the GC destination logical block BL3, all the data of the GC original logical block BL0 is erased as illustrated in FIG.6B.</t>
@@ -1282,13 +964,7 @@
     <t>The data-erased logical block BL0 can become a GC destination logical block.</t>
   </si>
   <si>
-    <t>Next, as illustrated in FIG.6C, another candidate among the GC original logical block candidates, for example, the logical block BL1 becomes the GC original logical block, data is read from the GC original logical block BL1 on a pseudo physical cluster basis, and when the pseudo physical cluster is a valid cluster, the read data is moved to the GC destination logical block BL3.</t>
-  </si>
-  <si>
-    <t>If the amount of data to be moved (written) to the GC destination logical block BL3 increases, the GC destination logical block BL3 enters a state of a program completion as illustrated in FIG.7A, and the data can no longer be moved from the GC original logical block BL1 to the GC destination logical block BL3.</t>
-  </si>
-  <si>
-    <t>However, since there is the data-erased logical block BL0 which can become the GC destination logical block, thereafter, as illustrated in FIG.7B, the data read from the valid cluster of the GC original logical block BL1 is moved to the GC destination logical block BL0, and the garbage collection is continued.</t>
+    <t>Next, as illustrated in FIG.6C, another candidate among the GC original logical block candidates, for example, the logical block BL1 becomes the GC original logical block, data is read from the GC original logical block BL1 on a pseudo physical cluster basis, and when the pseudo physical cluster is a valid cluster, the read data is moved to the GC destination logical block BLIf the amount of data to be moved (written) to the GC destination logical block BL3 increases, the GC destination logical block BL3 enters a state of a program completion as illustrated in FIG.7A, and the data can no longer be moved from the GC original logical block BL1 to the GC destination logical block BLHowever, since there is the data-erased logical block BL0 which can become the GC destination logical block, thereafter, as illustrated in FIG.7B, the data read from the valid cluster of the GC original logical block BL1 is moved to the GC destination logical block BL0, and the garbage collection is continued.</t>
   </si>
   <si>
     <t>If data is read from all the valid clusters of the GC original logical block BL1 and the data is moved to the GC destination logical block BL0, as illustrated in FIG.7C, all the data of the GC original logical block BL1 is erased.</t>
@@ -1306,16 +982,10 @@
     <t>In the same manner as in a case of FIG.6A, as illustrated in FIG.8A, the data read from the valid cluster of the GC original logical block BL0 is moved to the GC destination logical block BL3 and the garbage collection is performed.</t>
   </si>
   <si>
-    <t>As illustrated in FIG.8B, when the data read from the pseudo physical cluster of the GC original logical block BL0 during the garbage collection includes a read error and the read error is uncorrectable, the cluster cannot determine whether the valid cluster is an invalid cluster, and the data read from the cluster cannot be moved to the GC destination logical block BL3.</t>
-  </si>
-  <si>
-    <t>If the data read from all the valid clusters of the GC original logical block BL0 is moved to the GC destination logical block BL3, the logical block BL1 becomes the GC original logical block, and the data read from the valid cluster of the GC original logical block BL1 is moved to the GC destination logical block BL3 as illustrated in FIG.8C.</t>
-  </si>
-  <si>
-    <t>If the amount of data to be written to the GC destination logical block BL3 increases, the GC destination logical block BL3 enters a state of the program completion, as illustrated in FIG.9A, and the data can no longer be moved from the GC original logical block BL1 to the GC destination logical block BL3.</t>
-  </si>
-  <si>
-    <t>In the examples illustrated in FIGS.6A to 7C, the data-erased logical block BL0 exists at this stage (FIG.7A), and thereby, the garbage collection for the GC original logical block BL1 can be continued.</t>
+    <t>As illustrated in FIG.8B, when the data read from the pseudo physical cluster of the GC original logical block BL0 during the garbage collection includes a read error and the read error is uncorrectable, the cluster cannot determine whether the valid cluster is an invalid cluster, and the data read from the cluster cannot be moved to the GC destination logical block BLIf the data read from all the valid clusters of the GC original logical block BL0 is moved to the GC destination logical block BL3, the logical block BL1 becomes the GC original logical block, and the data read from the valid cluster of the GC original logical block BL1 is moved to the GC destination logical block BL3 as illustrated in FIG.8C.</t>
+  </si>
+  <si>
+    <t>If the amount of data to be written to the GC destination logical block BL3 increases, the GC destination logical block BL3 enters a state of the program completion, as illustrated in FIG.9A, and the data can no longer be moved from the GC original logical block BL1 to the GC destination logical block BLIn the examples illustrated in FIGS.6A to 7C, the data-erased logical block BL0 exists at this stage (FIG.7A), and thereby, the garbage collection for the GC original logical block BL1 can be continued.</t>
   </si>
   <si>
     <t>However, as illustrated in FIG.9A, when the GC destination logical block BL3 enters a state of the program completion, there is no logical block in which data is erased, and thus, as illustrated in FIG.9B, there is no GC destination logical block of a movement destination of the data read from the valid cluster of the GC original logical block BL1, and the garbage collection can no longer be continued.</t>
@@ -1342,19 +1012,7 @@
     <t>The data-erased logical blocks eBL0, eBL1, … may be logical blocks in which user data has never been stored or may be logical blocks in which user data is stored but all data is erased by the garbage collection and are not used for storing the user data in the future.</t>
   </si>
   <si>
-    <t>As illustrated in FIG.10A, the data read from the valid cluster of the GC original logical block BL0 is moved to the GC destination logical block BL3.</t>
-  </si>
-  <si>
-    <t>As illustrated in FIG.10B, when the data read from the pseudo physical cluster of the GC original logical block BL0 is uncorrectable during the garbage collection, the read data cannot be moved to the GC destination logical block BL3.</t>
-  </si>
-  <si>
-    <t>If the data read from all valid clusters of the GC original logical block BL0 is moved to the GC destination logical block BL3, as illustrated in FIG.10C, the logical block BL1 becomes the GC original logical block, and the data read from the valid cluster of the GC original logical block BL1 is moved to the GC destination logical block BL3.</t>
-  </si>
-  <si>
-    <t>If the amount of data to be written into the GC destination logical block BL3 increases, the state of the GC destination logical block BL3 becomes a program completion state as illustrated in FIG.11A, and the data can no longer be moved from the GC original logical block BL1 to the GC destination logical block BL3.</t>
-  </si>
-  <si>
-    <t>As illustrated in FIGS.9A and 9B, in the examples illustrated in FIGS.8A to 9B, when the GC destination logical block BL3 enters the programmed state, there is no data-erased logical block, and thereby, the garbage collection cannot be continuously performed.</t>
+    <t>As illustrated in FIG.10A, the data read from the valid cluster of the GC original logical block BL0 is moved to the GC destination logical block BLThe GC destination logical block BL3 changes from a data-erased state to a programming state.</t>
   </si>
   <si>
     <t>However, in the examples illustrated in FIGS.10A to 11C, the data-erased logical blocks eBL0, eBL1, … which can be used as the GC destination logical blocks are prepared in advance, and thereby, even if the logically unclear blocks is generated, the garbage collection can be continued.</t>
@@ -1375,16 +1033,10 @@
     <t>In the examples of FIGS.10A to 11C, a correspondence relationship between all the logical addresses and all the physical addresses of the LUT 56 is examined, and a period for determining whether the logically unclear block is a valid cluster or an invalid cluster is a period from when an uncorrectable read error illustrated in FIG.10B occurs to when the data-erased logical block is disappeared.</t>
   </si>
   <si>
-    <t>Accordingly, the time is lengthened as compared with the case illustrated in FIGS.8A to 9B, and there is a time margin for determining whether the logically unclear block is a valid cluster or an invalid cluster by examining the LUT 56. FIGS.12A to 13C illustrate the garbage collection operation that can prevent the GC destination logical block from exhausting without preparing the data-erased logical block in advance.</t>
-  </si>
-  <si>
-    <t>As illustrated in FIG.12A, the data read from the valid cluster of the GC original logical block BL0 is moved to the GC destination logical block BL3.</t>
-  </si>
-  <si>
-    <t>As illustrated in FIG.12B, when the data read from the GC original logical block BL0 during the garbage collection is uncorrectable, whether the cluster is a valid cluster or an invalid cluster cannot be determined, and the data is read from the cluster cannot be moved to the GC destination logical block BL3.</t>
-  </si>
-  <si>
-    <t>If data read from all valid clusters of the GC original logical block BL0 is moved to the GC destination logical block BL3, the new logical block n BL0 is generated as illustrated in FIG.12C.</t>
+    <t>Accordingly, the time is lengthened as compared with the case illustrated in FIGS.8A to 9B, and there is a time margin for determining whether the logically unclear block is a valid cluster or an invalid cluster by examining the LUTFIGS.12A to 13C illustrate the garbage collection operation that can prevent the GC destination logical block from exhausting without preparing the data-erased logical block in advance.</t>
+  </si>
+  <si>
+    <t>As illustrated in FIG.12A, the data read from the valid cluster of the GC original logical block BL0 is moved to the GC destination logical block BLAs illustrated in FIG.12B, when the data read from the GC original logical block BL0 during the garbage collection is uncorrectable, whether the cluster is a valid cluster or an invalid cluster cannot be determined, and the data is read from the cluster cannot be moved to the GC destination logical block BLIf data read from all valid clusters of the GC original logical block BL0 is moved to the GC destination logical block BL3, the new logical block n BL0 is generated as illustrated in FIG.12C.</t>
   </si>
   <si>
     <t>The physical block assigned to the new logical block nBL0 is a physical block assigned to the GC original logical block BL0, and data thereof is erased.</t>
@@ -1393,18 +1045,6 @@
     <t>In addition, the GC original logical block BL0 is changed to a logically unclear block to which no physical block is assigned.</t>
   </si>
   <si>
-    <t>Furthermore, as illustrated in FIG.12C, the logical block BL1 becomes the GC original logical block, and the data read from the valid cluster of the GC original logical block BL1 is moved to the GC destination logical block BL3.</t>
-  </si>
-  <si>
-    <t>If the data to be written to the GC destination logical block BL3 increases, the GC destination logical block BL3 enters a programmed state as illustrated in FIG.13A, and the data cannot be moved from the GC original logical block BL1 to the GC destination logical block BL3.</t>
-  </si>
-  <si>
-    <t>However, since there is the data-erased logical block nBL0, even if a logically unclear block including a logically unclear cluster is generated, the GC destination logical block nBL0 can be allocated, and as illustrated in FIG.13B, the data read from the valid cluster of the GC original logical block BL1 is moved to the GC destination logical block nBL0.</t>
-  </si>
-  <si>
-    <t>If an uncorrectable read error does not occur during data read of the GC original logical block BL1 and all data of the valid cluster of the GC original logical block BL1 is moved to the GC destination logical block nBL0, as illustrated in FIG.13C, all the data in the GC original logical block BL1 is erased and the data-erased logical block BL1 can become the GC destination logical block.</t>
-  </si>
-  <si>
     <t>According to the operations of FIGS.12A to 13C, when data is read from the pseudo physical cluster of the GC original logical block during the garbage collection, if a read error occurs and the read error cannot be corrected, the data is moved from the valid cluster of the GC original logical block to the GC destination logical block a, and thereafter, a new logical block is generated.</t>
   </si>
   <si>
@@ -1420,13 +1060,7 @@
     <t>Since the data of the valid cluster of the GC original logical block is moved to the GC destination logical block, if a read command relating to the data is transmitted from the host 10 to the controller 22 thereafter, the LUT 56 points to the pseudo physical cluster or the physical block in the GC destination logical block, and thereby, data is read from the pseudo physical cluster or the physical block in the GC destination logical block.</t>
   </si>
   <si>
-    <t>Data of an invalid cluster and a logically unclear cluster of the GC original logical block remains in the GC original logical block, but since no physical block is assigned to the GC original logical block, if a read command relating to the data of the invalid cluster and the logically unclear cluster is transmitted from the host 10 to the controller 22, no data is read and a read error is returned to the host 10.</t>
-  </si>
-  <si>
-    <t>A physical read error pointing to a pseudo physical cluster in which the LUT 56 does not exist and a read error including an error in which data is uncorrectable are distinguished from each other in the controller 22, but there is no distinction between the two errors in the read error returned to the host 10 by the controller 22.</t>
-  </si>
-  <si>
-    <t>Returning the read error in response to a read request relating to the logically unclear cluster is the same even when a new logical block is not generated.</t>
+    <t>Data of an invalid cluster and a logically unclear cluster of the GC original logical block remains in the GC original logical block, but since no physical block is assigned to the GC original logical block, if a read command relating to the data of the invalid cluster and the logically unclear cluster is transmitted from the host 10 to the controller 22, no data is read and a read error is returned to the hostA physical read error pointing to a pseudo physical cluster in which the LUT 56 does not exist and a read error including an error in which data is uncorrectable are distinguished from each other in the controller 22, but there is no distinction between the two errors in the read error returned to the host 10 by the controllerReturning the read error in response to a read request relating to the logically unclear cluster is the same even when a new logical block is not generated.</t>
   </si>
   <si>
     <t>Accordingly, when the uncorrectable read error occurs, an operation of the SSD 20 when viewed from the host 10 is not changed even when the new logical block is generated or even when the new logical block is not generated.</t>
@@ -1442,45 +1076,6 @@
   </si>
   <si>
     <t>Indeed, the novel embodiments described herein may be embodied in a variety of other forms; furthermore, various omissions, substitutions and changes in the form of the embodiments described herein may be made without departing from the spirit of the inventions.</t>
-  </si>
-  <si>
-    <t>The accompanying claims and their equivalents are intended to cover such forms or modifications as would fall within the scope and spirit of the inventions. WHAT IS CLAIMED IS: 1.</t>
-  </si>
-  <si>
-    <t>A storage device comprising: a nonvolatile memory that includes a plurality of physical blocks and in which each physical block includes a plurality of clusters, data is erased on a physical block basis, and data is read or written on a cluster basis; a first table that stores a relationship between a logical address which is designated by an external device and a physical address of the nonvolatile memory corresponding to the logical address; a second table that stores a relationship between a logical block to which the plurality of physical blocks of the nonvolatile memory are assigned and the plurality of physical blocks; and a controller that moves data which is read from all valid clusters of a garbage collection original logical block to a garbage collection destination logical block, erases all data of the garbage collection original logical block, and updates the first table, wherein, when the data which is read from the cluster of the garbage collection original logical block is uncorrectable, the controller generates a new logical block, erases all data of a plurality of physical blocks which are assigned to the garbage collection original logical block, assigns the plurality of physical blocks in which data is erased to the new logical block, and updates the second table such that no physical block is assigned substantially to the garbage collection original logical block.</t>
-  </si>
-  <si>
-    <t>2. The storage device according to claim 1, wherein the controller updates the second table such that no physical block is assigned substantially to the garbage collection original logical block by assigning a physical block which is not capable of existing in the garbage collection original logical block.</t>
-  </si>
-  <si>
-    <t>3. The storage device according to claim 1, wherein a plurality of pseudo physical clusters are assigned to the logical block, wherein one pseudo physical cluster among the plurality of pseudo physical clusters stores user data and a logical cluster address, wherein the logical cluster address indicates a logical address corresponding to the one pseudo physical cluster, wherein the first table stores a pseudo physical cluster address corresponding to the logical cluster address, and wherein the pseudo physical cluster address includes information for specifying the plurality of logical blocks including the one pseudo physical cluster and information indicating a relative location of the one pseudo physical cluster in the specified logical block. 4.</t>
-  </si>
-  <si>
-    <t>The storage device according to claim 3, wherein the controller moves data which is read from a valid pseudo physical cluster of the garbage collection original logical block to a pseudo physical cluster of the garbage collection destination logical block and changes the pseudo physical cluster address corresponding to a logical address corresponding to the valid pseudo physical cluster of the first table to the pseudo physical cluster address of the garbage collection destination logical block. 5.</t>
-  </si>
-  <si>
-    <t>The storage device according to claim 3, wherein, when a second pseudo physical cluster address corresponding to a first logical cluster address that is stored in a first pseudo physical cluster which is designated by a first pseudo physical cluster address in the first table is the same as the first pseudo physical cluster address, the first pseudo physical cluster is a valid pseudo physical cluster, and wherein, when the second pseudo physical cluster address is not the same as the first pseudo physical cluster address, the first pseudo physical cluster is an invalid pseudo physical cluster.</t>
-  </si>
-  <si>
-    <t>6. The storage device according to claim 1, wherein, if the controller receives a read command relating to the cluster of the garbage collection original logical block in which the read data is uncorrectable from the external device after the second table is updated, the controller transmits information indicating a read error to the external device. 7.</t>
-  </si>
-  <si>
-    <t>A storage control method of a storage device including a nonvolatile memory that includes a plurality of physical blocks and in which each physical block includes a plurality of clusters, data is erased on a physical block basis, and data is read or written on a cluster basis, a first table that stores a relationship between a logical address which is designated by an external device and a physical address of the nonvolatile memory corresponding to the logical address, a second table that stores a relationship between a logical block to which the plurality of physical blocks of the nonvolatile memory are assigned and the plurality of physical blocks, and a controller that moves data which is read from all valid clusters of a garbage collection original logical block to a garbage collection destination logical block, erases all data of the garbage collection original logical block, and updates the first table, the storage control method, which is performed by the controller when the data which is read from the cluster of the garbage collection original logical block is uncorrectable, comprising: generating a new logical block; erasing all data of a plurality of physical blocks which are assigned to the garbage collection original logical block; assigning the plurality of physical blocks in which data is erased to the new logical block; and updating the second table such that no physical block is assigned substantially to the garbage collection original logical block.</t>
-  </si>
-  <si>
-    <t>8. The storage control method according to claim 7, wherein the second table is updated by the controller such that no physical block is assigned substantially to the garbage collection original logical block by assigning a physical block which is not capable of existing in the garbage collection original logical block. 9.</t>
-  </si>
-  <si>
-    <t>The storage control method according to claim 7, wherein a plurality of pseudo physical clusters are assigned to the logical block, wherein one pseudo physical cluster among the plurality of pseudo physical clusters stores user data and a logical cluster address, wherein the logical cluster address indicates a logical address corresponding to the one pseudo physical cluster, wherein the first table stores a pseudo physical cluster address corresponding to the logical cluster address, and wherein the pseudo physical cluster address includes information for specifying the plurality of logical blocks including the one pseudo physical cluster and information indicating a relative location of the one pseudo physical cluster in the specified logical block. 10.</t>
-  </si>
-  <si>
-    <t>The storage control method according to claim 9, wherein data which is read from a valid pseudo physical cluster of the garbage collection original logical block is moved to a pseudo physical cluster of the garbage collection destination logical block by the controller, and the pseudo physical cluster address corresponding to a logical address corresponding to the valid pseudo physical cluster of the first table is changed to the pseudo physical cluster assress of the garbage collection destination logical block by the controller.</t>
-  </si>
-  <si>
-    <t>The storage control method according to claim 9, wherein, when a second pseudo physical cluster address corresponding to a first logical cluster address that is stored in a first pseudo physical cluster which is designated by a first pseudo physical cluster address in the first table is the same as the first pseudo physical cluster address, the first pseudo physical cluster is a valid pseudo physical cluster, and wherein, when the second pseudo physical cluster address is not the same as the first pseudo physical cluster address, the first pseudo physical cluster is an invalid pseudo physical cluster.</t>
-  </si>
-  <si>
-    <t>The storage control method according to claim 7, wherein, if a read command relating to the cluster of the garbage collection original logical block in which the read data is uncorrectable is received from the external device by the controller after the second table is updated, information indicating a read error is transmitted to the external device by the controller.</t>
   </si>
   <si>
     <t>ABSTRACT According to one embodiment, a storage device includes a nonvolatile memory, a first table storing a relationship between a logical address designated by an external device and a physical address of the nonvolatile memory, a second table storing a relationship between a logical block and a plurality of physical blocks, and a controller updating the first table according to a garbage collection.</t>
@@ -1492,8 +1087,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1556,6 +1151,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1602,7 +1205,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1634,9 +1237,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1668,6 +1289,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1843,14 +1482,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C248"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="B157" sqref="B157"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="255.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1858,7 +1502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1866,10 +1510,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1877,10 +1521,10 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1888,10 +1532,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1899,10 +1543,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1910,10 +1554,10 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1921,10 +1565,10 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1932,10 +1576,10 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1943,10 +1587,10 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1954,10 +1598,10 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1965,10 +1609,10 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1976,10 +1620,10 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1987,10 +1631,10 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1998,10 +1642,10 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2009,10 +1653,10 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2020,10 +1664,10 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2031,10 +1675,10 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2042,10 +1686,10 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2053,10 +1697,10 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2064,10 +1708,10 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2075,10 +1719,10 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2086,10 +1730,10 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2097,10 +1741,10 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2108,10 +1752,10 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2119,10 +1763,10 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2130,10 +1774,10 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2141,10 +1785,10 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2152,10 +1796,10 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2163,10 +1807,10 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2174,10 +1818,10 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2185,10 +1829,10 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2196,10 +1840,10 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2207,10 +1851,10 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2218,10 +1862,10 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2229,10 +1873,10 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2240,10 +1884,10 @@
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2251,10 +1895,10 @@
         <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2262,10 +1906,10 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2273,10 +1917,10 @@
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2284,10 +1928,10 @@
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2295,10 +1939,10 @@
         <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2306,10 +1950,10 @@
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2317,10 +1961,10 @@
         <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2328,10 +1972,10 @@
         <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2339,10 +1983,10 @@
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2350,10 +1994,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2361,10 +2005,10 @@
         <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2372,10 +2016,10 @@
         <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2383,10 +2027,10 @@
         <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2394,10 +2038,10 @@
         <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2405,10 +2049,10 @@
         <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2416,10 +2060,10 @@
         <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2427,10 +2071,10 @@
         <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2438,10 +2082,10 @@
         <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2449,10 +2093,10 @@
         <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2460,10 +2104,10 @@
         <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2471,10 +2115,10 @@
         <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2482,10 +2126,10 @@
         <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2493,10 +2137,10 @@
         <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2504,10 +2148,10 @@
         <v>60</v>
       </c>
       <c r="C60" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2515,10 +2159,10 @@
         <v>61</v>
       </c>
       <c r="C61" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2526,10 +2170,10 @@
         <v>62</v>
       </c>
       <c r="C62" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2537,10 +2181,10 @@
         <v>63</v>
       </c>
       <c r="C63" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2548,10 +2192,10 @@
         <v>64</v>
       </c>
       <c r="C64" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2559,10 +2203,10 @@
         <v>65</v>
       </c>
       <c r="C65" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2570,10 +2214,10 @@
         <v>66</v>
       </c>
       <c r="C66" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2581,10 +2225,10 @@
         <v>67</v>
       </c>
       <c r="C67" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2592,10 +2236,10 @@
         <v>68</v>
       </c>
       <c r="C68" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -2603,10 +2247,10 @@
         <v>69</v>
       </c>
       <c r="C69" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2614,10 +2258,10 @@
         <v>70</v>
       </c>
       <c r="C70" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -2625,10 +2269,10 @@
         <v>71</v>
       </c>
       <c r="C71" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -2636,10 +2280,10 @@
         <v>72</v>
       </c>
       <c r="C72" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -2647,10 +2291,10 @@
         <v>73</v>
       </c>
       <c r="C73" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -2658,10 +2302,10 @@
         <v>74</v>
       </c>
       <c r="C74" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -2669,10 +2313,10 @@
         <v>75</v>
       </c>
       <c r="C75" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -2680,10 +2324,10 @@
         <v>76</v>
       </c>
       <c r="C76" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -2691,10 +2335,10 @@
         <v>77</v>
       </c>
       <c r="C77" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -2702,10 +2346,10 @@
         <v>78</v>
       </c>
       <c r="C78" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -2713,10 +2357,10 @@
         <v>79</v>
       </c>
       <c r="C79" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -2724,10 +2368,10 @@
         <v>80</v>
       </c>
       <c r="C80" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -2735,10 +2379,10 @@
         <v>81</v>
       </c>
       <c r="C81" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -2746,10 +2390,10 @@
         <v>82</v>
       </c>
       <c r="C82" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -2757,10 +2401,10 @@
         <v>83</v>
       </c>
       <c r="C83" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -2768,10 +2412,10 @@
         <v>84</v>
       </c>
       <c r="C84" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -2779,10 +2423,10 @@
         <v>85</v>
       </c>
       <c r="C85" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -2790,10 +2434,10 @@
         <v>86</v>
       </c>
       <c r="C86" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -2801,10 +2445,10 @@
         <v>87</v>
       </c>
       <c r="C87" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -2812,10 +2456,10 @@
         <v>88</v>
       </c>
       <c r="C88" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -2823,10 +2467,10 @@
         <v>89</v>
       </c>
       <c r="C89" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -2834,10 +2478,10 @@
         <v>90</v>
       </c>
       <c r="C90" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -2845,10 +2489,10 @@
         <v>91</v>
       </c>
       <c r="C91" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -2856,10 +2500,10 @@
         <v>92</v>
       </c>
       <c r="C92" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -2867,10 +2511,10 @@
         <v>93</v>
       </c>
       <c r="C93" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -2878,10 +2522,10 @@
         <v>94</v>
       </c>
       <c r="C94" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -2889,10 +2533,10 @@
         <v>95</v>
       </c>
       <c r="C95" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -2900,10 +2544,10 @@
         <v>96</v>
       </c>
       <c r="C96" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -2911,10 +2555,10 @@
         <v>97</v>
       </c>
       <c r="C97" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -2922,10 +2566,10 @@
         <v>98</v>
       </c>
       <c r="C98" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -2933,10 +2577,10 @@
         <v>99</v>
       </c>
       <c r="C99" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -2944,10 +2588,10 @@
         <v>100</v>
       </c>
       <c r="C100" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -2955,10 +2599,10 @@
         <v>101</v>
       </c>
       <c r="C101" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -2966,10 +2610,10 @@
         <v>102</v>
       </c>
       <c r="C102" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -2977,10 +2621,10 @@
         <v>103</v>
       </c>
       <c r="C103" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -2988,10 +2632,10 @@
         <v>104</v>
       </c>
       <c r="C104" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -2999,10 +2643,10 @@
         <v>105</v>
       </c>
       <c r="C105" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -3010,10 +2654,10 @@
         <v>106</v>
       </c>
       <c r="C106" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -3021,10 +2665,10 @@
         <v>107</v>
       </c>
       <c r="C107" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -3032,10 +2676,10 @@
         <v>108</v>
       </c>
       <c r="C108" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -3043,10 +2687,10 @@
         <v>109</v>
       </c>
       <c r="C109" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -3054,10 +2698,10 @@
         <v>110</v>
       </c>
       <c r="C110" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -3065,10 +2709,10 @@
         <v>111</v>
       </c>
       <c r="C111" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -3076,10 +2720,10 @@
         <v>112</v>
       </c>
       <c r="C112" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -3087,10 +2731,10 @@
         <v>113</v>
       </c>
       <c r="C113" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -3098,10 +2742,10 @@
         <v>114</v>
       </c>
       <c r="C114" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -3109,10 +2753,10 @@
         <v>115</v>
       </c>
       <c r="C115" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -3120,10 +2764,10 @@
         <v>116</v>
       </c>
       <c r="C116" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -3131,10 +2775,10 @@
         <v>117</v>
       </c>
       <c r="C117" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -3142,10 +2786,10 @@
         <v>118</v>
       </c>
       <c r="C118" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -3153,10 +2797,10 @@
         <v>119</v>
       </c>
       <c r="C119" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -3164,10 +2808,10 @@
         <v>120</v>
       </c>
       <c r="C120" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -3175,10 +2819,10 @@
         <v>121</v>
       </c>
       <c r="C121" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -3186,10 +2830,10 @@
         <v>122</v>
       </c>
       <c r="C122" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -3197,10 +2841,10 @@
         <v>123</v>
       </c>
       <c r="C123" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -3208,10 +2852,10 @@
         <v>124</v>
       </c>
       <c r="C124" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -3219,10 +2863,10 @@
         <v>125</v>
       </c>
       <c r="C125" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -3230,10 +2874,10 @@
         <v>126</v>
       </c>
       <c r="C126" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -3241,10 +2885,10 @@
         <v>127</v>
       </c>
       <c r="C127" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -3252,10 +2896,10 @@
         <v>128</v>
       </c>
       <c r="C128" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -3263,10 +2907,10 @@
         <v>129</v>
       </c>
       <c r="C129" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -3274,10 +2918,10 @@
         <v>130</v>
       </c>
       <c r="C130" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -3285,10 +2929,10 @@
         <v>131</v>
       </c>
       <c r="C131" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -3296,10 +2940,10 @@
         <v>132</v>
       </c>
       <c r="C132" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -3307,10 +2951,10 @@
         <v>133</v>
       </c>
       <c r="C133" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -3318,10 +2962,10 @@
         <v>134</v>
       </c>
       <c r="C134" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -3329,10 +2973,10 @@
         <v>135</v>
       </c>
       <c r="C135" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -3340,10 +2984,10 @@
         <v>136</v>
       </c>
       <c r="C136" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -3351,10 +2995,10 @@
         <v>137</v>
       </c>
       <c r="C137" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -3362,10 +3006,10 @@
         <v>138</v>
       </c>
       <c r="C138" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -3373,10 +3017,10 @@
         <v>139</v>
       </c>
       <c r="C139" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -3384,10 +3028,10 @@
         <v>140</v>
       </c>
       <c r="C140" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -3395,10 +3039,10 @@
         <v>141</v>
       </c>
       <c r="C141" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -3406,10 +3050,10 @@
         <v>142</v>
       </c>
       <c r="C142" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -3417,10 +3061,10 @@
         <v>143</v>
       </c>
       <c r="C143" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -3428,10 +3072,10 @@
         <v>144</v>
       </c>
       <c r="C144" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -3439,10 +3083,10 @@
         <v>145</v>
       </c>
       <c r="C145" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -3450,10 +3094,10 @@
         <v>146</v>
       </c>
       <c r="C146" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -3461,10 +3105,10 @@
         <v>147</v>
       </c>
       <c r="C147" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -3472,10 +3116,10 @@
         <v>148</v>
       </c>
       <c r="C148" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -3483,10 +3127,10 @@
         <v>149</v>
       </c>
       <c r="C149" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -3494,10 +3138,10 @@
         <v>150</v>
       </c>
       <c r="C150" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -3505,10 +3149,10 @@
         <v>151</v>
       </c>
       <c r="C151" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -3516,10 +3160,10 @@
         <v>152</v>
       </c>
       <c r="C152" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -3527,10 +3171,10 @@
         <v>153</v>
       </c>
       <c r="C153" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -3538,10 +3182,10 @@
         <v>154</v>
       </c>
       <c r="C154" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -3549,10 +3193,10 @@
         <v>155</v>
       </c>
       <c r="C155" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -3560,10 +3204,10 @@
         <v>156</v>
       </c>
       <c r="C156" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -3571,1008 +3215,238 @@
         <v>157</v>
       </c>
       <c r="C157" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="C158" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C159" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C160" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C161" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C162" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C163" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C164" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C165" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C166" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C167" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C168" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C169" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C170" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C171" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C172" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C173" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C174" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C175" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C176" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C177" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C178" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179" s="1">
-        <v>178</v>
-      </c>
-      <c r="B179" t="s">
-        <v>179</v>
-      </c>
-      <c r="C179" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="A180" s="1">
-        <v>179</v>
-      </c>
-      <c r="B180" t="s">
-        <v>180</v>
-      </c>
-      <c r="C180" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181" s="1">
-        <v>180</v>
-      </c>
-      <c r="B181" t="s">
-        <v>181</v>
-      </c>
-      <c r="C181" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="A182" s="1">
-        <v>181</v>
-      </c>
-      <c r="B182" t="s">
-        <v>182</v>
-      </c>
-      <c r="C182" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183" s="1">
-        <v>182</v>
-      </c>
-      <c r="B183" t="s">
-        <v>183</v>
-      </c>
-      <c r="C183" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="A184" s="1">
-        <v>183</v>
-      </c>
-      <c r="B184" t="s">
-        <v>184</v>
-      </c>
-      <c r="C184" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" s="1">
-        <v>184</v>
-      </c>
-      <c r="B185" t="s">
-        <v>185</v>
-      </c>
-      <c r="C185" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="A186" s="1">
-        <v>185</v>
-      </c>
-      <c r="B186" t="s">
-        <v>186</v>
-      </c>
-      <c r="C186" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="A187" s="1">
-        <v>186</v>
-      </c>
-      <c r="B187" t="s">
-        <v>187</v>
-      </c>
-      <c r="C187" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
-      <c r="A188" s="1">
-        <v>187</v>
-      </c>
-      <c r="B188" t="s">
-        <v>188</v>
-      </c>
-      <c r="C188" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
-      <c r="A189" s="1">
-        <v>188</v>
-      </c>
-      <c r="B189" t="s">
-        <v>189</v>
-      </c>
-      <c r="C189" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="A190" s="1">
-        <v>189</v>
-      </c>
-      <c r="B190" t="s">
-        <v>190</v>
-      </c>
-      <c r="C190" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="A191" s="1">
-        <v>190</v>
-      </c>
-      <c r="B191" t="s">
-        <v>191</v>
-      </c>
-      <c r="C191" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="A192" s="1">
-        <v>191</v>
-      </c>
-      <c r="B192" t="s">
-        <v>192</v>
-      </c>
-      <c r="C192" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193" s="1">
-        <v>192</v>
-      </c>
-      <c r="B193" t="s">
-        <v>193</v>
-      </c>
-      <c r="C193" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194" s="1">
-        <v>193</v>
-      </c>
-      <c r="B194" t="s">
-        <v>194</v>
-      </c>
-      <c r="C194" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="A195" s="1">
-        <v>194</v>
-      </c>
-      <c r="B195" t="s">
-        <v>195</v>
-      </c>
-      <c r="C195" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" s="1">
-        <v>195</v>
-      </c>
-      <c r="B196" t="s">
-        <v>196</v>
-      </c>
-      <c r="C196" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197" s="1">
-        <v>196</v>
-      </c>
-      <c r="B197" t="s">
-        <v>197</v>
-      </c>
-      <c r="C197" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198" s="1">
-        <v>197</v>
-      </c>
-      <c r="B198" t="s">
-        <v>198</v>
-      </c>
-      <c r="C198" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="A199" s="1">
-        <v>198</v>
-      </c>
-      <c r="B199" t="s">
-        <v>175</v>
-      </c>
-      <c r="C199" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
-      <c r="A200" s="1">
-        <v>199</v>
-      </c>
-      <c r="B200" t="s">
-        <v>199</v>
-      </c>
-      <c r="C200" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="A201" s="1">
-        <v>200</v>
-      </c>
-      <c r="B201" t="s">
-        <v>200</v>
-      </c>
-      <c r="C201" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
-      <c r="A202" s="1">
-        <v>201</v>
-      </c>
-      <c r="B202" t="s">
-        <v>201</v>
-      </c>
-      <c r="C202" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
-      <c r="A203" s="1">
-        <v>202</v>
-      </c>
-      <c r="B203" t="s">
-        <v>202</v>
-      </c>
-      <c r="C203" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
-      <c r="A204" s="1">
-        <v>203</v>
-      </c>
-      <c r="B204" t="s">
-        <v>203</v>
-      </c>
-      <c r="C204" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
-      <c r="A205" s="1">
-        <v>204</v>
-      </c>
-      <c r="B205" t="s">
-        <v>204</v>
-      </c>
-      <c r="C205" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
-      <c r="A206" s="1">
-        <v>205</v>
-      </c>
-      <c r="B206" t="s">
-        <v>205</v>
-      </c>
-      <c r="C206" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
-      <c r="A207" s="1">
-        <v>206</v>
-      </c>
-      <c r="B207" t="s">
-        <v>182</v>
-      </c>
-      <c r="C207" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
-      <c r="A208" s="1">
-        <v>207</v>
-      </c>
-      <c r="B208" t="s">
-        <v>206</v>
-      </c>
-      <c r="C208" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
-      <c r="A209" s="1">
-        <v>208</v>
-      </c>
-      <c r="B209" t="s">
-        <v>207</v>
-      </c>
-      <c r="C209" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
-      <c r="A210" s="1">
-        <v>209</v>
-      </c>
-      <c r="B210" t="s">
-        <v>208</v>
-      </c>
-      <c r="C210" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
-      <c r="A211" s="1">
-        <v>210</v>
-      </c>
-      <c r="B211" t="s">
-        <v>209</v>
-      </c>
-      <c r="C211" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
-      <c r="A212" s="1">
-        <v>211</v>
-      </c>
-      <c r="B212" t="s">
-        <v>210</v>
-      </c>
-      <c r="C212" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
-      <c r="A213" s="1">
-        <v>212</v>
-      </c>
-      <c r="B213" t="s">
-        <v>211</v>
-      </c>
-      <c r="C213" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
-      <c r="A214" s="1">
-        <v>213</v>
-      </c>
-      <c r="B214" t="s">
-        <v>212</v>
-      </c>
-      <c r="C214" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
-      <c r="A215" s="1">
-        <v>214</v>
-      </c>
-      <c r="B215" t="s">
-        <v>213</v>
-      </c>
-      <c r="C215" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
-      <c r="A216" s="1">
-        <v>215</v>
-      </c>
-      <c r="B216" t="s">
-        <v>214</v>
-      </c>
-      <c r="C216" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
-      <c r="A217" s="1">
-        <v>216</v>
-      </c>
-      <c r="B217" t="s">
-        <v>215</v>
-      </c>
-      <c r="C217" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
-      <c r="A218" s="1">
-        <v>217</v>
-      </c>
-      <c r="B218" t="s">
-        <v>216</v>
-      </c>
-      <c r="C218" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
-      <c r="A219" s="1">
-        <v>218</v>
-      </c>
-      <c r="B219" t="s">
-        <v>217</v>
-      </c>
-      <c r="C219" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
-      <c r="A220" s="1">
-        <v>219</v>
-      </c>
-      <c r="B220" t="s">
-        <v>218</v>
-      </c>
-      <c r="C220" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
-      <c r="A221" s="1">
-        <v>220</v>
-      </c>
-      <c r="B221" t="s">
-        <v>219</v>
-      </c>
-      <c r="C221" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
-      <c r="A222" s="1">
-        <v>221</v>
-      </c>
-      <c r="B222" t="s">
-        <v>220</v>
-      </c>
-      <c r="C222" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
-      <c r="A223" s="1">
-        <v>222</v>
-      </c>
-      <c r="B223" t="s">
-        <v>221</v>
-      </c>
-      <c r="C223" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
-      <c r="A224" s="1">
-        <v>223</v>
-      </c>
-      <c r="B224" t="s">
-        <v>222</v>
-      </c>
-      <c r="C224" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
-      <c r="A225" s="1">
-        <v>224</v>
-      </c>
-      <c r="B225" t="s">
-        <v>223</v>
-      </c>
-      <c r="C225" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3">
-      <c r="A226" s="1">
-        <v>225</v>
-      </c>
-      <c r="B226" t="s">
-        <v>224</v>
-      </c>
-      <c r="C226" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
-      <c r="A227" s="1">
-        <v>226</v>
-      </c>
-      <c r="B227" t="s">
-        <v>225</v>
-      </c>
-      <c r="C227" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3">
-      <c r="A228" s="1">
-        <v>227</v>
-      </c>
-      <c r="B228" t="s">
-        <v>226</v>
-      </c>
-      <c r="C228" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
-      <c r="A229" s="1">
-        <v>228</v>
-      </c>
-      <c r="B229" t="s">
-        <v>227</v>
-      </c>
-      <c r="C229" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
-      <c r="A230" s="1">
-        <v>229</v>
-      </c>
-      <c r="B230" t="s">
-        <v>228</v>
-      </c>
-      <c r="C230" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
-      <c r="A231" s="1">
-        <v>230</v>
-      </c>
-      <c r="B231" t="s">
-        <v>229</v>
-      </c>
-      <c r="C231" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3">
-      <c r="A232" s="1">
-        <v>231</v>
-      </c>
-      <c r="B232" t="s">
-        <v>230</v>
-      </c>
-      <c r="C232" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3">
-      <c r="A233" s="1">
-        <v>232</v>
-      </c>
-      <c r="B233" t="s">
-        <v>231</v>
-      </c>
-      <c r="C233" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3">
-      <c r="A234" s="1">
-        <v>233</v>
-      </c>
-      <c r="B234" t="s">
-        <v>232</v>
-      </c>
-      <c r="C234" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3">
-      <c r="A235" s="1">
-        <v>234</v>
-      </c>
-      <c r="B235" t="s">
-        <v>233</v>
-      </c>
-      <c r="C235" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
-      <c r="A236" s="1">
-        <v>235</v>
-      </c>
-      <c r="B236" t="s">
-        <v>234</v>
-      </c>
-      <c r="C236" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3">
-      <c r="A237" s="1">
-        <v>236</v>
-      </c>
-      <c r="B237" t="s">
-        <v>235</v>
-      </c>
-      <c r="C237" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3">
-      <c r="A238" s="1">
-        <v>237</v>
-      </c>
-      <c r="B238" t="s">
-        <v>236</v>
-      </c>
-      <c r="C238" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3">
-      <c r="A239" s="1">
-        <v>238</v>
-      </c>
-      <c r="B239" t="s">
-        <v>237</v>
-      </c>
-      <c r="C239" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3">
-      <c r="A240" s="1">
-        <v>239</v>
-      </c>
-      <c r="B240" t="s">
-        <v>238</v>
-      </c>
-      <c r="C240" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3">
-      <c r="A241" s="1">
-        <v>240</v>
-      </c>
-      <c r="B241" t="s">
-        <v>239</v>
-      </c>
-      <c r="C241" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3">
-      <c r="A242" s="1">
-        <v>241</v>
-      </c>
-      <c r="B242" t="s">
-        <v>240</v>
-      </c>
-      <c r="C242" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3">
-      <c r="A243" s="1">
-        <v>242</v>
-      </c>
-      <c r="B243" t="s">
-        <v>241</v>
-      </c>
-      <c r="C243" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3">
-      <c r="A244" s="1">
-        <v>243</v>
-      </c>
-      <c r="B244" t="s">
-        <v>242</v>
-      </c>
-      <c r="C244" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3">
-      <c r="A245" s="1">
-        <v>244</v>
-      </c>
-      <c r="B245" t="s">
-        <v>243</v>
-      </c>
-      <c r="C245" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3">
-      <c r="A246" s="1">
-        <v>245</v>
-      </c>
-      <c r="B246" t="s">
-        <v>244</v>
-      </c>
-      <c r="C246" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3">
-      <c r="A247" s="1">
-        <v>246</v>
-      </c>
-      <c r="B247" t="s">
-        <v>245</v>
-      </c>
-      <c r="C247" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3">
-      <c r="A248" s="1">
-        <v>247</v>
-      </c>
-      <c r="B248" t="s">
-        <v>246</v>
-      </c>
-      <c r="C248" t="s">
-        <v>490</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>

--- a/sentence_pairs_result.xlsx
+++ b/sentence_pairs_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="331">
   <si>
     <t>ja</t>
   </si>
@@ -274,7 +274,10 @@
     <t>FIG. 3は、実施形態の発光部305の構成の一具体例を表す外観図である。</t>
   </si>
   <si>
-    <t>発光部305は、複数の発光素子306-1から発光素子306-nを備える(以下、「発光素子306」という。</t>
+    <t>発光部305は、複数の発光素子306-1から発光素子306-nを備える(以下、「発光素子306」という。)。</t>
+  </si>
+  <si>
+    <t>発光素子306は、発光制御部314からの発光指示に応じて発光する。 強制発光させるデータは、発光指示の一態様である。</t>
   </si>
   <si>
     <t>発光素子306は、画像形成処理中に発光することで、感光体ドラム320に静電潜像を形成させる。</t>
@@ -394,7 +397,7 @@
     <t>制御部310は、画像データの主走査方向の画素数をカウントする変数nに1を設定する(ACT203)。</t>
   </si>
   <si>
-    <t>制御部310は、主走査方向からn番目の画素に対応する発光素子306の累積発光時間の値(以下、「発光時間」という。 )を発光時間記憶部301から取得する(ACT204)。</t>
+    <t>制御部310は、主走査方向からn番目の画素に対応する発光素子306の累積発光時間の値(以下、「発光時間」という。)を発光時間記憶部301から取得する(ACT204)。</t>
   </si>
   <si>
     <t>発光制御部314は、発光時間の値が調整時間の値よりも大きいか否か判定する(ACT205)。</t>
@@ -767,6 +770,9 @@
   </si>
   <si>
     <t>The light emitting unit 305 includes a plurality of light emitting elements 306-1 to 306-n (hereinafter, referred to as "light emitting elements 306").</t>
+  </si>
+  <si>
+    <t>Each of the light emitting elements 306 is connected to the light emission control unitThe light emitting elements 306 emit light in response to a light emission instruction from the light emission control unitData which makes light to be forcibly emitted is an aspect of the light emission instruction.</t>
   </si>
   <si>
     <t>The light emitting elements 306 forms electrostatic latent image in a photosensitive drum 320 by making light to be emitted during image formation processing.</t>
@@ -1358,7 +1364,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C168"/>
+  <dimension ref="A1:C169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1380,7 +1386,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1391,7 +1397,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1402,7 +1408,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1413,7 +1419,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1424,7 +1430,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1435,7 +1441,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1446,7 +1452,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1457,7 +1463,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1468,7 +1474,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1479,7 +1485,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1490,7 +1496,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1501,7 +1507,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1512,7 +1518,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1523,7 +1529,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1534,7 +1540,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1545,7 +1551,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1556,7 +1562,7 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1567,7 +1573,7 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1578,7 +1584,7 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1589,7 +1595,7 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1600,7 +1606,7 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1611,7 +1617,7 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1622,7 +1628,7 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1633,7 +1639,7 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1644,7 +1650,7 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1655,7 +1661,7 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1666,7 +1672,7 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1677,7 +1683,7 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1688,7 +1694,7 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1699,7 +1705,7 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1710,7 +1716,7 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1721,7 +1727,7 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1732,7 +1738,7 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1743,7 +1749,7 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1754,7 +1760,7 @@
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1765,7 +1771,7 @@
         <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1776,7 +1782,7 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1787,7 +1793,7 @@
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1798,7 +1804,7 @@
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1809,7 +1815,7 @@
         <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1820,7 +1826,7 @@
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1831,7 +1837,7 @@
         <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1842,7 +1848,7 @@
         <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1853,7 +1859,7 @@
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1864,7 +1870,7 @@
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1875,7 +1881,7 @@
         <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1886,7 +1892,7 @@
         <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1897,7 +1903,7 @@
         <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1908,7 +1914,7 @@
         <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1919,7 +1925,7 @@
         <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1930,7 +1936,7 @@
         <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1941,7 +1947,7 @@
         <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1952,7 +1958,7 @@
         <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1963,7 +1969,7 @@
         <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1974,7 +1980,7 @@
         <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1985,7 +1991,7 @@
         <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1996,7 +2002,7 @@
         <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2007,7 +2013,7 @@
         <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2018,7 +2024,7 @@
         <v>60</v>
       </c>
       <c r="C60" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2029,7 +2035,7 @@
         <v>61</v>
       </c>
       <c r="C61" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2040,7 +2046,7 @@
         <v>62</v>
       </c>
       <c r="C62" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2051,7 +2057,7 @@
         <v>63</v>
       </c>
       <c r="C63" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2062,7 +2068,7 @@
         <v>64</v>
       </c>
       <c r="C64" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2073,7 +2079,7 @@
         <v>65</v>
       </c>
       <c r="C65" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2084,7 +2090,7 @@
         <v>66</v>
       </c>
       <c r="C66" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2095,7 +2101,7 @@
         <v>67</v>
       </c>
       <c r="C67" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2106,7 +2112,7 @@
         <v>68</v>
       </c>
       <c r="C68" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2117,7 +2123,7 @@
         <v>69</v>
       </c>
       <c r="C69" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2128,7 +2134,7 @@
         <v>70</v>
       </c>
       <c r="C70" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2139,7 +2145,7 @@
         <v>71</v>
       </c>
       <c r="C71" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2150,7 +2156,7 @@
         <v>72</v>
       </c>
       <c r="C72" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2161,7 +2167,7 @@
         <v>73</v>
       </c>
       <c r="C73" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2172,7 +2178,7 @@
         <v>74</v>
       </c>
       <c r="C74" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2183,7 +2189,7 @@
         <v>75</v>
       </c>
       <c r="C75" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2194,7 +2200,7 @@
         <v>76</v>
       </c>
       <c r="C76" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2205,7 +2211,7 @@
         <v>77</v>
       </c>
       <c r="C77" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2216,7 +2222,7 @@
         <v>78</v>
       </c>
       <c r="C78" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2227,7 +2233,7 @@
         <v>79</v>
       </c>
       <c r="C79" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2238,7 +2244,7 @@
         <v>80</v>
       </c>
       <c r="C80" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2249,7 +2255,7 @@
         <v>81</v>
       </c>
       <c r="C81" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2260,7 +2266,7 @@
         <v>82</v>
       </c>
       <c r="C82" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2271,7 +2277,7 @@
         <v>83</v>
       </c>
       <c r="C83" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2282,7 +2288,7 @@
         <v>84</v>
       </c>
       <c r="C84" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2293,7 +2299,7 @@
         <v>85</v>
       </c>
       <c r="C85" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2304,7 +2310,7 @@
         <v>86</v>
       </c>
       <c r="C86" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2315,7 +2321,7 @@
         <v>87</v>
       </c>
       <c r="C87" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2326,7 +2332,7 @@
         <v>88</v>
       </c>
       <c r="C88" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2337,7 +2343,7 @@
         <v>89</v>
       </c>
       <c r="C89" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2348,7 +2354,7 @@
         <v>90</v>
       </c>
       <c r="C90" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2359,7 +2365,7 @@
         <v>91</v>
       </c>
       <c r="C91" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2370,7 +2376,7 @@
         <v>92</v>
       </c>
       <c r="C92" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2381,7 +2387,7 @@
         <v>93</v>
       </c>
       <c r="C93" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2392,7 +2398,7 @@
         <v>94</v>
       </c>
       <c r="C94" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2403,7 +2409,7 @@
         <v>95</v>
       </c>
       <c r="C95" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2414,7 +2420,7 @@
         <v>96</v>
       </c>
       <c r="C96" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2425,7 +2431,7 @@
         <v>97</v>
       </c>
       <c r="C97" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2436,7 +2442,7 @@
         <v>98</v>
       </c>
       <c r="C98" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2447,7 +2453,7 @@
         <v>99</v>
       </c>
       <c r="C99" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2458,7 +2464,7 @@
         <v>100</v>
       </c>
       <c r="C100" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2469,7 +2475,7 @@
         <v>101</v>
       </c>
       <c r="C101" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2480,7 +2486,7 @@
         <v>102</v>
       </c>
       <c r="C102" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2491,7 +2497,7 @@
         <v>103</v>
       </c>
       <c r="C103" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2502,7 +2508,7 @@
         <v>104</v>
       </c>
       <c r="C104" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2513,7 +2519,7 @@
         <v>105</v>
       </c>
       <c r="C105" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2524,7 +2530,7 @@
         <v>106</v>
       </c>
       <c r="C106" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2535,7 +2541,7 @@
         <v>107</v>
       </c>
       <c r="C107" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2546,7 +2552,7 @@
         <v>108</v>
       </c>
       <c r="C108" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2557,7 +2563,7 @@
         <v>109</v>
       </c>
       <c r="C109" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2568,7 +2574,7 @@
         <v>110</v>
       </c>
       <c r="C110" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2579,7 +2585,7 @@
         <v>111</v>
       </c>
       <c r="C111" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2590,7 +2596,7 @@
         <v>112</v>
       </c>
       <c r="C112" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2601,7 +2607,7 @@
         <v>113</v>
       </c>
       <c r="C113" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2612,7 +2618,7 @@
         <v>114</v>
       </c>
       <c r="C114" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2623,7 +2629,7 @@
         <v>115</v>
       </c>
       <c r="C115" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2634,7 +2640,7 @@
         <v>116</v>
       </c>
       <c r="C116" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2645,7 +2651,7 @@
         <v>117</v>
       </c>
       <c r="C117" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2656,7 +2662,7 @@
         <v>118</v>
       </c>
       <c r="C118" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2667,7 +2673,7 @@
         <v>119</v>
       </c>
       <c r="C119" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2678,7 +2684,7 @@
         <v>120</v>
       </c>
       <c r="C120" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2689,7 +2695,7 @@
         <v>121</v>
       </c>
       <c r="C121" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2700,7 +2706,7 @@
         <v>122</v>
       </c>
       <c r="C122" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2711,7 +2717,7 @@
         <v>123</v>
       </c>
       <c r="C123" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2722,7 +2728,7 @@
         <v>124</v>
       </c>
       <c r="C124" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2733,7 +2739,7 @@
         <v>125</v>
       </c>
       <c r="C125" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2744,7 +2750,7 @@
         <v>126</v>
       </c>
       <c r="C126" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2755,7 +2761,7 @@
         <v>127</v>
       </c>
       <c r="C127" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2766,7 +2772,7 @@
         <v>128</v>
       </c>
       <c r="C128" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2777,7 +2783,7 @@
         <v>129</v>
       </c>
       <c r="C129" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2788,7 +2794,7 @@
         <v>130</v>
       </c>
       <c r="C130" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2799,7 +2805,7 @@
         <v>131</v>
       </c>
       <c r="C131" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2810,7 +2816,7 @@
         <v>132</v>
       </c>
       <c r="C132" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2821,7 +2827,7 @@
         <v>133</v>
       </c>
       <c r="C133" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2832,7 +2838,7 @@
         <v>134</v>
       </c>
       <c r="C134" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2843,7 +2849,7 @@
         <v>135</v>
       </c>
       <c r="C135" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2854,7 +2860,7 @@
         <v>136</v>
       </c>
       <c r="C136" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2865,7 +2871,7 @@
         <v>137</v>
       </c>
       <c r="C137" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2876,7 +2882,7 @@
         <v>138</v>
       </c>
       <c r="C138" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2887,7 +2893,7 @@
         <v>139</v>
       </c>
       <c r="C139" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2898,7 +2904,7 @@
         <v>140</v>
       </c>
       <c r="C140" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2909,7 +2915,7 @@
         <v>141</v>
       </c>
       <c r="C141" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2920,7 +2926,7 @@
         <v>142</v>
       </c>
       <c r="C142" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2931,7 +2937,7 @@
         <v>143</v>
       </c>
       <c r="C143" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2942,7 +2948,7 @@
         <v>144</v>
       </c>
       <c r="C144" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2953,7 +2959,7 @@
         <v>145</v>
       </c>
       <c r="C145" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2964,7 +2970,7 @@
         <v>146</v>
       </c>
       <c r="C146" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2975,7 +2981,7 @@
         <v>147</v>
       </c>
       <c r="C147" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2986,7 +2992,7 @@
         <v>148</v>
       </c>
       <c r="C148" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2997,7 +3003,7 @@
         <v>149</v>
       </c>
       <c r="C149" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3008,7 +3014,7 @@
         <v>150</v>
       </c>
       <c r="C150" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3019,7 +3025,7 @@
         <v>151</v>
       </c>
       <c r="C151" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3030,7 +3036,7 @@
         <v>152</v>
       </c>
       <c r="C152" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3041,7 +3047,7 @@
         <v>153</v>
       </c>
       <c r="C153" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3052,7 +3058,7 @@
         <v>154</v>
       </c>
       <c r="C154" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3063,7 +3069,7 @@
         <v>155</v>
       </c>
       <c r="C155" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3074,7 +3080,7 @@
         <v>156</v>
       </c>
       <c r="C156" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3082,10 +3088,10 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C157" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3093,10 +3099,10 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C158" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3107,7 +3113,7 @@
         <v>158</v>
       </c>
       <c r="C159" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3118,7 +3124,7 @@
         <v>159</v>
       </c>
       <c r="C160" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3129,7 +3135,7 @@
         <v>160</v>
       </c>
       <c r="C161" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3140,7 +3146,7 @@
         <v>161</v>
       </c>
       <c r="C162" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3151,7 +3157,7 @@
         <v>162</v>
       </c>
       <c r="C163" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3162,7 +3168,7 @@
         <v>163</v>
       </c>
       <c r="C164" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3173,7 +3179,7 @@
         <v>164</v>
       </c>
       <c r="C165" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3181,10 +3187,10 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>21</v>
+        <v>165</v>
       </c>
       <c r="C166" t="s">
-        <v>185</v>
+        <v>330</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3192,7 +3198,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C167" t="s">
         <v>186</v>
@@ -3203,10 +3209,21 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>165</v>
+        <v>22</v>
       </c>
       <c r="C168" t="s">
         <v>187</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>166</v>
+      </c>
+      <c r="C169" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/sentence_pairs_result.xlsx
+++ b/sentence_pairs_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="326">
   <si>
     <t>ja</t>
   </si>
@@ -22,991 +22,976 @@
     <t>en</t>
   </si>
   <si>
-    <t>(TITLE OF THE INVENTION) 画像形成装置及び画像形成方法 FIELD Embodiments described herein relate generally to画像形成装置及び画像形成方法 Background 画像形成装置が備える発光素子は、発光することで劣化し発光量が低下する。</t>
-  </si>
-  <si>
-    <t>発光量が低下すると、各発光素子の発光量が不均一になり、印字品質が低下する。</t>
-  </si>
-  <si>
-    <t>そのため、各発光素子の発光量は均一に維持されることが望ましい。</t>
-  </si>
-  <si>
-    <t>しかし、駆動電流により発光素子の発光量を増やすことは、発光素子の劣化をさらに速める。</t>
-  </si>
-  <si>
-    <t>また、発光素子の発光時間を揃えるために発光素子を強制的に発光させることも、発光素子の劣化を早める場合があった。</t>
-  </si>
-  <si>
-    <t>BRIEF DESCRIPTION OF THE DRAWINGS FIG. 1は、実施形態の画像形成装置100の全体構成例を示す外観図。</t>
-  </si>
-  <si>
-    <t>FIG. 2は、実施形態の発光部305の機能構成を表す機能ブロック図。</t>
-  </si>
-  <si>
-    <t>FIG. 3は、実施形態の発光部305の構成の一具体例を表す外観図。</t>
-  </si>
-  <si>
-    <t>FIG. 4は、実施形態の発光時間記憶部301が記憶する発光素子306の各累積発光時間を記憶する一具体例を示す図 FIG. 5は、実施形態の発光素子306を発光させるか否かを判定するフローチャート。</t>
-  </si>
-  <si>
-    <t>FIG. 6は、実施形態の発光素子306を発光させるか否かを判定するフローチャート。</t>
-  </si>
-  <si>
-    <t>FIG. 7は、実施形態の発光素子306を強制発光させる場合の処理の流れを示すフローチャートである。</t>
-  </si>
-  <si>
-    <t>FIG. 8は、実施形態の発光素子306を強制発光させる場合の処理の流れを示すフローチャートである。</t>
-  </si>
-  <si>
-    <t>FIG. 9は、画像データ(A)を印字した場合の発光素子306の累積発光時間を表した図。</t>
-  </si>
-  <si>
-    <t>FIG. 10は、画像データ(A)を5部印字後の発光素子306の累積発光時間を示す図。</t>
-  </si>
-  <si>
-    <t>FIG. 11は、画像データ(A)を5部印字後に発光素子306の累積発光時間が調整時間に到達した状態を示す図。</t>
-  </si>
-  <si>
-    <t>FIG. 12は、画像データ(B)を印字した場合の発光素子306の累積発光時間を表した図。</t>
-  </si>
-  <si>
-    <t>FIG. 13は、画像データ(B)を15部印字後の発光素子306の累積発光時間を示す図。</t>
-  </si>
-  <si>
-    <t>FIG. 14は、画像データ(B)を15部印字後に発光素子306の累積発光時間が調整時間に到達した状態を示す図。</t>
-  </si>
-  <si>
-    <t>DETAILED DESCRIPTION 実施形態の画像形成装置は、発光部と、調整時間記憶部と、発光制御部とを持つ。</t>
-  </si>
-  <si>
-    <t>発光部は、感光体ドラムに静電潜像を形成させる複数の発光素子を備える。</t>
-  </si>
-  <si>
-    <t>調整時間記憶部は、累積発光時間が最長である発光素子の累積発光時間よりも短い時間である調整時間を記憶する。</t>
-  </si>
-  <si>
-    <t>発光制御部は、前記複数の発光素子のうち、一の発光素子の累積発光時間と他の発光素子の累積発光時間の差が所定の条件を満たす場合、前記調整時間記憶部に記憶する調整時間よりも累積発光時間が短い発光素子に対して前記調整時間まで前記発光素子を発光させるように制御する。</t>
-  </si>
-  <si>
-    <t>FIG. 1は、実施形態の画像形成装置100の全体構成例を示す外観図である。</t>
-  </si>
-  <si>
-    <t>画像形成装置100は、例えば複合機である。</t>
-  </si>
-  <si>
-    <t>画像形成装置100は、ディスプレイ110、コントロールパネル120、プリンタ部130、シート収容部140及び画像読取部200を備える。 なお、画像形成装置100のプリンタ部130は、トナー像を定着させる装置であってもよい。</t>
-  </si>
-  <si>
-    <t>画像形成装置100は、トナー等の現像剤を用いてシート上に画像を形成する。</t>
-  </si>
-  <si>
-    <t>シートは、例えば紙やラベル用紙である。</t>
-  </si>
-  <si>
-    <t>シートは、その表面に画像形成装置100が画像を形成できる物であればどのような物であってもよい。</t>
-  </si>
-  <si>
-    <t>ディスプレイ110は、液晶ディスプレイ、有機EL(Electro Luminescence)ディスプレイ等の画像表示装置である。</t>
-  </si>
-  <si>
-    <t>ディスプレイ110は、画像形成装置100に関する種々の情報を表示する。</t>
-  </si>
-  <si>
-    <t>コントロールパネル120は、複数のボタンを有する。</t>
-  </si>
-  <si>
-    <t>コントロールパネル120は、ユーザの操作を受け付ける。 コントロールパネル120は、ユーザによって行われた操作に応じた信号を、画像形成装置100の制御部に出力する。 なお、ディスプレイ110とコントロールパネル120とは一体のタッチパネルとして構成されてもよい。</t>
-  </si>
-  <si>
-    <t>プリンタ部130は、画像読取部200によって生成された画像情報又は通信路を介して受信された画像情報に基づいて、シート上に画像を形成する。</t>
-  </si>
-  <si>
-    <t>プリンタ部130は、例えば以下のような処理によって画像を形成する。</t>
-  </si>
-  <si>
-    <t>プリンタ部130の画像形成部は、画像情報に基づいて感光体ドラム上に静電潜像を形成する。</t>
-  </si>
-  <si>
-    <t>プリンタ部130の画像形成部は、静電潜像に現像剤を付着させることによって可視像を形成する。</t>
-  </si>
-  <si>
-    <t>現像剤の具体例として、トナーがある。</t>
-  </si>
-  <si>
-    <t>プリンタ部130の転写部は、可視像をシート上に転写する。</t>
-  </si>
-  <si>
-    <t>プリンタ部130の定着部は、シートに対して加熱及び加圧を行うことによって、可視像をシート上に定着させる。</t>
-  </si>
-  <si>
-    <t>なお、画像が形成されるシートは、シート収容部140に収容されているシートであってもよいし、手指しされたシートであってもよい。</t>
-  </si>
-  <si>
-    <t>シート収容部140は、プリンタ部130における画像形成に用いられるシートを収容する。 画像読取部200は、読み取り対象の画像情報を光の明暗として読み取る。</t>
-  </si>
-  <si>
-    <t>画像読取部200は、読み取られた画像情報を記録する。</t>
-  </si>
-  <si>
-    <t>記録された画像情報は、ネットワークを介して他の情報処理装置に送信されてもよい。</t>
-  </si>
-  <si>
-    <t>記録された画像情報は、プリンタ部130によってシート上に画像形成されてもよい。</t>
-  </si>
-  <si>
-    <t>FIG. 2は、実施形態の発光部305の機能構成を表す機能ブロック図である。 画像形成装置100は、発光時間記憶部301、最短記憶部302、最長記憶部303、調整時間記憶部304、発光部305及び制御部310を備える。</t>
-  </si>
-  <si>
-    <t>発光時間記憶部301は、磁気ハードディスク装置や半導体記憶装置等の記憶装置を用いて構成される。 発光時間記憶部301は、発光部305が備える複数の発光素子306の各累積発光時間を記憶する。</t>
-  </si>
-  <si>
-    <t>累積発光時間は、発光素子306毎に記憶される。 発光時間記憶部301には複数の累積発行時間が記憶される。</t>
-  </si>
-  <si>
-    <t>発光素子306が発光する度に対応する一つの累積発光時間が増加する。</t>
-  </si>
-  <si>
-    <t>累積発光時間は発光部305の光量を調整するために使用される使用される。 最短記憶部302は、磁気ハードディスク装置や半導体記憶装置等の記憶装置を用いて構成される。</t>
-  </si>
-  <si>
-    <t>最短記憶部302に記憶される累積発光時間は、差分算出部312によって差分値を算出される際に用いられる。 なお、本実施例では、最も短い値のみを記憶するが、例えば累積発光時間を短い順に3つ選択し、その平均を記憶してもよい。</t>
-  </si>
-  <si>
-    <t>最長記憶部303は、磁気ハードディスク装置や半導体記憶装置等の記憶装置を用いて構成される。</t>
-  </si>
-  <si>
-    <t>最長記憶部303は、発光時間記憶部301に記憶される複数の発光素子の累積発光時間の中で最も高い値を記憶する。 発光時間記憶部301に記憶される複数の累積発光時間のうち、最長記憶部303が記憶する累積発光時間より大きい値が発生すると、最長記憶部303に記憶する値は更新される。</t>
-  </si>
-  <si>
-    <t>最長記憶部303に記憶される累積発光時間は、差分算出部312によって差分値を算出される際に用いられる。 なお、本実施例では、最も高い値のみを記憶するが、例えば累積発光時間を高い順に3つ選択し、その平均を記憶してもよい。</t>
-  </si>
-  <si>
-    <t>調整時間記憶部304は、磁気ハードディスク装置や半導体記憶装置等の記憶装置を用いて構成される。</t>
-  </si>
-  <si>
-    <t>調整時間記憶部304は、調整時間を記憶する。</t>
-  </si>
-  <si>
-    <t>調整時間とは最長記憶部303に記憶される累積発光時間よりも小さく、最短記憶部302に記憶する累積発光時間よりも大きい値である。 本実施例では、(最長記憶部303が記憶する累積発光時間―最短記憶部302が記憶する累積発光時間)÷2の値が使用される。</t>
-  </si>
-  <si>
-    <t>調整時間は、他のどのような方法で算出されてもよい。</t>
-  </si>
-  <si>
-    <t>発光時間記憶部301が記憶する累積発光時間が調整時間に満たない発光素子306は、調整時間まで強制発光される。</t>
-  </si>
-  <si>
-    <t>制御部310は、画像形成装置100の各部の動作を制御する。 制御部310は、例えばCPU(Central Processing Unit)及びRAM(Random Access Memory)を備えた装置により実行される。</t>
-  </si>
-  <si>
-    <t>制御部310は、画像形成プログラムを実行することによって、発光時間判定部311、差分算出部312、差分判定部313及び発光制御部314及び調整時間算出部315として機能する。</t>
-  </si>
-  <si>
-    <t>発光時間判定部311は、最短記憶部302と最長記憶部303の更新を行う。 まず最短記憶部302の更新に関して説明する。</t>
-  </si>
-  <si>
-    <t>発光時間判定部311は、最短記憶部302に記憶する累積発光時間と発光時間記憶部301に記憶する複数の累積発光時間とが所定の条件を満たすか判定する。</t>
-  </si>
-  <si>
-    <t>発光時間記憶部301に記憶する複数の累積発光時間と最短記憶部302に記憶する累積発光時間とを比較する場合、所定の条件は、例えば発光素子306の累積発光時間の方が小さいか否かであっても良い。</t>
-  </si>
-  <si>
-    <t>次に最長記憶部303の更新に関して説明する。</t>
-  </si>
-  <si>
-    <t>発光時間記憶部301に記憶する複数の累積発光時間と最長記憶部303とを比較する場合、所定の条件は、例えば発光素子306の累積発光時間の方が大きいか否かであっても良い。</t>
-  </si>
-  <si>
-    <t>所定の条件は、最短記憶部302又は最長記憶部303に記憶される累積発光時間と発光素子306の累積発光時間との大小関係が比較できればどのような条件でも良い。</t>
-  </si>
-  <si>
-    <t>所定の条件を満たすと、発光時間判定部311は、発光素子306の累積発光時間を、判定された最短記憶部302又は最長記憶部303に記録する。</t>
-  </si>
-  <si>
-    <t>差分算出部312は、最長記憶部303に記憶される累積発光時間と最短記憶部302に記憶される累積発光時間との差分値を算出する。 差分判定部313は、差分算出部312によって算出された差分値が強制発光閾値よりも小さいか否か判定する。</t>
-  </si>
-  <si>
-    <t>強制発光閾値は、発光素子306を強制的に発光させるか否かを判定する値である。</t>
-  </si>
-  <si>
-    <t>差分値が強制発光閾値よりも小さい場合、発光制御部314は、発光素子306を発光させない。</t>
-  </si>
-  <si>
-    <t>これに対して、差分値が強制発光閾値以上の場合、発光制御部314は、発光素子306を発光させる。</t>
-  </si>
-  <si>
-    <t>強制発光閾値は、予め画像形成装置100に記録される。</t>
-  </si>
-  <si>
-    <t>発光制御部314は、発光素子306の発光を制御する。 発光制御部314は、発光素子306が発光すると発光した発光素子306の累積発光時間を増加させる。</t>
-  </si>
-  <si>
-    <t>発光制御部314は、発光素子306の累積発光時間を発光時間記憶部301に記憶させる。 発光制御部314は、発光素子306の累積発光時間が調整時間よりも小さいか否か判定する。</t>
-  </si>
-  <si>
-    <t>発光素子306の累積発光時間が調整時間よりも小さい場合、発光素子306を強制発光させるデータを生成する。</t>
-  </si>
-  <si>
-    <t>発光素子306の累積発光時間が調整時間よりも小さくない場合、発光素子306を発光させないデータを生成する。</t>
-  </si>
-  <si>
-    <t>発光制御部314は、生成されたデータを発光部305へ送信する。 調整時間は、発光素子306を強制発光させる時間を表す。</t>
-  </si>
-  <si>
-    <t>発光制御部314は、発光素子306の累積発光時間が調整時間よりも小さい場合、調整時間まで発光素子306を強制発光させる。</t>
-  </si>
-  <si>
-    <t>調整時間は、予め画像形成装置100に記録される。</t>
-  </si>
-  <si>
-    <t>このように、発光制御部314は、発光素子306を発光させることで発光量は均一に保つ。</t>
-  </si>
-  <si>
-    <t>強制発光は画像形成処理後に行われることが望ましいが、画像形成処理前に行われてもよい。</t>
-  </si>
-  <si>
-    <t>調整時間算出部315は、調整時間を算出する。</t>
-  </si>
-  <si>
-    <t>調整時間算出部は、調整時間を算出すると、調整時間記憶部304に調整時間を記憶させる。</t>
-  </si>
-  <si>
-    <t>FIG. 3は、実施形態の発光部305の構成の一具体例を表す外観図である。</t>
-  </si>
-  <si>
-    <t>発光部305は、複数の発光素子306-1から発光素子306-nを備える(以下、「発光素子306」という。)。</t>
-  </si>
-  <si>
-    <t>発光素子306は、発光制御部314からの発光指示に応じて発光する。 強制発光させるデータは、発光指示の一態様である。</t>
-  </si>
-  <si>
-    <t>発光素子306は、画像形成処理中に発光することで、感光体ドラム320に静電潜像を形成させる。</t>
-  </si>
-  <si>
-    <t>発光素子306は、有機EL(Electro Luminescence)であっても良いし、LED(Light Emitting Diode)であっても良い。</t>
-  </si>
-  <si>
-    <t>発光素子306は、感光体ドラム320に静電潜像を形成できるならばどのような発光素子であっても良い。 感光体ドラム320は、発光素子306の発光方向に設置される。</t>
-  </si>
-  <si>
-    <t>FIG. 4は、実施形態の発光時間記憶部301が記憶する発光素子306の各累積発光時間を記憶する一具体例を示す図である。</t>
-  </si>
-  <si>
-    <t>FIG. 4に示される例では、発光素子の値と累積発光時間(分)の値とが同一レコードに記憶される。</t>
-  </si>
-  <si>
-    <t>発光時間記憶部301の最上段のレコードは、発光素子の値が"306-1"、累積発光時間(分)の値が"300"である。</t>
-  </si>
-  <si>
-    <t>従って、発光素子306-1は、これまで300分発光したことを示す。</t>
-  </si>
-  <si>
-    <t>FIG. 5及びFIG. 6は、実施形態の発光素子306を発光させるか否かを判定するフローチャートである。</t>
-  </si>
-  <si>
-    <t>制御部310は、強制発光閾値を取得する(ACT101)。</t>
-  </si>
-  <si>
-    <t>制御部310は、最長記憶部303に0の値を設定する(ACT102)。</t>
-  </si>
-  <si>
-    <t>制御部310は、最短記憶部302が記録できる最大値(例えば、MAX)を最短記憶部302に設定する(ACT103)。</t>
-  </si>
-  <si>
-    <t>制御部310は、画像データの主走査方向の画素数をカウントする変数nに1を設定する(ACT104)。</t>
-  </si>
-  <si>
-    <t>制御部310は、n番目の画素に対応する発光素子306の累積発光時間の値を発光時間記憶部301から取得する(ACT105)。</t>
-  </si>
-  <si>
-    <t>以下、制御部310が取得した主走査方向からn番目の発光素子306の累積発光時間を「発光時間」という。</t>
-  </si>
-  <si>
-    <t>制御部310は、主走査方向からn番目の1画素を画像データから取得する(ACT106)。</t>
-  </si>
-  <si>
-    <t>制御部310は、取得された画像データの1画素が白であるか否か判定する(ACT107)。</t>
-  </si>
-  <si>
-    <t>取得された画像データの1画素が白でない場合(ACT107: NO)、発光制御部314は、発光時間の値に1を加算する(ACT108)。</t>
-  </si>
-  <si>
-    <t>取得された画像データの1画素が白である場合(ACT107: YES)、なんらの処理も実行しない。</t>
-  </si>
-  <si>
-    <t>発光時間判定部311は、発光時間の値が最長記憶部303に記憶される累積発光時間の値よりも大きいか否か判定する(ACT109)。</t>
-  </si>
-  <si>
-    <t>発光時間の値が最長記憶部303に記憶される累積発光時間の値よりも大きい場合(ACT109: YES)、発光時間判定部311は、最長記憶部303に発光時間の値を記録する(ACT110)。</t>
-  </si>
-  <si>
-    <t>発光時間の値が最長記憶部303に記憶される累積発光時間の値よりも大きくない場合(ACT109: NO)、なんらの処理も実行しない。</t>
-  </si>
-  <si>
-    <t>発光時間判定部311は、発光時間と最短記憶部302に記憶する累積発光時間とを比較して最短記憶部302に記憶する累積発光時間の方が小さいかを判定する(ACT111)。</t>
-  </si>
-  <si>
-    <t>発光時間の値が最短記憶部302に記憶される累積発光時間の値よりも小さい場合(ACT111: YES)、発光時間判定部311は、最短記憶部302に発光時間の値を記録する(ACT112)。</t>
-  </si>
-  <si>
-    <t>発光素子306の累積発光時間が最短記憶部302に記憶される累積発光時間の値よりも小さくない場合(ACT111: NO)、なんらの処理も実行しない。</t>
-  </si>
-  <si>
-    <t>発光制御部314は、発光時間の値を発光時間記憶部301の発光素子306-nの累積発光時間の値として記録させる(ACT113)。</t>
-  </si>
-  <si>
-    <t>制御部310は、nが主走査方向の最終画素まで到達したか否か判定する(ACT114)。</t>
-  </si>
-  <si>
-    <t>主走査方向の最終画素まで到達していない場合(ACT114: NO)、制御部310は、nに1を加算する(ACT115)。</t>
-  </si>
-  <si>
-    <t>ACT115が終了すると、処理はACT105へ遷移する(ACT116)。</t>
-  </si>
-  <si>
-    <t>主走査方向の最終画素まで到達している場合(ACT114: YES)、制御部310は印刷ジョブが終了したか否か判定する(ACT117)。</t>
-  </si>
-  <si>
-    <t>印刷ジョブが終了していない場合(ACT117: NO)、制御部310は、発光部305を副走査方向へ移動させる(ACT118)。</t>
-  </si>
-  <si>
-    <t>ACT115が終了すると、処理はACT102へ遷移する(ACT119)。</t>
-  </si>
-  <si>
-    <t>印刷ジョブが終了している場合(ACT117: YES)、差分算出部312は、最長記憶部303に記憶される累積発光時間の値と最短記憶部302に記憶される累積発光時間の値との差分値を算出する(ACT120)。</t>
-  </si>
-  <si>
-    <t>差分算出部312は、算出された差分値が強制発光閾値よりも小さいか否か判定する(ACT121)。</t>
-  </si>
-  <si>
-    <t>算出された差分値が強制発光閾値よりも小さい場合(ACT121: YES)、なんらの処理も実行しない。</t>
-  </si>
-  <si>
-    <t>算出された差分値が強制発光閾値よりも小さくない場合(ACT121: NO)、制御部310は、強制発光フラグを成立させる(ACT122)。</t>
-  </si>
-  <si>
-    <t>FIG. 7及びFIG. 8は、実施形態の発光素子306を強制発光させる場合の処理の流れを示すフローチャートである。</t>
-  </si>
-  <si>
-    <t>制御部310は、調整時間の値を取得する(ACT201)。</t>
-  </si>
-  <si>
-    <t>制御部310は、調整時間の値を最短記憶部302に設定する(ACT202)。</t>
-  </si>
-  <si>
-    <t>制御部310は、画像データの主走査方向の画素数をカウントする変数nに1を設定する(ACT203)。</t>
-  </si>
-  <si>
-    <t>制御部310は、主走査方向からn番目の画素に対応する発光素子306の累積発光時間の値(以下、「発光時間」という。)を発光時間記憶部301から取得する(ACT204)。</t>
-  </si>
-  <si>
-    <t>発光制御部314は、発光時間の値が調整時間の値よりも大きいか否か判定する(ACT205)。</t>
-  </si>
-  <si>
-    <t>調整時間の値よりも大きい場合(ACT205: YES)、発光制御部314は、発光素子306を発光させないことを表す非発光のデータを生成する(ACT206)。</t>
-  </si>
-  <si>
-    <t>調整時間の値よりも大きくない場合(ACT205: NO)、発光制御部314は、発光時間の値に1を加算する(ACT207)。</t>
-  </si>
-  <si>
-    <t>発光時間判定部311は、最短記憶部302に記憶される累積発光時間が発光時間の値よりも大きいか否か判定する(ACT208)。</t>
-  </si>
-  <si>
-    <t>発光時間の値よりも大きい場合(ACT208: YES)、発光時間判定部311は、最短記憶部302に発光時間の値を記録させる(ACT209)。</t>
-  </si>
-  <si>
-    <t>発光素子306の累積発光時間の値よりも大きくない場合(ACT208: YES)、なんらの処理も実行しない。</t>
-  </si>
-  <si>
-    <t>発光制御部314は、発光時間の値を発光時間記憶部301の発光素子306-nの累積発光時間の値として記録させる(ACT210)。</t>
-  </si>
-  <si>
-    <t>発光制御部314は、発光素子306を発光させることを表す発光のデータを生成する(ACT211)。</t>
-  </si>
-  <si>
-    <t>制御部310は、nが主走査方向の最終画素まで到達したか否か判定する(ACT212)。</t>
-  </si>
-  <si>
-    <t>主走査方向の最終画素まで到達していない場合(ACT212: NO)、制御部310は、nに1を加算する(ACT213)。</t>
-  </si>
-  <si>
-    <t>主走査方向の最終画素まで到達している場合(ACT212: YES)、発光制御部314は、発光部305に生成されたデータを送信し、発光素子306を発光させる(ACT214)。</t>
-  </si>
-  <si>
-    <t>発光制御部314は、最短記憶部302に記憶される累積時間の値と調整時間の値が等しいか否か判定する(ACT215)。</t>
-  </si>
-  <si>
-    <t>等しくない場合(ACT215: NO)、処理はACT202へ遷移する(ACT216)。</t>
-  </si>
-  <si>
-    <t>等しい場合(ACT216: YES)、調整時間算出部315は、調整時間を算出する(ACT217)。</t>
-  </si>
-  <si>
-    <t>調整時間算出部315は、調整時間記憶部304に調整時間を記憶させ、処理を終了する(ACT218)。</t>
-  </si>
-  <si>
-    <t>FIG. 9は、画像データ(A)を印字した場合の発光素子306の累積発光時間を表した図である。</t>
-  </si>
-  <si>
-    <t>画像データごとに、発光素子306の累積発光時間が異なる。</t>
-  </si>
-  <si>
-    <t>画像データ(A)には、主走査方向の1画素目から最終画素まで伸びる黒い画素がある。</t>
-  </si>
-  <si>
-    <t>このため、発光部305が備える全ての発光素子306が発光する。</t>
-  </si>
-  <si>
-    <t>OLEDヘッドは発光部305の一態様である。 FIG. 10は、画像データ(A)を5部印字後の発光素子306の累積発光時間を示す図である。</t>
-  </si>
-  <si>
-    <t>累積発光時間の最大値と累積発光時間の最小値の差分値が強制発光閾値よりも大きい場合、調整時間よりも累積発光時間が短い発光素子306は強制発光される。</t>
-  </si>
-  <si>
-    <t>FIG. 11は、画像データ(A)を5部印字後に発光素子306の累積発光時間が調整時間に到達した状態を示す図である。</t>
-  </si>
-  <si>
-    <t>発光制御部314は、調整時間よりも累積発光時間が短い発光素子306は、調整時間まで発光させる。</t>
-  </si>
-  <si>
-    <t>これによって、全ての発光素子306が調整時間以上の累積発光時間となる。</t>
-  </si>
-  <si>
-    <t>FIG. 12は、画像データ(B)を印字した場合の発光素子306の累積発光時間を表した図である。</t>
-  </si>
-  <si>
-    <t>画像データ(A)を印字した場合と異なり、画像データ(B)を印字しても、発光しない発光素子306がある。</t>
-  </si>
-  <si>
-    <t>FIG. 13は、画像データ(B)を15部印字後の発光素子306の累積発光時間を示す図である。</t>
-  </si>
-  <si>
-    <t>発光素子306は、画像データ(A)を5部印字した直後の発光素子306が用いられる。 累積発光時間の最大値と累積発光時間の最小値の差分値が強制発光閾値よりも大きい場合、調整時間よりも累積発光時間が短い発光素子306は強制発光される。</t>
-  </si>
-  <si>
-    <t>FIG. 14は、画像データ(B)を15部印字後に発光素子306の累積発光時間が調整時間に到達した状態を示す図である。</t>
-  </si>
-  <si>
-    <t>調整時間よりも累積発光時間が短い発光素子306は、調整時間まで発光する。</t>
-  </si>
-  <si>
-    <t>このように、発光制御部314は発光時間記憶部301に記憶される累積発光時間の値が調整時間の値よりも大きいか否か判定する。</t>
-  </si>
-  <si>
-    <t>判定の結果、調整時間の値よりも累積発光時間の値が大きくない場合、発光制御部314は発光素子306を発光させるように制御する。</t>
-  </si>
-  <si>
-    <t>これに対して、調整時間の値よりも累積発光時間の値が大きい場合、発光制御部314は発光素子306を発光させないように制御する。</t>
-  </si>
-  <si>
-    <t>これによって、発光制御部314は、調整時間の値よりも累積発光時間の値が大きくない発光素子306を調整時間の値まで発光させる。</t>
-  </si>
-  <si>
-    <t>したがって、各発光素子306を累積発光時間の値が最も大きい累積発光時間の値まで発光させるよりも、累積発光時間の値と調整時間の値との差分値ほど発光時間が短くなる。</t>
-  </si>
-  <si>
-    <t>そのため、発光素子306は、発光量を均一に維持しつつ、差分値だけ発光による劣化が抑制される。</t>
-  </si>
-  <si>
-    <t>While certain embodiments have been described these embodiments have been presented by way of example only, and are not intended to limit the scope of the inventions.Indeed, the novel embodiments described herein may be embodied in a variety of other forms: furthermore various omissions, substitutions and changes in the form of the embodiments described herein may be made without departing from the spirit of the inventions.The accompanying claims and their equivalents are intended to cover such forms or modifications as would fall within the scope and spirit of the invention. WHAT IS CLAIMED IS: 1. 感光体ドラムに静電潜像を形成させる複数の発光素子を備える発光部と、 累積発光時間が最長である発光素子の累積発光時間よりも短い時間である調整時間を記憶する調整時間記憶部と、 前記複数の発光素子のうち、一の発光素子の累積発光時間と他の発光素子の累積発光時間の差が所定の条件を満たす場合、前記調整時間記憶部に記憶する調整時間よりも累積発光時間が短い発光素子に対して前記調整時間まで前記発光素子を発光させるように制御する発光制御部と、 を備える画像形成装置。 2. クレーム1に記載の画像形成装置であって、 前記発光部が備える複数の発光素子毎の累積発光時間を記憶する発光時間記憶部をさらに備える。</t>
-  </si>
-  <si>
-    <t>ABSTRACT 実施形態の画像形成装置は、発光部と、調整時間記憶部と、発光制御部とを持つ。</t>
-  </si>
-  <si>
-    <t>発光制御部は、複数の発光素子のうち、一の発光素子の累積発光時間と他の発光素子の累積発光時間の差が所定の条件を満たす場合、調整時間記憶部に記憶する調整時間よりも累積発光時間が短い発光素子に対して調整時間まで発光素子を発光させるように制御する。</t>
-  </si>
-  <si>
-    <t>IMAGE FORMING DEVICE AND IMAGE FORMING METHOD FIELD Embodiments described herein relate generally to an image forming device and an image forming method. BACKGROUND A light emitting element included in an image forming device is degraded by emitting light and thereby the amount of emitted light is reduced.</t>
-  </si>
-  <si>
-    <t>If the amount of emitted light is reduced, the amount of emitted light of each light emitting element becomes nonuniform and print quality decreases.</t>
-  </si>
-  <si>
-    <t>Accordingly, it is preferable that the amount of emitted light of each light emitting element is uniformly maintained.</t>
-  </si>
-  <si>
-    <t>However, an increase of the amount of emitted light of a light emitting element due to a drive current further accelerates degradation of the light emitting element.</t>
-  </si>
-  <si>
-    <t>In addition, forcible light emission of the light emitting element for aligning light emission time of the light emitting element can also advance degradation of the light emitting element.</t>
-  </si>
-  <si>
-    <t>DESCRIPTION OF THE DRAWINGS FIG.1 is an external view illustrating an overall configuration example of an image forming device according to an embodiment.</t>
-  </si>
-  <si>
-    <t>FIG.2 is a functional block diagram illustrating a functional configuration of a light emitting unit according to the embodiment.</t>
-  </si>
-  <si>
-    <t>FIG.3 is an external view illustrating one specific example of a configuration of the light emitting unit according to the embodiment.</t>
-  </si>
-  <si>
-    <t>FIG.4 is a diagram illustrating one specific example storing each cumulative light emission time of a light emitting element stored in a light emission time storage unit according to the embodiment. FIG.5 is a flowchart which determines whether or not to cause the light emitting element according to the embodiment to emit light.</t>
-  </si>
-  <si>
-    <t>FIG.6 is a flowchart which determines whether or not to cause the light emitting element according to the embodiment to emit light.</t>
-  </si>
-  <si>
-    <t>FIG.7 is a flowchart illustrating a flow of processing in a case where the light emitting element according to the embodiment forcibly emits light.</t>
-  </si>
-  <si>
-    <t>FIG.8 is a flowchart illustrating a flow of processing in a case where the light emitting element according to the embodiment forcibly emits light.</t>
-  </si>
-  <si>
-    <t>FIG.9 is a diagram illustrating cumulative light emission time of the light emitting element in a case where image data is printed.</t>
-  </si>
-  <si>
-    <t>FIG.10 is a diagram illustrating the cumulative light emission time of the light emitting element after five copies of the image data are printed.</t>
-  </si>
-  <si>
-    <t>FIG.11 is a diagram illustrating a state where the cumulative light emission time of light emitting element reaches adjustment time after five copies of the image data are printed.</t>
-  </si>
-  <si>
-    <t>FIG.12 is a diagram illustrating the cumulative light emission time of the light emitting element in a case where another image data is printed.</t>
-  </si>
-  <si>
-    <t>FIG.13 is a diagram illustrating the cumulative light emission time of the light emitting element after 15 copies of another image data are printed.</t>
-  </si>
-  <si>
-    <t>FIG.14 is a diagram illustrating a state where the cumulative light emission time of the light emitting element reaches the adjustment time after 15 copies of another image data are printed.</t>
-  </si>
-  <si>
-    <t>DETAILED DESCRIPTION In general, according to one exemplary embodiment, an image forming device includes a light emitting unit, an adjustment time storage unit, and light emission control unit.</t>
-  </si>
-  <si>
-    <t>The light emitting unit includes a plurality of light emitting elements which form an electrostatic latent image on a photosensitive drum.</t>
-  </si>
-  <si>
-    <t>The adjustment time storage unit stores adjustment time which is shorter than cumulative light emission time of a light emitting element with longest cumulative light emission time.</t>
-  </si>
-  <si>
-    <t>The light emission control unit performs control such that the light emitting element whose cumulative light emission time is shorter than the adjustment time which is stored in the adjustment time storage unit emits light until the adjustment time, in a case where a difference between cumulative light emission time of one of the plurality of light emitting elements and cumulative light emission time of another light emitting element satisfies a predetermined condition.</t>
-  </si>
-  <si>
-    <t>FIG.1 is an external view illustrating an overall configuration example of an image forming device 100 according to an embodiment.</t>
-  </si>
-  <si>
-    <t>The image forming device 100 is, for example, a complex machine.</t>
-  </si>
-  <si>
-    <t>The image forming device 100 includes a display 110, a control panel 120, a printer unit 130, a sheet containing unit 140, and an image reading unitThe printer unit 130 of the image forming device 100 may be a device which fixes a toner image.</t>
-  </si>
-  <si>
-    <t>The image forming device 100 forms an image on a sheet by using developing agency such as toner.</t>
-  </si>
-  <si>
-    <t>The sheet is paper or label paper.</t>
-  </si>
-  <si>
-    <t>The sheet may be any type of material if the image forming device 100 can form an image on the material.</t>
-  </si>
-  <si>
-    <t>The display 110 is an image display device such as a liquid crystal display or an electro luminescence (EL) display.</t>
-  </si>
-  <si>
-    <t>The display 110 displays various types of information on the image forming deviceThe control panel 120 has a plurality of buttons.</t>
-  </si>
-  <si>
-    <t>The control panel 120 receives manipulation of a user.</t>
-  </si>
-  <si>
-    <t>The control panel 120 outputs a signal according to the manipulation which is performed by the user to a control unit of the image forming deviceThe display 110 and the control panel 120 may be configured with one touch panel.</t>
-  </si>
-  <si>
-    <t>The printer unit 130 forms an image on the sheet, based on image information which is generated by the image reading unit 200 or image information which is received through a communication path.</t>
-  </si>
-  <si>
-    <t>The printer unit 130 forms an image according to, for example, the following processing.</t>
-  </si>
-  <si>
-    <t>An image forming unit of the printer unit 130 forms an electrostatic latent image on a photosensitive drum, based on the image information.</t>
-  </si>
-  <si>
-    <t>The image forming unit of the printer unit 130 forms a visible image by depositing developing agency on the electrostatic latent image.</t>
-  </si>
-  <si>
-    <t>The toner is a specific example of the developing agency.</t>
-  </si>
-  <si>
-    <t>A transfer unit of the printer unit 130 transfers a visible image onto the sheet.</t>
-  </si>
-  <si>
-    <t>A fixing unit of the printer unit 130 fixes the visible image on the sheet by heating or pressing the sheet.</t>
-  </si>
-  <si>
-    <t>The sheet on which an image is formed may be a sheet which is contained in the sheet containing unit 140, and may be a sheet pointed by a hand.</t>
-  </si>
-  <si>
-    <t>The sheet containing unit 140 contains sheets which are used for image formation of the printer unitThe image reading unit 200 reads image information of a read target by using brightness and darkness of light.</t>
-  </si>
-  <si>
-    <t>The image reading unit 200 stores the reads image information.</t>
-  </si>
-  <si>
-    <t>The read image information may be transmitted to other information processing devices through a network.</t>
-  </si>
-  <si>
-    <t>The reads image information may form an image on the sheet by using the printer unitFIG.2 is a functional block diagram illustrating a functional configuration of a light emitting unit 305 according to the embodiment.</t>
-  </si>
-  <si>
-    <t>The image forming device 100 includes a light emission time storage unit 301, a shortest storage unit 302, a longest storage unit 303, an adjustment time storage unit 304, a light emitting unit 305, and a control unitThe light emission time storage unit 301 is configured with a storage unit such as a magnetic hard disk or a semiconductor memory device.</t>
-  </si>
-  <si>
-    <t>The light emission time storage unit 301 stores each of cumulative light emission times of a plurality of light emitting elements 306 included in the light emitting unitThe cumulative light emission times are the sum of light emission times that the light emitting elements 306 emit.</t>
-  </si>
-  <si>
-    <t>The cumulative light emission times are stored for each light emitting elementThe light emission time storage unit 301 stores a plurality of cumulative light emission times.</t>
-  </si>
-  <si>
-    <t>Each time when the light emitting element 306 emits light, corresponding one cumulative light emission time increases.</t>
-  </si>
-  <si>
-    <t>The cumulative light emission time is used for adjusting the amount of light of the light emitting unitThe shortest storage unit 302 is configured with a storage unit such as a magnetic hard disk or a semiconductor memory device.</t>
-  </si>
-  <si>
-    <t>The shortest storage unit 302 stores the smallest value of the cumulative light emission times of the plurality of light emitting elements stored in the light emission time storage unitThe cumulative light emission time stored in the shortest storage unit 302 is used when a difference value is calculated by a difference calculation unitIn the present embodiment, only the shortest value is stored, but, for example, three cumulative light emission times may be selected in an ascending order and an average thereof may be stored.</t>
-  </si>
-  <si>
-    <t>The longest storage unit 303 is configured with storage device such as a magnetic hard disk or a semiconductor memory device.</t>
-  </si>
-  <si>
-    <t>The longest storage unit 303 stores the largest value among the cumulative light emission times of the plurality of light emitting elements which are stored in the light emission time storage unitIf a larger value than the cumulative light emission time stored in the longest storage unit 303 occurs among the plurality of cumulative light emission time stored in the light emission time storage unit 301, a value stored in the longest storage unit 303 is updated.</t>
-  </si>
-  <si>
-    <t>The cumulative light emission time stored in the longest storage unit 303 is used when a difference value is calculated by the difference calculation unitIn the embodiment, only the largest value is stored, but, for example, three cumulative light emission times may be selected in a descending order, and an average thereof may be stored.</t>
-  </si>
-  <si>
-    <t>The adjustment time storage unit 304 is configured with a storage device such as a magnetic hard disk or a semiconductor memory device.</t>
-  </si>
-  <si>
-    <t>The adjustment time storage unit 304 stores adjustment time.</t>
-  </si>
-  <si>
-    <t>The adjustment time is shorter than the cumulative light emission time stored in the longest storage unit 303, and is longer than the cumulative light emission time stored in the shortest storage unitIn the embodiment, a value of (cumulative light emission time stored in the longest storage unit 303 – cumulative light emission time stored in the shortest storage unit 302) ¸ 2 is used.</t>
-  </si>
-  <si>
-    <t>The adjustment time may be calculated by using any other method.</t>
-  </si>
-  <si>
-    <t>The light emitting element 306 in which the cumulative light emission time stored in the light emission time storage unit 301 is shorter than the adjustment time forcibly emit light until the adjustment time.</t>
-  </si>
-  <si>
-    <t>The control unit 310 controls an operation of each unit of the image forming deviceThe control unit 310 is realized by a device including, for example, a central processing unit (CPU) and a random access memory (RAM).</t>
-  </si>
-  <si>
-    <t>The control unit 310 functions as a light emission time determination unit 311, the difference calculation unit 312, a difference determination unit 313, a light emission control unit 314, and an adjustment time calculation unit 315, by executing an image formation software program.</t>
-  </si>
-  <si>
-    <t>The light emission time determination unit 311 updates the shortest storage unit 302 and the longest storage unitUpdating of the shortest storage unit 302 will be first described.</t>
-  </si>
-  <si>
-    <t>The light emission time determination unit 311 determines whether or not the cumulative light emission time stored in the shortest storage unit 302 and the plurality of cumulative light emission times stored in the light emission time storage unit 301 satisfy a predetermined condition.</t>
-  </si>
-  <si>
-    <t>In a case where the plurality of cumulative light emission times stored in the light emission time storage unit 301 are compared with the cumulative light emission time stored in the shortest storage unit 302, the predetermined condition may be, for example, whether or not the cumulative light emission time of the light emitting element 306 is shorter.</t>
-  </si>
-  <si>
-    <t>Next, updating of the longest storage unit 303 will be described.</t>
-  </si>
-  <si>
-    <t>In a case where the plurality of cumulative light emission times stored in the light emission time storage unit 301 are compared with the cumulative light emission time stored in the longest storage unit 303, the predetermined condition may be, for example, whether or not the cumulative light emission time of the light emitting element 306 is longer.</t>
-  </si>
-  <si>
-    <t>The predetermined condition may be any condition as long as magnitude relationship between the cumulative light emission time stored in the shortest storage unit 302 or the longest storage unit 303 and the cumulative light emission time of the light emitting element 306 can be compared.</t>
-  </si>
-  <si>
-    <t>If the predetermined condition is satisfied, the light emission time determination unit 311 stores the cumulative light emission time of the light emitting element 306 in the shortest storage unit 302 or the longest storage unit 303 which is determined.</t>
-  </si>
-  <si>
-    <t>The difference calculation unit 312 calculates a difference value between the cumulative light emission time stored in the longest storage unit 303 and the cumulative light emission time stored in the shortest storage unitThe difference determination unit 313 determines whether or not the difference value calculated by the difference calculation unit 312 is smaller than a forced light emission threshold.</t>
-  </si>
-  <si>
-    <t>The forced light emission threshold is a value that determines whether or not the light emitting element 306 forcibly emits light.</t>
-  </si>
-  <si>
-    <t>In a case where the difference value is smaller than the forced light emission threshold, the light emission control unit 314 does not make the light emitting element 306 emit light.</t>
-  </si>
-  <si>
-    <t>In contrast, in a case where the difference value is larger than or equal to the forced light emission threshold, the light emission control unit 314 makes the light emitting element 306 emit light.</t>
-  </si>
-  <si>
-    <t>The forced light emission threshold is stored in the image forming device 100 in advance.</t>
-  </si>
-  <si>
-    <t>The light emission control unit 314 controls light emission of the light emitting unitThe light emission control unit 314 increases the cumulative light emission time of the light emitting element 306 if the light emitting element 306 emits light.</t>
-  </si>
-  <si>
-    <t>The light emission control unit 314 stores the cumulative light emission time of the light emitting element 306 in the light emission time storage unitThe light emission control unit 314 determines whether or not the cumulative light emission time of the light emitting element 306 is shorter than the adjustment time.</t>
-  </si>
-  <si>
-    <t>In a case where the cumulative light emission time of the light emitting element 306 is shorter than the adjustment time, the light emission control unit generates data which makes the light emitting element 306 emit light.</t>
-  </si>
-  <si>
-    <t>In a case where the cumulative light emission time of the light emitting element 306 is shorter than adjustment time, the light emission control unit generates data which does not make the light emitting element 306 emit light.</t>
-  </si>
-  <si>
-    <t>The light emission control unit 314 transmits the generated data to the light emitting unitThe adjustment time indicates time in which the light emitting element 306 forcibly emits light.</t>
-  </si>
-  <si>
-    <t>If the cumulative light emission time of the light emitting element 306 is smaller than the adjustment time, the light emission control unit 314 makes the light emitting element 306 forcibly emit light till the adjustment time.</t>
-  </si>
-  <si>
-    <t>The adjustment time is stored in the image forming device 100 in advance.</t>
-  </si>
-  <si>
-    <t>As such, the light emission control unit 314 uniformly keeps the amount of emitted light by making the light emitting element 306 emit light.</t>
-  </si>
-  <si>
-    <t>It is preferable that the forced light emission is performed after image formation processing, but may be performed before the image formation processing.</t>
-  </si>
-  <si>
-    <t>The adjustment time calculation unit 315 calculates the adjustment time.</t>
-  </si>
-  <si>
-    <t>The adjustment time calculation unit 315 stores the adjustment time in the adjustment time storage unit 304, if the adjustment time is calculated.</t>
-  </si>
-  <si>
-    <t>FIG.3 is an external view illustrating one specific example of a configuration of the light emitting unit 305 according to the embodiment.</t>
-  </si>
-  <si>
-    <t>The light emitting unit 305 includes a plurality of light emitting elements 306-1 to 306-n (hereinafter, referred to as "light emitting elements 306").</t>
-  </si>
-  <si>
-    <t>Each of the light emitting elements 306 is connected to the light emission control unitThe light emitting elements 306 emit light in response to a light emission instruction from the light emission control unitData which makes light to be forcibly emitted is an aspect of the light emission instruction.</t>
-  </si>
-  <si>
-    <t>The light emitting elements 306 forms electrostatic latent image in a photosensitive drum 320 by making light to be emitted during image formation processing.</t>
-  </si>
-  <si>
-    <t>The light emitting elements 306 may be organic electro luminescence (EL), or may be a light emitting diode (LED).</t>
-  </si>
-  <si>
-    <t>The light emitting elements 306 may be any type of photosensitive element as long as the electrostatic latent image can be formed in photosensitive drumThe photosensitive drum 320 is installed in a light emission direction of the light emitting elementsThe photosensitive drum 320 forms the electrostatic latent image on the basis of the image information.</t>
-  </si>
-  <si>
-    <t>FIG.4 is a diagram illustrating one specific example storing each cumulative light emission time of a light emitting element 306 which is stored in a light emission time storage unit 301 according to the embodiment.</t>
-  </si>
-  <si>
-    <t>In the example illustrated in FIG.4, a value of the light emitting element and a value of the cumulative light emission time (minutes) are stored in the same record.</t>
-  </si>
-  <si>
-    <t>The uppermost record of the light emission time storage unit 301 shows a value of light emitting element of "306-1" and a value of cumulative light emission time (minutes) of "300".</t>
-  </si>
-  <si>
-    <t>Hence, the light emitting element 306-1 indicates that light is emitted for 300 minutes until now.</t>
-  </si>
-  <si>
-    <t>FIG.5 and FIG.6 are flowcharts which determine whether or not to cause the light emitting element 306 according to the embodiment to emit light.</t>
-  </si>
-  <si>
-    <t>The control unit 310 acquires a forced light emission threshold (ACT101).</t>
-  </si>
-  <si>
-    <t>The control unit 310 sets a value of zero to the longest storage unit 303 (ACT102).</t>
-  </si>
-  <si>
-    <t>The control unit 310 sets a maximum value (for example, MAX) that the shortest storage unit 302 can store to the shortest storage unit 302 (ACT103).</t>
-  </si>
-  <si>
-    <t>The control unit 310 sets a variable n which counts the number of pixels in a main scan direction of image data to "1" (ACT104).</t>
-  </si>
-  <si>
-    <t>The control unit 310 acquires a value of the cumulative light emission time of the light emitting elements 306 corresponding to an nth pixel from the light emission time storage unit 301 (ACT105).</t>
-  </si>
-  <si>
-    <t>Hereinafter, the cumulative light emission time of the nth light emitting elements 306 in the main scan direction that the control unit 310 acquires is referred to as "light emission time".</t>
-  </si>
-  <si>
-    <t>The control unit 310 acquires an nth pixel in the main scan direction from image data (ACT106).</t>
-  </si>
-  <si>
-    <t>The control unit 310 determines whether or not the acquired one pixel of the image data is white (ACT107).</t>
-  </si>
-  <si>
-    <t>In a case where the acquired one pixel of the image data is not white (ACT107: NO), the light emission control unit 314 adds "1" to the value light emission time (ACT108).</t>
-  </si>
-  <si>
-    <t>In a case where the acquired one pixel of the image data is white (ACT107: YES), no processing is performed.</t>
-  </si>
-  <si>
-    <t>The light emission time determination unit 311 determines whether or not the value of light emission time is larger than the value of cumulative light emission time stored in the longest storage unit 303 (ACT109).</t>
-  </si>
-  <si>
-    <t>In a case where the value of light emission time is larger than the value of cumulative light emission time stored in the longest storage unit 303 (ACT109: YES), the light emission time determination unit 311 stores the value of light emission time in the longest storage unit 303 (ACT110).</t>
-  </si>
-  <si>
-    <t>In a case where the value of light emission time is not larger than the value of cumulative light emission time stored in the longest storage unit 303 (ACT109: NO), no processing is performed.</t>
-  </si>
-  <si>
-    <t>The light emission time determination unit 311 compares the light emission time and the cumulative light emission time stored in the shortest storage unit 302 and determines whether or not the cumulative light emission time stored in the shortest storage unit 302 is shorter (ACT111).</t>
-  </si>
-  <si>
-    <t>In a case where a value of the light emission time is smaller than a value of the cumulative light emission time stored in the shortest storage unit 302 (ACT111: YES), the light emission time determination unit 311 stores the value of the light emission time in the shortest storage unit 302 (ACT112).</t>
-  </si>
-  <si>
-    <t>In a case where the cumulative light emission time of the light emitting elements 306 is not smaller than the value of the cumulative light emission time stored in the shortest storage unit 302 (ACT111: NO), no processing is performed.</t>
-  </si>
-  <si>
-    <t>The light emission control unit 314 stores the value of the light emission time as the value of the cumulative light emission time of the light emitting elements 306-n of the light emission time storage unit 301 (ACT113).</t>
-  </si>
-  <si>
-    <t>The control unit 310 determines whether or not n reaches the final pixel in the main scan direction (ACT114).</t>
-  </si>
-  <si>
-    <t>In a case where n does not reach the final pixel in the main scan direction (ACT114: NO), the control unit 310 adds "1" to n (ACT115).</t>
-  </si>
-  <si>
-    <t>If ACT115 ends, processing moves to ACT105 (ACT116).</t>
-  </si>
-  <si>
-    <t>In a case where n reaches the final pixel in the main scan direction (ACT114: YES), the control unit 310 determines whether or not print job ends (ACT117).</t>
-  </si>
-  <si>
-    <t>In a case where the print job does not end (ACT117: NO), the control unit 310 moves the light emitting unit 305 in a sub scan direction (ACT118).</t>
-  </si>
-  <si>
-    <t>If ACT115 ends, processing moves to ACT102 (ACT119).</t>
-  </si>
-  <si>
-    <t>If the print job ends (ACT117: YES), the difference calculation unit 312 calculates a difference value between a value of the cumulative light emission time stored in the longest storage unit 303 and a value of the cumulative light emission time stored in the shortest storage unit 302 (ACT120).</t>
-  </si>
-  <si>
-    <t>The difference calculation unit 312 determines whether or not the calculated difference value is smaller than the forced light emission threshold (ACT121).</t>
-  </si>
-  <si>
-    <t>In a case where the calculated difference value is smaller than the forced light emission threshold (ACT121: YES), no processing is performed.</t>
-  </si>
-  <si>
-    <t>In a case where the calculated difference value is not smaller than the forced light emission threshold (ACT121: NO), the control unit 310 establishes a forced light emission flag (ACT122).</t>
-  </si>
-  <si>
-    <t>FIG.7 and FIG.8 are flowcharts illustrating a flow of processing in a case where the light emitting element 306 according to the embodiment forcibly emits light.</t>
-  </si>
-  <si>
-    <t>The control unit 310 acquires a value of the adjustment time (ACT201).</t>
-  </si>
-  <si>
-    <t>The control unit 310 sets a value of adjustment time to the shortest storage unit 302 (ACT202).</t>
-  </si>
-  <si>
-    <t>The control unit 310 sets "1" as the variable n which counts the number of pixels of the image data in the main scan direction (ACT203).</t>
-  </si>
-  <si>
-    <t>The control unit 310 acquires a value of the cumulative light emission time (hereinafter, referred to as "light emission time") of the light emitting elements 306 corresponding to an nth pixel in main scan direction from the light emission time storage unit 301 (ACT204).</t>
-  </si>
-  <si>
-    <t>The light emission control unit 314 determines whether or not a value of the light emission time is larger than a value of the adjustment time (ACT205).</t>
-  </si>
-  <si>
-    <t>In a case where the value of the light emission time is larger than the value of the adjustment time (ACT205: YES), the light emission control unit 314 generates non-light emission data which indicates that the light emitting elements 306 does not emit light (ACT206).</t>
-  </si>
-  <si>
-    <t>In a case where the value of the light emission time is not larger than the value of the adjustment time (ACT205: NO), the light emission control unit 314 adds "1" to the value of the light emission time (ACT207).</t>
-  </si>
-  <si>
-    <t>The light emission time determination unit 311 determines whether or not the cumulative light emission time stored in the shortest storage unit 302 is larger than the value of the light emission time (ACT208).</t>
-  </si>
-  <si>
-    <t>In a case where the cumulative light emission time is larger than the value of the light emission time (ACT208: YES), the light emission time determination unit 311 stores the value of the light emission time in the shortest storage unit 302 (ACT209).</t>
-  </si>
-  <si>
-    <t>In a case where the cumulative light emission time is not larger than the value of the light emission time (ACT208: NO), no processing is performed.</t>
-  </si>
-  <si>
-    <t>The light emission control unit 314 stores the value of the light emission time as a value of cumulative light emission time of the light emitting element 306-n of the light emission time storage unit 301 (ACT210).</t>
-  </si>
-  <si>
-    <t>The light emission control unit 314 generates light emission data indicating that the light emitting elements 306 emits light (ACT211).</t>
-  </si>
-  <si>
-    <t>The control unit 310 determines whether or not n reaches the final pixel in the main scan direction (ACT212).</t>
-  </si>
-  <si>
-    <t>In a case where n does not reach the final pixel in the main scan direction (ACT212: NO), the control unit 310 adds "1" to n (ACT213).</t>
-  </si>
-  <si>
-    <t>In a case where n reaches the final pixel in the main scan direction (ACT212: YES), the light emission control unit 314 transmits data which is generated to the light emitting unit 305 and makes the light emitting elements 306 emit light (ACT214).</t>
-  </si>
-  <si>
-    <t>The light emission control unit 314 determines whether or not the value of the cumulative light emission time stored in the shortest storage unit 302 is equal to the value of the adjustment time (ACT215).</t>
-  </si>
-  <si>
-    <t>In a case where they are not equal (ACT215: NO), processing moves to ACT202 (ACT216).</t>
-  </si>
-  <si>
-    <t>In a case where they are equal (ACT216: YES), the adjustment time calculation unit 315 calculates adjustment time (ACT217).</t>
-  </si>
-  <si>
-    <t>The adjustment time calculation unit 315 stores the adjustment time in the adjustment time storage unit 304 and ends processing (ACT218).</t>
-  </si>
-  <si>
-    <t>FIG.9 is a diagram illustrating the cumulative light emission time of the light emitting element 306 in a case where image data (A) is printed.</t>
-  </si>
-  <si>
-    <t>The cumulative light emission time of the light emitting elements 306 differs in each image data.</t>
-  </si>
-  <si>
-    <t>The image data (A) includes a black pixel extending from the first pixel to the final pixel in the main scan direction.</t>
-  </si>
-  <si>
-    <t>Accordingly, all the light emitting elements 306 included in the light emitting unit 305 emit light.</t>
-  </si>
-  <si>
-    <t>An OLED head is an aspect of the light emitting unitFIG.10 is a diagram illustrating the cumulative light emission time of the light emitting element 306 after five copies of the image data (A) are printed.</t>
-  </si>
-  <si>
-    <t>In a case where a difference value between a maximum value of the cumulative light emission time and a minimum value of the cumulative light emission time is larger than the forced light emission threshold, the light emitting elements 306 in which the cumulative light emission time is shorter than the adjustment time is forced to emit light.</t>
-  </si>
-  <si>
-    <t>FIG.11 is a diagram illustrating a state where the cumulative light emission time of light emitting element 306 reaches the adjustment time after five copies of the image data (A) are printed.</t>
-  </si>
-  <si>
-    <t>The light emission control unit 314 makes the light emitting elements 306 in which the cumulative light emission time is shorter than the adjustment time emit light until the adjustment time.</t>
-  </si>
-  <si>
-    <t>Accordingly, all the light emitting elements 306 have the cumulative light emission time longer than or equal to the adjustment time.</t>
-  </si>
-  <si>
-    <t>FIG.12 is a diagram illustrating the cumulative light emission time of the light emitting element 306 in a case where image data (B) is printed.</t>
-  </si>
-  <si>
-    <t>Unlike a case where the image data (A) is printed, although the image data (B) is printed, there is the light emitting element 306 which does not emit light.</t>
-  </si>
-  <si>
-    <t>FIG.13 is a diagram illustrating the cumulative light emission time of the light emitting element 306 after 15 copies of the image data (B) are printed.</t>
-  </si>
-  <si>
-    <t>A light emitting element 306 shortly after five copies of the image data (A) are printed is used as the light emitting elementIn a case where a difference value between a maximum value of the cumulative light emission time and a minimum value of the cumulative light emission time is larger than the forced light emission threshold, the light emitting element 306 in which the cumulative light emission time is shorter than the adjustment time is forced to emit light.</t>
-  </si>
-  <si>
-    <t>FIG.14 is a diagram illustrating a state where the cumulative light emission time of the light emitting element 306 reaches the adjustment time after 15 copies of the image data (B) are printed.</t>
-  </si>
-  <si>
-    <t>The light emitting elements 306 in which the cumulative light emission time is shorter than the adjustment time emits light until the adjustment time.</t>
-  </si>
-  <si>
-    <t>As such, the light emission control unit 314 determines whether or not the value of the cumulative light emission time stored in the light emission time storage unit 301 is larger than the value of the adjustment time.</t>
-  </si>
-  <si>
-    <t>As a result of determination, in a case where the value of the cumulative light emission time is not larger than the value of the adjustment time, the light emission control unit 314 performs control such that the light emitting elements 306 emits light.</t>
-  </si>
-  <si>
-    <t>In contrast, in a case where the value of the cumulative light emission time is larger than the value of the adjustment time, the light emission control unit 314 performs control such that the light emitting elements 306 does not emit light.</t>
-  </si>
-  <si>
-    <t>Accordingly, the light emission control unit 314 makes the light emitting elements 306 in which the value of the cumulative light emission time is not larger than the value of the adjustment time emit light until the value of the adjustment time.</t>
-  </si>
-  <si>
-    <t>Hence, although the light emitting element 306 emits light until the largest value of the cumulative light emission time, the light emission time is shortened by a difference value between the value of the cumulative light emission time and the value of the adjustment time.</t>
-  </si>
-  <si>
-    <t>Accordingly, the light emitting elements 306 uniformly maintains the amount of emitted light and is prevented from being degraded due to light emission by the difference value.</t>
-  </si>
-  <si>
-    <t>The accompanying claims and their equivalents are intended to cover such forms or modifications as would fall within the scope and spirit of the inventions. WHAT IS CLAIMED IS:An image forming device comprising: a light emitting unit that includes a plurality of light emitting elements which form an electrostatic latent image on a photosensitive drum; an adjustment time storage unit that stores adjustment time which is shorter than cumulative light emission time of a light emitting element with longest cumulative light emission time; and a light emission control unit that performs control such that the light emitting element whose cumulative light emission time is shorter than the adjustment time which is stored in the adjustment time storage unit emits light until the adjustment time, in a case where a difference between cumulative light emission time of one of the plurality of light emitting elements and cumulative light emission time of another light emitting element satisfies a predetermined condition.The image forming device according to Claim 1, further comprising: a light emission time storage unit that stores the cumulative light emission times for each of the plurality of light emitting elements which are included in the light emitting unit.The image forming device according to Claim 1, wherein the one light emitting element and another light emitting element are respectively a light emitting element having a value of a longest cumulative light emission time and a light emitting element having a value of a shortest cumulative light emission time.The image forming device according to Claim 1, further comprising: a longest storage unit that stores a value of cumulative light emission time of the light emitting unit which satisfies a predetermined condition.The image forming device according to Claim 4, further comprising: a shortest storage unit that stores a value of cumulative light emission time of the light emitting unit which satisfies a predetermined condition.The image forming device according to Claim 5, further comprising: an adjustment time calculation unit that calculates the adjustment time.The image forming device according to Claim 6, wherein the adjustment time calculation unit calculates adjustment time on the basis of a difference between cumulative light emission time which is stored in the longest storage unit and cumulative light emission time which is stored in the shortest storage unit.The image forming device according to Claim 1, wherein the light emission control unit makes the light emitting element emit light after image formation processing is performed.The image forming device according to Claim 1, wherein the light emitting elements of the light emitting unit are organic ELs.An image forming method comprising: emitting light by including a plurality of light emitting elements which form an electrostatic latent image on a photosensitive drum; storing adjustment time which is shorter than cumulative light emission time of a light emitting element with longest cumulative light emission time; and controlling light emission such that the light emitting element whose cumulative light emission time is shorter than the adjustment time which is stored in the storing of the adjustment time emits light until the adjustment time, in a case where a difference between cumulative light emission time of one of the plurality of light emitting elements and cumulative light emission time of another light emitting element satisfies a predetermined condition.</t>
-  </si>
-  <si>
-    <t>ABSTRACT According to one embodiment, an image forming device includes a light emitting unit, an adjustment time storage unit, and light emission control unit.</t>
+    <t>J017384601 1 書類名明細書 発明の名称半導体集積回路、発振器、電子機器及び移動体 技術分野 本発明は、半導体集積回路、発振器、電子機器及び移動体に関する。 背景技術 近年、弾性表面波(SAW: Surface Acoustic Wave)を利用したSAW共振子を搭載する発振器が、高速ネットワーク通信、移動体通信分野などで使用されている。</t>
+  </si>
+  <si>
+    <t>SAW共振子は、例えば水晶である圧電基板上にIDT電極(櫛形電極)を設けることで、弾性表面波を利用して高周波信号を取り出すことができる。</t>
+  </si>
+  <si>
+    <t>弾性表面波の速度は圧電基板の種類で決まっており、SAW共振子では櫛形電極の周期を微細にするほどより高い発振周波数の信号を得られる。</t>
+  </si>
+  <si>
+    <t>そのため、SAW共振子は容易に高周波に対応でき小型化も可能である。</t>
+  </si>
+  <si>
+    <t>例えば、特許文献1は、SAW共振子(特許文献1では弾性表面波素子片)を厚底部に、電子部品を薄底部に配置することで、従来よりも更に小型化、薄型化が可能な発振器(特許文献1では圧電デバイス)を提案する。</t>
+  </si>
+  <si>
+    <t>先行技術文献 特許文献 特許文献1特開2006-245994号公報 発明の概要 発明が解決しようとする課題 しかしながら、特許文献1に記載の発振器では、出力信号を複数のICに入力させたい場合には、ファンアウトバッファーで出力を分岐する必要があり、ファンアウトバッファーまでの長い配線に起因してスキューが生じたりジッター特性が劣化したり、ファンアウトバッファーの内部で出力信号のジッター特性が劣化する場合がある。</t>
+  </si>
+  <si>
+    <t>また、ファンアウトバッファーを使用することで、ファンアウトバッファーの内部の配線長に起因してスキューが生じる場合がある。</t>
+  </si>
+  <si>
+    <t>本発明は、以上の事を鑑みてなされたものであり、本発明のいくつかの態様によれば、出力信号を複数の回路に入力させてもジッター特性の劣化を低減させることが可能な、半導体集積回路を提供することができる、また、本発明のいくつかの態様によれば、この半導体集積回路を用いた信頼性の高い発振器、電子機器及び移動体を提供することができる。</t>
+  </si>
+  <si>
+    <t>[適用例1] J017384601 2 本適用例に係る半導体集積回路は、振動素子を発振させて発振信号を生成する発振部と、前記発振信号に基づく信号を出力する第1の出力部および第2の出力部と、前記第1の出力部および前記第2の出力部を制御する制御部と、を有する。</t>
+  </si>
+  <si>
+    <t>振動素子は、例えば、SAW(Surface Acoustic Wave)共振子、ATカット水晶振動子、SCカット水晶振動子、音叉型水晶振動子、その他の圧電振動子やMEMS(Micro Electro Mechanical Systems)振動子などである。</t>
+  </si>
+  <si>
+    <t>第1の出力回路と第2の出力回路の各々は、1つの信号を出力してもよいし、異なる信号を出力してもよい。</t>
+  </si>
+  <si>
+    <t>また、出力信号の各々は、差動信号であってもよいし、シングルエンド信号であってもよい。</t>
+  </si>
+  <si>
+    <t>また、それぞれの出力部から信号が出力される、または信号が出力されない状態や、それぞれの出力部から出力される信号の種類等の、出力信号の状態は、制御部によって制御される。</t>
+  </si>
+  <si>
+    <t>本適用例に係る半導体集積回路によれば、単一の半導体集積回路に含まれる発振部、第1の出力部、および第2の出力部により、発振信号に基づく低ジッターの少なくとも2つの信号を出力することができるので、この少なくとも2つの信号を少なくとも2つの回路にそれぞれ供給すれば、発振部とは別体の半導体集積回路によって構成されたファンアウトバッファーを設ける必要がない。</t>
+  </si>
+  <si>
+    <t>従って、出力信号を複数の回路に入力させてもジッター特性の劣化を低減させることができる。</t>
+  </si>
+  <si>
+    <t>[適用例2] 本適用例に係る半導体集積回路は、半導体基板上に、振動素子を発振させて発振信号を生成する発振回路と、前記発振信号に基づく信号を出力する第1の出力回路および第2の出力回路と、前記第1の出力回路および前記第2の出力回路の動作を制御する制御部と、を有する。</t>
+  </si>
+  <si>
+    <t>それぞれの出力回路の信号出力状態、およびそれぞれの出力回路から出力される信号の種類は、制御部によって制御される。</t>
+  </si>
+  <si>
+    <t>また、それぞれの出力回路から信号が出力されるまたは信号が出力されない状態や、それぞれの出力回路から出力される信号の種類の設定等の、それぞれの出力回路の動作は、制御部によって制御される。</t>
+  </si>
+  <si>
+    <t>本適用例に係る半導体集積回路によれば、半導体集積回路に含まれる発振回路、第1の出力回路、および第2の出力回路により、発振信号に基づく低ジッターの少なくとも2つの信号を出力することができるので、この少なくとも2つの信号を少なくとも2つの回路J017384601 3 にそれぞれ供給すれば、外部にファンアウトバッファーを設けて分岐させる必要がない。</t>
+  </si>
+  <si>
+    <t>また、本適用例に係る半導体集積回路の後段の回路が、例えば第1の出力回路からの出力信号を必要とする場合、第2の出力回路からの出力信号を停止させる、あるいはハイインピーダンス状態にするかしないかといった動作を制御して柔軟な使い方が可能である。</t>
+  </si>
+  <si>
+    <t>[適用例3] 上記適用例に係る半導体集積回路において、前記制御部は、前記第1の出力回路および前記第2の出力回路の動作を独立に制御してもよい。</t>
+  </si>
+  <si>
+    <t>本適用例に係る半導体集積回路によれば、第1の出力回路の動作と第2の出力回路の動作とを独立に制御できるため、例えば、第1の出力回路からの出力信号だけを必要とする場合、第2の出力回路からの出力信号を停止させる、あるいはハイインピーダンス状態にするといった柔軟な使い方が可能である。</t>
+  </si>
+  <si>
+    <t>[適用例4] 上記適用例に係る半導体集積回路において、前記半導体集積回路は、第1の電源端子と、第2の電源端子と、を含み、前記第1の出力回路は、前記第1の電源端子から電源電圧が供給され、前記第2の出力回路は、前記第2の電源端子から電源電圧が供給されてもよい。</t>
+  </si>
+  <si>
+    <t>本適用例に係る半導体集積回路によれば、第1の出力回路と第2の出力回路の電源端子を別にしていることで、一方の信号のノイズが電源を経由して他方の信号に乗ることを低減させることができる。</t>
+  </si>
+  <si>
+    <t>また、本適用例に係る半導体集積回路によれば、後段の回路が例えば第1の出力回路からの出力信号だけを必要とする場合、第2の電源端子から電源電圧の供給を停止することも可能になる。</t>
+  </si>
+  <si>
+    <t>従って、不要な消費電力を抑制することが可能である。</t>
+  </si>
+  <si>
+    <t>[適用例5] 上記適用例に係る半導体集積回路において、前記半導体集積回路は、前記発振信号を分周して第1の分周信号を生成する第1の分周回路と、前記第1の分周信号を分周して第2の分周信号を生成する第2の分周回路と、を含み、前記第1の分周回路は、前記第1の電源端子から電源電圧が供給され、前記第1の分周信号に基づく信号を前記第1の出力回路に出力し、前記第2の分周回路は、前記第2の電源端子から電源電圧が供給され、前記第2の分周信号に基づく信号を前記第2の出力回路に出力してもよい。</t>
+  </si>
+  <si>
+    <t>本適用例に係る半導体集積回路によれば、第1の分周回路と第2の分周回路の設定により、第1の出力回路からの出力信号の周波数と、第2の出力回路からの出力信号の周波数J017384601 4 とが異なるようにすることができる。</t>
+  </si>
+  <si>
+    <t>従って、後段の複数の回路は、それぞれ周波数が異なる複数の出力信号を受け取ることができる。</t>
+  </si>
+  <si>
+    <t>さらに、本適用例に係る半導体集積回路によれば、半導体集積回路の外部で分周回路を設ける必要がないので、後段の回路は、ジッター特性のよい出力信号を受け取ることが可能である。</t>
+  </si>
+  <si>
+    <t>なお、第1の分周回路、第2の分周回路は入力信号をそのまま出力することも可能である。</t>
+  </si>
+  <si>
+    <t>そのため、本適用例に係る半導体集積回路の後段の回路は、必要に応じて周波数が同じ出力信号を受け取ることもできる。</t>
+  </si>
+  <si>
+    <t>[適用例6] 上記適用例に係る半導体集積回路において、前記第1の分周回路は、前記第2の分周回路が前記第1の分周信号を分周するのに要する時間だけ前記第1の分周信号を遅延させる遅延回路を含んでもよい。</t>
+  </si>
+  <si>
+    <t>本適用例に係る半導体集積回路によれば、遅延回路により、第1の出力回路が第1の分周信号に基づく信号を受け取る時間と、第2の出力回路が第2の分周信号に基づく信号を受け取る時間と、を合わせることができる。</t>
+  </si>
+  <si>
+    <t>従って、本適用例に係る半導体集積回路によれば、スキューの小さい複数の出力信号を生成することが可能である。</t>
+  </si>
+  <si>
+    <t>[適用例7] 本適用例に係る発振器は、上記のいずれかの半導体集積回路と、前記振動素子と、前記半導体集積回路および前記振動素子が収容されるパッケージとを有する。</t>
+  </si>
+  <si>
+    <t>本適用例に係る発振器によれば、集半導体積回路に含まれる第1の出力回路および第2の出力回路により、発振信号に基づく低ジッターの少なくとも2つの信号を出力することができるので、この少なくとも2つの信号を複数の回路にそれぞれ供給すれば、外部にファンアウトバッファーを設けて分岐させる必要がない。</t>
+  </si>
+  <si>
+    <t>[適用例8] 上記適用例に係る発振器において、前記振動素子は、弾性表面波共振子であってもよい。</t>
+  </si>
+  <si>
+    <t>本適用例に係る発振器の振動素子は、弾性表面波共振子(以下、SAW共振子)である。</t>
+  </si>
+  <si>
+    <t>SAW共振子では櫛形電極の周期を微細にするほどより高い発振周波数の信号を得られる。</t>
+  </si>
+  <si>
+    <t>そのため、本適用例に係る発振器は高い発振周波数を実現しながら、小型化も可能である。</t>
+  </si>
+  <si>
+    <t>[適用例9] 上記適用例に係る発振器において、前記第1の出力回路からの信号を出力する第1の出力端子と、前記第2の出力回路からの信号を出力する第2の出力端子と、を含み、前記第J017384601 5 1の出力端子は、前記パッケージの第1の辺に沿って配置され、前記第2の出力端子は、前記パッケージの前記第1の辺と対向する第2の辺に沿って配置されてもよい。</t>
+  </si>
+  <si>
+    <t>本適用例に係る発振器によれば、第1の出力回路からの出力信号と第2の出力回路からの出力信号との干渉を回避し、スキューが小さく、ジッター特性のよい複数の出力信号を生成することができる。</t>
+  </si>
+  <si>
+    <t>さらに、干渉を回避するために、第1の出力回路と第2の出力回路とが半導体基板上で離れてレイアウトされていてもよい。</t>
+  </si>
+  <si>
+    <t>[適用例10] 本適用例に係る電子機器は、上記のいずれかの半導体集積回路、または発振器を含む。</t>
+  </si>
+  <si>
+    <t>[適用例11] 本適用例に係る移動体は、上記のいずれかの半導体集積回路、または発振器を含む。</t>
+  </si>
+  <si>
+    <t>これらの適用例によれば、半導体集積回路、または発振器の後段の複数の回路は低ジッターの複数の出力信号を受け取ることができるので、信頼性の高い電子機器、移動体を実現できる。</t>
+  </si>
+  <si>
+    <t>図面の簡単な説明 図1本実施形態に係る発振器のブロック図。</t>
+  </si>
+  <si>
+    <t>図2SAW共振子および発振回路の構成例を示す図。</t>
+  </si>
+  <si>
+    <t>図3分周回路および出力回路の構成例を示す図。</t>
+  </si>
+  <si>
+    <t>図4本実施形態に係る発振器の信号のタイミングを例示する図。</t>
+  </si>
+  <si>
+    <t>図5本実施形態に係る発振器の端子の配置例を示す図。</t>
+  </si>
+  <si>
+    <t>図6電子機器の機能ブロック図。</t>
+  </si>
+  <si>
+    <t>図7電子機器の外観の一例を示す図。</t>
+  </si>
+  <si>
+    <t>図8移動体の一例を示す図。</t>
+  </si>
+  <si>
+    <t>図9比較例の発振器で複数の出力信号を生成する例を示す図。</t>
+  </si>
+  <si>
+    <t>発明を実施するための形態 以下、本発明の好適な実施形態について図面を用いて詳細に説明する。</t>
+  </si>
+  <si>
+    <t>なお、以下に説明する実施形態は、特許請求の範囲に記載された本発明の内容を不当に限定するものではない。</t>
+  </si>
+  <si>
+    <t>また以下で説明される構成の全てが本発明の必須構成要件であるとは限らない。</t>
+  </si>
+  <si>
+    <t>1. 発振器 図1は、本実施形態の発振器1の構成を示す図である。 発振器1は、SAW共振子26(振動素子の一例)と、半導体集積回路10と、を含む。 SAW共振子26は、半導体集積回路10に含まれる発振回路12と接続される。</t>
+  </si>
+  <si>
+    <t>端子T1、端子T2、端子T3にはそれぞれ電源電圧VDD1、VDD2、VDD3が供給され、端子T4および端子T5は接地電圧VSSが供給される。 なお、電源電圧VDD1~VDD3は、いずれも同じ電圧であるものとする。</t>
+  </si>
+  <si>
+    <t>端子T6には発振器1の出力イネーブル信号が入力される。 出力イネーブル信号がハイレベルのときに端子T7~端子T14からクロック信号が出力される。 端子T7~端子T14は、差動信号である4つのクロック信号を出力するのに使われる。</t>
+  </si>
+  <si>
+    <t>端子T7、端子T8は、それぞれ、第1のクロック信号の非反転信号116P、反転信号116Nを出力する。</t>
+  </si>
+  <si>
+    <t>端子T9、端子T10は、それぞれ、第2のクロック信号の非反転信号117P、反転信号117Nを出力する。</t>
+  </si>
+  <si>
+    <t>端子T11、端子T12は、それぞれ、第3のクロック信号の非反転信号118P、反転信号118Nを出力する。</t>
+  </si>
+  <si>
+    <t>端子T13、端子T14は、それぞれ、第4のクロック信号の非反転信号119P、反転信号119Nを出力する。</t>
+  </si>
+  <si>
+    <t>半導体集積回路10は、発振回路12、制御部13、第1の分周回路15、第1の出力回路16、第2の分周回路17、第2の出力回路18を含む。 第1の分周回路15および第1の出力回路16は、端子T1(第1の電源端子の一例)から電源電圧VDD1を受け取って動作する。</t>
+  </si>
+  <si>
+    <t>第2の分周回路17および第2の出力回路18は、端子T2(第2の電源端子の一例)から電源電圧VDD2を受け取って動作する。</t>
+  </si>
+  <si>
+    <t>ここで、第1のグループ21、第2のグループ22は、半導体集積回路10の回路を電源電圧の供給元で区分したものである。</t>
+  </si>
+  <si>
+    <t>発振回路12は、SAW共振子26と接続されて発振ループを形成する。</t>
+  </si>
+  <si>
+    <t>なお、発振回路12は本実施形態ではSAW共振子26と接続されるが、SAW共振子26に代えて、ATカット水晶振動子、SCカット水晶振動子、音叉型水晶振動子、その他の圧電振動子やMEMS(Micro Electro Mechanical Systems)振動子などの振動素子と接続されてもよい。 また、SAW共振子26や振動素子の基板材料としては、水晶の他、タンタル酸リチウム、ニオブ酸リチウム等の圧電単結晶や、ジルコン酸チタン酸鉛等の圧電セラミックス等の圧電材料、又はシリコン半導体材料等を用いてもよい。</t>
+  </si>
+  <si>
+    <t>SAW共振子26や振動素子の励振手段J017384601 7 としては、圧電効果によるものを用いてもよいし、クーロン力による静電駆動を用いてもよい。</t>
+  </si>
+  <si>
+    <t>なお、制御部13はCPUであってもよい。</t>
+  </si>
+  <si>
+    <t>このとき、そのプログラムを記憶した不図示の記憶部があり、発振器1の出力イネーブル信号およびプログラムに従って前記の制御を行ってもよい。</t>
+  </si>
+  <si>
+    <t>また、第1の出力回路16および第2の出力回路18から出力される信号は、差動信号以外のシングルエンドの信号でもよいし、CMOS、LV-PECL、LV-TTL、LVDS、またはHCSL等に対応した信号でもよい。</t>
+  </si>
+  <si>
+    <t>第1の出力回路16は、シングルエンド入力を差動出力に変換するバッファーを2つ含んでいる。</t>
+  </si>
+  <si>
+    <t>それぞれのバッファーは信号125を受け取り、第1のクロック信号、第2のクロック信号として差動出力する。</t>
+  </si>
+  <si>
+    <t>第1の出力回路16は、制御信号216に基づいて、第1のクロック信号、第2のクロック信号を出力するか、ハイインピーダンス状態とするJ017384601 8 かを選択する。</t>
+  </si>
+  <si>
+    <t>なお、本実施形態では第1の出力回路16に含まれるバッファーは2つであるが、1つであってもよいし、3つ以上であってもよい。</t>
+  </si>
+  <si>
+    <t>それぞれのバッファーは、信号127を受け取り、第3のクロック信号、第4のクロック信号として差動出力する。</t>
+  </si>
+  <si>
+    <t>第2の出力回路18は、制御信号218に基づいて、第3のクロック信号、第4のクロック信号を出力するか、ハイインピーダンス状態とするかを選択する。</t>
+  </si>
+  <si>
+    <t>なお、本実施形態では第2の出力回路18に含まれるバッファーは2つであるが、1つであってもよいし、3つ以上であってもよい。</t>
+  </si>
+  <si>
+    <t>図2は、SAW共振子26および発振回路12の詳細な構成を示す図である。 なお、図1と同じ信号には同じ符号を付しており説明を省略する。</t>
+  </si>
+  <si>
+    <t>SAW共振子26は、圧電基板上に、弾性表面波の伝搬方向に沿って櫛形電極29を配置し、その両側にグレーティング反射器27A、27Bを配置して構成される。</t>
+  </si>
+  <si>
+    <t>中央の櫛形電極29で弾性表面波を励振して、両側のグレーティング反射器27A、27Bで励起された弾性表面波の振動エネルギを櫛形電極29の方向に反射することで振動子(共振子)を構成している。 SAW共振子26は電極間隔で周波数が決まるため、フォトリソグラフィ加工によって高い周波数を容易に得ることができ、サイズも小さくできる。</t>
+  </si>
+  <si>
+    <t>そして、インバーター24、帰還抵抗28、コンデンサー41、42が、櫛形電極29と図2のように接続されて、帰還型の発振回路12を構成している。 帰還抵抗28を接続したインバーター24はアナログ増幅回路として機能する。</t>
+  </si>
+  <si>
+    <t>そして、SAW共振子26を発振させて発振信号112を生成する。 図3は、第1の分周回路15、第1の出力回路16、第2の分周回路17、第2の出力回路18の詳細な構成を示す図である。 なお、図1および図2と同じ信号には同じ符号を付しており説明を省略する。</t>
+  </si>
+  <si>
+    <t>バッファー160は、第1のクロック信号の非反転信号116P、反転信号116Nを出力する。</t>
+  </si>
+  <si>
+    <t>バッファー162は、第2のクロック信号の非反転信号117P、反転信号117Nを出力する。</t>
+  </si>
+  <si>
+    <t>第1の出力回路16は、制御信号E12に従って、2つのバッファー160、162をハイインピーダンス状態にすることができる。 制御信号E12は、制御部13からの制御信号216が対応する。</t>
+  </si>
+  <si>
+    <t>よって、位相が揃った4つのクロック信号を出力することができる。</t>
+  </si>
+  <si>
+    <t>なお、図4の時刻t2、時刻t4、時刻t6、時刻t8では、第1の分周遅延信号115の立ち上がりに第2の分周信号124の立ち下がりが対応している。 そのため、第1の分周遅延信号115と第2の分周信号124とが隣接して平行に配線されている場合などにジッター特性の悪化が生じやすくなる。</t>
+  </si>
+  <si>
+    <t>本実施形態の発振器1では、図5を参照して後に説明するように、レイアウトでの工夫によって、このようなジッター特性の悪化も回避できる。 第2の出力回路18は、2つのバッファー180、182を含む。</t>
+  </si>
+  <si>
+    <t>バッファー180は、第3のクロック信号の非反転信号118P、反転信号118Nを出力する。</t>
+  </si>
+  <si>
+    <t>バッファー182は、第4のクロック信号の非反転信号118P、反転信号118Nを出力する。</t>
+  </si>
+  <si>
+    <t>制御信号E34は、制御部13からの制御信号218が対応する。 なお、本実施形態では、第1の出力回路16と第2の出力回路18とが同じ数のバッファーを含んでいるが、バッファーの数について同じである必要はなく、第1の出力回路16、第2の出力回路18はそれぞれ任意の数のバッファーを含むことができる。</t>
+  </si>
+  <si>
+    <t>ここで、図9は、比較例の発振器1001からの1つのクロック信号をファンアウトバッファー1020で分岐して4つのクロック信号を生成した場合を示す図である。</t>
+  </si>
+  <si>
+    <t>図9の場合にも、本実施形態の発振器1と同じように、最終的には4つのクロック信号を生成することができる。</t>
+  </si>
+  <si>
+    <t>比較例の発振器1001は4つの端子を有している。</t>
+  </si>
+  <si>
+    <t>端子U1には電源電圧VDDが供給され、端子U2は接地電圧VSSが供給される。 端子U3および端子U4は、差動信号である1つのクロック信号を出力するのに使われる。</t>
+  </si>
+  <si>
+    <t>端子U3、端子U4は、それぞれ、クロック信号の非反転信号1116P、反転信号1116Nを出力する。</t>
+  </si>
+  <si>
+    <t>発振器1001は、SAW共振子1026、発振回路1012、制御部1013、分周回路1015、出力回路1016を含む。 SAW共振子1026、発振回路1012、制御部1013は、それぞれ、本実施形態の発振器1が含むSAW共振子26、発振回路12、制御部13に対応し、機能も同じであるため説明を省略する。</t>
+  </si>
+  <si>
+    <t>J017384601 11 分周回路1015は、本実施形態の発振器1が含む第1の分周回路15から、遅延回路158、セレクター172Bを省いたものに対応する(図3参照)。</t>
+  </si>
+  <si>
+    <t>このとき、出力回路1016は、分周回路1015から、第1の分周回路15の第1の分周信号114に対応する信号を受け取る。 出力回路1016は、本実施形態の発振器1が含む第1の出力回路16から、バッファー162を省いたものに対応する(図3参照)。</t>
+  </si>
+  <si>
+    <t>このとき、クロック信号の非反転信号1116P、反転信号1116Nだけが、比較例の発振器1001から出力される。</t>
+  </si>
+  <si>
+    <t>ファンアウトバッファー1020は全部で10個の端子を有している。</t>
+  </si>
+  <si>
+    <t>端子V1、端子V2は発振器1001から、それぞれ非反転信号1116P、反転信号1116Nを受け取るための入力端子である。 そして、端子V3~端子V10は、差動信号である4つのクロック信号を出力するのに使われる。</t>
+  </si>
+  <si>
+    <t>なお、端子V3~端子V10は、それぞれ本実施形態の発振器1の端子T7~端子T14(図1参照)に対応し、詳細な説明を省略する。</t>
+  </si>
+  <si>
+    <t>ファンアウトバッファー1020は、図9のように、受け取った非反転信号1116P、反転信号1116Nを、それぞれバッファーを用いて分岐して、入力されたクロック信号と同じ波形、周波数の4つのクロック信号を生成する。</t>
+  </si>
+  <si>
+    <t>したがって、比較例の発振器1001とファンアウトバッファー1020とを組み合わせることでも、4つのクロック信号を生成することができる。</t>
+  </si>
+  <si>
+    <t>しかし、比較例の構成では、ファンアウトバッファー1020が分周器を含まず、本実施形態の発振器1のように異なる周波数のクロック信号を出力することができない。</t>
+  </si>
+  <si>
+    <t>また、発振器1001の端子U3、端子U4から、ファンアウトバッファー1020の端子V1、端子V2に至る配線において外来ノイズが混入するおそれや、配線のインダクタンス成分、キャパシタンス成分の影響で波形が歪んでジッター特性が悪化するおそれがある。</t>
+  </si>
+  <si>
+    <t>また、選択するファンアウトバッファー1020によっては、その内部での遅延が4つのクロック信号で異なる可能性もある。</t>
+  </si>
+  <si>
+    <t>しかし、本実施形態の発振器1では、第1の分周信号114を分周して第2の分周信号124を生成する第2の分周回路17を含んでいる。 そのため、バッファー160およびバッファー162からのクロック信号の周波数と、バッファー180およびバッファー182からのクロック信号の周波数とが異なるように設定可能である。</t>
+  </si>
+  <si>
+    <t>そのため、比較例のように端子間の配線において外来ノイズが混入したり、そのインダクタンス成分等でジッター特性が悪化したりするおそれが少ない。</t>
+  </si>
+  <si>
+    <t>そして、本実施形態の発振器1では、前記のように、第1の分周回路15からの信号125が第1の出力回路16に入力されるタイミングと、第2の分周回路17からの信号1J017384601 12 27が第2の出力回路18に入力されるタイミングと、を合わせることができる。 そのため、第1の分周信号114を分岐させることによるジッター特性の悪化が生じにくくすることができる。</t>
+  </si>
+  <si>
+    <t>図5は、本実施形態に係る発振器1の端子T1~端子T14の配置例を示す図である。</t>
+  </si>
+  <si>
+    <t>ここで、図5の発振器1はパッケージを上から見た図であるが、内部の半導体集積回路10について説明するため一部の領域R1を透過させている。 なお、図1~図3と同じ要素には同じ符号を付しており説明を省略する。</t>
+  </si>
+  <si>
+    <t>図5では、本実施形態に係る発振器1の端子T1~端子T14が、紙面左上から時計回りに、端子T2(端子名: VDD2)、端子T14(端子名: XOUT4)、端子T13(端子名: OUT4)、端子T12(端子名: XOUT3)、端子T11(端子名: OUT3)、端子T6(端子名: OE)、端子T4(端子名: VSS)、端子T9(端子名: OUT2)、端子T10(端子名: XOUT2)、端子T7(端子名: OUT1)、端子T8(端子名: XOUT1)、端子T1(端子名: VDD1)、端子T5(端子名: VSS)、端子T3(端子名: VDD3)の順で配置されている。</t>
+  </si>
+  <si>
+    <t>なお、以下では説明の都合上、端子名を用いて端子を指定する場合がある。</t>
+  </si>
+  <si>
+    <t>そして、領域R1の部分に示すように、発振器1は端子T1~端子T14のそれぞれに電気的に接続されている配線w1~配線w14を含んでいる。 半導体集積回路10上に複数並んでいる実線の正方形はコンタクトパッドであり、ワイヤーボンディングにより配線w1~配線w14と電気的に接続される。</t>
+  </si>
+  <si>
+    <t>ここで、本実施形態の発振器1では、第1のグループ21(図1参照)に含まれる第1の出力回路16からの第1および第2のクロック信号を出力するOUT1、XOUT1、OUT2、XOUT2は紙面の下辺(第1の辺の一例)に配置されている。</t>
+  </si>
+  <si>
+    <t>また、第1のグループ21へ電源を供給するためのVDD1も紙面の下辺に配置されている。</t>
+  </si>
+  <si>
+    <t>一方で、第2のグループ22(図1参照)に含まれる第2の出力回路18からの第3および第4のクロック信号を出力するOUT3、XOUT3、OUT4、XOUT4は紙面の上辺(第2の辺の一例)に配置されている。</t>
+  </si>
+  <si>
+    <t>また、第2のグループ22へ電源を供給するためのVDD2も紙面の上辺に配置されている。</t>
+  </si>
+  <si>
+    <t>本実施形態の発振器1では、OUT1、XOUT1、OUT2、XOUT2(それぞれ第1の出力端子の一例)と、OUT3、XOUT3、OUT4、XOUT4(それぞれ第2の出力端子の一例)とが、対向する辺のそれぞれに配置されている。</t>
+  </si>
+  <si>
+    <t>そのため、発振器1は、第1および第2のクロック信号と第3および第4のクロック信号との干渉を低減し、ばらつきが少なく、ジッター特性のよい複数のクロック信号を生成することができる。</t>
+  </si>
+  <si>
+    <t>このとき、第1のグループ21と、第2のグループ22とで異なる電源端子を用いているため、共通の電源を介して一方の出力信号から他方の出力信号へのノイズの回りこみもJ017384601 13 小さい。</t>
+  </si>
+  <si>
+    <t>そのため、高周波数の第1および第2のクロック信号に低周波の第3および第4のクロック信号からのノイズがのって低周波のスプリアスとして観察されるといった問題も生じにくい。</t>
+  </si>
+  <si>
+    <t>さらに、半導体集積回路10は、上辺に近い領域R2と下辺に近い領域R3に区分されるとする。</t>
+  </si>
+  <si>
+    <t>一方、第2の分周回路17、第2の出力回路18といった第2のグループ22を構成する回路は領域R2に配置される。 このように回路を配置することで、1つの半導体基板上に集積しても、周波数が異なる可能性のある第1のグループ21に属する信号と、第2のグループ22に属する信号とが干渉しにくくすることができる。</t>
+  </si>
+  <si>
+    <t>なお、本実施形態の発振器1では、半導体集積回路10から離れた領域R4にSAW共振子26が配置されているが、小型化のために例えば半導体集積回路10と重なって(3次元的に上下の方向、すなわち紙面の手前又は奥に)SAW共振子26が配置されてもよい。</t>
+  </si>
+  <si>
+    <t>以上のように、本実施形態の発振器1は、複数のバッファー(バッファー160、162、180、182)と発振回路12とを1つの半導体基板上に集積しても、バッファーからの出力信号(第1~第4のクロック信号)の劣化を低減できる。 2. 電子機器 本実施形態の電子機器300について、図6~図7を用いて説明する。</t>
+  </si>
+  <si>
+    <t>図6は、電子機器300の機能ブロック図である。 電子機器300は、発振回路12とSAW共振子26とを含む発振部200、CPU(Central Processing Unit)320、操作部330、ROM(Read Only Memory)340、RAM(Random Access Memory)350、通信部360、表示部370、音出力部380を含んで構成されている。 なお、電子機器300は、図6の構成要素(各部)の一部を省略又は変更してもよいし、他の構成要素を付加した構成としてもよい。</t>
+  </si>
+  <si>
+    <t>発振部200は、クロックパルスをCPU320だけでなく各部に供給する(図示は省略)。</t>
+  </si>
+  <si>
+    <t>なお、発振部200は、前記の半導体集積回路10とSAW共振子26とが接続された発振器1に対応する。 ただし、図6では半導体集積回路10のうち発振回路12のみを示している。</t>
+  </si>
+  <si>
+    <t>CPU320は、ROM340等に記憶されているプログラムに従い、発振部200が出力するクロックパルス(前記の半導体集積回路10からのクロック信号に対応)を用いて各種の計算処理や制御処理を行う。 具体的には、CPU320は、操作部330からの操作信号に応じた各種の処理、外部とデータ通信を行うために通信部360を制御する処J017384601 14 理、表示部370に各種の情報を表示させるための表示信号を送信する処理、音出力部380に各種の音を出力させる処理等を行う。</t>
+  </si>
+  <si>
+    <t>操作部330は、操作キーやボタンスイッチ等により構成される入力装置であり、ユーザーによる操作に応じた操作信号をCPU320に出力する。 ROM340は、CPU320が各種の計算処理や制御処理を行うためのプログラムやデータ等を記憶している。</t>
+  </si>
+  <si>
+    <t>RAM350は、CPU320の作業領域として用いられ、ROM340から読み出されたプログラムやデータ、操作部330から入力されたデータ、CPU320が各種プログラムに従って実行した演算結果等を一時的に記憶する。</t>
+  </si>
+  <si>
+    <t>通信部360は、CPU320と外部装置との間のデータ通信を成立させるための各種制御を行う。</t>
+  </si>
+  <si>
+    <t>表示部370は、LCD(Liquid Crystal Display)等により構成される表示装置であり、CPU320から入力される表示信号に基づいて各種の情報を表示する。 そして、音出力部380は、スピーカー等の音を出力する装置である。</t>
+  </si>
+  <si>
+    <t>前記の通り、発振部200(前記の発振器1)は、ジッター特性のよい複数のクロックを供給する。</t>
+  </si>
+  <si>
+    <t>このとき、発振部200は、高速なクロックをCPU320に供給し、低速なクロックをその他の機能ブロックに供給することも可能である。</t>
+  </si>
+  <si>
+    <t>このとき、ファンアウトバッファー1020が不要であるため、電子機器300の小型化が可能である。</t>
+  </si>
+  <si>
+    <t>電子機器300としては種々が考えられる。 例えば、パーソナルコンピューター(例えば、モバイル型パーソナルコンピューター、ラップトップ型パーソナルコンピューター、タブレット型パーソナルコンピューター)、携帯電話機などの移動体端末、ディジタルスチールカメラ、インクジェット式吐出装置(例えば、インクジェットプリンター)、ルーターやスイッチなどのストレージエリアネットワーク機器、ローカルエリアネットワーク機器、ネットワーク上で各種データの送受を行うサーバー機器、移動体端末基地局用機器、テレビ、ビデオカメラ、ビデオレコーダー、カーナビゲーション装置、ページャー、電子手帳(通信機能付も含む)、電子辞書、電卓、電子ゲーム機器、ゲーム用コントローラー、ワードプロセッサー、ワークステーション、テレビ電話、防犯用テレビモニター、電子双眼鏡、POS端末、医療機器(例えば電子体温計、血圧計、血糖計、心電図計測装置、超音波診断装置、電子内視鏡)、魚群探知機、各種測定機器、計器類(例えば、車両、航空機、船舶の計器類)、フライトシミュレーター、ヘッドマウントディスプレイ、モーショJ017384601 15 ントレース、モーショントラッキング、モーションコントローラー、PDR(歩行者位置方位計測)等が挙げられる。 図7は、電子機器300の一例であるスマートフォンの外観の一例を示す図である。</t>
+  </si>
+  <si>
+    <t>電子機器300であるスマートフォンは、操作部330としてボタンを、表示部370としてLCDを備えている。 そして、電子機器300であるスマートフォンは、発振部200(前記の発振器1)を用いることで、小型化でき、設計の効率化を図ることができる。</t>
+  </si>
+  <si>
+    <t>図8は、本実施形態の移動体400の一例を示す図(上面図)である。 図8に示す移動体400は、発振部410、エンジンシステム、ブレーキシステム、キーレスエントリーシステム等の各種の制御を行うコントローラー420、430、440、バッテリー450、バックアップ用バッテリー460を含んで構成されている。 なお、本実施形態の移動体は、図8の構成要素(各部)の一部を省略又は変更してもよいし、他の構成要素を付加した構成としてもよい。</t>
+  </si>
+  <si>
+    <t>発振部410は、前記の発振器1に対応する。 その他の構成要素の詳細な説明は省略するが、移動体の移動に必要な制御を行うため高い信頼性が要求される。</t>
+  </si>
+  <si>
+    <t>例えば、バッテリー450の他に、バックアップ用バッテリー460を備えることで信頼性を高めている。 そして、発振部410についても、信頼性を高めるためにバックアップ用の発振部410を備えることが好ましい。</t>
+  </si>
+  <si>
+    <t>すなわち、複数のクロックを備えることが好ましい。</t>
+  </si>
+  <si>
+    <t>このとき、発振部410を、前記の発振器1とすることで、ジッター特性のよい高品質のクロックを複数利用可能である。</t>
+  </si>
+  <si>
+    <t>なお、このような移動体400としては種々の移動体が考えられ、例えば、自動車(電気自動車も含む)、ジェット機やヘリコプター等の航空機、船舶、ロケット、人工衛星等が挙げられる。</t>
+  </si>
+  <si>
+    <t>本発明は本実施形態に限定されず、本発明の要旨の範囲内で種々の変形実施が可能である。</t>
+  </si>
+  <si>
+    <t>上述した実施形態および変形例は一例であって、これらに限定されるわけではない。</t>
+  </si>
+  <si>
+    <t>例えば、各実施形態および各変形例を適宜組み合わせることも可能である。</t>
+  </si>
+  <si>
+    <t>本発明は、前記の実施形態で説明した構成と実質的に同一の構成(例えば、機能、方法および結果が同一の構成、あるいは目的および効果が同一の構成)を含む。</t>
+  </si>
+  <si>
+    <t>また、本発明は、実施形態で説明した構成の本質的でない部分を置き換えた構成を含む。</t>
+  </si>
+  <si>
+    <t>また、本発明は、実施形態で説明した構成と同一の作用効果を奏する構成又は同一の目的を達成するこJ017384601 16 とができる構成を含む。</t>
+  </si>
+  <si>
+    <t>また、本発明は、実施形態で説明した構成に公知技術を付加した構成を含む。</t>
+  </si>
+  <si>
+    <t>符号の説明 1 発振器、10 半導体集積回路、12 発振回路、13 制御部、15 第1の分周回路、16 第1の出力回路、17 第2の分周回路、18 第2の出力回路、21 第1のグループ、22 第2のグループ、24 インバーター、26 SAW共振子、27A グレーティング反射器、27B グレーティング反射器、28 帰還抵抗、29 櫛形電極、41 コンデンサー、42 コンデンサー、112 発振信号、114 第1の分周信号、115 第1の分周遅延信号、116N 反転信号、116P 非反転信号、117N 反転信号、117P 非反転信号、118N 反転信号、118P 非反転信号、119N 反転信号、119P 非反転信号、124 第2の分周信号、125 信号、127 信号、150 フリップフロップ、152 フリップフロップ、154 フリップフロップ、156 セレクター、158 遅延回路、160 バッファー、162 バッファー、170 フリップフロップ、172A セレクター、172B セレクター、180 バッファー、182 バッファー、200 発振部、215 制御信号、216 制御信号、217 制御信号、218 制御信号、300 電子機器、320 CPU、330 操作部、340 ROM、350 RAM、360 通信部、370 表示部、380 音出力部、400 移動体、410 発振部、420 コントローラー、450 バッテリー、460 バックアップ用バッテリー、1001 発振器、1012 発振回路、1013 制御部、1015 分周回路、1016 出力回路、1020 ファンアウトバッファー、1026 SAW共振子、1116N 反転信号、1116P 非反転信号、E12 制御信号、E34 制御信号、R1 領域、R2 領域、R3 領域、R4 領域、S1 選択信号、S2 選択信号、T1 端子、T2 端子、T3 端子、T4 端子、T5 端子、T6 端子、T7 端子、T8 端子、T9 端子、T10 端子、T11 端子、T12 端子、T13 端子、T14 端子、U1 端子、U2 端子、U3 端子、U4 端子、V1 端子、V2 端子、V3 端子、V10 端子、VDD 電源電圧、VDD1 電源電圧、VDD2 電源電圧、VDD3 電源電圧、VSS 接地電圧、w1~w14 配線 J017384601 17 書類名特許請求の範囲 請求項1 振動素子を発振させて発振信号を生成する発振部と、 前記発振信号に基づく信号を出力する第1の出力部および第2の出力部と、 前記第1の出力部および前記第2の出力部を制御する制御部と、をする半導体集積回路。 請求項2 半導体基板上に、振動素子を発振させて発振信号を生成する発振回路と、前記発振信号に基づく信号を出力する第1の出力回路および第2の出力回路と、 前記第1の出力回路および前記第2の出力回路の動作を制御する制御部と、を有する半導体集積回路。</t>
+  </si>
+  <si>
+    <t>請求項10 請求項1乃至3のいずれか1項に記載の半導体集積回路を含む、電子機器。</t>
+  </si>
+  <si>
+    <t>半導体集積回路10は、複数の出力回路のうち、第1の出力回路16と第2の出力回路18とは、互いに独立に動作が制御される。</t>
+  </si>
+  <si>
+    <t>SEMICONDUCTOR INTEGRATED CIRCUIT, OSCILLATOR, ELECTRONIC APPARATUS, AND MOBILE OBJECT BACKGROUNDTechnical Field The present invention relates to a semiconductor integrated circuit, an oscillator, an electronic apparatus, and a mobile object.Related Art In recent years, an oscillator in which a surface acoustic wave (SAW) resonator using a SAW is mounted has been used for a high-speed network communication, a mobile object communication field, or the like.</t>
+  </si>
+  <si>
+    <t>The SAW resonator can take out a high frequency signal using the SAW by providing an IDT electrode (comb-shaped electrode) on a piezoelectric substrate such as quartz crystal.</t>
+  </si>
+  <si>
+    <t>A speed of the surface acoustic wave is determined by a type of the piezoelectric substrate, and as the cycle of the comb-shaped electrode is finer, the SAW resonator obtains a signal with the higher oscillation frequency.</t>
+  </si>
+  <si>
+    <t>For this reason, the SAW resonator can be miniaturized so as to be able to easily correspond to a high frequency.</t>
+  </si>
+  <si>
+    <t>For example, JP-A-2006-245994 proposes an oscillator (referred to as a piezoelectric device in JP-A-2006-245994) which can be further miniaturized and thinner than that of the related art, by disposing a SAW resonator (referred to as a surface acoustic wave element chip in JP-A-2006-245994) in a thick bottom portion and disposing electronic components in a thin bottom portion.</t>
+  </si>
+  <si>
+    <t>However, in the oscillator described in JP-A-2006-245994, in a case in which it is desired to input an output signal to a plurality of ICs, an output is required to be branched by a fan-out buffer, and there is a case in which skew occurs or a jitter characteristic is degraded due to long wires from the ICs to the fan-out buffer, or a jitter characteristic of the output signal is degraded in the fan-out buffer.</t>
+  </si>
+  <si>
+    <t>In addition, by using the fan-out buffer, there is a case in which skew occurs due to a wire length in the fan-out buffer.</t>
+  </si>
+  <si>
+    <t>SUMMARY An advantage of some aspects of the invention is that a semiconductor integrated circuit in which, even if an output signal is input to a plurality of circuits, degradation of a jitter characteristic can be reduced can be provided, and in addition, an oscillator, an electronic apparatus, and a mobile object which use the semiconductor integrated circuit and have high reliability can be provided.</t>
+  </si>
+  <si>
+    <t>Application Example 1 According to this application example, there is provided a semiconductor integrated circuit including: an oscillation unit which generates an oscillation signal by oscillating a vibration element; a first output unit and a second output unit which output signals based on the oscillation signal; and a control unit that controls the first output unit and the second output unit.</t>
+  </si>
+  <si>
+    <t>The vibration element is, for example, a surface acoustic wave (SAW) resonator, an AT cut quartz crystal vibrator, an SC cut quartz crystal vibrator, a tuning fork type quartz crystal vibrator, other piezoelectric vibrators, a micro electromechanical system (MEMS) vibrator, or the like.</t>
+  </si>
+  <si>
+    <t>The first output circuit and the second output circuit may respectively output one signal, and output signals different from each other.</t>
+  </si>
+  <si>
+    <t>In addition, the output signals may respectively be differential signals, and be single-ended signals.</t>
+  </si>
+  <si>
+    <t>In addition, a state in which the signals are output from each output unit or the signals are not output, or a state of the output signals of types of the signals output from each output unit or the like, are controlled by the control unit.</t>
+  </si>
+  <si>
+    <t>According to the semiconductor integrated circuit of the application example, by the oscillation unit included in a single semiconductor integrated circuit, the first output unit, and the second output unit, at least two signals with low jitter based on the oscillation signal can be output, and thus if the at least two signals are respectively supplied to at least two circuits, a fan-out buffer which is configured by a semiconductor integrated circuit different from the oscillation unit is not required to be provided.</t>
+  </si>
+  <si>
+    <t>Thus, even if the output signal is input to a plurality of circuits, degradation of a jitter characteristic can be reduced.</t>
+  </si>
+  <si>
+    <t>Application Example 2 According to this application example, there is provided a semiconductor integrated circuit including: an oscillation circuit, and first and second output circuits on a semiconductor substrate, the oscillation circuit generating an oscillation signal by oscillating a vibration element, and the first and second output circuit outputting signals based on the oscillation signal; and a control unit that controls operations of the first output circuit and the second output circuit.</t>
+  </si>
+  <si>
+    <t>Signal output states of each output circuit, and signal types of the signals output from each output circuit are controlled by the control unit.</t>
+  </si>
+  <si>
+    <t>In addition, a state in which the signals are output from each output circuit or the signals are not output, or an operation of the output circuit of setting of types of the signals output from each output circuit or the like, are controlled by the control unit.</t>
+  </si>
+  <si>
+    <t>According to the semiconductor integrated circuit of the application example, by the oscillation circuit included in the semiconductor integrated circuit, the first output circuit, and the second output circuit, at least two signals with low jitter based on the oscillation signal can be output, and thus if the at least two signals are respectively supplied to at least two circuits, a fan-out buffer is not required to be provided on the outside and to be divided.</t>
+  </si>
+  <si>
+    <t>In addition, in a case in which a circuit in the rear stage of the semiconductor integrated circuit according to the present application example requires an output signal from, for example, the first output circuit, an operation in which the output signal from the second output circuit is stopped, or whether or not the signal is set to be in a high impedance state is controlled, and thereby flexible usage is possible.</t>
+  </si>
+  <si>
+    <t>Application Example 3 In the semiconductor integrated circuit according to this application example, the control unit may independently control the operations of the first output circuit and the second output circuit.</t>
+  </si>
+  <si>
+    <t>According to the semiconductor integrated circuit of the application example, an operation of the first output circuit and an operation of the second output circuit are independently controlled, and thus, for example, in a case in which only the output signal from the first output circuit is required, a flexible usage is possible, in which the output signal from the second output circuit is stopped or is set to be in a high impedance state.</t>
+  </si>
+  <si>
+    <t>Application Example 4 In the semiconductor integrated circuit according to this application example, the semiconductor integrated circuit may further include a first power supply terminal and a second power supply terminal, in which the first output circuit may receive a power supply voltage from the first power supply terminal, and the second output circuit may receive a power supply voltage from the second power supply terminal.</t>
+  </si>
+  <si>
+    <t>According to the semiconductor integrated circuit of the application example, since the power supply terminals of the first output circuit and the second output circuit are differently provided, it is possible to reduce noise of one signal being transferred to another signal through a power supply.</t>
+  </si>
+  <si>
+    <t>According to the semiconductor integrated circuit of the application example, in a case in which a circuit in the rear stage requires only the output signal from, for example, the first output circuit, it is also possible to stop supplying of a power supply voltage from the second power supply terminal.</t>
+  </si>
+  <si>
+    <t>Thus, it is possible to reduce unnecessary power consumption.</t>
+  </si>
+  <si>
+    <t>Application Example 5 In the semiconductor integrated circuit according to this application example, the semiconductor integrated circuit may further include a first division circuit which generates a first division signal by dividing the oscillation signal, and a second division circuit which generates a second division signal by dividing the first division signal, in which the first division circuit may receive a power supply voltage from the first power supply terminal, and outputs a signal based on the first division signal to the first output circuit, and in which the second division circuit may receive a power supply voltage from the second power supply terminal, and outputs a signal based on the second division signal to the second output circuit.</t>
+  </si>
+  <si>
+    <t>According to the semiconductor integrated circuit of the application example, by setting of the first division circuit and the second division circuit, the frequency of the output signal from the first output circuit and the frequency of the output signal from the second output circuit can be set differently from each other.</t>
+  </si>
+  <si>
+    <t>Thus, a plurality of circuits in the rear stage can receive a plurality of output signals with frequencies different from each other.</t>
+  </si>
+  <si>
+    <t>Furthermore, according to the semiconductor integrated circuit of the application example, it is not necessary to provide a division circuit on the outside of the semiconductor integrated circuit, and thus the circuit in the rear stage can receive an output signal with a good jitter characteristic.</t>
+  </si>
+  <si>
+    <t>The first division circuit and the second division circuit can output the input signals as they are.</t>
+  </si>
+  <si>
+    <t>For this reason, the circuit in the rear stage of the semiconductor integrated circuit according to the application example can receive output signals with the same frequencies, if necessary.</t>
+  </si>
+  <si>
+    <t>Application Example 6 In the semiconductor integrated circuit according to this application example, the first division circuit may include a delay circuit which delays the first division signal by a time which is required for the second division circuit to divide the first division signal.</t>
+  </si>
+  <si>
+    <t>According to the semiconductor integrated circuit of the application example, by the delay circuit, the time in which the first output circuit receives a signal based on the first division signal can be identical to the time in which the second output circuit receives a signal based on the second division signal.</t>
+  </si>
+  <si>
+    <t>Thus, according to the semiconductor integrated circuit of the application example, it is possible to generate a plurality of output signals with a little skew.</t>
+  </si>
+  <si>
+    <t>Application Example 7 According to this application example, there is provided an oscillator including: a semiconductor integrated circuit according to any one described above; the vibration element; and a package in which the semiconductor integrated circuit and the vibration element are contained.</t>
+  </si>
+  <si>
+    <t>According to the oscillator of the application example, by the first output circuit and the second output circuit which are included in the semiconductor integrated circuit, at least two signals with low jitter based on the oscillation signal can be output, and thus, if the at least two signals are respectively supplied to a plurality of circuits, it is not necessary to divide by providing the fan-out buffer on the outside.</t>
+  </si>
+  <si>
+    <t>Application Example 8 In the oscillator according to this application example, the vibration element may be a surface acoustic wave resonator.</t>
+  </si>
+  <si>
+    <t>The vibration element of the oscillator according to the application example is a surface acoustic wave resonator (hereinafter, referred to as SAW resonator).</t>
+  </si>
+  <si>
+    <t>As the cycle of the comb-shaped electrode is finer, the SAW resonator obtains a signal with the higher oscillation frequency.</t>
+  </si>
+  <si>
+    <t>For this reason, the oscillator according to the application example can generate a signal with a high oscillation frequency and can be miniaturized.</t>
+  </si>
+  <si>
+    <t>Application Example 9 In the oscillator according to this application example, the oscillator may further include a first output terminal through which a signal from the first output circuit is output, and a second output terminal through which a signal from the second output circuit is output, in which the first output terminal may be disposed along a first side of the package, and in which the second output terminal may be disposed along a second side opposite to the first side of the package.</t>
+  </si>
+  <si>
+    <t>According to the oscillator of the application example, it is possible to avoid interference between the output signal from the first output circuit and the output signal from the second output circuit, and to generate a plurality of output signals with a little skew and a good jitter characteristic.</t>
+  </si>
+  <si>
+    <t>Furthermore, since the interference is avoided, it may be laid out in such a manner that the first output circuit and the second output circuit are separated from each other on the semiconductor substrate.</t>
+  </si>
+  <si>
+    <t>Application Example 10 According to this application example, there is provided an electronic apparatus including the semiconductor integrated circuit according to any one described above.</t>
+  </si>
+  <si>
+    <t>Application Example 11 According to this application example, there is provided a mobile object including the semiconductor integrated circuit according to any one described above or the oscillator.</t>
+  </si>
+  <si>
+    <t>According to the application examples, the semiconductor integrated circuit or a plurality of circuits in the rear stage of the oscillator receives a plurality of output signals with low jitter, and thus it is possible to realize an electronic apparatus and a mobile object which have high reliability.</t>
+  </si>
+  <si>
+    <t>FIG.1 is a block diagram of an oscillator according to the present embodiment.</t>
+  </si>
+  <si>
+    <t>FIG.2 is a diagram showing a configuration example of a SAW resonator and an oscillator circuit.</t>
+  </si>
+  <si>
+    <t>FIG.3 is a diagram showing a configuration example of a dividing circuit and an output circuit.</t>
+  </si>
+  <si>
+    <t>FIG.4 is a diagram illustrating timing of signals of the oscillator according to the present embodiment.</t>
+  </si>
+  <si>
+    <t>FIG.5 is a diagram showing a disposal example of terminals of the oscillator according to the present embodiment.</t>
+  </si>
+  <si>
+    <t>FIG.6 is a functional block diagram of an electronic apparatus.</t>
+  </si>
+  <si>
+    <t>FIG.7 is a diagram showing an example of an appearance of the electronic apparatus.</t>
+  </si>
+  <si>
+    <t>FIG.8 is a diagram showing an example of a mobile object.</t>
+  </si>
+  <si>
+    <t>FIG.9 is a diagram showing an example in which a plurality of output signals is generated in an oscillator of a comparative example.</t>
+  </si>
+  <si>
+    <t>DESCRIPTION OF EXEMPLARY EMBODIMENTS Hereinafter, preferred embodiments of the invention will be described in detail with reference to the drawings.</t>
+  </si>
+  <si>
+    <t>The embodiments which will be described hereinafter are not intended to unduly limit the content of the invention described in the claims.</t>
+  </si>
+  <si>
+    <t>In addition, none of the configurations which will be described hereinafter are limited to essential configuration requirements of the invention.Oscillator FIG.1 is a diagram showing a configuration of an oscillator 1 of the present embodiment.</t>
+  </si>
+  <si>
+    <t>The oscillator 1 includes a SAW resonator 26 (an example of a vibration element), and a semiconductor integrated circuitThe SAW resonator 26 is connected to an oscillation circuit 12 included in the semiconductor integrated circuitThe oscillator 1 includes fourteen terminals in total.</t>
+  </si>
+  <si>
+    <t>Power supply voltages VDD1, VDD2, and VDD3 are respectively supplied to a terminal T1, a terminal T2, and a terminal TA ground voltage VSS is supplied to terminals T4 and TThe power supply voltages are all the same voltages.</t>
+  </si>
+  <si>
+    <t>An output enable signal of the oscillator 1 is input to a terminal TWhen the output enable signal is at a high level, clock signals are output from a terminal T7 to a terminal TThe terminal T7 to the terminal T14 are used for outputting four clock signals which are differential signals.</t>
+  </si>
+  <si>
+    <t>The terminal T7 and the terminal T8 respectively output a non-inverting signal 116P and an inverting signal 116N of a first clock signal.</t>
+  </si>
+  <si>
+    <t>The terminal T9 and the terminal T10 respectively output a non-inverting signal 117P and an inverting signal 117N of a second clock signal.</t>
+  </si>
+  <si>
+    <t>The terminal T11 and the terminal T12 respectively output a non-inverting signal 118P and an inverting signal 118N of a third clock signal.</t>
+  </si>
+  <si>
+    <t>The terminal T13 and the terminal T14 respectively output a non-inverting signal 119P and an inverting signal 119N of a fourth clock signal.</t>
+  </si>
+  <si>
+    <t>The semiconductor integrated circuit 10 includes the oscillation circuit 12, a control unit 13, a first division circuit 15, a first output circuit 16, a second division circuit 17, and a second output circuitThe first division circuit 15 and the first output circuit 16 receive the power supply voltage VDD1 from the terminal T1 (an example of a first power supply terminal) so as to operate.</t>
+  </si>
+  <si>
+    <t>The second division circuit 17 and the second output circuit 18 receive the power supply voltage VDD2 from the terminal T2 (an example of a second power supply terminal) so as to operate.</t>
+  </si>
+  <si>
+    <t>Here, a first group 21 and a second group 22 of a circuit of the semiconductor integrated circuit 10 are divided depending on a supply source of the power supply voltage.</t>
+  </si>
+  <si>
+    <t>The oscillation circuit 12 is connected to the SAW resonator 26 so as to form an oscillation loop.</t>
+  </si>
+  <si>
+    <t>The oscillation circuit 12 generates an oscillation signal 112 by oscillating the SAW resonatorIn the present embodiment, the oscillation circuit 12 is connected to the SAW resonator 26, but may be connected to an AT cut quartz crystal vibrator, an SC cut quartz crystal vibrator, a tuning fork type quartz crystal vibrator, other voltage vibrators, a micro electromechanical system (MEMS) vibrator, or the like, instead of the SAW resonatorIn addition, as a substrate material of the SAW resonator 26 or an oscillation element, a piezoelectric single quartz crystal such as Lithium Tantalite or Lithium Niobate in addition to a quartz crystal, a piezoelectric material such as piezoelectric ceramic such as Zirconate Titanate, a silicon semiconductor material, or the like may be used.</t>
+  </si>
+  <si>
+    <t>An excitation unit of the SAW resonator 26 or a vibration element may use a piezoelectric effect, or may use electrostatic drive performed by the Coulomb force.</t>
+  </si>
+  <si>
+    <t>The control unit 13 may be a CPU.</t>
+  </si>
+  <si>
+    <t>At this time, the CPU may include a storage unit in which a program of the control unit is store, and may perform the control according to the output enable signal of the oscillator 1 and the program.</t>
+  </si>
+  <si>
+    <t>In addition, each of the signals output from the first output circuit 16 and the second output circuit 18 may be a single ended signal other than a differential signal, and may be a signal corresponding to a CMOS, an LV-PECL, an LV-TTL, an LVDS, an HCSL, or the like.</t>
+  </si>
+  <si>
+    <t>The first output circuit 16 includes two buffers which respectively converts a single-ended input into a differential output.</t>
+  </si>
+  <si>
+    <t>Each buffer receives a signal 125, and differentially outputs as a first clock signal and a second clock signal.</t>
+  </si>
+  <si>
+    <t>The first output circuit 16 outputs the first clock signal and the second clock signal, based on the control signal 216, but selects being in a high impedance state.</t>
+  </si>
+  <si>
+    <t>In the present embodiment, two buffers are included in the first output circuit 16, but one buffer may be included, or three or more buffers may be included.</t>
+  </si>
+  <si>
+    <t>Each buffer receives the signal 127, and differentially outputs the signal as a third clock signal and a fourth clock signal.</t>
+  </si>
+  <si>
+    <t>The second output circuit 18 outputs the third clock signal and the fourth clock signal, based on the control signal 218, but selects being in a high impedance state.</t>
+  </si>
+  <si>
+    <t>In the present embodiment, two buffers are included in the second output circuit 18, but one buffer may be included, or three or more buffers may be included.</t>
+  </si>
+  <si>
+    <t>FIG.2 is a diagram showing a detailed configuration of the SAW resonator 26 and the oscillation circuitThe same symbols or reference numerals are attached to the same signals as those in FIG.1, and description thereof will be omitted.</t>
+  </si>
+  <si>
+    <t>The SAW resonator 26 is configured by disposing a comb-shaped electrode 29 along a propagation direction of a surface acoustic wave on a piezoelectric substrate, and by disposing grating reflectors 27A and 27B on both sides of the electrode.</t>
+  </si>
+  <si>
+    <t>A vibrator (resonator) is configured by making the center of the comb-shaped electrode 29 excite the surface acoustic wave, and by reflecting vibration energy of the surface acoustic wave which is excited by the grating reflectors 27A and 27b on both sides in a direction of the bomb-shaped electrodeSince the frequency is determined by an electrode interval, the SAW resonator 26 can easily obtain a high frequency using a photolithography process, and the size can also be miniaturized.</t>
+  </si>
+  <si>
+    <t>Then, a feedback type oscillator circuit 12 is configured by connecting an inverter 24, a feedback resistor 28, and capacitors 41 and 42 to the comb-shaped electrode 29, as shown in Fig.The inverter 24 which is connected to the feedback resistor 28 functions as an analog amplification circuit.</t>
+  </si>
+  <si>
+    <t>Then, the oscillation signal 112 is generated by oscillating the SAW resonatorFIG.3 is a diagram showing a detailed configuration of the first division circuit 15, the first output circuit 16, the second division circuit 17, and the second output circuitThe same symbols and reference numerals are attached to the same signals as those of FIG.1 and FIG.2, and description thereof will be omitted.</t>
+  </si>
+  <si>
+    <t>The buffer 160 outputs the non-inverting 116P and the inverting signal 116N of the first clock signal.</t>
+  </si>
+  <si>
+    <t>The buffer 162 outputs the non-inverting 117P and the inverting signal 117N of the second clock signal.</t>
+  </si>
+  <si>
+    <t>The first output circuit 16 can make the two buffers 160 and 162 be in a high impedance state, according to a control signal EThe control signal E12 corresponds to the control signal 216 from the control unitThe second division circuit 17 receives the first division signalA flip-flop 170 generates the second division signal 124 whose frequency is half that of the first division signalThen, the selector 172A receives the first division delay signal 115 and the second division signal 124, selects a signal according to a division ratio which is designated by the control unit 13, and set the selected signal as the signalThat is, the selector 172A outputs the first division delay signal 115 in a case in which the division ratio is 1, and outputs the second division signal 124 in a case in which the division ratio is a half.</t>
+  </si>
+  <si>
+    <t>Thus, it is possible to output four clock signals in which the phases are aligned.</t>
+  </si>
+  <si>
+    <t>At time points t2, t4, t6, and t8 in FIG.4, rising of the first division delay signal 115 corresponds to falling of the second division signalFor this reason, in a case in which a wire through which the first division delay signal 115 is transmitted a wire through which the second division signal 124 is transmitted are disposed in parallel to each other so as to be adjacent, or the like, a jitter characteristic is easily degraded.</t>
+  </si>
+  <si>
+    <t>In the oscillator 1 according to the present embodiment, the degradation of the jitter characteristic can be avoided by devising the layout, as will be described later with reference to Fig.The second output circuit 18 includes two buffers 180 andThe buffers 180 and 182 receive the signal 127 which is a single ended signal and output differential signals.</t>
+  </si>
+  <si>
+    <t>The buffer 180 outputs the non-inverting 118P and the inverting signal 118N of the third clock signal.</t>
+  </si>
+  <si>
+    <t>The buffer 182 outputs the non-inverting 119P and the inverting signal 119N of the fourth clock signal.</t>
+  </si>
+  <si>
+    <t>The second output circuit 18 can make the two buffers 180 and 182 be in a high impedance state, according to a control signal EThe control signal E34 corresponds to the control signal 218 from the control unitIn the present embodiment, the first output circuit 16 and the second output circuit 18 include the same number of buffers, but it is not necessary for the number of buffers to be the same.</t>
+  </si>
+  <si>
+    <t>Here, FIG.9 is a diagram showing a case in which one clock signal from the oscillator 1001 according to a comparative example is divided by a fan-out buffer 1020 and thereby four clock signals are generated.</t>
+  </si>
+  <si>
+    <t>Also in a case of FIG.9, four clock signals can be finally generated in the same manner as in the oscillator 1 according to the present embodiment.</t>
+  </si>
+  <si>
+    <t>The oscillator 1001 according to the comparative example includes four terminals.</t>
+  </si>
+  <si>
+    <t>The power supply voltage VDD is supplied to a terminal U1, and the ground voltage VSS is supplied to a terminal UA terminal U3 and a terminal U4 are used for outputting one clock signal which is a differential signal.</t>
+  </si>
+  <si>
+    <t>The terminal U3 and the terminal U4 respectively output a non-inverting signal 1116P and an inverting signal 1116N of the clock signal.</t>
+  </si>
+  <si>
+    <t>The oscillator 1001 includes a SAW resonator 1026, an oscillation circuit 1012, a control unit 1013, a division circuit 1015, and an output circuitThe SAW resonator 1026, the oscillation circuit 1012, and the control unit 1013 respectively correspond to the SAW resonator 26, the oscillation circuit 12, and the control unit 13 which are included in the oscillator 1 according to the present embodiment, and functions thereof are the same.</t>
+  </si>
+  <si>
+    <t>The division circuit 1015 corresponds to a circuit in which the delay circuit 158 and the selector 172B are omitted from the first division circuit 15 which is included in the oscillator 1 according to the present embodiment (refer to FIG.3).</t>
+  </si>
+  <si>
+    <t>At this time, the output circuit 1016 receives a signal corresponding to the first division signal 114 of the first division circuit 15 from the division circuitThe output circuit 1016 corresponds to a circuit in which the buffer 162 are omitted from the first output circuit 16 which is included in the oscillator 1 according to the present embodiment (refer to FIG.3).</t>
+  </si>
+  <si>
+    <t>At this time, only the non-inverting signal 1116P and the inverting signal 1116N of the clock signal are output from the oscillator 1001 according to the comparative example.</t>
+  </si>
+  <si>
+    <t>The fan-out buffer 1020 includes a total of 10 terminals.</t>
+  </si>
+  <si>
+    <t>A terminal V1 and a terminal V2 are input terminals for respectively receiving the non-inverting signal 1116P and the inverting signal 1116N from the oscillatorThen, a terminal V3 to a terminal V10 are used for outputting four clock signals which are differential signals.</t>
+  </si>
+  <si>
+    <t>The terminal V3 to the terminal V10 respectively correspond to the terminal T7 to the terminal T14 (refer to FIG.1) of the oscillator 1 according to the present embodiment, and detailed description thereof will be omitted.</t>
+  </si>
+  <si>
+    <t>As shown in FIG.9, the fan-out buffer 1020 divides the received non-inverting signal 1116P and inverting signal 1116N respectively using the buffers, and generate four clock signals with the same waveform and frequency as the input clock signal.</t>
+  </si>
+  <si>
+    <t>Thus, although the oscillator 1001 according to the comparative example and the fan-out buffer 1020 are combined, four clock signals can be generated.</t>
+  </si>
+  <si>
+    <t>However, in the configuration of the comparative example, the fan-out buffer 1020 does not include a divider, and cannot output clock signals with different frequencies from each other, in the same manner as in the oscillator 1 according to the present embodiment.</t>
+  </si>
+  <si>
+    <t>In addition, there is a possibility that external noise may be mixed into a wire which connects the terminal U3 and the terminal U4 of the oscillator 1001 to the terminal V1 and the terminal V2 of the fan-out buffer 1020, or a possibility that a jitter characteristic may be degraded by distortion of a waveform due to influence of inductance component or capacitance component of the wire.</t>
+  </si>
+  <si>
+    <t>In addition, there is also a possibility that the four clock signals may have internal delays different from each other depending on the fan-out buffer 1020 to be selected.</t>
+  </si>
+  <si>
+    <t>However, the oscillator 1 according to the present embodiment includes the second division circuit 17 which generates the second division signal 124 by dividing the first division signalFor this reason, it is possible to set the frequency in such a manner that the frequencies of the clock signals from the buffer 160 and the buffer 162 are different from the frequencies of the clock signals from the buffer 180 and the bufferIn addition, in the oscillator 1 according to the present embodiment, the first output circuit 16 and the second output circuit 18 which output the four clock signals are integrated in one semiconductor substrate.</t>
+  </si>
+  <si>
+    <t>For this reason, there is a small possibility that external noise may be mixed into the wire between the terminals, or the jitter characteristic may be degraded due to the inductance component or the like, in the same manner as in the comparative example.</t>
+  </si>
+  <si>
+    <t>As described above, in the oscillator 1 according to the present embodiment, the timing at which the signal 125 from the first division circuit 15 is input to the first output circuit 16 can be identical to the timing at which the signal 127 from the second division circuit 17 is input to the second output circuitFor this reason, the degradation of the jitter characteristic due to division of the first division signal 114 hardly occurs.</t>
+  </si>
+  <si>
+    <t>FIG.5 is a diagram showing a disposal example of the terminal T1 to the terminal T14 of the oscillator 1 according to the present embodiment.</t>
+  </si>
+  <si>
+    <t>Here, the oscillator 1 in FIG.5 is a diagram of a package which is viewed from the top, but transparency of a partial area R1 is shown in order to describe an inside of the semiconductor integrated circuitThe same symbols or reference numerals are attached to the same configurations as in FIG.1 to FIG.3, and description thereof will be omitted.</t>
+  </si>
+  <si>
+    <t>In FIG.5, the terminal T1 to the terminal T14 of the oscillator 1 according to the present embodiment are disposed in sequence of the terminal T2 (terminal name:VDD2), the terminal T14 (terminal name:XOUT4), the terminal T13 (terminal name:OUT4), the terminal T12 (terminal name:XOUT3), the terminal T11 (terminal name:OUT3), the terminal T6 (terminal name:OE), the terminal T4 (terminal name:VSS), the terminal T9 (terminal name:OUT2), the terminal T10 (terminal name:XOUT2), the terminal T7 (terminal name:OUT1), the terminal T8 (terminal name:XOUT1), the terminal T1 (terminal name:VDD1), the terminal T5 (terminal name:VSS), and the terminal T3 (terminal name:VDD3) clockwise from the top left.</t>
+  </si>
+  <si>
+    <t>Hereinafter, for convenience of description, there is a case in which the terminal is designated using the terminal name.</t>
+  </si>
+  <si>
+    <t>Then, as shown in the portion of the area R1, the oscillator 1 includes wires w1 to w14 which are electrically and respectively connected to the terminal T1 to the terminal TMultiple squares of solid lines which are arranged on the semiconductor integrated circuit 10 are contact pads, and are electrically connected to the wire w1 to the wire w14 by wire-bonding.</t>
+  </si>
+  <si>
+    <t>Here, in the oscillator 1 according to the present embodiment, OUT1, XOUT1, OUT2, and XOUT2 through which the first and second clock signals from the first output circuit 16 which is included in the first group 21 (refer to FIG.1) are disposed on a lower side (an example of a first side) of the paper.</t>
+  </si>
+  <si>
+    <t>In addition, VDD1 for supplying the first group 21 with power is also disposed on the lower side of the paper.</t>
+  </si>
+  <si>
+    <t>Meanwhile, OUT3, XOUT3, OUT4, and XOUT4 through which the third and fourth clock signals from the second output circuit 18 which is included in the second group 22 (refer to FIG.1) are disposed in an upper side (an example of a second side) of the paper.</t>
+  </si>
+  <si>
+    <t>In addition, VDD2 for supplying the second group 22 with power is also disposed in the upper side of the paper.</t>
+  </si>
+  <si>
+    <t>In the oscillator 1 according to the present embodiment, OUT1, XOUT1, OUT2, and XOUT2 (each is an example of first output terminals), and OUT3, XOUT3, OUT4, and XOUT4 (each is an example of second output terminals) are disposed in each of the facing sides.</t>
+  </si>
+  <si>
+    <t>For this reason, the oscillator 1 can generate a plurality of clock signals in which interference between the first and second clock signals and the third and fourth clock signals is reduced, variation is small, and a jitter characteristic is good.</t>
+  </si>
+  <si>
+    <t>At this time, since the first group 21 and the second group 22 use power supply terminals different from each other, noise wraparound from one signal to another signal through a common power supply is also reduced.</t>
+  </si>
+  <si>
+    <t>For this reason, problems hardly occur in which noise from the third and fourth clock signals with a low frequency is induced into the first and second clock signals with a high frequency, and thereby the noise is observed as spurious and of low frequency.</t>
+  </si>
+  <si>
+    <t>Furthermore, it is assumed that the semiconductor integrated circuit 10 is divided into an area R2 close to an upper side and an area R3 close to a lower side.</t>
+  </si>
+  <si>
+    <t>At this time, a circuit which is configured by the first group 21 including the first division circuit 15 and the first output circuit 16 is disposed in the area RMeanwhile, a circuit which is configured by the second group 22 including the second division circuit 17 and the second output circuit 18 is disposed in the area RBy disposing the circuits in this way, a signal belonging to the first group 21 and a signal belonging to the second group 22 which can have frequencies different from each other can hardly interfere with each other, even if the circuits are integrated into one semiconductor substrate.</t>
+  </si>
+  <si>
+    <t>In the oscillator 1 according to the present embodiment, the SAW resonator 26 is disposed in the area R4 separated from the semiconductor integrated circuit 10, but the SAW resonator 26 may be disposed so as to overlap (three-dimensionally in a vertical direction, that is, in the front or the back of the paper), for example, the semiconductor integrated circuit 10 for miniaturization.</t>
+  </si>
+  <si>
+    <t>As described above, even if the plurality of buffers (buffers 160, 162, 180, and 182) and the oscillation circuit 12 are integrated into one semiconductor substrate, the oscillator 1 according to the present embodiment can reduce the degradation of the output signals (first to fourth clock signals) from the buffers.Electronic Apparatus An electronic apparatus 300 according to the present embodiment will be described using FIG.6 and Fig.The same symbols or reference numerals will be attached to the same configurations as those of FIG.1 to FIG.5, and description thereof will be omitted.</t>
+  </si>
+  <si>
+    <t>FIG.6 is a functional block diagram of an electronic apparatusThe electronic apparatus 300 is configured to include an oscillator 200 which includes the oscillation circuit 12 and the SAW resonator 26, a central processing unit (CPU) 320, an operation unit 330, a read only memory (ROM) 340, a random access memory (RAM) 350, a communication unit 360, a display unit 370, and a sound output unitThe electronic apparatus 300 may be configured by omitting a portion of the configuration elements (each unit) in FIG.6, or by modifying the configuration elements, and may be configured by adding other configuration elements.</t>
+  </si>
+  <si>
+    <t>The oscillation unit 200 supplies clock pulses not only to the CPU 320 but also to each unit (not shown).</t>
+  </si>
+  <si>
+    <t>The oscillation unit 200 corresponds to the oscillator 1 in which the semiconductor integrated circuit 10 is connected to the SAW resonatorHowever, in FIG.6, only the oscillation circuit 12 of the elements in the semiconductor integrated circuit 10 is shown.</t>
+  </si>
+  <si>
+    <t>The CPU 320 operates according to a program which is stored in the ROM 340 or the like, and performs various calculation processing or control processing using the clock pulses (correspond to a clock signal from the semiconductor integrated circuit 10) which are output from the oscillation unitSpecifically, the CPU 320 performs various processing according to an operation signal from the operation unit 330, processing of controlling the communication unit 360 in order to perform data communication with external device, processing of transmitting a display signal for displaying various information on the display unit 370, processing of outputting various sounds to the sound output unit 380, and the like.</t>
+  </si>
+  <si>
+    <t>The operation unit 330 is an input device which is configured by operation keys, button switches, or the like, and outputs an operation signal according to an operation performed by a user to the CPUThe ROM 340 stores a program that is used for various calculation processing or control processing which is performed by the CPU 320, or data.</t>
+  </si>
+  <si>
+    <t>The RAM 350 is used as working area of the CPU 320, and temporarily stores a program which is read from the ROM 340 or data, data which is input from the operation unit 330, operation results or the like which are obtained as the CPU 320 operates according to various programs.</t>
+  </si>
+  <si>
+    <t>The communication unit 360 performs various controls for a data communication between the CPU 320 and an external device.</t>
+  </si>
+  <si>
+    <t>The display unit 370 is a display device which is configured by a liquid crystal display (LCD) and the like, and displays various information based on a display signal which is input from the CPUThe sound output unit 380 is a device which outputs a sound of a speaker or the like.</t>
+  </si>
+  <si>
+    <t>As described above, the oscillation unit 200 (the oscillator 1) supplies a plurality of clocks with a good jitter characteristic.</t>
+  </si>
+  <si>
+    <t>At this time, the oscillation unit 200 can also supply the CPU 320 with a high-speed clock, and supply the other functional blocks with a low-speed clock.</t>
+  </si>
+  <si>
+    <t>At this time, since the fan-out buffer 1020 is not required, the electronic apparatus 300 can be miniaturized.</t>
+  </si>
+  <si>
+    <t>In addition, since the jitter does not occur, it does not take time to perform a wiring layout, and it is possible to efficiently design the electronic apparatusVarious devices can be used as the electronic apparatusFor example, a personal computer (for example, mobile type personal computer, laptop personal computer, tablet personal computer), a mobile object terminal such as a mobile phone, a digital still camera, an inkjet ejection device (for example, inkjet printer), a storage area network apparatus such as a router or a switch, a local area network apparatus, a server apparatus which performs transmission and reception of various data on the network, an apparatus for a mobile object terminal base station, a television, a video camera, a video recorder, a car navigation device, a pager, an electronic notebook (including communication function), an electronic dictionary, an electronic calculator, an electronic game apparatus, a controller for a game, a word processor, a workstation, a videophone, a security television monitor, an electronic binocular, a POS terminal, a medical apparatus (for example, an electronic thermometer, a sphygmomanometer, a blood glucose meter, an electrocardiogram measuring device, an ultrasonic diagnostic apparatus, an electronic endoscope), a fish finder, various measurement apparatuses, instruments (for example, instruments of vehicle, aircraft, and ship), a flight simulator, a head-mounted display, a motion trace, motion tracking, a motion controller, a pedestrian position orientation measurement (PDR), or the like can be used.</t>
+  </si>
+  <si>
+    <t>FIG.7 is a diagram showing an example of the appearance of a smart phone which is an example of the electronic apparatusThe smart phone which is the electronic apparatus 300 includes buttons as the operation unit 330, and includes an LCD as the display unitThen, since the smart phone which is the electronic apparatus 300 uses the oscillation unit 200 (the oscillator 1), the smart phone can be miniaturized, and can be efficiently designed.Mobile object A mobile object 400 according to the present embodiment will be described using Fig.FIG.8 is a diagram (top view) showing an example of the mobile object 400 according to the present embodiment.</t>
+  </si>
+  <si>
+    <t>The mobile object 400 shown in FIG.8 is configured to include an oscillation unit 410, controllers 420, 430, and 440 which perform various controls of an engine system, a brake system, a keyless entry system, and the like, a battery 450, and a back-up batteryThe mobile object according to the present embodiment may be configured by omitting a portion of the configuration elements (each unit) in FIG.8, or by modifying the configuration elements, and may be configured by adding other configuration elements.</t>
+  </si>
+  <si>
+    <t>The oscillation unit 410 corresponds to the oscillatorThe detailed description of the other configuration elements will be omitted, but a high reliability is required to perform a control required for the travel of the mobile object.</t>
+  </si>
+  <si>
+    <t>For example, the reliability can be increased by including the back-up battery 460 in addition to the batteryAlso with regard to the oscillation unit 410, it is preferable that a back-up oscillation unit 410 is included to increase the reliability.</t>
+  </si>
+  <si>
+    <t>That is, it is preferable that a plurality of clocks is included.</t>
+  </si>
+  <si>
+    <t>At this time, by setting the oscillation unit 410 as the oscillator 1, it is possible to use a plurality of clocks with a good jitter characteristic and a high quality.</t>
+  </si>
+  <si>
+    <t>As the mobile object 400, various devices can be used. For example, a vehicle (also includes an electric vehicle), an aircraft such as a jet plane and a helicopter, a ship, a rocket, a satellite, or the like can be used.</t>
+  </si>
+  <si>
+    <t>The invention is not limited to the present embodiment, and various modifications can be made within a range of the gist of the invention.</t>
+  </si>
+  <si>
+    <t>The embodiments and modification examples which are described above are just examples, and the invention is not limited to these.</t>
+  </si>
+  <si>
+    <t>For example, it is possible to appropriately combine each embodiment and each modification example.</t>
+  </si>
+  <si>
+    <t>The invention includes substantially the same configuration (for example, a configuration in which a function, a method, and a result are the same, or a configuration in which an objective and an effect are the same) as the configuration described in the embodiments.</t>
+  </si>
+  <si>
+    <t>In addition, the invention includes a configuration in which a non-essential portion of the configuration described in the embodiments is replaced.</t>
+  </si>
+  <si>
+    <t>In addition, the invention includes a configuration in which the same action and effect as those of the configuration described in the embodiments can be obtained, or a configuration in which the same objective as that of the configuration described in the embodiments can be achieved.</t>
+  </si>
+  <si>
+    <t>In addition, the invention includes a configuration in which a known art is added to the configuration described in the embodiments.</t>
+  </si>
+  <si>
+    <t>What is claimed is:A semiconductor integrated circuit comprising: an oscillation unit which generates an oscillation signal by oscillating a vibration element; a first output unit and a second output unit which output signals based on the oscillation signal; and a control unit that controls the first output unit and the second output unit.A semiconductor integrated circuit comprising: an oscillation circuit, and first and second output circuits on a semiconductor substrate, the oscillation circuit generating an oscillation signal by oscillating a vibration element, and the first and second output circuit outputting signals based on the oscillation signal; and a control unit that controls operations of the first output circuit and the second output circuit .The semiconductor integrated circuit according to Claim 2, wherein the control unit independently controls the operations of the first output circuit and the second output circuit.The semiconductor integrated circuit according to Claim 2, further comprising: a first power supply terminal; and a second power supply terminal, wherein the first output circuit receives a power supply voltage from the first power supply terminal, and wherein the second output circuit receives a power supply voltage from the second power supply terminal.The semiconductor integrated circuit according to Claim 4, further comprising: a first division circuit which generates a first division signal by dividing the oscillation signal; and a second division circuit which generates a second division signal by dividing the first division signal, wherein the first division circuit receives a power supply voltage from the first power supply terminal, and outputs a signal based on the first division signal to the first output circuit, and wherein the second division circuit receives a power supply voltage from the second power supply terminal, and outputs a signal based on the second division signal to the second output circuit.The semiconductor integrated circuit according to Claim 5, wherein the first division circuit includes a delay circuit which delays the first division signal by a time which is required for the second division circuit to divide the first division signal.An oscillator comprising: the semiconductor integrated circuit according to any one of Claims 1 to 3; the vibration element; and a package in which the semiconductor integrated circuit and the vibration element are contained.The oscillator according to Claim 7, wherein the vibration element is a surface acoustic wave resonator.The oscillator according to Claim 7, further comprising: a first output terminal through which a signal from the first output circuit is output; and a second output terminal through which a signal from the second output circuit is output, wherein the first output terminal is disposed along a first side of the package, and wherein the second output terminal is disposed along a second side opposite to the first side of the package.An electronic apparatus comprising: the semiconductor integrated circuit according to any one of Claims 1 toA mobile object comprising: the semiconductor integrated circuit according to any one of Claims 1 toABSTRACT A semiconductor integrated circuit includes a semiconductor substrate on which an oscillation circuit that generates an oscillation signal by oscillating a vibration element, and a plurality of output circuits that outputs signals based on the oscillation signal, are integrated.</t>
+  </si>
+  <si>
+    <t>A package contains the semiconductor integrated circuit and the vibration element.</t>
+  </si>
+  <si>
+    <t>In the semiconductor integrated circuit, an operation of a first output circuit and an operation of a second output circuit, among a plurality of output circuits, are controlled independently from each other.</t>
   </si>
 </sst>
 </file>
@@ -1364,7 +1349,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C169"/>
+  <dimension ref="A1:C168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1386,7 +1371,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1397,7 +1382,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1408,7 +1393,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1419,7 +1404,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1430,7 +1415,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1441,7 +1426,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1452,7 +1437,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1463,7 +1448,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1474,7 +1459,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1485,7 +1470,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1496,7 +1481,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1507,7 +1492,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1518,7 +1503,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1529,7 +1514,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1540,7 +1525,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1551,7 +1536,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1559,10 +1544,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1570,10 +1555,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1581,10 +1566,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1592,10 +1577,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1603,10 +1588,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1614,10 +1599,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1625,10 +1610,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1636,10 +1621,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1647,10 +1632,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1658,10 +1643,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1669,10 +1654,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1680,10 +1665,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1691,10 +1676,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1702,10 +1687,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1713,10 +1698,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1724,10 +1709,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1735,10 +1720,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1746,10 +1731,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1757,10 +1742,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1768,10 +1753,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1779,10 +1764,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1790,10 +1775,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1801,10 +1786,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1812,10 +1797,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1823,10 +1808,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1834,10 +1819,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1845,10 +1830,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1856,10 +1841,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C45" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1867,10 +1852,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1878,10 +1863,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C47" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1889,10 +1874,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C48" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1900,10 +1885,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C49" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1911,10 +1896,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C50" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1922,10 +1907,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C51" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1933,10 +1918,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C52" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1944,10 +1929,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C53" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1955,10 +1940,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C54" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1966,10 +1951,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C55" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1977,10 +1962,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C56" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1988,10 +1973,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C57" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1999,10 +1984,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C58" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2010,10 +1995,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C59" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2021,10 +2006,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C60" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2032,10 +2017,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C61" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2043,10 +2028,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C62" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2054,10 +2039,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C63" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2065,10 +2050,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C64" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2076,10 +2061,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C65" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2087,10 +2072,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C66" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2098,10 +2083,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C67" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2109,10 +2094,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C68" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2120,10 +2105,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C69" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2131,10 +2116,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C70" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2142,10 +2127,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C71" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2153,10 +2138,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C72" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2164,10 +2149,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C73" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2175,10 +2160,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C74" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2186,10 +2171,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C75" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2197,10 +2182,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C76" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2208,10 +2193,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C77" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2219,10 +2204,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C78" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2230,10 +2215,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C79" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2241,10 +2226,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C80" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2252,10 +2237,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C81" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2263,10 +2248,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C82" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2274,10 +2259,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C83" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2285,10 +2270,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C84" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2296,10 +2281,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C85" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2307,10 +2292,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C86" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2318,10 +2303,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C87" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2329,10 +2314,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C88" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2340,10 +2325,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C89" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2351,10 +2336,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C90" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2362,10 +2347,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C91" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2373,10 +2358,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C92" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2384,10 +2369,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C93" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2395,10 +2380,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C94" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2406,10 +2391,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C95" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2417,10 +2402,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C96" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2428,10 +2413,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C97" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2439,10 +2424,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C98" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2450,10 +2435,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C99" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2461,10 +2446,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C100" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2472,10 +2457,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C101" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2483,10 +2468,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C102" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2494,10 +2479,10 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C103" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2505,10 +2490,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C104" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2516,10 +2501,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C105" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2527,10 +2512,10 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C106" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2538,10 +2523,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C107" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2549,10 +2534,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C108" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2560,10 +2545,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C109" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2571,10 +2556,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C110" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2582,10 +2567,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C111" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2593,10 +2578,10 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C112" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2604,10 +2589,10 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C113" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2615,10 +2600,10 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C114" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2626,10 +2611,10 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C115" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2637,10 +2622,10 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C116" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2648,10 +2633,10 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C117" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2659,10 +2644,10 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C118" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2670,10 +2655,10 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C119" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2681,10 +2666,10 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C120" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2692,10 +2677,10 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C121" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2703,10 +2688,10 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C122" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2714,10 +2699,10 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C123" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2725,10 +2710,10 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C124" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2736,10 +2721,10 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C125" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2747,10 +2732,10 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C126" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2758,10 +2743,10 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C127" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2769,10 +2754,10 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C128" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2780,10 +2765,10 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C129" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2791,10 +2776,10 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C130" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2802,10 +2787,10 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C131" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2813,10 +2798,10 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C132" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2824,10 +2809,10 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C133" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2835,10 +2820,10 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C134" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2846,10 +2831,10 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C135" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2857,10 +2842,10 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C136" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2868,10 +2853,10 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C137" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2879,10 +2864,10 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C138" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2890,10 +2875,10 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C139" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2901,10 +2886,10 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C140" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2912,10 +2897,10 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C141" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2923,10 +2908,10 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C142" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2934,10 +2919,10 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C143" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2945,10 +2930,10 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C144" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2956,10 +2941,10 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C145" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2967,10 +2952,10 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C146" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2978,10 +2963,10 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C147" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2989,10 +2974,10 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C148" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3000,10 +2985,10 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C149" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3011,10 +2996,10 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C150" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3022,10 +3007,10 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C151" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3033,10 +3018,10 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C152" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3044,10 +3029,10 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C153" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3055,10 +3040,10 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C154" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3066,10 +3051,10 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C155" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3077,10 +3062,10 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C156" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3088,10 +3073,10 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C157" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3099,10 +3084,10 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C158" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3110,10 +3095,10 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C159" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3121,10 +3106,10 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C160" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3132,10 +3117,10 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C161" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3143,10 +3128,10 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C162" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3154,10 +3139,10 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C163" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3165,10 +3150,10 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C164" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3176,10 +3161,10 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C165" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3187,10 +3172,10 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C166" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3198,10 +3183,10 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>21</v>
+        <v>162</v>
       </c>
       <c r="C167" t="s">
-        <v>186</v>
+        <v>324</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3209,21 +3194,10 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>22</v>
+        <v>163</v>
       </c>
       <c r="C168" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" s="1">
-        <v>168</v>
-      </c>
-      <c r="B169" t="s">
-        <v>166</v>
-      </c>
-      <c r="C169" t="s">
-        <v>188</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>

--- a/sentence_pairs_result.xlsx
+++ b/sentence_pairs_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="407">
   <si>
     <t>ja</t>
   </si>
@@ -22,976 +22,1219 @@
     <t>en</t>
   </si>
   <si>
-    <t>J017384601 1 書類名明細書 発明の名称半導体集積回路、発振器、電子機器及び移動体 技術分野 本発明は、半導体集積回路、発振器、電子機器及び移動体に関する。 背景技術 近年、弾性表面波(SAW: Surface Acoustic Wave)を利用したSAW共振子を搭載する発振器が、高速ネットワーク通信、移動体通信分野などで使用されている。</t>
-  </si>
-  <si>
-    <t>SAW共振子は、例えば水晶である圧電基板上にIDT電極(櫛形電極)を設けることで、弾性表面波を利用して高周波信号を取り出すことができる。</t>
-  </si>
-  <si>
-    <t>弾性表面波の速度は圧電基板の種類で決まっており、SAW共振子では櫛形電極の周期を微細にするほどより高い発振周波数の信号を得られる。</t>
-  </si>
-  <si>
-    <t>そのため、SAW共振子は容易に高周波に対応でき小型化も可能である。</t>
-  </si>
-  <si>
-    <t>例えば、特許文献1は、SAW共振子(特許文献1では弾性表面波素子片)を厚底部に、電子部品を薄底部に配置することで、従来よりも更に小型化、薄型化が可能な発振器(特許文献1では圧電デバイス)を提案する。</t>
-  </si>
-  <si>
-    <t>先行技術文献 特許文献 特許文献1特開2006-245994号公報 発明の概要 発明が解決しようとする課題 しかしながら、特許文献1に記載の発振器では、出力信号を複数のICに入力させたい場合には、ファンアウトバッファーで出力を分岐する必要があり、ファンアウトバッファーまでの長い配線に起因してスキューが生じたりジッター特性が劣化したり、ファンアウトバッファーの内部で出力信号のジッター特性が劣化する場合がある。</t>
-  </si>
-  <si>
-    <t>また、ファンアウトバッファーを使用することで、ファンアウトバッファーの内部の配線長に起因してスキューが生じる場合がある。</t>
-  </si>
-  <si>
-    <t>本発明は、以上の事を鑑みてなされたものであり、本発明のいくつかの態様によれば、出力信号を複数の回路に入力させてもジッター特性の劣化を低減させることが可能な、半導体集積回路を提供することができる、また、本発明のいくつかの態様によれば、この半導体集積回路を用いた信頼性の高い発振器、電子機器及び移動体を提供することができる。</t>
-  </si>
-  <si>
-    <t>[適用例1] J017384601 2 本適用例に係る半導体集積回路は、振動素子を発振させて発振信号を生成する発振部と、前記発振信号に基づく信号を出力する第1の出力部および第2の出力部と、前記第1の出力部および前記第2の出力部を制御する制御部と、を有する。</t>
-  </si>
-  <si>
-    <t>振動素子は、例えば、SAW(Surface Acoustic Wave)共振子、ATカット水晶振動子、SCカット水晶振動子、音叉型水晶振動子、その他の圧電振動子やMEMS(Micro Electro Mechanical Systems)振動子などである。</t>
-  </si>
-  <si>
-    <t>第1の出力回路と第2の出力回路の各々は、1つの信号を出力してもよいし、異なる信号を出力してもよい。</t>
-  </si>
-  <si>
-    <t>また、出力信号の各々は、差動信号であってもよいし、シングルエンド信号であってもよい。</t>
-  </si>
-  <si>
-    <t>また、それぞれの出力部から信号が出力される、または信号が出力されない状態や、それぞれの出力部から出力される信号の種類等の、出力信号の状態は、制御部によって制御される。</t>
-  </si>
-  <si>
-    <t>本適用例に係る半導体集積回路によれば、単一の半導体集積回路に含まれる発振部、第1の出力部、および第2の出力部により、発振信号に基づく低ジッターの少なくとも2つの信号を出力することができるので、この少なくとも2つの信号を少なくとも2つの回路にそれぞれ供給すれば、発振部とは別体の半導体集積回路によって構成されたファンアウトバッファーを設ける必要がない。</t>
-  </si>
-  <si>
-    <t>従って、出力信号を複数の回路に入力させてもジッター特性の劣化を低減させることができる。</t>
-  </si>
-  <si>
-    <t>[適用例2] 本適用例に係る半導体集積回路は、半導体基板上に、振動素子を発振させて発振信号を生成する発振回路と、前記発振信号に基づく信号を出力する第1の出力回路および第2の出力回路と、前記第1の出力回路および前記第2の出力回路の動作を制御する制御部と、を有する。</t>
-  </si>
-  <si>
-    <t>それぞれの出力回路の信号出力状態、およびそれぞれの出力回路から出力される信号の種類は、制御部によって制御される。</t>
-  </si>
-  <si>
-    <t>また、それぞれの出力回路から信号が出力されるまたは信号が出力されない状態や、それぞれの出力回路から出力される信号の種類の設定等の、それぞれの出力回路の動作は、制御部によって制御される。</t>
-  </si>
-  <si>
-    <t>本適用例に係る半導体集積回路によれば、半導体集積回路に含まれる発振回路、第1の出力回路、および第2の出力回路により、発振信号に基づく低ジッターの少なくとも2つの信号を出力することができるので、この少なくとも2つの信号を少なくとも2つの回路J017384601 3 にそれぞれ供給すれば、外部にファンアウトバッファーを設けて分岐させる必要がない。</t>
-  </si>
-  <si>
-    <t>また、本適用例に係る半導体集積回路の後段の回路が、例えば第1の出力回路からの出力信号を必要とする場合、第2の出力回路からの出力信号を停止させる、あるいはハイインピーダンス状態にするかしないかといった動作を制御して柔軟な使い方が可能である。</t>
-  </si>
-  <si>
-    <t>[適用例3] 上記適用例に係る半導体集積回路において、前記制御部は、前記第1の出力回路および前記第2の出力回路の動作を独立に制御してもよい。</t>
-  </si>
-  <si>
-    <t>本適用例に係る半導体集積回路によれば、第1の出力回路の動作と第2の出力回路の動作とを独立に制御できるため、例えば、第1の出力回路からの出力信号だけを必要とする場合、第2の出力回路からの出力信号を停止させる、あるいはハイインピーダンス状態にするといった柔軟な使い方が可能である。</t>
-  </si>
-  <si>
-    <t>[適用例4] 上記適用例に係る半導体集積回路において、前記半導体集積回路は、第1の電源端子と、第2の電源端子と、を含み、前記第1の出力回路は、前記第1の電源端子から電源電圧が供給され、前記第2の出力回路は、前記第2の電源端子から電源電圧が供給されてもよい。</t>
-  </si>
-  <si>
-    <t>本適用例に係る半導体集積回路によれば、第1の出力回路と第2の出力回路の電源端子を別にしていることで、一方の信号のノイズが電源を経由して他方の信号に乗ることを低減させることができる。</t>
-  </si>
-  <si>
-    <t>また、本適用例に係る半導体集積回路によれば、後段の回路が例えば第1の出力回路からの出力信号だけを必要とする場合、第2の電源端子から電源電圧の供給を停止することも可能になる。</t>
-  </si>
-  <si>
-    <t>従って、不要な消費電力を抑制することが可能である。</t>
-  </si>
-  <si>
-    <t>[適用例5] 上記適用例に係る半導体集積回路において、前記半導体集積回路は、前記発振信号を分周して第1の分周信号を生成する第1の分周回路と、前記第1の分周信号を分周して第2の分周信号を生成する第2の分周回路と、を含み、前記第1の分周回路は、前記第1の電源端子から電源電圧が供給され、前記第1の分周信号に基づく信号を前記第1の出力回路に出力し、前記第2の分周回路は、前記第2の電源端子から電源電圧が供給され、前記第2の分周信号に基づく信号を前記第2の出力回路に出力してもよい。</t>
-  </si>
-  <si>
-    <t>本適用例に係る半導体集積回路によれば、第1の分周回路と第2の分周回路の設定により、第1の出力回路からの出力信号の周波数と、第2の出力回路からの出力信号の周波数J017384601 4 とが異なるようにすることができる。</t>
-  </si>
-  <si>
-    <t>従って、後段の複数の回路は、それぞれ周波数が異なる複数の出力信号を受け取ることができる。</t>
-  </si>
-  <si>
-    <t>さらに、本適用例に係る半導体集積回路によれば、半導体集積回路の外部で分周回路を設ける必要がないので、後段の回路は、ジッター特性のよい出力信号を受け取ることが可能である。</t>
-  </si>
-  <si>
-    <t>なお、第1の分周回路、第2の分周回路は入力信号をそのまま出力することも可能である。</t>
-  </si>
-  <si>
-    <t>そのため、本適用例に係る半導体集積回路の後段の回路は、必要に応じて周波数が同じ出力信号を受け取ることもできる。</t>
-  </si>
-  <si>
-    <t>[適用例6] 上記適用例に係る半導体集積回路において、前記第1の分周回路は、前記第2の分周回路が前記第1の分周信号を分周するのに要する時間だけ前記第1の分周信号を遅延させる遅延回路を含んでもよい。</t>
-  </si>
-  <si>
-    <t>本適用例に係る半導体集積回路によれば、遅延回路により、第1の出力回路が第1の分周信号に基づく信号を受け取る時間と、第2の出力回路が第2の分周信号に基づく信号を受け取る時間と、を合わせることができる。</t>
-  </si>
-  <si>
-    <t>従って、本適用例に係る半導体集積回路によれば、スキューの小さい複数の出力信号を生成することが可能である。</t>
-  </si>
-  <si>
-    <t>[適用例7] 本適用例に係る発振器は、上記のいずれかの半導体集積回路と、前記振動素子と、前記半導体集積回路および前記振動素子が収容されるパッケージとを有する。</t>
-  </si>
-  <si>
-    <t>本適用例に係る発振器によれば、集半導体積回路に含まれる第1の出力回路および第2の出力回路により、発振信号に基づく低ジッターの少なくとも2つの信号を出力することができるので、この少なくとも2つの信号を複数の回路にそれぞれ供給すれば、外部にファンアウトバッファーを設けて分岐させる必要がない。</t>
-  </si>
-  <si>
-    <t>[適用例8] 上記適用例に係る発振器において、前記振動素子は、弾性表面波共振子であってもよい。</t>
-  </si>
-  <si>
-    <t>本適用例に係る発振器の振動素子は、弾性表面波共振子(以下、SAW共振子)である。</t>
-  </si>
-  <si>
-    <t>SAW共振子では櫛形電極の周期を微細にするほどより高い発振周波数の信号を得られる。</t>
-  </si>
-  <si>
-    <t>そのため、本適用例に係る発振器は高い発振周波数を実現しながら、小型化も可能である。</t>
-  </si>
-  <si>
-    <t>[適用例9] 上記適用例に係る発振器において、前記第1の出力回路からの信号を出力する第1の出力端子と、前記第2の出力回路からの信号を出力する第2の出力端子と、を含み、前記第J017384601 5 1の出力端子は、前記パッケージの第1の辺に沿って配置され、前記第2の出力端子は、前記パッケージの前記第1の辺と対向する第2の辺に沿って配置されてもよい。</t>
-  </si>
-  <si>
-    <t>本適用例に係る発振器によれば、第1の出力回路からの出力信号と第2の出力回路からの出力信号との干渉を回避し、スキューが小さく、ジッター特性のよい複数の出力信号を生成することができる。</t>
-  </si>
-  <si>
-    <t>さらに、干渉を回避するために、第1の出力回路と第2の出力回路とが半導体基板上で離れてレイアウトされていてもよい。</t>
-  </si>
-  <si>
-    <t>[適用例10] 本適用例に係る電子機器は、上記のいずれかの半導体集積回路、または発振器を含む。</t>
-  </si>
-  <si>
-    <t>[適用例11] 本適用例に係る移動体は、上記のいずれかの半導体集積回路、または発振器を含む。</t>
-  </si>
-  <si>
-    <t>これらの適用例によれば、半導体集積回路、または発振器の後段の複数の回路は低ジッターの複数の出力信号を受け取ることができるので、信頼性の高い電子機器、移動体を実現できる。</t>
-  </si>
-  <si>
-    <t>図面の簡単な説明 図1本実施形態に係る発振器のブロック図。</t>
-  </si>
-  <si>
-    <t>図2SAW共振子および発振回路の構成例を示す図。</t>
-  </si>
-  <si>
-    <t>図3分周回路および出力回路の構成例を示す図。</t>
-  </si>
-  <si>
-    <t>図4本実施形態に係る発振器の信号のタイミングを例示する図。</t>
-  </si>
-  <si>
-    <t>図5本実施形態に係る発振器の端子の配置例を示す図。</t>
-  </si>
-  <si>
-    <t>図6電子機器の機能ブロック図。</t>
-  </si>
-  <si>
-    <t>図7電子機器の外観の一例を示す図。</t>
-  </si>
-  <si>
-    <t>図8移動体の一例を示す図。</t>
-  </si>
-  <si>
-    <t>図9比較例の発振器で複数の出力信号を生成する例を示す図。</t>
-  </si>
-  <si>
-    <t>発明を実施するための形態 以下、本発明の好適な実施形態について図面を用いて詳細に説明する。</t>
-  </si>
-  <si>
-    <t>なお、以下に説明する実施形態は、特許請求の範囲に記載された本発明の内容を不当に限定するものではない。</t>
-  </si>
-  <si>
-    <t>また以下で説明される構成の全てが本発明の必須構成要件であるとは限らない。</t>
-  </si>
-  <si>
-    <t>1. 発振器 図1は、本実施形態の発振器1の構成を示す図である。 発振器1は、SAW共振子26(振動素子の一例)と、半導体集積回路10と、を含む。 SAW共振子26は、半導体集積回路10に含まれる発振回路12と接続される。</t>
-  </si>
-  <si>
-    <t>端子T1、端子T2、端子T3にはそれぞれ電源電圧VDD1、VDD2、VDD3が供給され、端子T4および端子T5は接地電圧VSSが供給される。 なお、電源電圧VDD1~VDD3は、いずれも同じ電圧であるものとする。</t>
-  </si>
-  <si>
-    <t>端子T6には発振器1の出力イネーブル信号が入力される。 出力イネーブル信号がハイレベルのときに端子T7~端子T14からクロック信号が出力される。 端子T7~端子T14は、差動信号である4つのクロック信号を出力するのに使われる。</t>
-  </si>
-  <si>
-    <t>端子T7、端子T8は、それぞれ、第1のクロック信号の非反転信号116P、反転信号116Nを出力する。</t>
-  </si>
-  <si>
-    <t>端子T9、端子T10は、それぞれ、第2のクロック信号の非反転信号117P、反転信号117Nを出力する。</t>
-  </si>
-  <si>
-    <t>端子T11、端子T12は、それぞれ、第3のクロック信号の非反転信号118P、反転信号118Nを出力する。</t>
-  </si>
-  <si>
-    <t>端子T13、端子T14は、それぞれ、第4のクロック信号の非反転信号119P、反転信号119Nを出力する。</t>
-  </si>
-  <si>
-    <t>半導体集積回路10は、発振回路12、制御部13、第1の分周回路15、第1の出力回路16、第2の分周回路17、第2の出力回路18を含む。 第1の分周回路15および第1の出力回路16は、端子T1(第1の電源端子の一例)から電源電圧VDD1を受け取って動作する。</t>
-  </si>
-  <si>
-    <t>第2の分周回路17および第2の出力回路18は、端子T2(第2の電源端子の一例)から電源電圧VDD2を受け取って動作する。</t>
-  </si>
-  <si>
-    <t>ここで、第1のグループ21、第2のグループ22は、半導体集積回路10の回路を電源電圧の供給元で区分したものである。</t>
-  </si>
-  <si>
-    <t>発振回路12は、SAW共振子26と接続されて発振ループを形成する。</t>
-  </si>
-  <si>
-    <t>なお、発振回路12は本実施形態ではSAW共振子26と接続されるが、SAW共振子26に代えて、ATカット水晶振動子、SCカット水晶振動子、音叉型水晶振動子、その他の圧電振動子やMEMS(Micro Electro Mechanical Systems)振動子などの振動素子と接続されてもよい。 また、SAW共振子26や振動素子の基板材料としては、水晶の他、タンタル酸リチウム、ニオブ酸リチウム等の圧電単結晶や、ジルコン酸チタン酸鉛等の圧電セラミックス等の圧電材料、又はシリコン半導体材料等を用いてもよい。</t>
-  </si>
-  <si>
-    <t>SAW共振子26や振動素子の励振手段J017384601 7 としては、圧電効果によるものを用いてもよいし、クーロン力による静電駆動を用いてもよい。</t>
-  </si>
-  <si>
-    <t>なお、制御部13はCPUであってもよい。</t>
-  </si>
-  <si>
-    <t>このとき、そのプログラムを記憶した不図示の記憶部があり、発振器1の出力イネーブル信号およびプログラムに従って前記の制御を行ってもよい。</t>
-  </si>
-  <si>
-    <t>また、第1の出力回路16および第2の出力回路18から出力される信号は、差動信号以外のシングルエンドの信号でもよいし、CMOS、LV-PECL、LV-TTL、LVDS、またはHCSL等に対応した信号でもよい。</t>
-  </si>
-  <si>
-    <t>第1の出力回路16は、シングルエンド入力を差動出力に変換するバッファーを2つ含んでいる。</t>
-  </si>
-  <si>
-    <t>それぞれのバッファーは信号125を受け取り、第1のクロック信号、第2のクロック信号として差動出力する。</t>
-  </si>
-  <si>
-    <t>第1の出力回路16は、制御信号216に基づいて、第1のクロック信号、第2のクロック信号を出力するか、ハイインピーダンス状態とするJ017384601 8 かを選択する。</t>
-  </si>
-  <si>
-    <t>なお、本実施形態では第1の出力回路16に含まれるバッファーは2つであるが、1つであってもよいし、3つ以上であってもよい。</t>
-  </si>
-  <si>
-    <t>それぞれのバッファーは、信号127を受け取り、第3のクロック信号、第4のクロック信号として差動出力する。</t>
-  </si>
-  <si>
-    <t>第2の出力回路18は、制御信号218に基づいて、第3のクロック信号、第4のクロック信号を出力するか、ハイインピーダンス状態とするかを選択する。</t>
-  </si>
-  <si>
-    <t>なお、本実施形態では第2の出力回路18に含まれるバッファーは2つであるが、1つであってもよいし、3つ以上であってもよい。</t>
-  </si>
-  <si>
-    <t>図2は、SAW共振子26および発振回路12の詳細な構成を示す図である。 なお、図1と同じ信号には同じ符号を付しており説明を省略する。</t>
-  </si>
-  <si>
-    <t>SAW共振子26は、圧電基板上に、弾性表面波の伝搬方向に沿って櫛形電極29を配置し、その両側にグレーティング反射器27A、27Bを配置して構成される。</t>
-  </si>
-  <si>
-    <t>中央の櫛形電極29で弾性表面波を励振して、両側のグレーティング反射器27A、27Bで励起された弾性表面波の振動エネルギを櫛形電極29の方向に反射することで振動子(共振子)を構成している。 SAW共振子26は電極間隔で周波数が決まるため、フォトリソグラフィ加工によって高い周波数を容易に得ることができ、サイズも小さくできる。</t>
-  </si>
-  <si>
-    <t>そして、インバーター24、帰還抵抗28、コンデンサー41、42が、櫛形電極29と図2のように接続されて、帰還型の発振回路12を構成している。 帰還抵抗28を接続したインバーター24はアナログ増幅回路として機能する。</t>
-  </si>
-  <si>
-    <t>そして、SAW共振子26を発振させて発振信号112を生成する。 図3は、第1の分周回路15、第1の出力回路16、第2の分周回路17、第2の出力回路18の詳細な構成を示す図である。 なお、図1および図2と同じ信号には同じ符号を付しており説明を省略する。</t>
-  </si>
-  <si>
-    <t>バッファー160は、第1のクロック信号の非反転信号116P、反転信号116Nを出力する。</t>
-  </si>
-  <si>
-    <t>バッファー162は、第2のクロック信号の非反転信号117P、反転信号117Nを出力する。</t>
-  </si>
-  <si>
-    <t>第1の出力回路16は、制御信号E12に従って、2つのバッファー160、162をハイインピーダンス状態にすることができる。 制御信号E12は、制御部13からの制御信号216が対応する。</t>
-  </si>
-  <si>
-    <t>よって、位相が揃った4つのクロック信号を出力することができる。</t>
-  </si>
-  <si>
-    <t>なお、図4の時刻t2、時刻t4、時刻t6、時刻t8では、第1の分周遅延信号115の立ち上がりに第2の分周信号124の立ち下がりが対応している。 そのため、第1の分周遅延信号115と第2の分周信号124とが隣接して平行に配線されている場合などにジッター特性の悪化が生じやすくなる。</t>
-  </si>
-  <si>
-    <t>本実施形態の発振器1では、図5を参照して後に説明するように、レイアウトでの工夫によって、このようなジッター特性の悪化も回避できる。 第2の出力回路18は、2つのバッファー180、182を含む。</t>
-  </si>
-  <si>
-    <t>バッファー180は、第3のクロック信号の非反転信号118P、反転信号118Nを出力する。</t>
-  </si>
-  <si>
-    <t>バッファー182は、第4のクロック信号の非反転信号118P、反転信号118Nを出力する。</t>
-  </si>
-  <si>
-    <t>制御信号E34は、制御部13からの制御信号218が対応する。 なお、本実施形態では、第1の出力回路16と第2の出力回路18とが同じ数のバッファーを含んでいるが、バッファーの数について同じである必要はなく、第1の出力回路16、第2の出力回路18はそれぞれ任意の数のバッファーを含むことができる。</t>
-  </si>
-  <si>
-    <t>ここで、図9は、比較例の発振器1001からの1つのクロック信号をファンアウトバッファー1020で分岐して4つのクロック信号を生成した場合を示す図である。</t>
-  </si>
-  <si>
-    <t>図9の場合にも、本実施形態の発振器1と同じように、最終的には4つのクロック信号を生成することができる。</t>
-  </si>
-  <si>
-    <t>比較例の発振器1001は4つの端子を有している。</t>
-  </si>
-  <si>
-    <t>端子U1には電源電圧VDDが供給され、端子U2は接地電圧VSSが供給される。 端子U3および端子U4は、差動信号である1つのクロック信号を出力するのに使われる。</t>
-  </si>
-  <si>
-    <t>端子U3、端子U4は、それぞれ、クロック信号の非反転信号1116P、反転信号1116Nを出力する。</t>
-  </si>
-  <si>
-    <t>発振器1001は、SAW共振子1026、発振回路1012、制御部1013、分周回路1015、出力回路1016を含む。 SAW共振子1026、発振回路1012、制御部1013は、それぞれ、本実施形態の発振器1が含むSAW共振子26、発振回路12、制御部13に対応し、機能も同じであるため説明を省略する。</t>
-  </si>
-  <si>
-    <t>J017384601 11 分周回路1015は、本実施形態の発振器1が含む第1の分周回路15から、遅延回路158、セレクター172Bを省いたものに対応する(図3参照)。</t>
-  </si>
-  <si>
-    <t>このとき、出力回路1016は、分周回路1015から、第1の分周回路15の第1の分周信号114に対応する信号を受け取る。 出力回路1016は、本実施形態の発振器1が含む第1の出力回路16から、バッファー162を省いたものに対応する(図3参照)。</t>
-  </si>
-  <si>
-    <t>このとき、クロック信号の非反転信号1116P、反転信号1116Nだけが、比較例の発振器1001から出力される。</t>
-  </si>
-  <si>
-    <t>ファンアウトバッファー1020は全部で10個の端子を有している。</t>
-  </si>
-  <si>
-    <t>端子V1、端子V2は発振器1001から、それぞれ非反転信号1116P、反転信号1116Nを受け取るための入力端子である。 そして、端子V3~端子V10は、差動信号である4つのクロック信号を出力するのに使われる。</t>
-  </si>
-  <si>
-    <t>なお、端子V3~端子V10は、それぞれ本実施形態の発振器1の端子T7~端子T14(図1参照)に対応し、詳細な説明を省略する。</t>
-  </si>
-  <si>
-    <t>ファンアウトバッファー1020は、図9のように、受け取った非反転信号1116P、反転信号1116Nを、それぞれバッファーを用いて分岐して、入力されたクロック信号と同じ波形、周波数の4つのクロック信号を生成する。</t>
-  </si>
-  <si>
-    <t>したがって、比較例の発振器1001とファンアウトバッファー1020とを組み合わせることでも、4つのクロック信号を生成することができる。</t>
-  </si>
-  <si>
-    <t>しかし、比較例の構成では、ファンアウトバッファー1020が分周器を含まず、本実施形態の発振器1のように異なる周波数のクロック信号を出力することができない。</t>
-  </si>
-  <si>
-    <t>また、発振器1001の端子U3、端子U4から、ファンアウトバッファー1020の端子V1、端子V2に至る配線において外来ノイズが混入するおそれや、配線のインダクタンス成分、キャパシタンス成分の影響で波形が歪んでジッター特性が悪化するおそれがある。</t>
-  </si>
-  <si>
-    <t>また、選択するファンアウトバッファー1020によっては、その内部での遅延が4つのクロック信号で異なる可能性もある。</t>
-  </si>
-  <si>
-    <t>しかし、本実施形態の発振器1では、第1の分周信号114を分周して第2の分周信号124を生成する第2の分周回路17を含んでいる。 そのため、バッファー160およびバッファー162からのクロック信号の周波数と、バッファー180およびバッファー182からのクロック信号の周波数とが異なるように設定可能である。</t>
-  </si>
-  <si>
-    <t>そのため、比較例のように端子間の配線において外来ノイズが混入したり、そのインダクタンス成分等でジッター特性が悪化したりするおそれが少ない。</t>
-  </si>
-  <si>
-    <t>そして、本実施形態の発振器1では、前記のように、第1の分周回路15からの信号125が第1の出力回路16に入力されるタイミングと、第2の分周回路17からの信号1J017384601 12 27が第2の出力回路18に入力されるタイミングと、を合わせることができる。 そのため、第1の分周信号114を分岐させることによるジッター特性の悪化が生じにくくすることができる。</t>
-  </si>
-  <si>
-    <t>図5は、本実施形態に係る発振器1の端子T1~端子T14の配置例を示す図である。</t>
-  </si>
-  <si>
-    <t>ここで、図5の発振器1はパッケージを上から見た図であるが、内部の半導体集積回路10について説明するため一部の領域R1を透過させている。 なお、図1~図3と同じ要素には同じ符号を付しており説明を省略する。</t>
-  </si>
-  <si>
-    <t>図5では、本実施形態に係る発振器1の端子T1~端子T14が、紙面左上から時計回りに、端子T2(端子名: VDD2)、端子T14(端子名: XOUT4)、端子T13(端子名: OUT4)、端子T12(端子名: XOUT3)、端子T11(端子名: OUT3)、端子T6(端子名: OE)、端子T4(端子名: VSS)、端子T9(端子名: OUT2)、端子T10(端子名: XOUT2)、端子T7(端子名: OUT1)、端子T8(端子名: XOUT1)、端子T1(端子名: VDD1)、端子T5(端子名: VSS)、端子T3(端子名: VDD3)の順で配置されている。</t>
-  </si>
-  <si>
-    <t>なお、以下では説明の都合上、端子名を用いて端子を指定する場合がある。</t>
-  </si>
-  <si>
-    <t>そして、領域R1の部分に示すように、発振器1は端子T1~端子T14のそれぞれに電気的に接続されている配線w1~配線w14を含んでいる。 半導体集積回路10上に複数並んでいる実線の正方形はコンタクトパッドであり、ワイヤーボンディングにより配線w1~配線w14と電気的に接続される。</t>
-  </si>
-  <si>
-    <t>ここで、本実施形態の発振器1では、第1のグループ21(図1参照)に含まれる第1の出力回路16からの第1および第2のクロック信号を出力するOUT1、XOUT1、OUT2、XOUT2は紙面の下辺(第1の辺の一例)に配置されている。</t>
-  </si>
-  <si>
-    <t>また、第1のグループ21へ電源を供給するためのVDD1も紙面の下辺に配置されている。</t>
-  </si>
-  <si>
-    <t>一方で、第2のグループ22(図1参照)に含まれる第2の出力回路18からの第3および第4のクロック信号を出力するOUT3、XOUT3、OUT4、XOUT4は紙面の上辺(第2の辺の一例)に配置されている。</t>
-  </si>
-  <si>
-    <t>また、第2のグループ22へ電源を供給するためのVDD2も紙面の上辺に配置されている。</t>
-  </si>
-  <si>
-    <t>本実施形態の発振器1では、OUT1、XOUT1、OUT2、XOUT2(それぞれ第1の出力端子の一例)と、OUT3、XOUT3、OUT4、XOUT4(それぞれ第2の出力端子の一例)とが、対向する辺のそれぞれに配置されている。</t>
-  </si>
-  <si>
-    <t>そのため、発振器1は、第1および第2のクロック信号と第3および第4のクロック信号との干渉を低減し、ばらつきが少なく、ジッター特性のよい複数のクロック信号を生成することができる。</t>
-  </si>
-  <si>
-    <t>このとき、第1のグループ21と、第2のグループ22とで異なる電源端子を用いているため、共通の電源を介して一方の出力信号から他方の出力信号へのノイズの回りこみもJ017384601 13 小さい。</t>
-  </si>
-  <si>
-    <t>そのため、高周波数の第1および第2のクロック信号に低周波の第3および第4のクロック信号からのノイズがのって低周波のスプリアスとして観察されるといった問題も生じにくい。</t>
-  </si>
-  <si>
-    <t>さらに、半導体集積回路10は、上辺に近い領域R2と下辺に近い領域R3に区分されるとする。</t>
-  </si>
-  <si>
-    <t>一方、第2の分周回路17、第2の出力回路18といった第2のグループ22を構成する回路は領域R2に配置される。 このように回路を配置することで、1つの半導体基板上に集積しても、周波数が異なる可能性のある第1のグループ21に属する信号と、第2のグループ22に属する信号とが干渉しにくくすることができる。</t>
-  </si>
-  <si>
-    <t>なお、本実施形態の発振器1では、半導体集積回路10から離れた領域R4にSAW共振子26が配置されているが、小型化のために例えば半導体集積回路10と重なって(3次元的に上下の方向、すなわち紙面の手前又は奥に)SAW共振子26が配置されてもよい。</t>
-  </si>
-  <si>
-    <t>以上のように、本実施形態の発振器1は、複数のバッファー(バッファー160、162、180、182)と発振回路12とを1つの半導体基板上に集積しても、バッファーからの出力信号(第1~第4のクロック信号)の劣化を低減できる。 2. 電子機器 本実施形態の電子機器300について、図6~図7を用いて説明する。</t>
-  </si>
-  <si>
-    <t>図6は、電子機器300の機能ブロック図である。 電子機器300は、発振回路12とSAW共振子26とを含む発振部200、CPU(Central Processing Unit)320、操作部330、ROM(Read Only Memory)340、RAM(Random Access Memory)350、通信部360、表示部370、音出力部380を含んで構成されている。 なお、電子機器300は、図6の構成要素(各部)の一部を省略又は変更してもよいし、他の構成要素を付加した構成としてもよい。</t>
-  </si>
-  <si>
-    <t>発振部200は、クロックパルスをCPU320だけでなく各部に供給する(図示は省略)。</t>
-  </si>
-  <si>
-    <t>なお、発振部200は、前記の半導体集積回路10とSAW共振子26とが接続された発振器1に対応する。 ただし、図6では半導体集積回路10のうち発振回路12のみを示している。</t>
-  </si>
-  <si>
-    <t>CPU320は、ROM340等に記憶されているプログラムに従い、発振部200が出力するクロックパルス(前記の半導体集積回路10からのクロック信号に対応)を用いて各種の計算処理や制御処理を行う。 具体的には、CPU320は、操作部330からの操作信号に応じた各種の処理、外部とデータ通信を行うために通信部360を制御する処J017384601 14 理、表示部370に各種の情報を表示させるための表示信号を送信する処理、音出力部380に各種の音を出力させる処理等を行う。</t>
-  </si>
-  <si>
-    <t>操作部330は、操作キーやボタンスイッチ等により構成される入力装置であり、ユーザーによる操作に応じた操作信号をCPU320に出力する。 ROM340は、CPU320が各種の計算処理や制御処理を行うためのプログラムやデータ等を記憶している。</t>
-  </si>
-  <si>
-    <t>RAM350は、CPU320の作業領域として用いられ、ROM340から読み出されたプログラムやデータ、操作部330から入力されたデータ、CPU320が各種プログラムに従って実行した演算結果等を一時的に記憶する。</t>
-  </si>
-  <si>
-    <t>通信部360は、CPU320と外部装置との間のデータ通信を成立させるための各種制御を行う。</t>
-  </si>
-  <si>
-    <t>表示部370は、LCD(Liquid Crystal Display)等により構成される表示装置であり、CPU320から入力される表示信号に基づいて各種の情報を表示する。 そして、音出力部380は、スピーカー等の音を出力する装置である。</t>
-  </si>
-  <si>
-    <t>前記の通り、発振部200(前記の発振器1)は、ジッター特性のよい複数のクロックを供給する。</t>
-  </si>
-  <si>
-    <t>このとき、発振部200は、高速なクロックをCPU320に供給し、低速なクロックをその他の機能ブロックに供給することも可能である。</t>
-  </si>
-  <si>
-    <t>このとき、ファンアウトバッファー1020が不要であるため、電子機器300の小型化が可能である。</t>
-  </si>
-  <si>
-    <t>電子機器300としては種々が考えられる。 例えば、パーソナルコンピューター(例えば、モバイル型パーソナルコンピューター、ラップトップ型パーソナルコンピューター、タブレット型パーソナルコンピューター)、携帯電話機などの移動体端末、ディジタルスチールカメラ、インクジェット式吐出装置(例えば、インクジェットプリンター)、ルーターやスイッチなどのストレージエリアネットワーク機器、ローカルエリアネットワーク機器、ネットワーク上で各種データの送受を行うサーバー機器、移動体端末基地局用機器、テレビ、ビデオカメラ、ビデオレコーダー、カーナビゲーション装置、ページャー、電子手帳(通信機能付も含む)、電子辞書、電卓、電子ゲーム機器、ゲーム用コントローラー、ワードプロセッサー、ワークステーション、テレビ電話、防犯用テレビモニター、電子双眼鏡、POS端末、医療機器(例えば電子体温計、血圧計、血糖計、心電図計測装置、超音波診断装置、電子内視鏡)、魚群探知機、各種測定機器、計器類(例えば、車両、航空機、船舶の計器類)、フライトシミュレーター、ヘッドマウントディスプレイ、モーショJ017384601 15 ントレース、モーショントラッキング、モーションコントローラー、PDR(歩行者位置方位計測)等が挙げられる。 図7は、電子機器300の一例であるスマートフォンの外観の一例を示す図である。</t>
-  </si>
-  <si>
-    <t>電子機器300であるスマートフォンは、操作部330としてボタンを、表示部370としてLCDを備えている。 そして、電子機器300であるスマートフォンは、発振部200(前記の発振器1)を用いることで、小型化でき、設計の効率化を図ることができる。</t>
-  </si>
-  <si>
-    <t>図8は、本実施形態の移動体400の一例を示す図(上面図)である。 図8に示す移動体400は、発振部410、エンジンシステム、ブレーキシステム、キーレスエントリーシステム等の各種の制御を行うコントローラー420、430、440、バッテリー450、バックアップ用バッテリー460を含んで構成されている。 なお、本実施形態の移動体は、図8の構成要素(各部)の一部を省略又は変更してもよいし、他の構成要素を付加した構成としてもよい。</t>
-  </si>
-  <si>
-    <t>発振部410は、前記の発振器1に対応する。 その他の構成要素の詳細な説明は省略するが、移動体の移動に必要な制御を行うため高い信頼性が要求される。</t>
-  </si>
-  <si>
-    <t>例えば、バッテリー450の他に、バックアップ用バッテリー460を備えることで信頼性を高めている。 そして、発振部410についても、信頼性を高めるためにバックアップ用の発振部410を備えることが好ましい。</t>
-  </si>
-  <si>
-    <t>すなわち、複数のクロックを備えることが好ましい。</t>
-  </si>
-  <si>
-    <t>このとき、発振部410を、前記の発振器1とすることで、ジッター特性のよい高品質のクロックを複数利用可能である。</t>
-  </si>
-  <si>
-    <t>なお、このような移動体400としては種々の移動体が考えられ、例えば、自動車(電気自動車も含む)、ジェット機やヘリコプター等の航空機、船舶、ロケット、人工衛星等が挙げられる。</t>
-  </si>
-  <si>
-    <t>本発明は本実施形態に限定されず、本発明の要旨の範囲内で種々の変形実施が可能である。</t>
-  </si>
-  <si>
-    <t>上述した実施形態および変形例は一例であって、これらに限定されるわけではない。</t>
-  </si>
-  <si>
-    <t>例えば、各実施形態および各変形例を適宜組み合わせることも可能である。</t>
-  </si>
-  <si>
-    <t>本発明は、前記の実施形態で説明した構成と実質的に同一の構成(例えば、機能、方法および結果が同一の構成、あるいは目的および効果が同一の構成)を含む。</t>
-  </si>
-  <si>
-    <t>また、本発明は、実施形態で説明した構成の本質的でない部分を置き換えた構成を含む。</t>
-  </si>
-  <si>
-    <t>また、本発明は、実施形態で説明した構成と同一の作用効果を奏する構成又は同一の目的を達成するこJ017384601 16 とができる構成を含む。</t>
-  </si>
-  <si>
-    <t>また、本発明は、実施形態で説明した構成に公知技術を付加した構成を含む。</t>
-  </si>
-  <si>
-    <t>符号の説明 1 発振器、10 半導体集積回路、12 発振回路、13 制御部、15 第1の分周回路、16 第1の出力回路、17 第2の分周回路、18 第2の出力回路、21 第1のグループ、22 第2のグループ、24 インバーター、26 SAW共振子、27A グレーティング反射器、27B グレーティング反射器、28 帰還抵抗、29 櫛形電極、41 コンデンサー、42 コンデンサー、112 発振信号、114 第1の分周信号、115 第1の分周遅延信号、116N 反転信号、116P 非反転信号、117N 反転信号、117P 非反転信号、118N 反転信号、118P 非反転信号、119N 反転信号、119P 非反転信号、124 第2の分周信号、125 信号、127 信号、150 フリップフロップ、152 フリップフロップ、154 フリップフロップ、156 セレクター、158 遅延回路、160 バッファー、162 バッファー、170 フリップフロップ、172A セレクター、172B セレクター、180 バッファー、182 バッファー、200 発振部、215 制御信号、216 制御信号、217 制御信号、218 制御信号、300 電子機器、320 CPU、330 操作部、340 ROM、350 RAM、360 通信部、370 表示部、380 音出力部、400 移動体、410 発振部、420 コントローラー、450 バッテリー、460 バックアップ用バッテリー、1001 発振器、1012 発振回路、1013 制御部、1015 分周回路、1016 出力回路、1020 ファンアウトバッファー、1026 SAW共振子、1116N 反転信号、1116P 非反転信号、E12 制御信号、E34 制御信号、R1 領域、R2 領域、R3 領域、R4 領域、S1 選択信号、S2 選択信号、T1 端子、T2 端子、T3 端子、T4 端子、T5 端子、T6 端子、T7 端子、T8 端子、T9 端子、T10 端子、T11 端子、T12 端子、T13 端子、T14 端子、U1 端子、U2 端子、U3 端子、U4 端子、V1 端子、V2 端子、V3 端子、V10 端子、VDD 電源電圧、VDD1 電源電圧、VDD2 電源電圧、VDD3 電源電圧、VSS 接地電圧、w1~w14 配線 J017384601 17 書類名特許請求の範囲 請求項1 振動素子を発振させて発振信号を生成する発振部と、 前記発振信号に基づく信号を出力する第1の出力部および第2の出力部と、 前記第1の出力部および前記第2の出力部を制御する制御部と、をする半導体集積回路。 請求項2 半導体基板上に、振動素子を発振させて発振信号を生成する発振回路と、前記発振信号に基づく信号を出力する第1の出力回路および第2の出力回路と、 前記第1の出力回路および前記第2の出力回路の動作を制御する制御部と、を有する半導体集積回路。</t>
-  </si>
-  <si>
-    <t>請求項10 請求項1乃至3のいずれか1項に記載の半導体集積回路を含む、電子機器。</t>
-  </si>
-  <si>
-    <t>半導体集積回路10は、複数の出力回路のうち、第1の出力回路16と第2の出力回路18とは、互いに独立に動作が制御される。</t>
-  </si>
-  <si>
-    <t>SEMICONDUCTOR INTEGRATED CIRCUIT, OSCILLATOR, ELECTRONIC APPARATUS, AND MOBILE OBJECT BACKGROUNDTechnical Field The present invention relates to a semiconductor integrated circuit, an oscillator, an electronic apparatus, and a mobile object.Related Art In recent years, an oscillator in which a surface acoustic wave (SAW) resonator using a SAW is mounted has been used for a high-speed network communication, a mobile object communication field, or the like.</t>
-  </si>
-  <si>
-    <t>The SAW resonator can take out a high frequency signal using the SAW by providing an IDT electrode (comb-shaped electrode) on a piezoelectric substrate such as quartz crystal.</t>
-  </si>
-  <si>
-    <t>A speed of the surface acoustic wave is determined by a type of the piezoelectric substrate, and as the cycle of the comb-shaped electrode is finer, the SAW resonator obtains a signal with the higher oscillation frequency.</t>
-  </si>
-  <si>
-    <t>For this reason, the SAW resonator can be miniaturized so as to be able to easily correspond to a high frequency.</t>
-  </si>
-  <si>
-    <t>For example, JP-A-2006-245994 proposes an oscillator (referred to as a piezoelectric device in JP-A-2006-245994) which can be further miniaturized and thinner than that of the related art, by disposing a SAW resonator (referred to as a surface acoustic wave element chip in JP-A-2006-245994) in a thick bottom portion and disposing electronic components in a thin bottom portion.</t>
-  </si>
-  <si>
-    <t>However, in the oscillator described in JP-A-2006-245994, in a case in which it is desired to input an output signal to a plurality of ICs, an output is required to be branched by a fan-out buffer, and there is a case in which skew occurs or a jitter characteristic is degraded due to long wires from the ICs to the fan-out buffer, or a jitter characteristic of the output signal is degraded in the fan-out buffer.</t>
-  </si>
-  <si>
-    <t>In addition, by using the fan-out buffer, there is a case in which skew occurs due to a wire length in the fan-out buffer.</t>
-  </si>
-  <si>
-    <t>SUMMARY An advantage of some aspects of the invention is that a semiconductor integrated circuit in which, even if an output signal is input to a plurality of circuits, degradation of a jitter characteristic can be reduced can be provided, and in addition, an oscillator, an electronic apparatus, and a mobile object which use the semiconductor integrated circuit and have high reliability can be provided.</t>
-  </si>
-  <si>
-    <t>Application Example 1 According to this application example, there is provided a semiconductor integrated circuit including: an oscillation unit which generates an oscillation signal by oscillating a vibration element; a first output unit and a second output unit which output signals based on the oscillation signal; and a control unit that controls the first output unit and the second output unit.</t>
-  </si>
-  <si>
-    <t>The vibration element is, for example, a surface acoustic wave (SAW) resonator, an AT cut quartz crystal vibrator, an SC cut quartz crystal vibrator, a tuning fork type quartz crystal vibrator, other piezoelectric vibrators, a micro electromechanical system (MEMS) vibrator, or the like.</t>
-  </si>
-  <si>
-    <t>The first output circuit and the second output circuit may respectively output one signal, and output signals different from each other.</t>
-  </si>
-  <si>
-    <t>In addition, the output signals may respectively be differential signals, and be single-ended signals.</t>
-  </si>
-  <si>
-    <t>In addition, a state in which the signals are output from each output unit or the signals are not output, or a state of the output signals of types of the signals output from each output unit or the like, are controlled by the control unit.</t>
-  </si>
-  <si>
-    <t>According to the semiconductor integrated circuit of the application example, by the oscillation unit included in a single semiconductor integrated circuit, the first output unit, and the second output unit, at least two signals with low jitter based on the oscillation signal can be output, and thus if the at least two signals are respectively supplied to at least two circuits, a fan-out buffer which is configured by a semiconductor integrated circuit different from the oscillation unit is not required to be provided.</t>
-  </si>
-  <si>
-    <t>Thus, even if the output signal is input to a plurality of circuits, degradation of a jitter characteristic can be reduced.</t>
-  </si>
-  <si>
-    <t>Application Example 2 According to this application example, there is provided a semiconductor integrated circuit including: an oscillation circuit, and first and second output circuits on a semiconductor substrate, the oscillation circuit generating an oscillation signal by oscillating a vibration element, and the first and second output circuit outputting signals based on the oscillation signal; and a control unit that controls operations of the first output circuit and the second output circuit.</t>
-  </si>
-  <si>
-    <t>Signal output states of each output circuit, and signal types of the signals output from each output circuit are controlled by the control unit.</t>
-  </si>
-  <si>
-    <t>In addition, a state in which the signals are output from each output circuit or the signals are not output, or an operation of the output circuit of setting of types of the signals output from each output circuit or the like, are controlled by the control unit.</t>
-  </si>
-  <si>
-    <t>According to the semiconductor integrated circuit of the application example, by the oscillation circuit included in the semiconductor integrated circuit, the first output circuit, and the second output circuit, at least two signals with low jitter based on the oscillation signal can be output, and thus if the at least two signals are respectively supplied to at least two circuits, a fan-out buffer is not required to be provided on the outside and to be divided.</t>
-  </si>
-  <si>
-    <t>In addition, in a case in which a circuit in the rear stage of the semiconductor integrated circuit according to the present application example requires an output signal from, for example, the first output circuit, an operation in which the output signal from the second output circuit is stopped, or whether or not the signal is set to be in a high impedance state is controlled, and thereby flexible usage is possible.</t>
-  </si>
-  <si>
-    <t>Application Example 3 In the semiconductor integrated circuit according to this application example, the control unit may independently control the operations of the first output circuit and the second output circuit.</t>
-  </si>
-  <si>
-    <t>According to the semiconductor integrated circuit of the application example, an operation of the first output circuit and an operation of the second output circuit are independently controlled, and thus, for example, in a case in which only the output signal from the first output circuit is required, a flexible usage is possible, in which the output signal from the second output circuit is stopped or is set to be in a high impedance state.</t>
-  </si>
-  <si>
-    <t>Application Example 4 In the semiconductor integrated circuit according to this application example, the semiconductor integrated circuit may further include a first power supply terminal and a second power supply terminal, in which the first output circuit may receive a power supply voltage from the first power supply terminal, and the second output circuit may receive a power supply voltage from the second power supply terminal.</t>
-  </si>
-  <si>
-    <t>According to the semiconductor integrated circuit of the application example, since the power supply terminals of the first output circuit and the second output circuit are differently provided, it is possible to reduce noise of one signal being transferred to another signal through a power supply.</t>
-  </si>
-  <si>
-    <t>According to the semiconductor integrated circuit of the application example, in a case in which a circuit in the rear stage requires only the output signal from, for example, the first output circuit, it is also possible to stop supplying of a power supply voltage from the second power supply terminal.</t>
-  </si>
-  <si>
-    <t>Thus, it is possible to reduce unnecessary power consumption.</t>
-  </si>
-  <si>
-    <t>Application Example 5 In the semiconductor integrated circuit according to this application example, the semiconductor integrated circuit may further include a first division circuit which generates a first division signal by dividing the oscillation signal, and a second division circuit which generates a second division signal by dividing the first division signal, in which the first division circuit may receive a power supply voltage from the first power supply terminal, and outputs a signal based on the first division signal to the first output circuit, and in which the second division circuit may receive a power supply voltage from the second power supply terminal, and outputs a signal based on the second division signal to the second output circuit.</t>
-  </si>
-  <si>
-    <t>According to the semiconductor integrated circuit of the application example, by setting of the first division circuit and the second division circuit, the frequency of the output signal from the first output circuit and the frequency of the output signal from the second output circuit can be set differently from each other.</t>
-  </si>
-  <si>
-    <t>Thus, a plurality of circuits in the rear stage can receive a plurality of output signals with frequencies different from each other.</t>
-  </si>
-  <si>
-    <t>Furthermore, according to the semiconductor integrated circuit of the application example, it is not necessary to provide a division circuit on the outside of the semiconductor integrated circuit, and thus the circuit in the rear stage can receive an output signal with a good jitter characteristic.</t>
-  </si>
-  <si>
-    <t>The first division circuit and the second division circuit can output the input signals as they are.</t>
-  </si>
-  <si>
-    <t>For this reason, the circuit in the rear stage of the semiconductor integrated circuit according to the application example can receive output signals with the same frequencies, if necessary.</t>
-  </si>
-  <si>
-    <t>Application Example 6 In the semiconductor integrated circuit according to this application example, the first division circuit may include a delay circuit which delays the first division signal by a time which is required for the second division circuit to divide the first division signal.</t>
-  </si>
-  <si>
-    <t>According to the semiconductor integrated circuit of the application example, by the delay circuit, the time in which the first output circuit receives a signal based on the first division signal can be identical to the time in which the second output circuit receives a signal based on the second division signal.</t>
-  </si>
-  <si>
-    <t>Thus, according to the semiconductor integrated circuit of the application example, it is possible to generate a plurality of output signals with a little skew.</t>
-  </si>
-  <si>
-    <t>Application Example 7 According to this application example, there is provided an oscillator including: a semiconductor integrated circuit according to any one described above; the vibration element; and a package in which the semiconductor integrated circuit and the vibration element are contained.</t>
-  </si>
-  <si>
-    <t>According to the oscillator of the application example, by the first output circuit and the second output circuit which are included in the semiconductor integrated circuit, at least two signals with low jitter based on the oscillation signal can be output, and thus, if the at least two signals are respectively supplied to a plurality of circuits, it is not necessary to divide by providing the fan-out buffer on the outside.</t>
-  </si>
-  <si>
-    <t>Application Example 8 In the oscillator according to this application example, the vibration element may be a surface acoustic wave resonator.</t>
-  </si>
-  <si>
-    <t>The vibration element of the oscillator according to the application example is a surface acoustic wave resonator (hereinafter, referred to as SAW resonator).</t>
-  </si>
-  <si>
-    <t>As the cycle of the comb-shaped electrode is finer, the SAW resonator obtains a signal with the higher oscillation frequency.</t>
-  </si>
-  <si>
-    <t>For this reason, the oscillator according to the application example can generate a signal with a high oscillation frequency and can be miniaturized.</t>
-  </si>
-  <si>
-    <t>Application Example 9 In the oscillator according to this application example, the oscillator may further include a first output terminal through which a signal from the first output circuit is output, and a second output terminal through which a signal from the second output circuit is output, in which the first output terminal may be disposed along a first side of the package, and in which the second output terminal may be disposed along a second side opposite to the first side of the package.</t>
-  </si>
-  <si>
-    <t>According to the oscillator of the application example, it is possible to avoid interference between the output signal from the first output circuit and the output signal from the second output circuit, and to generate a plurality of output signals with a little skew and a good jitter characteristic.</t>
-  </si>
-  <si>
-    <t>Furthermore, since the interference is avoided, it may be laid out in such a manner that the first output circuit and the second output circuit are separated from each other on the semiconductor substrate.</t>
-  </si>
-  <si>
-    <t>Application Example 10 According to this application example, there is provided an electronic apparatus including the semiconductor integrated circuit according to any one described above.</t>
-  </si>
-  <si>
-    <t>Application Example 11 According to this application example, there is provided a mobile object including the semiconductor integrated circuit according to any one described above or the oscillator.</t>
-  </si>
-  <si>
-    <t>According to the application examples, the semiconductor integrated circuit or a plurality of circuits in the rear stage of the oscillator receives a plurality of output signals with low jitter, and thus it is possible to realize an electronic apparatus and a mobile object which have high reliability.</t>
-  </si>
-  <si>
-    <t>FIG.1 is a block diagram of an oscillator according to the present embodiment.</t>
-  </si>
-  <si>
-    <t>FIG.2 is a diagram showing a configuration example of a SAW resonator and an oscillator circuit.</t>
-  </si>
-  <si>
-    <t>FIG.3 is a diagram showing a configuration example of a dividing circuit and an output circuit.</t>
-  </si>
-  <si>
-    <t>FIG.4 is a diagram illustrating timing of signals of the oscillator according to the present embodiment.</t>
-  </si>
-  <si>
-    <t>FIG.5 is a diagram showing a disposal example of terminals of the oscillator according to the present embodiment.</t>
-  </si>
-  <si>
-    <t>FIG.6 is a functional block diagram of an electronic apparatus.</t>
-  </si>
-  <si>
-    <t>FIG.7 is a diagram showing an example of an appearance of the electronic apparatus.</t>
-  </si>
-  <si>
-    <t>FIG.8 is a diagram showing an example of a mobile object.</t>
-  </si>
-  <si>
-    <t>FIG.9 is a diagram showing an example in which a plurality of output signals is generated in an oscillator of a comparative example.</t>
-  </si>
-  <si>
-    <t>DESCRIPTION OF EXEMPLARY EMBODIMENTS Hereinafter, preferred embodiments of the invention will be described in detail with reference to the drawings.</t>
-  </si>
-  <si>
-    <t>The embodiments which will be described hereinafter are not intended to unduly limit the content of the invention described in the claims.</t>
-  </si>
-  <si>
-    <t>In addition, none of the configurations which will be described hereinafter are limited to essential configuration requirements of the invention.Oscillator FIG.1 is a diagram showing a configuration of an oscillator 1 of the present embodiment.</t>
-  </si>
-  <si>
-    <t>The oscillator 1 includes a SAW resonator 26 (an example of a vibration element), and a semiconductor integrated circuitThe SAW resonator 26 is connected to an oscillation circuit 12 included in the semiconductor integrated circuitThe oscillator 1 includes fourteen terminals in total.</t>
-  </si>
-  <si>
-    <t>Power supply voltages VDD1, VDD2, and VDD3 are respectively supplied to a terminal T1, a terminal T2, and a terminal TA ground voltage VSS is supplied to terminals T4 and TThe power supply voltages are all the same voltages.</t>
-  </si>
-  <si>
-    <t>An output enable signal of the oscillator 1 is input to a terminal TWhen the output enable signal is at a high level, clock signals are output from a terminal T7 to a terminal TThe terminal T7 to the terminal T14 are used for outputting four clock signals which are differential signals.</t>
-  </si>
-  <si>
-    <t>The terminal T7 and the terminal T8 respectively output a non-inverting signal 116P and an inverting signal 116N of a first clock signal.</t>
-  </si>
-  <si>
-    <t>The terminal T9 and the terminal T10 respectively output a non-inverting signal 117P and an inverting signal 117N of a second clock signal.</t>
-  </si>
-  <si>
-    <t>The terminal T11 and the terminal T12 respectively output a non-inverting signal 118P and an inverting signal 118N of a third clock signal.</t>
-  </si>
-  <si>
-    <t>The terminal T13 and the terminal T14 respectively output a non-inverting signal 119P and an inverting signal 119N of a fourth clock signal.</t>
-  </si>
-  <si>
-    <t>The semiconductor integrated circuit 10 includes the oscillation circuit 12, a control unit 13, a first division circuit 15, a first output circuit 16, a second division circuit 17, and a second output circuitThe first division circuit 15 and the first output circuit 16 receive the power supply voltage VDD1 from the terminal T1 (an example of a first power supply terminal) so as to operate.</t>
-  </si>
-  <si>
-    <t>The second division circuit 17 and the second output circuit 18 receive the power supply voltage VDD2 from the terminal T2 (an example of a second power supply terminal) so as to operate.</t>
-  </si>
-  <si>
-    <t>Here, a first group 21 and a second group 22 of a circuit of the semiconductor integrated circuit 10 are divided depending on a supply source of the power supply voltage.</t>
-  </si>
-  <si>
-    <t>The oscillation circuit 12 is connected to the SAW resonator 26 so as to form an oscillation loop.</t>
-  </si>
-  <si>
-    <t>The oscillation circuit 12 generates an oscillation signal 112 by oscillating the SAW resonatorIn the present embodiment, the oscillation circuit 12 is connected to the SAW resonator 26, but may be connected to an AT cut quartz crystal vibrator, an SC cut quartz crystal vibrator, a tuning fork type quartz crystal vibrator, other voltage vibrators, a micro electromechanical system (MEMS) vibrator, or the like, instead of the SAW resonatorIn addition, as a substrate material of the SAW resonator 26 or an oscillation element, a piezoelectric single quartz crystal such as Lithium Tantalite or Lithium Niobate in addition to a quartz crystal, a piezoelectric material such as piezoelectric ceramic such as Zirconate Titanate, a silicon semiconductor material, or the like may be used.</t>
-  </si>
-  <si>
-    <t>An excitation unit of the SAW resonator 26 or a vibration element may use a piezoelectric effect, or may use electrostatic drive performed by the Coulomb force.</t>
-  </si>
-  <si>
-    <t>The control unit 13 may be a CPU.</t>
-  </si>
-  <si>
-    <t>At this time, the CPU may include a storage unit in which a program of the control unit is store, and may perform the control according to the output enable signal of the oscillator 1 and the program.</t>
-  </si>
-  <si>
-    <t>In addition, each of the signals output from the first output circuit 16 and the second output circuit 18 may be a single ended signal other than a differential signal, and may be a signal corresponding to a CMOS, an LV-PECL, an LV-TTL, an LVDS, an HCSL, or the like.</t>
-  </si>
-  <si>
-    <t>The first output circuit 16 includes two buffers which respectively converts a single-ended input into a differential output.</t>
-  </si>
-  <si>
-    <t>Each buffer receives a signal 125, and differentially outputs as a first clock signal and a second clock signal.</t>
-  </si>
-  <si>
-    <t>The first output circuit 16 outputs the first clock signal and the second clock signal, based on the control signal 216, but selects being in a high impedance state.</t>
-  </si>
-  <si>
-    <t>In the present embodiment, two buffers are included in the first output circuit 16, but one buffer may be included, or three or more buffers may be included.</t>
-  </si>
-  <si>
-    <t>Each buffer receives the signal 127, and differentially outputs the signal as a third clock signal and a fourth clock signal.</t>
-  </si>
-  <si>
-    <t>The second output circuit 18 outputs the third clock signal and the fourth clock signal, based on the control signal 218, but selects being in a high impedance state.</t>
-  </si>
-  <si>
-    <t>In the present embodiment, two buffers are included in the second output circuit 18, but one buffer may be included, or three or more buffers may be included.</t>
-  </si>
-  <si>
-    <t>FIG.2 is a diagram showing a detailed configuration of the SAW resonator 26 and the oscillation circuitThe same symbols or reference numerals are attached to the same signals as those in FIG.1, and description thereof will be omitted.</t>
-  </si>
-  <si>
-    <t>The SAW resonator 26 is configured by disposing a comb-shaped electrode 29 along a propagation direction of a surface acoustic wave on a piezoelectric substrate, and by disposing grating reflectors 27A and 27B on both sides of the electrode.</t>
-  </si>
-  <si>
-    <t>A vibrator (resonator) is configured by making the center of the comb-shaped electrode 29 excite the surface acoustic wave, and by reflecting vibration energy of the surface acoustic wave which is excited by the grating reflectors 27A and 27b on both sides in a direction of the bomb-shaped electrodeSince the frequency is determined by an electrode interval, the SAW resonator 26 can easily obtain a high frequency using a photolithography process, and the size can also be miniaturized.</t>
-  </si>
-  <si>
-    <t>Then, a feedback type oscillator circuit 12 is configured by connecting an inverter 24, a feedback resistor 28, and capacitors 41 and 42 to the comb-shaped electrode 29, as shown in Fig.The inverter 24 which is connected to the feedback resistor 28 functions as an analog amplification circuit.</t>
-  </si>
-  <si>
-    <t>Then, the oscillation signal 112 is generated by oscillating the SAW resonatorFIG.3 is a diagram showing a detailed configuration of the first division circuit 15, the first output circuit 16, the second division circuit 17, and the second output circuitThe same symbols and reference numerals are attached to the same signals as those of FIG.1 and FIG.2, and description thereof will be omitted.</t>
-  </si>
-  <si>
-    <t>The buffer 160 outputs the non-inverting 116P and the inverting signal 116N of the first clock signal.</t>
-  </si>
-  <si>
-    <t>The buffer 162 outputs the non-inverting 117P and the inverting signal 117N of the second clock signal.</t>
-  </si>
-  <si>
-    <t>The first output circuit 16 can make the two buffers 160 and 162 be in a high impedance state, according to a control signal EThe control signal E12 corresponds to the control signal 216 from the control unitThe second division circuit 17 receives the first division signalA flip-flop 170 generates the second division signal 124 whose frequency is half that of the first division signalThen, the selector 172A receives the first division delay signal 115 and the second division signal 124, selects a signal according to a division ratio which is designated by the control unit 13, and set the selected signal as the signalThat is, the selector 172A outputs the first division delay signal 115 in a case in which the division ratio is 1, and outputs the second division signal 124 in a case in which the division ratio is a half.</t>
-  </si>
-  <si>
-    <t>Thus, it is possible to output four clock signals in which the phases are aligned.</t>
-  </si>
-  <si>
-    <t>At time points t2, t4, t6, and t8 in FIG.4, rising of the first division delay signal 115 corresponds to falling of the second division signalFor this reason, in a case in which a wire through which the first division delay signal 115 is transmitted a wire through which the second division signal 124 is transmitted are disposed in parallel to each other so as to be adjacent, or the like, a jitter characteristic is easily degraded.</t>
-  </si>
-  <si>
-    <t>In the oscillator 1 according to the present embodiment, the degradation of the jitter characteristic can be avoided by devising the layout, as will be described later with reference to Fig.The second output circuit 18 includes two buffers 180 andThe buffers 180 and 182 receive the signal 127 which is a single ended signal and output differential signals.</t>
-  </si>
-  <si>
-    <t>The buffer 180 outputs the non-inverting 118P and the inverting signal 118N of the third clock signal.</t>
-  </si>
-  <si>
-    <t>The buffer 182 outputs the non-inverting 119P and the inverting signal 119N of the fourth clock signal.</t>
-  </si>
-  <si>
-    <t>The second output circuit 18 can make the two buffers 180 and 182 be in a high impedance state, according to a control signal EThe control signal E34 corresponds to the control signal 218 from the control unitIn the present embodiment, the first output circuit 16 and the second output circuit 18 include the same number of buffers, but it is not necessary for the number of buffers to be the same.</t>
-  </si>
-  <si>
-    <t>Here, FIG.9 is a diagram showing a case in which one clock signal from the oscillator 1001 according to a comparative example is divided by a fan-out buffer 1020 and thereby four clock signals are generated.</t>
-  </si>
-  <si>
-    <t>Also in a case of FIG.9, four clock signals can be finally generated in the same manner as in the oscillator 1 according to the present embodiment.</t>
-  </si>
-  <si>
-    <t>The oscillator 1001 according to the comparative example includes four terminals.</t>
-  </si>
-  <si>
-    <t>The power supply voltage VDD is supplied to a terminal U1, and the ground voltage VSS is supplied to a terminal UA terminal U3 and a terminal U4 are used for outputting one clock signal which is a differential signal.</t>
-  </si>
-  <si>
-    <t>The terminal U3 and the terminal U4 respectively output a non-inverting signal 1116P and an inverting signal 1116N of the clock signal.</t>
-  </si>
-  <si>
-    <t>The oscillator 1001 includes a SAW resonator 1026, an oscillation circuit 1012, a control unit 1013, a division circuit 1015, and an output circuitThe SAW resonator 1026, the oscillation circuit 1012, and the control unit 1013 respectively correspond to the SAW resonator 26, the oscillation circuit 12, and the control unit 13 which are included in the oscillator 1 according to the present embodiment, and functions thereof are the same.</t>
-  </si>
-  <si>
-    <t>The division circuit 1015 corresponds to a circuit in which the delay circuit 158 and the selector 172B are omitted from the first division circuit 15 which is included in the oscillator 1 according to the present embodiment (refer to FIG.3).</t>
-  </si>
-  <si>
-    <t>At this time, the output circuit 1016 receives a signal corresponding to the first division signal 114 of the first division circuit 15 from the division circuitThe output circuit 1016 corresponds to a circuit in which the buffer 162 are omitted from the first output circuit 16 which is included in the oscillator 1 according to the present embodiment (refer to FIG.3).</t>
-  </si>
-  <si>
-    <t>At this time, only the non-inverting signal 1116P and the inverting signal 1116N of the clock signal are output from the oscillator 1001 according to the comparative example.</t>
-  </si>
-  <si>
-    <t>The fan-out buffer 1020 includes a total of 10 terminals.</t>
-  </si>
-  <si>
-    <t>A terminal V1 and a terminal V2 are input terminals for respectively receiving the non-inverting signal 1116P and the inverting signal 1116N from the oscillatorThen, a terminal V3 to a terminal V10 are used for outputting four clock signals which are differential signals.</t>
-  </si>
-  <si>
-    <t>The terminal V3 to the terminal V10 respectively correspond to the terminal T7 to the terminal T14 (refer to FIG.1) of the oscillator 1 according to the present embodiment, and detailed description thereof will be omitted.</t>
-  </si>
-  <si>
-    <t>As shown in FIG.9, the fan-out buffer 1020 divides the received non-inverting signal 1116P and inverting signal 1116N respectively using the buffers, and generate four clock signals with the same waveform and frequency as the input clock signal.</t>
-  </si>
-  <si>
-    <t>Thus, although the oscillator 1001 according to the comparative example and the fan-out buffer 1020 are combined, four clock signals can be generated.</t>
-  </si>
-  <si>
-    <t>However, in the configuration of the comparative example, the fan-out buffer 1020 does not include a divider, and cannot output clock signals with different frequencies from each other, in the same manner as in the oscillator 1 according to the present embodiment.</t>
-  </si>
-  <si>
-    <t>In addition, there is a possibility that external noise may be mixed into a wire which connects the terminal U3 and the terminal U4 of the oscillator 1001 to the terminal V1 and the terminal V2 of the fan-out buffer 1020, or a possibility that a jitter characteristic may be degraded by distortion of a waveform due to influence of inductance component or capacitance component of the wire.</t>
-  </si>
-  <si>
-    <t>In addition, there is also a possibility that the four clock signals may have internal delays different from each other depending on the fan-out buffer 1020 to be selected.</t>
-  </si>
-  <si>
-    <t>However, the oscillator 1 according to the present embodiment includes the second division circuit 17 which generates the second division signal 124 by dividing the first division signalFor this reason, it is possible to set the frequency in such a manner that the frequencies of the clock signals from the buffer 160 and the buffer 162 are different from the frequencies of the clock signals from the buffer 180 and the bufferIn addition, in the oscillator 1 according to the present embodiment, the first output circuit 16 and the second output circuit 18 which output the four clock signals are integrated in one semiconductor substrate.</t>
-  </si>
-  <si>
-    <t>For this reason, there is a small possibility that external noise may be mixed into the wire between the terminals, or the jitter characteristic may be degraded due to the inductance component or the like, in the same manner as in the comparative example.</t>
-  </si>
-  <si>
-    <t>As described above, in the oscillator 1 according to the present embodiment, the timing at which the signal 125 from the first division circuit 15 is input to the first output circuit 16 can be identical to the timing at which the signal 127 from the second division circuit 17 is input to the second output circuitFor this reason, the degradation of the jitter characteristic due to division of the first division signal 114 hardly occurs.</t>
-  </si>
-  <si>
-    <t>FIG.5 is a diagram showing a disposal example of the terminal T1 to the terminal T14 of the oscillator 1 according to the present embodiment.</t>
-  </si>
-  <si>
-    <t>Here, the oscillator 1 in FIG.5 is a diagram of a package which is viewed from the top, but transparency of a partial area R1 is shown in order to describe an inside of the semiconductor integrated circuitThe same symbols or reference numerals are attached to the same configurations as in FIG.1 to FIG.3, and description thereof will be omitted.</t>
-  </si>
-  <si>
-    <t>In FIG.5, the terminal T1 to the terminal T14 of the oscillator 1 according to the present embodiment are disposed in sequence of the terminal T2 (terminal name:VDD2), the terminal T14 (terminal name:XOUT4), the terminal T13 (terminal name:OUT4), the terminal T12 (terminal name:XOUT3), the terminal T11 (terminal name:OUT3), the terminal T6 (terminal name:OE), the terminal T4 (terminal name:VSS), the terminal T9 (terminal name:OUT2), the terminal T10 (terminal name:XOUT2), the terminal T7 (terminal name:OUT1), the terminal T8 (terminal name:XOUT1), the terminal T1 (terminal name:VDD1), the terminal T5 (terminal name:VSS), and the terminal T3 (terminal name:VDD3) clockwise from the top left.</t>
-  </si>
-  <si>
-    <t>Hereinafter, for convenience of description, there is a case in which the terminal is designated using the terminal name.</t>
-  </si>
-  <si>
-    <t>Then, as shown in the portion of the area R1, the oscillator 1 includes wires w1 to w14 which are electrically and respectively connected to the terminal T1 to the terminal TMultiple squares of solid lines which are arranged on the semiconductor integrated circuit 10 are contact pads, and are electrically connected to the wire w1 to the wire w14 by wire-bonding.</t>
-  </si>
-  <si>
-    <t>Here, in the oscillator 1 according to the present embodiment, OUT1, XOUT1, OUT2, and XOUT2 through which the first and second clock signals from the first output circuit 16 which is included in the first group 21 (refer to FIG.1) are disposed on a lower side (an example of a first side) of the paper.</t>
-  </si>
-  <si>
-    <t>In addition, VDD1 for supplying the first group 21 with power is also disposed on the lower side of the paper.</t>
-  </si>
-  <si>
-    <t>Meanwhile, OUT3, XOUT3, OUT4, and XOUT4 through which the third and fourth clock signals from the second output circuit 18 which is included in the second group 22 (refer to FIG.1) are disposed in an upper side (an example of a second side) of the paper.</t>
-  </si>
-  <si>
-    <t>In addition, VDD2 for supplying the second group 22 with power is also disposed in the upper side of the paper.</t>
-  </si>
-  <si>
-    <t>In the oscillator 1 according to the present embodiment, OUT1, XOUT1, OUT2, and XOUT2 (each is an example of first output terminals), and OUT3, XOUT3, OUT4, and XOUT4 (each is an example of second output terminals) are disposed in each of the facing sides.</t>
-  </si>
-  <si>
-    <t>For this reason, the oscillator 1 can generate a plurality of clock signals in which interference between the first and second clock signals and the third and fourth clock signals is reduced, variation is small, and a jitter characteristic is good.</t>
-  </si>
-  <si>
-    <t>At this time, since the first group 21 and the second group 22 use power supply terminals different from each other, noise wraparound from one signal to another signal through a common power supply is also reduced.</t>
-  </si>
-  <si>
-    <t>For this reason, problems hardly occur in which noise from the third and fourth clock signals with a low frequency is induced into the first and second clock signals with a high frequency, and thereby the noise is observed as spurious and of low frequency.</t>
-  </si>
-  <si>
-    <t>Furthermore, it is assumed that the semiconductor integrated circuit 10 is divided into an area R2 close to an upper side and an area R3 close to a lower side.</t>
-  </si>
-  <si>
-    <t>At this time, a circuit which is configured by the first group 21 including the first division circuit 15 and the first output circuit 16 is disposed in the area RMeanwhile, a circuit which is configured by the second group 22 including the second division circuit 17 and the second output circuit 18 is disposed in the area RBy disposing the circuits in this way, a signal belonging to the first group 21 and a signal belonging to the second group 22 which can have frequencies different from each other can hardly interfere with each other, even if the circuits are integrated into one semiconductor substrate.</t>
-  </si>
-  <si>
-    <t>In the oscillator 1 according to the present embodiment, the SAW resonator 26 is disposed in the area R4 separated from the semiconductor integrated circuit 10, but the SAW resonator 26 may be disposed so as to overlap (three-dimensionally in a vertical direction, that is, in the front or the back of the paper), for example, the semiconductor integrated circuit 10 for miniaturization.</t>
-  </si>
-  <si>
-    <t>As described above, even if the plurality of buffers (buffers 160, 162, 180, and 182) and the oscillation circuit 12 are integrated into one semiconductor substrate, the oscillator 1 according to the present embodiment can reduce the degradation of the output signals (first to fourth clock signals) from the buffers.Electronic Apparatus An electronic apparatus 300 according to the present embodiment will be described using FIG.6 and Fig.The same symbols or reference numerals will be attached to the same configurations as those of FIG.1 to FIG.5, and description thereof will be omitted.</t>
-  </si>
-  <si>
-    <t>FIG.6 is a functional block diagram of an electronic apparatusThe electronic apparatus 300 is configured to include an oscillator 200 which includes the oscillation circuit 12 and the SAW resonator 26, a central processing unit (CPU) 320, an operation unit 330, a read only memory (ROM) 340, a random access memory (RAM) 350, a communication unit 360, a display unit 370, and a sound output unitThe electronic apparatus 300 may be configured by omitting a portion of the configuration elements (each unit) in FIG.6, or by modifying the configuration elements, and may be configured by adding other configuration elements.</t>
-  </si>
-  <si>
-    <t>The oscillation unit 200 supplies clock pulses not only to the CPU 320 but also to each unit (not shown).</t>
-  </si>
-  <si>
-    <t>The oscillation unit 200 corresponds to the oscillator 1 in which the semiconductor integrated circuit 10 is connected to the SAW resonatorHowever, in FIG.6, only the oscillation circuit 12 of the elements in the semiconductor integrated circuit 10 is shown.</t>
-  </si>
-  <si>
-    <t>The CPU 320 operates according to a program which is stored in the ROM 340 or the like, and performs various calculation processing or control processing using the clock pulses (correspond to a clock signal from the semiconductor integrated circuit 10) which are output from the oscillation unitSpecifically, the CPU 320 performs various processing according to an operation signal from the operation unit 330, processing of controlling the communication unit 360 in order to perform data communication with external device, processing of transmitting a display signal for displaying various information on the display unit 370, processing of outputting various sounds to the sound output unit 380, and the like.</t>
-  </si>
-  <si>
-    <t>The operation unit 330 is an input device which is configured by operation keys, button switches, or the like, and outputs an operation signal according to an operation performed by a user to the CPUThe ROM 340 stores a program that is used for various calculation processing or control processing which is performed by the CPU 320, or data.</t>
-  </si>
-  <si>
-    <t>The RAM 350 is used as working area of the CPU 320, and temporarily stores a program which is read from the ROM 340 or data, data which is input from the operation unit 330, operation results or the like which are obtained as the CPU 320 operates according to various programs.</t>
-  </si>
-  <si>
-    <t>The communication unit 360 performs various controls for a data communication between the CPU 320 and an external device.</t>
-  </si>
-  <si>
-    <t>The display unit 370 is a display device which is configured by a liquid crystal display (LCD) and the like, and displays various information based on a display signal which is input from the CPUThe sound output unit 380 is a device which outputs a sound of a speaker or the like.</t>
-  </si>
-  <si>
-    <t>As described above, the oscillation unit 200 (the oscillator 1) supplies a plurality of clocks with a good jitter characteristic.</t>
-  </si>
-  <si>
-    <t>At this time, the oscillation unit 200 can also supply the CPU 320 with a high-speed clock, and supply the other functional blocks with a low-speed clock.</t>
-  </si>
-  <si>
-    <t>At this time, since the fan-out buffer 1020 is not required, the electronic apparatus 300 can be miniaturized.</t>
-  </si>
-  <si>
-    <t>In addition, since the jitter does not occur, it does not take time to perform a wiring layout, and it is possible to efficiently design the electronic apparatusVarious devices can be used as the electronic apparatusFor example, a personal computer (for example, mobile type personal computer, laptop personal computer, tablet personal computer), a mobile object terminal such as a mobile phone, a digital still camera, an inkjet ejection device (for example, inkjet printer), a storage area network apparatus such as a router or a switch, a local area network apparatus, a server apparatus which performs transmission and reception of various data on the network, an apparatus for a mobile object terminal base station, a television, a video camera, a video recorder, a car navigation device, a pager, an electronic notebook (including communication function), an electronic dictionary, an electronic calculator, an electronic game apparatus, a controller for a game, a word processor, a workstation, a videophone, a security television monitor, an electronic binocular, a POS terminal, a medical apparatus (for example, an electronic thermometer, a sphygmomanometer, a blood glucose meter, an electrocardiogram measuring device, an ultrasonic diagnostic apparatus, an electronic endoscope), a fish finder, various measurement apparatuses, instruments (for example, instruments of vehicle, aircraft, and ship), a flight simulator, a head-mounted display, a motion trace, motion tracking, a motion controller, a pedestrian position orientation measurement (PDR), or the like can be used.</t>
-  </si>
-  <si>
-    <t>FIG.7 is a diagram showing an example of the appearance of a smart phone which is an example of the electronic apparatusThe smart phone which is the electronic apparatus 300 includes buttons as the operation unit 330, and includes an LCD as the display unitThen, since the smart phone which is the electronic apparatus 300 uses the oscillation unit 200 (the oscillator 1), the smart phone can be miniaturized, and can be efficiently designed.Mobile object A mobile object 400 according to the present embodiment will be described using Fig.FIG.8 is a diagram (top view) showing an example of the mobile object 400 according to the present embodiment.</t>
-  </si>
-  <si>
-    <t>The mobile object 400 shown in FIG.8 is configured to include an oscillation unit 410, controllers 420, 430, and 440 which perform various controls of an engine system, a brake system, a keyless entry system, and the like, a battery 450, and a back-up batteryThe mobile object according to the present embodiment may be configured by omitting a portion of the configuration elements (each unit) in FIG.8, or by modifying the configuration elements, and may be configured by adding other configuration elements.</t>
-  </si>
-  <si>
-    <t>The oscillation unit 410 corresponds to the oscillatorThe detailed description of the other configuration elements will be omitted, but a high reliability is required to perform a control required for the travel of the mobile object.</t>
-  </si>
-  <si>
-    <t>For example, the reliability can be increased by including the back-up battery 460 in addition to the batteryAlso with regard to the oscillation unit 410, it is preferable that a back-up oscillation unit 410 is included to increase the reliability.</t>
-  </si>
-  <si>
-    <t>That is, it is preferable that a plurality of clocks is included.</t>
-  </si>
-  <si>
-    <t>At this time, by setting the oscillation unit 410 as the oscillator 1, it is possible to use a plurality of clocks with a good jitter characteristic and a high quality.</t>
-  </si>
-  <si>
-    <t>As the mobile object 400, various devices can be used. For example, a vehicle (also includes an electric vehicle), an aircraft such as a jet plane and a helicopter, a ship, a rocket, a satellite, or the like can be used.</t>
-  </si>
-  <si>
-    <t>The invention is not limited to the present embodiment, and various modifications can be made within a range of the gist of the invention.</t>
-  </si>
-  <si>
-    <t>The embodiments and modification examples which are described above are just examples, and the invention is not limited to these.</t>
-  </si>
-  <si>
-    <t>For example, it is possible to appropriately combine each embodiment and each modification example.</t>
-  </si>
-  <si>
-    <t>The invention includes substantially the same configuration (for example, a configuration in which a function, a method, and a result are the same, or a configuration in which an objective and an effect are the same) as the configuration described in the embodiments.</t>
-  </si>
-  <si>
-    <t>In addition, the invention includes a configuration in which a non-essential portion of the configuration described in the embodiments is replaced.</t>
-  </si>
-  <si>
-    <t>In addition, the invention includes a configuration in which the same action and effect as those of the configuration described in the embodiments can be obtained, or a configuration in which the same objective as that of the configuration described in the embodiments can be achieved.</t>
-  </si>
-  <si>
-    <t>In addition, the invention includes a configuration in which a known art is added to the configuration described in the embodiments.</t>
-  </si>
-  <si>
-    <t>What is claimed is:A semiconductor integrated circuit comprising: an oscillation unit which generates an oscillation signal by oscillating a vibration element; a first output unit and a second output unit which output signals based on the oscillation signal; and a control unit that controls the first output unit and the second output unit.A semiconductor integrated circuit comprising: an oscillation circuit, and first and second output circuits on a semiconductor substrate, the oscillation circuit generating an oscillation signal by oscillating a vibration element, and the first and second output circuit outputting signals based on the oscillation signal; and a control unit that controls operations of the first output circuit and the second output circuit .The semiconductor integrated circuit according to Claim 2, wherein the control unit independently controls the operations of the first output circuit and the second output circuit.The semiconductor integrated circuit according to Claim 2, further comprising: a first power supply terminal; and a second power supply terminal, wherein the first output circuit receives a power supply voltage from the first power supply terminal, and wherein the second output circuit receives a power supply voltage from the second power supply terminal.The semiconductor integrated circuit according to Claim 4, further comprising: a first division circuit which generates a first division signal by dividing the oscillation signal; and a second division circuit which generates a second division signal by dividing the first division signal, wherein the first division circuit receives a power supply voltage from the first power supply terminal, and outputs a signal based on the first division signal to the first output circuit, and wherein the second division circuit receives a power supply voltage from the second power supply terminal, and outputs a signal based on the second division signal to the second output circuit.The semiconductor integrated circuit according to Claim 5, wherein the first division circuit includes a delay circuit which delays the first division signal by a time which is required for the second division circuit to divide the first division signal.An oscillator comprising: the semiconductor integrated circuit according to any one of Claims 1 to 3; the vibration element; and a package in which the semiconductor integrated circuit and the vibration element are contained.The oscillator according to Claim 7, wherein the vibration element is a surface acoustic wave resonator.The oscillator according to Claim 7, further comprising: a first output terminal through which a signal from the first output circuit is output; and a second output terminal through which a signal from the second output circuit is output, wherein the first output terminal is disposed along a first side of the package, and wherein the second output terminal is disposed along a second side opposite to the first side of the package.An electronic apparatus comprising: the semiconductor integrated circuit according to any one of Claims 1 toA mobile object comprising: the semiconductor integrated circuit according to any one of Claims 1 toABSTRACT A semiconductor integrated circuit includes a semiconductor substrate on which an oscillation circuit that generates an oscillation signal by oscillating a vibration element, and a plurality of output circuits that outputs signals based on the oscillation signal, are integrated.</t>
-  </si>
-  <si>
-    <t>A package contains the semiconductor integrated circuit and the vibration element.</t>
-  </si>
-  <si>
-    <t>In the semiconductor integrated circuit, an operation of a first output circuit and an operation of a second output circuit, among a plurality of output circuits, are controlled independently from each other.</t>
+    <t>取付部材は、少なくとも一部が第一の電力端子を有した電子機器に覆われるとともに当該電子機器に取り付けられる第一面と、第一面とは反対側に位置され粘着性を有して被検体に取り付けられる第二面と、を有する。</t>
+  </si>
+  <si>
+    <t>電池は、少なくとも一部が電子機器に覆われるとともに取付部材と固定され、取付部材が電子機器に取り付けられた状態で第一の電力端子と電気的に接続され当該電子機器に電力を供給する第二の電力端子を有する。 図面の簡単な説明図1図1は、第1実施形態にかかる取付装置と、その取付装置を装着した電子機器の斜視図である。</t>
+  </si>
+  <si>
+    <t>よって、以下では、同様の構成要素には共通の符号が付されるとともに、重複する説明が省略される。 &lt;第1実施形態&gt;本実施形態にかかる取付装置10(ゲルシート、粘着パッド、ゲルパッド)は、可撓性を有する䬕平で例えば長方形状のシート状の装置である。</t>
+  </si>
+  <si>
+    <t>この取付装置10は、電子機器12のハウジング14の一部である表面14a(センサ面、天面、第一壁)に取り付け可能である。 電子機器12は、例えば、心電位等を検出可能な携帯型のセンサユニットである。</t>
+  </si>
+  <si>
+    <t>電子機器12のハウジング14は、例えば、合成樹脂材料を用いたインサート成形によって形成され、複数の電子部品や後述する電極等を支持した基板が、インサート成形時に合成樹脂材料によって埋まる状態で覆われるように形成される。</t>
+  </si>
+  <si>
+    <t>ハウジング14は、例えば䬕平な直方体状で、表面14aには、電極16a, 16b(プローブ、端子、金属、導体)が、その検出面(センサ面、端部、表面、一端面)が、表面14aから露出した状態で配置されている。</t>
+  </si>
+  <si>
+    <t>電極16aは例えば「+電極」であり、電極16bは例えば「-電極」であり、互いに離れた状態で配置されている。</t>
+  </si>
+  <si>
+    <t>なお、電子機器12が心電図を作成するための生体信号(電位、心電位)を検出する場合、電極16aと電極16bとの距離が所定距離以上である場合に、より安定した検出結果が得られる場合がある。</t>
+  </si>
+  <si>
+    <t>一方で、電子機器12は小さいほど、電子機器12の携帯性や取り扱い易さが向上する。</t>
+  </si>
+  <si>
+    <t>そこで、本実施形態では、電極16aと電極16bとを表面14a上で対角位置に配置することにより、電極16aと電極16bとの所定の距離を確保しながら、電子機器12の大型化が抑制されるようにしている。 図1の例の場合、電極16aは、ハウジング14の辺部14bと辺部14cとが交差する角部18aに近い位置に配置される。</t>
+  </si>
+  <si>
+    <t>一方、電極16bは、辺部14dと辺部14eとが交差する角部18bに近い位置に配置される。</t>
+  </si>
+  <si>
+    <t>このように、電極16aと電極16bを対角位置に配置することにより、例えば、電極16aと電極16bとを辺部14cと平行な位置や辺部14bと平行な位置に配置する場合に比べて、ハウジング14を大型化することなく電極16aと電極16bとの距離を長くすることができる。</t>
+  </si>
+  <si>
+    <t>また、ハウジング14は可撓性(柔軟性)を有するように屈曲可能とすることができる。</t>
+  </si>
+  <si>
+    <t>例えば、ハウジング14は、可撓性を有する柔軟な樹脂で構成されている。</t>
+  </si>
+  <si>
+    <t>そして、ハウジング14の長手方向の辺部14c, 14eと交差する方向の母線が生じる形状に屈曲可能である。</t>
+  </si>
+  <si>
+    <t>そして、電極16aを角部18aに近い位置、つまりハウジング14の長手方向の一端側に配置し、電極16bを角部18bに近い位置、すなわちハウジング14の長手方向の他端側に配置することになる。</t>
+  </si>
+  <si>
+    <t>その結果、電子機器12を曲面を有する体表に接触させた場合に、ハウジング14の屈曲によって、長手方向の両端位置に存在する電極16aと電極16bの体表への密着性を向上することができる。 また、表面14aには、データの入出力端子20a, 20b(コネクタ、接点、電極、金属、導体)が露出した状態で配置されている。</t>
+  </si>
+  <si>
+    <t>この入出力端子20a, 20bは、例えば、電子機器12が取得した検出値や、当該検出値に基づくデータ、情報等を外部の機器に有線方式で転送する場合や電子機器12を制御するためのソフトウエアの更新を有線方式で行う場合等に用いることができる。</t>
+  </si>
+  <si>
+    <t>入出力端子20a, 20bは、例えばクレードル等の専用のアダプタ機器の端子と電気的に接続可能である。</t>
+  </si>
+  <si>
+    <t>図1の場合、入出力端子20a, 20bは、例えば、辺部14cに接近した位置で、辺部14cと略平行に配置されている。</t>
+  </si>
+  <si>
+    <t>入出力端子20a, 20bは、電子機器12が生体信号を検出している状況では利用されない。</t>
+  </si>
+  <si>
+    <t>また、入出力端子20aと入出力端子20bとの間で電流が流れることはない。</t>
+  </si>
+  <si>
+    <t>なお、電極16a, 16b、入出力端子20a, 20bの配置は、心電位を検出する電子機器12に適した配置の一例であり、電子機器12の仕様に応じて各電極や端子の位置は選択される。 また、表面14aにおいて、他の電極や端子の存在しない領域、例えば中央領域に、導体22a, 22b(第一の電力端子、コネクタ、接点、電極、金属)が露出した状態で配置されている。</t>
+  </si>
+  <si>
+    <t>この導体22a, 22bは、外部の電源からの電力の供給を受けるための端子である。</t>
+  </si>
+  <si>
+    <t>なお、導体22aは例えば「+電力端子」であり、導体22bは例えば「-電力端子」であり、所定距離だけ離れて配置されている。 電極16a, 16bで検出した生体信号は、電子機器12の内部の基板に実装された記憶部に保存し、所望のタイミングで外部機器、例えば、心電図の出力装置(心電計、モニタ装置、印刷装置)等に転送したり、パーソナルコンピュータ、サーバー等に転送したりする。</t>
+  </si>
+  <si>
+    <t>また、リアルタイムで、心電図の出力装置や携帯端末等に転送することもできる。</t>
+  </si>
+  <si>
+    <t>本実施形態の電子機器12は、入出力端子20a, 20bを利用した有線方式で外部機器に生体信号等を転送することができる。</t>
+  </si>
+  <si>
+    <t>また、ブルートゥース(登録商標)等の通信ユニットを介して外部機器に生体信号を転送可能である。</t>
+  </si>
+  <si>
+    <t>このような場合、例えば、24時間心電図のモニタリングが可能である。</t>
+  </si>
+  <si>
+    <t>なお、ブルートゥース等の通信ユニットを介して、所定間隔でのデータ転送や所望のタイミングでの転送、あるいは、電子機器12のソフトウエアの更新等を行うこともできる。 図1、図2に示すように、取付装置10は、粘着性を有する取付部材24(粘着層、基台、保持層)と、電池26(電池セル、セル、電池層)を備える。</t>
+  </si>
+  <si>
+    <t>取付部材24は、電子機器12のハウジング14の表面14aに取り付け可能である。</t>
+  </si>
+  <si>
+    <t>取付装置10は、電子機器12の電極16aおよび電極16bの体表への密着性をさらに向上させるために、表面14aと体表との間に介在させるもので、導電性を持たせることにより、ユーザ(被検体)の心電位を電極16aおよび電極16bで検出可能となる。 取付部材24は、少なくとも一部が、導体22a, 22bを有した電子機器12に覆われるとともに当該電子機器12に取り付けられる第一面24a(取付面、給電面、第一壁、表面)と、この第一面24aとは反対側に位置され粘着性を有してユーザに取り付けられる第二面24b(取付面、接触面、第二壁、裏面)とを有する。</t>
+  </si>
+  <si>
+    <t>取付部材24は、第一面24aが電子機器12の表面14aに固定できればよく、例えば、取付部材24が有する粘着性によって表面14aに固定されてもよい。</t>
+  </si>
+  <si>
+    <t>また、取付部材24から延びた固定部材、例えば帯状部材を電子機器12に機械的に接続することで第一面24aが電子機器12の表面14aに固定されてもよい。</t>
+  </si>
+  <si>
+    <t>また、例えば、取付部材24の第一面24aと電子機器12とに、お互いに嵌り合う部分を設け、それらを嵌め合わせることによって、第一面24aが表面14aに固定されてもよい。</t>
+  </si>
+  <si>
+    <t>一方、取付部材24の第二面24bは、ユーザの体表に取付部材24を介して電子機器12を貼り付けるための粘着力を有している。</t>
+  </si>
+  <si>
+    <t>なお、本実施形態の場合、第一面24aは取付部材24の粘着性によって、取付装置10を電子機器12の表面14aに取り付けられるとともに、その姿勢を維持する装着力を有する。 電池26は、少なくとも一部が電子機器12に覆われるとともに取付部材24と固定される。</t>
+  </si>
+  <si>
+    <t>そして、この取付部材24が電子機器12に取り付けられた状態で導体22a, 22bと電気的に接続され当該電子機器12に電力を供給する電極26a, 26b(第二の電力端子、コネクタ、接点、端子、金属、導体)を有する。</t>
+  </si>
+  <si>
+    <t>電池26は、例えば、取付部材24の可撓性に対応して屈曲可能なシート状の一次電池を採用することができる。</t>
+  </si>
+  <si>
+    <t>電池26は、取付部材24の第一面24a上で、当該取付部材24の粘着力によって固定されてもよいし、取付部材24の内層に埋め込まれる態様で固定されてもよい。</t>
+  </si>
+  <si>
+    <t>電極26a,26bは、導体22a, 22bの配置間隔に対応する配置間隔で、取付部材24の長手方向の辺部24c(24e)の中点と、短手方向の辺部24d(24f)の中点が交差する取付部材24のほぼ中央位置に配置されている。</t>
+  </si>
+  <si>
+    <t>なお、電極26aは例えば「+電極」であり、電極26bは例えば「-電極」である。</t>
+  </si>
+  <si>
+    <t>なお、心電位を検出する電極16aと電極16bとは、電気的に絶縁される必要がある。</t>
+  </si>
+  <si>
+    <t>そのため、例えば電池26により取付部材24を電極16a側の第一ゲル領域24gと電極16b側の第二ゲル領域24hとに分断して、電極16aと電極16bとを電気的に絶縁してもよい。</t>
+  </si>
+  <si>
+    <t>また、電池26とは別に取付部材24に絶縁材を配置して電極16aと電極16bとを電気的に絶縁してもよい。 このように構成される取付装置10は、図3に示すように電極26aと導体22aとが電気的に接続され、電極26bと導体22bとが電気的に接続されるように、重ね合わされることにより、電池26の電力を電子機器12に供給することができる。</t>
+  </si>
+  <si>
+    <t>なお、電極26aと導体22aの接続および電極26bと導体22bの接続を容易かつ正確に実現できるように、電子機器12側の表面14aと取付部材24側の第一面24aとに位置決め用の構造を設けてもよい。</t>
+  </si>
+  <si>
+    <t>例えば、導体22a, 22bを表面14aから少し突出させた状態で露出させておく。</t>
+  </si>
+  <si>
+    <t>一方、電極26a, 26bは、導体22a, 22bの突出量に対応した量だけ第一面24aから窪ませる。</t>
+  </si>
+  <si>
+    <t>このような構成にしておくことにより、凹凸の組み合わせ効果により、電極26aと導体22aとの位置決めおよび電極26bと導体22bとの位置決めが容易かつ正確にできる。</t>
+  </si>
+  <si>
+    <t>また、このように、電極26a, 26bを取付部材24の第一面24aから窪ませておくことにより、例えば、取付装置10が電子機器12に装着されていない状態で、電極26aと電極26bが導通して電池26が放電してしまうことが抑制できる。 また、変形例においては、電極26a, 26bおよび導体22a, 22bとは異なる位置に位置決め用の嵌め合わせ構造を配置してもよい。</t>
+  </si>
+  <si>
+    <t>例えば、取付部材24の第一面24a上で電池26が固定される場合、第一面24aから電池26全体が突出することになる。</t>
+  </si>
+  <si>
+    <t>この場合、電子機器12の表面14aに、電池26の形状に対応した凹部を設けることにより、電池26全体を凹部に納めることが可能になり、電極26aと導体22aおよび電極26bと導体22bとの電気的な接続の位置合わせが容易かつ正確にできる。</t>
+  </si>
+  <si>
+    <t>また、電池26と凹部とが嵌り合うことにより、取付部材24を電子機器12に取り付けた後、両者がずれることを抑制できるとともに、電極26aと導体22aおよび電極26bと導体22bとの電気的な接続の維持を行うことができる。 図4に示すように、取付装置10を電子機器12に取り付けることにより、電子機器12が有する電源回路28に取付部材24に固定された電池26の電力を供給することができる。</t>
+  </si>
+  <si>
+    <t>つまり、電子機器12は、当該電子機器12を駆動するための電池を備える必要がなくなり、電子機器12の小型化、軽量化ができる。</t>
+  </si>
+  <si>
+    <t>また、今まで電子機器12の内部で電池を配置していたスペースに他の電子部品の配置が可能になり、電子機器12の大型化を抑制しつつ、新たな機能を電子機器12に追加することができる。</t>
+  </si>
+  <si>
+    <t>つまり、高性能化が容易にできる。</t>
+  </si>
+  <si>
+    <t>なお、電池26の容量は、例えば電子機器12の連続駆動時間に応じて決めることができる。</t>
+  </si>
+  <si>
+    <t>例えば、心電位を24時間連続検出する場合は、それに十分な容量の電池26を取付装置10が備えればよい。</t>
+  </si>
+  <si>
+    <t>また、電池26は、取付部材24の可撓性に応じて屈曲可能なシート状なので、電子機器12と共にユーザの体表に取り付けた場合でも体表の曲面に沿って曲がり易く、電子機器12を長時間利用してもユーザの負担が軽減できる。</t>
+  </si>
+  <si>
+    <t>また、電子機器12と体表との密着性の維持が容易にできるので、心電位等の生体信号の取得の安定化や生体信号の取得状況の改善にも寄与できる。 なお、第1実施形態の取付装置10の取付部材24が固定する電池26は、前述したように放電のみを行う一次電池である。</t>
+  </si>
+  <si>
+    <t>したがって、電池26の出力が所定値未満になった場合には、取付装置10は、電池26と共に廃棄される。</t>
+  </si>
+  <si>
+    <t>または取付部材24と電池26とを分離した後、それぞれ分別して廃棄されることになる。 &lt;第2実施形態&gt;図5は、第2実施形態にかかる取付装置10と電子機器30の構成を示す説明図である。</t>
+  </si>
+  <si>
+    <t>第1実施形態で説明した電子機器12は、内部電池を備えない構成であったが、第2実施形態の電子機器30は内部に二次電池32(第一の二次電池)を備える。</t>
+  </si>
+  <si>
+    <t>この場合、取付装置10側の電池26は電子機器30に対する補助電池として機能することができる。</t>
+  </si>
+  <si>
+    <t>例えば、電子機器30は、基本的には二次電池32の電力を電源回路28に提供して、心電位等の検出動作や検出した心電位の保存動作等を行う。</t>
+  </si>
+  <si>
+    <t>つまり、二次電池32の出力が所定値以上の場合は、電極26a, 26bと導体22a, 22bが電気的に接続されていた場合でも、電池26から電子機器30(二次電池32)に電力の供給は行わない。</t>
+  </si>
+  <si>
+    <t>一方、二次電池32の出力が所定値未満になった場合に、電子機器30は、二次電池32を介して取付装置10側の電池26からの電力供給を受けて、電力を電源回路28に提供して心電位等の検出動作や検出した心電位の保存動作等を継続する。</t>
+  </si>
+  <si>
+    <t>つまり、電池26を補助電池として利用して、電子機器30の長時間駆動を実現する。</t>
+  </si>
+  <si>
+    <t>また、別の実施形態では、通常、電子機器12の駆動を電池26からの電力供給で行い、電池26の出力が所定値未満になった場合に、二次電池32が電子機器30を駆動する電力を供給してもよい。 このように、電子機器30を駆動するための電力を二次電池32と電池26とで提供することにより、個々の電池容量を小さくすることができる。</t>
+  </si>
+  <si>
+    <t>つまり、電子機器30のみで同様な長時間駆動を実現する場合に比べて、電子機器30の小型化や軽量化ができる。</t>
+  </si>
+  <si>
+    <t>また、第1実施形態で示した電子機器12で同様な長時間駆動を実現する場合、取付装置10で大容量の電池26を備える必要がある。</t>
+  </si>
+  <si>
+    <t>一方、第2実施形態の構成によれば、必要な容量を二次電池32と電池26とで分担することができるので、それぞれの電池の小型化、軽量化ができる。 また、電子機器30の標準的な駆動時間を二次電池32で賄い、追加的な駆動時間を電池26で賄う構成が可能となる。</t>
+  </si>
+  <si>
+    <t>例えば、容量の異なる電池26を備える取付装置10を複数種類準備すれば、ディスポーザブルの取付装置10の選択により異なる駆動時間が実現できる電子機器30を構成することができる。</t>
+  </si>
+  <si>
+    <t>その結果、ユーザの使い勝手が向上する。</t>
+  </si>
+  <si>
+    <t>なお、電池26から電子機器30に電力を供給する場合、二次電池32を介さずに電源回路28に供給するようにしてもよい。 &lt;第3実施形態&gt;図6は、第3実施形態にかかる取付装置34と電子機器30の構成を示す説明図である。</t>
+  </si>
+  <si>
+    <t>電子機器30の構成は第2実施形態と同じであるので、その説明は省略する。 第1実施形態、第2実施形態で説明した取付装置10が備える電池26は、放電のみを行う一次電池であったが、第3実施形態の取付装置34の取付部材24は、充放電が可能な二次電池36(第二の二次電池)を備える。</t>
+  </si>
+  <si>
+    <t>第3実施形態においても第2実施形態と同様に、取付装置34側の二次電池36は電子機器30に対する補助電池として機能することができる。</t>
+  </si>
+  <si>
+    <t>すなわち、電子機器30側の二次電池32の出力が所定値以上の場合は、電極36a, 36bと導体22a, 22bが電気的に接続されていた場合でも、二次電池36から電子機器30(二次電池32)に電力の供給は行わない。</t>
+  </si>
+  <si>
+    <t>一方、二次電池32の出力が所定値未満になった場合に、電子機器30は、二次電池32を介して取付装置34側の二次電池36からの電力供給を受けて、電力を電源回路28に提供して心電位等の検出動作や検出した心電位の保存動作等を継続する。</t>
+  </si>
+  <si>
+    <t>つまり、二次電池36を補助電池として利用して、電子機器30の長時間駆動を実現する。</t>
+  </si>
+  <si>
+    <t>また、別の実施形態では、二次電池32を補助電池として利用し、二次電池36を電子機器30の通常時の駆動用の電池としてもよい。</t>
+  </si>
+  <si>
+    <t>その結果、第3実施形態の構成においても第2実施形態と同様の効果を得ることができる。 さらに、取付装置34の二次電池36は充電可能であるので、例えば、電子機器30側の二次電池32から二次電池36を充電することができる。</t>
+  </si>
+  <si>
+    <t>同様に、電子機器30がクレードル等に接続されて外部電源に電気的に接続されている場合に、二次電池36を充電することができる。</t>
+  </si>
+  <si>
+    <t>つまり、電子機器30の非駆動の場合に二次電池36の充電が可能になる。 ところで、図7に示す取付装置38のように、電池40(一次電池または二次電池)を取付部材24に対して着脱自在な構成にしておくことにより、電池40の再利用が可能になる。</t>
+  </si>
+  <si>
+    <t>例えば、電子機器30を取付部材24の粘着力によりユーザの体表に長時間固定した場合、発汗や異物の付着により取付部材24の粘着力が低下する場合がある。</t>
+  </si>
+  <si>
+    <t>このような場合、取付部材24と電池40とを分離して、取付部材24のみを新しいもの(十分な粘着力を有するもの)に交換することができる。</t>
+  </si>
+  <si>
+    <t>そして、充電済みの電池40を固定することにより、新品の取付装置38に再生することができる。</t>
+  </si>
+  <si>
+    <t>つまり、ユーザは、取付部材24のみを交換することにより、十分な粘着力を有するとともに清潔で、しかも十分な電力供給ができる取付装置38を低コストで利用することができる。</t>
+  </si>
+  <si>
+    <t>なお、取付部材24に電池40を固定させる場合、取付部材24の粘着力によって当該電池40を固定してもよいし、別途固定用の構造を有していてもよい。</t>
+  </si>
+  <si>
+    <t>例えば両面テープや面ファスナ等を用いて固定してもよい。</t>
+  </si>
+  <si>
+    <t>また、取付部材24の内層部に電池40を埋め込み支持する場合は、取付部材24を多層構造として、例えば、表層の一部を開閉自在として、電池40を内層に収納して、その上から表層を被せることにより電池40を固定するようにしてもよい。 また、電池40が一次電池の場合は、上述のように着脱構造を備えることで、取付部材24と電池40を分離して個々に分別して廃棄することが可能になり、リサイクルに貢献しやすくなる。</t>
+  </si>
+  <si>
+    <t>取付部材24の全体または一部を、例えば塩化ナトリウムと水を主成分とするゲル層で構成することで、取付装置としての粘着性や可撓性を維持した状態で、ゲル層の部分に電解質としての性質を持たせることができる。</t>
+  </si>
+  <si>
+    <t>つまり、取付装置42の構成を用いて電池44を構成することができる。 図8の場合、取付部材24は、全体が例えば塩化ナトリウムと水を主成分とするゲル層で構成され、当該取付部材24の内層部(ゲル層の中)にカソード電極46と、アノード電極48と、セパレータ50とが配置されている。</t>
+  </si>
+  <si>
+    <t>セパレータ50は、カソード電極46とアノード電極48との間に配置された不織布や多孔質の薄膜等で構成され、カソード電極46とアノード電極48とが直接接触しないように分離している。</t>
+  </si>
+  <si>
+    <t>また、カソード電極46、アノード電極48、セパレータ50を含む電池44の構成部分は不織布や多孔質の薄膜等で構成される隔壁52で包囲され、取付部材24のゲル層において電池44の内外を絶縁している。</t>
+  </si>
+  <si>
+    <t>前述したように、取付部材24は、電子機器12(30)が備える心電位の検出用の電極16aおよび電極16bとも接触するため、電池44の電流が心電位の検出に影響しないようにしている。 カソード電極46からは電極46a(コネクタ、接点、端子、金属、導体)が導出され、アノード電極48からは電極48a(コネクタ、接点、端子、金属、導体)が導出されて、電子機器12(30)の導体22a, 22bに電気的に接続可能になっている。</t>
+  </si>
+  <si>
+    <t>なお、取付部材24は、隔壁52より外側(カソード電極46、アノード電極48を含まない側)である第一領域54aと、カソード電極46を含む隔壁52の内側である第二領域54bと、アノード電極48を含む隔壁52の内側の第三領域54cと、で構成されている。</t>
+  </si>
+  <si>
+    <t>電池44としては、第二領域54bおよび第三領域54cが電解質であれば、カソード電極46とアノード電極48との間でイオンの移動が可能となり、放電または充電が可能になる。</t>
+  </si>
+  <si>
+    <t>したがって、第一領域54aは電解質である必要はない。</t>
+  </si>
+  <si>
+    <t>本実施形態の場合、第一領域54aと第二領域54bと第三領域54cとは、塩化ナトリウムと水を主成分とするゲル層で構成する。</t>
+  </si>
+  <si>
+    <t>すなわち、一種類のシート状の取付部材24に、カソード電極46、アノード電極48、セパレータ50、隔壁52等を埋め込むことにより電池44を構成している。</t>
+  </si>
+  <si>
+    <t>このように取付部材24全体を電解質のゲル層で構成することにより、構成の簡略化が可能になり、コスト削減に寄与できる。</t>
+  </si>
+  <si>
+    <t>なお、構成する電池の形式に応じてカソード電極46およびアノード電極48を構成する金属の種類や取付部材24を構成するゲル層の成分を適宜選択する。</t>
+  </si>
+  <si>
+    <t>一例としては、電池端子としてはカソード電極46(+極)を「銅」で構成し、アノード電極48(-極)を「亜鉛」で構成することができる。 このように、取付部材24に電解質を有するゲル層を備え、そのゲル層の中にカソード電極46およびアノード電極48を配置して電池44を構成する場合、例えば、独立した電池を取付部材24に固定する場合に比べて、電池44の存在が取付部材24の可撓性の低下に影響し難くすることができる。</t>
+  </si>
+  <si>
+    <t>その結果、屈曲し易く、体表や電子機器12(30)の表面に密着し易い柔軟な取付装置42を提供することができる。 図9は、取付部材24(図2参照)に支持される電池64の構成を示す説明図である。</t>
+  </si>
+  <si>
+    <t>図9の場合、電池64の出力電圧を高くするために複数の電池セル66~70(図9の場合、一例として3個の電池セル)を直列に接続した場合を示す。</t>
+  </si>
+  <si>
+    <t>そして、電池セル66と電池セル68との間および電池セル68と電池セル70との間には、絶縁材72(絶縁シート)が配置され、電池セル同士を絶縁している。</t>
+  </si>
+  <si>
+    <t>また、電池セル66が備えるカソード電極66aとアノード電極66bとの間にはセパレータ74が配置され、カソード電極66aとアノード電極66bが直接接触しないようにしている。</t>
+  </si>
+  <si>
+    <t>同様に、電池セル68のカソード電極68aとアノード電極68bおよび電池セル70のカソード電極70aとアノード電極70bが、それぞれセパレータ74によって分離されている。</t>
+  </si>
+  <si>
+    <t>各電池セル66~70は、絶縁部材76で包囲され、内部に充填した電解質78が漏れ出さないようにしている。</t>
+  </si>
+  <si>
+    <t>そして、電池セル66のアノード電極66bと電池セル68のカソード電極68aとが電気的に接続され、電池セル68のアノード電極68bと電池セル70のカソード電極70aとが電気的に接続される。</t>
+  </si>
+  <si>
+    <t>つまり、電池セル66~70が直列に接続されて、カソード電極66aから延びる端子64aおよびアノード電極70bから延びる端子64bが、それぞれ、電池64の端子となり電子機器12(30)の導体22a, 22bに電気的に接続可能になっている。</t>
+  </si>
+  <si>
+    <t>なお、電池64は、例えば絶縁材72の長手方向に沿って折り曲げることにより、電池セル66~70を畳み込むことが可能である。</t>
+  </si>
+  <si>
+    <t>つまり、各電池セルを直列接続した状態で重ね合わせて、コンパクトに折り畳み、取付部材24(図2参照)に支持させることができる。</t>
+  </si>
+  <si>
+    <t>その結果、取付装置10(34, 38, 42)の大きさ(シート面積)を拡大することなく出力電圧を増加することができる。 図10は、取付部材24(図2参照)に支持される電池80の構成を示す説明図である。</t>
+  </si>
+  <si>
+    <t>図10の場合、電池80の容量を増大させるために複数の電池セル82~86(図10の場合、一例として3個の電池セル)を並列に接続した場合を示す。</t>
+  </si>
+  <si>
+    <t>そして、電池セル82と電池セル84との間および電池セル84と電池セル86との間には、絶縁材88(絶縁シート)が配置され、電池セル同士を絶縁している。</t>
+  </si>
+  <si>
+    <t>また、電池セル82が備えるカソード電極82aとアノード電極82bとの間にはセパレータ90が配置され、カソード電極82aとアノード電極82bが直接接触しないようにしている。</t>
+  </si>
+  <si>
+    <t>同様に、電池セル84のカソード電極84aとアノード電極84bおよび電池セル86のカソード電極86aとアノード電極86bが、それぞれセパレータ90によって分離されている。</t>
+  </si>
+  <si>
+    <t>各電池セル82~86は、絶縁部材92で包囲され、内部に充填した電解質94が漏れ出さないようにしている。</t>
+  </si>
+  <si>
+    <t>そして、カソード電極82a, 84a, 86aが直列に電気的に接続されるとともに、アノード電極82b, 84b, 86bが直列に電気的に接続され、電池80全体としては、電池セル82と電池セル84と電池セル86とが並列に電気的に接続される。</t>
+  </si>
+  <si>
+    <t>bが、それぞれ、電池80の端子となり電子機器12(30)の導体22a, 22bに電気的に接続可能になっている。</t>
+  </si>
+  <si>
+    <t>なお、電池80は、例えば絶縁材88の長手方向に沿って折り曲げることにより、電池セル82~86を畳み込むことが可能である。</t>
+  </si>
+  <si>
+    <t>つまり、各電池セルを並列接続した状態で重ね合わせて、コンパクトに折り畳み、取付部材24(図2参照)に支持させることができる。</t>
+  </si>
+  <si>
+    <t>その結果、取付装置10(34, 38, 42)の大きさ(シート面積)を拡大することなく電池容量を増加することができる。</t>
+  </si>
+  <si>
+    <t>なお、図9、図10において、直列または並列に接続する電池セルの数は、取付装置10(34, 38,42)に要求される出力電圧や要求される電池容量に応じて適宜選択することができる。</t>
+  </si>
+  <si>
+    <t>ただし、電池セルが二次電池用のセルの場合、充放電サイクルや充放電量を考慮して連結する電池セルの数を決定することが望ましい。 &lt;第5実施形態&gt;図11は、第5実施形態にかかる取付装置96の構成を示す説明図である。</t>
+  </si>
+  <si>
+    <t>取付装置96は、他の実施形態の構成と同様に、取付部材24に電池98が固定されている。</t>
+  </si>
+  <si>
+    <t>ただし、電池98は、図2に示す取付装置10の電池26とは異なり、放電または充電を行うための電極96a, 96bがリード線98a, 98bによって電池98から離れた位置に配置されている。</t>
+  </si>
+  <si>
+    <t>図11に示す取付装置96の場合、取付部材24の短手方向の辺部24fのほぼ中央部から長手方向の辺部24c(24e)が延びる方向に帯状で可撓性を有する接続部材100a(接続片、巻き付け片、固定片)が突出した状態で形成されている。</t>
+  </si>
+  <si>
+    <t>電極96a, 96bは、この接続部材100a上で、例えば、辺部24fと平行に所定間隔離れて配置されている。</t>
+  </si>
+  <si>
+    <t>同様に、取付部材24の辺部24dのほぼ中央部から長手方向の辺部24c(24e)が延びる方向に、接続部材100aと同様な帯状の接続部材100b(接続片、巻き付け片、固定片)が突出した状態で形成されている。</t>
+  </si>
+  <si>
+    <t>図11の例では、接続部材100bには、電極96a, 96bが配置されないが、例えば、接続部材100aに電極96aを配置し、接続部材100bに電極96bを配置するようにしてもよい。</t>
+  </si>
+  <si>
+    <t>また、接続部材100a, 100bは、辺部24f(24d)から遠い側の端部に近い位置に面ファスナ等の固定部材102を備えている。 このように構成される取付装置96を装着する電子機器104の構成を図12に示す。</t>
+  </si>
+  <si>
+    <t>電子機器104の基本的な構成は、他の実施形態で示した電子機器12(30)と同じであるが、取付装置96の電池98と接続するためにハウジング106の面に露出した導体108a, 108bの位置が異なる。</t>
+  </si>
+  <si>
+    <t>図1に示す電子機器12の場合、導体22a, 22bは、取付装置10の取付部材24の第一面24aが接触するハウジング14の表面14aのほぼ中央部に配置される。</t>
+  </si>
+  <si>
+    <t>一方、電子機器104の場合、導体108a, 108bは、取付装置96の取付部材24の第一面24aが接触するハウジング106の表面106aとは反対側の裏面106bに配置されている。</t>
+  </si>
+  <si>
+    <t>さらに、導体108a, 108bは、裏面106bの辺部106cに接近した位置に配置されている。</t>
+  </si>
+  <si>
+    <t>つまり、図12に示すように、取付装置96(取付部材24)の第一面24aに電子機器104の表面106a(センサ面、天面、第一壁)を密着させた状態で、接続部材100a, 100bをハウジング106の裏面106b側に接触するように巻き付かせる。</t>
+  </si>
+  <si>
+    <t>つまり、接続部材100aに配置した電極96a, 96bと電気的に接触可能な位置に導体108a, 108bが配置される。</t>
+  </si>
+  <si>
+    <t>上述のように構成される取付装置96を電子機器104に取り付ける場合、まず、取付装置96(取付部材24)の第一面24aと電子機器104のハウジング106の表面106aとを密着させる。 この場合、図1に示す取付装置10と電子機器12のように、電極26a, 26b(図2参照)と導体22a, 22bとを電気的に接続するために、装着位置の位置決めを行う必要がない。</t>
+  </si>
+  <si>
+    <t>その後、接続部材100aをハウジング106に巻き付けるように裏面106b側に回り込ませて、電極96aと導体108aおよび電極96bと導体108bを電気的に接続する。</t>
+  </si>
+  <si>
+    <t>この場合、接続部材100aは可撓性がある帯状の部材なので、電子機器104に対する取付装置96の取付姿勢が多少ずれていたとしても接続部材100aの可撓性により位置修正が容易にできる。</t>
+  </si>
+  <si>
+    <t>その結果、電極96aと導体108aおよび電極96bと導体108bとの電気的な接続が容易にできる。</t>
+  </si>
+  <si>
+    <t>また、この巻き付け動作のときに、取付装置96側の固定部材102と電子機器104側の固定部材110との接続(例えば面ファスナの接続)を行い、取付装置96を電子機器104に固定する。</t>
+  </si>
+  <si>
+    <t>同様に、接続部材100bをハウジング106に巻き付けるように裏面106b側に回り込ませて、取付装置96側の固定部材102と電子機器104側の固定部材110との接続(例えば面ファスナの接続)を行い、取付装置96を電子機器104に固定する。 このように、取付装置96は、取付部材24の粘着力と、接続部材100a, 100bをハウジング106に巻き付けることにより生じる固定力とによって、電子機器104に装着されるので、両者の安定した装着状態(取付装置96と電子機器104との密着状態)を長時間維持することができる。</t>
+  </si>
+  <si>
+    <t>その結果、電子機器104により安定した生体信号の検出ができる。</t>
+  </si>
+  <si>
+    <t>また、図12に示すように、導体108a, 108bがハウジング106において体表とは異なる側に配置されるので、ユーザの安心感を向上させることができる。</t>
+  </si>
+  <si>
+    <t>なお、図12の例では、導体108a, 108bがハウジング106の裏面106bに配置される場合を示したが、表面106a以外の面であれば、いずれの面に配置しても同様の効果を得ることができる。</t>
+  </si>
+  <si>
+    <t>また、図11、図12に示す例では、接続部材100a,100bがハウジング106の裏面106bの端部に巻き付く構成を示したが、例えば、接続部材100a, 100bが裏面106bの広範囲に巻き付くようにしてもよい。</t>
+  </si>
+  <si>
+    <t>例えば、接続部材100aと接続部材100bとが裏面106b上で重なり、完全にハウジング106を包み込むようにしてもよい。</t>
+  </si>
+  <si>
+    <t>この場合、取付装置96の電子機器104に対する装着性(密着性)をより高めることができる。</t>
+  </si>
+  <si>
+    <t>また、このように接続部材100a, 100bを用いて巻き付け固定する場合、取付装置96に対する電子機器104のずれや脱落がさらに抑制できる。 &lt;第6実施形態&gt;上述した実施形態の電子機器12(30, 104)の利用例を図13を用いて説明する。</t>
+  </si>
+  <si>
+    <t>電子機器12が、例えば、心電図用の生体信号(電位、心電位、検出値)を検出した場合、電子機器12は、検出した生体信号に基づいて得られた生体情報(情報、送信情報)を外部機器に向けて送信する。</t>
+  </si>
+  <si>
+    <t>電子機器12は、生体情報(情報、送信情報)を内蔵する通信機能、例えばブルートゥースを用いて、ユーザの所有する通信端末200(携帯電話、スマートフォン)に転送する。</t>
+  </si>
+  <si>
+    <t>通信端末200は、基地局202、ネットワーク204を介して、外部機器であるサーバ206に取得した生体情報を送信する。</t>
+  </si>
+  <si>
+    <t>なお、電子機器12は、検出した生体信号をそのままサーバ206に送信するようにしてもよい。</t>
+  </si>
+  <si>
+    <t>また、電子機器12がネットワーク204への接続機能、例えばWi-Fi通信機能を有している場合、生体情報(生体信号)を基地局202およびネットワーク204を介してサーバ206に送信するようにしてもよい。</t>
+  </si>
+  <si>
+    <t>また、電子機器12が、無線ランと接続可能な場合は、無線ルータ208、ネットワーク204を介してサーバ206に生体情報を送信する。</t>
+  </si>
+  <si>
+    <t>また、パーソナルコンピュータ210を一度経由してから無線ルータ208を介して生体情報を送信するようにしてもよい。</t>
+  </si>
+  <si>
+    <t>なお、上述の例では、無線を用いた通信ネットワーク(電気通信回線)を示したが、有線を用いた通信ネットワークでもよい。</t>
+  </si>
+  <si>
+    <t>なお、通信ネットワークは、例えばルータ、モデム、アクセスポイント、ケーブル等を含む。</t>
+  </si>
+  <si>
+    <t>また、各機器は、所定の通信プロトコルにしたがって、データの授受を行うことができる。 電子機器12は、生体情報を取得するたびにサーバ206に送信するようにしてもよいし、所定量の信号の蓄積が完了した場合に送信するようにしてもよい。</t>
+  </si>
+  <si>
+    <t>また、所定期間ごとに送信したり、電子機器12の操作によりユーザの所望するタイミングで送信するようにしてもよい。 電子機器12が生体情報をサーバ206に送信する場合、サーバ206側で個人の識別ができるように、例えばユーザごとに付与された個人用のIDとパスワードと共に生体情報を送信する。 なお、ゲストIDを用いて、個人を特定しない方法で送信することも可能である。</t>
+  </si>
+  <si>
+    <t>サーバ206が生体情報を取得した場合、その生体情報を記憶装置206aに蓄積するとともに、その生体情報に応じた処理を実行する。</t>
+  </si>
+  <si>
+    <t>例えば、生体情報が、心電位を示す場合、心電図を作成する。</t>
+  </si>
+  <si>
+    <t>さらに、その心電図に基づく解析を行い健康状態情報の作成を行う。</t>
+  </si>
+  <si>
+    <t>また、生体情報が脈波信号や温度信号を示す場合、脈拍や体温に変換して、その脈拍や体温に基づく健康状態情報の作成を行う。</t>
+  </si>
+  <si>
+    <t>サーバ206が健康状態情報を作成する場合、例えば、所定期間の生体情報の推移に基づいて心電図を作成したり、脈拍や体温の推移グラフを作成する。</t>
+  </si>
+  <si>
+    <t>また、その推移に基づく診断情報を作成してもよい。</t>
+  </si>
+  <si>
+    <t>また、ユーザが個人用のIDを用いて継続的に生体情報をサーバ206に送信している場合、サーバ206は、過去の解析結果や診断情報と最新の解析結果や診断情報との比較に基づいて、長期的な健康状態の推移や診断を行うとともに、例えば、今後のアドバイス等を健康状態情報として作成してもよい。 サーバ206は、作成した健康診断情報を記憶装置206aに蓄積するとともに、ネットワーク204を介して、生体情報を送信してきたユーザに、健康診断情報を返送する。</t>
+  </si>
+  <si>
+    <t>例えば、ユーザが通信端末200を介して生体情報を送信してきた場合は、通信端末200の表示画面上に健康診断情報が表示される。</t>
+  </si>
+  <si>
+    <t>また、ユーザが電子機器12の通信機能を用いて、直接サーバ206に生体情報を送信してきた場合、サーバ206は、健康診断情報を電子機器12に送信する。</t>
+  </si>
+  <si>
+    <t>電子機器12は、健康診断情報を受信した場合、所有する通信端末200やパーソナルコンピュータ210に受信した健康診断情報を転送して、その健康診断情報が、通信端末200やパーソナルコンピュータ210の表示画面上に表示される。</t>
+  </si>
+  <si>
+    <t>同様に、電子機器12が無線ルータ208を介して生体情報をサーバ206に送信してきた場合は、ユーザのパーソナルコンピュータ210に健康診断情報を送信して、そのパーソナルコンピュータ210の表示画面上に健康診断情報を表示するようにしてもよい。</t>
+  </si>
+  <si>
+    <t>サーバ206から送信された健康診断情報は、通信端末200やパーソナルコンピュータ210に保存されるようにしてもよい。</t>
+  </si>
+  <si>
+    <t>なお、電子機器12が検出した生体信号は、オリジナルデータとして、通信端末200やパーソナルコンピュータ210に保存されるようにしてもよい。 本実施形態では、電子機器12の検出した生体信号に基づく生体情報をサーバ206に送信し、そこで解析する例を示したが、別の実施形態では、通信端末200やパーソナルコンピュータ210に専用のプログラムをインストールして、通信端末200やパーソナルコンピュータ210上で心電図等の作成や健康診断情報の作成を行いユーザに提供するようにしてもよい。</t>
+  </si>
+  <si>
+    <t>また、通信端末200やパーソナルコンピュータ210で簡易的な解析や簡易的な健康診断情報の作成を行い、ユーザの要望に応じて、より詳細な解析や健康診断情報の作成をサーバ206で行い、ユーザに提供するようにしてもよい。 上述したように、本実施形態の取付装置は、例えば、少なくとも一部が第一の電力端子を有した電子機器に覆われるとともに当該電子機器に取り付けられる第一面と、第一面とは反対側に位置され粘着性を有して被検体に取り付けられる第二面と、を有する取付部材と、少なくとも一部が電子機器に覆われるとともに取付部材と固定され、取付部材が電子機器に取り付けられた状態で第一の電力端子と電気的に接続され当該電子機器に電力を供給する第二の電力端子を有する電池と、を備える。</t>
+  </si>
+  <si>
+    <t>この構成によれば、例えば、電子機器は、内部に電池を備える必要がなくなり、電子機器の小型化、軽量化を行いつつ所定の駆動時間の確保ができる。</t>
+  </si>
+  <si>
+    <t>また、取付装置の電池の容量を選択することで、電子機器の駆動時間をユーザが容易に選択できる。 また、本実施形態の取付装置の電池は、例えば、電子機器に設けられた第一の二次電池を充電するようにしてもよい。</t>
+  </si>
+  <si>
+    <t>この構成によれば、例えば、取付装置側の電池は電子機器に対する補助電池として機能することができる。</t>
+  </si>
+  <si>
+    <t>その結果、複数の電池で電子機器の駆動が可能になり、当該電子機器の長時間駆動が実現できる。 また、本実施形態の取付装置の電池は、例えば、第二の二次電池であってもよい。</t>
+  </si>
+  <si>
+    <t>この構成によれば、例えば、取付部材のみの交換を行い、電池は再利用することができる。</t>
+  </si>
+  <si>
+    <t>その結果、取付装置を用いる電子機器のランニングコストの軽減ができる。 また、本実施形態の取付装置の取付部材は、例えば、電解質を有するゲル層を有し、電池は、ゲル層と当該ゲル層の中に配置されたアノードとセパレータと、カソードとで構成されてもよい。</t>
+  </si>
+  <si>
+    <t>この構成によれば、例えば、独立した電池を取付部材に固定する場合に比べて、電池の存在が取付部材の可撓性の低下に影響し難くすることができる。 また、本実施形態の取付装置の電池は、例えば、取付部材に対して着脱自在であってもよい。</t>
+  </si>
+  <si>
+    <t>この構成によれば、例えば、電池と取付部材との分別が容易になり、廃棄作業がし易くなる。</t>
+  </si>
+  <si>
+    <t>また、電池の再利用がし易くなる。 また、本実施形態の取付装置の電池は、例えば、第一面と対面する面とは異なる面に設けられた電力端子と電気的に接続される接続部材を有してもよい。</t>
+  </si>
+  <si>
+    <t>この構成によれば、例えば、電子機器の電力端子と電池の接続位置が目視し易くなり、接続作業が容易になる。</t>
+  </si>
+  <si>
+    <t>また、電力端子が体表とは異なる側に配置されるので、ユーザの安心感を向上させることができる。 また、本実施形態の取付装置の接続部材は、例えば、電子機器のハウジングに巻き付くように構成されてもよい。</t>
+  </si>
+  <si>
+    <t>この構成によれば、例えば、取付装置は、取付部材の粘着力と、接続部材による巻き付けにより生じる固定力とによって、電子機器に装着できるので、安定した装着状態を長時間維持することができる。 また、本実施形態の取付装置は、第一の電力端子を有した電子機器に取り付けられる第一面と、第一面とは反対側に位置され粘着性を有する第二面と、を有する取付部材と、取付部材に固定され、取付部材が電子機器に取り付けられた状態で第一の電力端子と電気的に接続され電子機器に電力を供給する第二の電力端子を有する電池と、を備える。</t>
+  </si>
+  <si>
+    <t>また、取付装置の電池の容量を選択することで、電子機器の駆動時間をユーザが容易に選択できる。 なお、上述した各実施形態では、電子機器が心電位検出用のセンサユニットである場合を示したが、電力供給が必要で取付装置によって固定が必要な電子機器であればよく、例えば、心拍計や脈拍計でもよいし、生体信号の検出は行わず、逆に電気的な刺激を与える低周波治療器等でもよく、上述した各実施形態と同様の効果を得ることができる。 以上、本発明の実施形態や変形例を例示したが、上記実施形態や変形例はあくまで一例であって、発明の範囲を限定することは意図していない。</t>
+  </si>
+  <si>
+    <t>これら実施形態や変形例は、その他の様々な形態で実施されることが可能であり、発明の要旨を逸脱しない範囲で、種々の省略、置き換え、組み合わせ、変更を行うことができる。</t>
+  </si>
+  <si>
+    <t>書類名特許請求の範囲少なくとも一部が第一の電力端子を有した電子機器に覆われるとともに当該電子機器に取り付けられる第一面と、前記第一面とは反対側に位置され粘着性を有して被検体に取り付けられる第二面と、を有する取付部材と、少なくとも一部が前記電子機器に覆われるとともに前記取付部材と固定され、前記取付部材が前記電子機器に取り付けられた状態で前記第一の電力端子と電気的に接続され当該電子機器に電力を供給する第二の電力端子を有する電池と、を備えた取付装置。</t>
+  </si>
+  <si>
+    <t>前記電池は、前記電子機器に設けられた第一の二次電池を充電する請求項1に記載の取付装置。</t>
+  </si>
+  <si>
+    <t>前記電池は、第二の二次電池である請求項1または請求項2に記載の取付装置。</t>
+  </si>
+  <si>
+    <t>前記取付部材は、電解質を有するゲル層を有し、前記電池は、前記ゲル層と当該ゲル層の中に配置されたアノードとセパレータとカソードとで構成される請求項1から請求項3のいずれか1項に記載の取付装置。</t>
+  </si>
+  <si>
+    <t>前記電池は、前記取付部材に対して着脱自在である請求項1から請求項4のいずれか1項に記載の取付装置。</t>
+  </si>
+  <si>
+    <t>前記電池は、前記第一面と対面する面とは異なる面に設けられた前記第一の電力端子と前記第二の電力端子とを電気的に接続する接続部材を有する請求項1から請求項5のいずれか1項に記載の取付装置。</t>
+  </si>
+  <si>
+    <t>前記接続部材は、前記電子機器のハウジングに巻き付くように構成された請求項6に記載の取付装置。</t>
+  </si>
+  <si>
+    <t>請求項1から請求項7のいずれか1項に記載の取付装置を備える電子機器。</t>
+  </si>
+  <si>
+    <t>第一の電力端子を有した電子機器に取り付けられる第一面と、前記第一面とは反対側に位置され粘着性を有する第二面と、を有する取付部材と、前記取付部材に固定され、前記取付部材が前記電子機器に取り付けられた状態で前記第一の電力端子と電気的に接続され前記電子機器に電力を供給する第二の電力端子を有する電池と、を備えた取付装置。 書類名要約書要約課題電子機器の小型化、軽量化に寄与できる取付装置を提供する。</t>
+  </si>
+  <si>
+    <t>電池は、少なくとも一部が電子機器に覆われるとともに取付部材と固定され、取付部材が電子機器に取り付けられた状態で第一の電力端子と電気的に接続され当該電子機器に電力を供給する第二の電力端子を有する。</t>
+  </si>
+  <si>
+    <t>The attachment member includes a first surface, at least a portion of which is covered by an electronic apparatus including a first power terminal and which is attached to the electronic apparatus, and a second surface which is positioned in an opposite side to the first surface, includes adhesion, and is attached to a subject.</t>
+  </si>
+  <si>
+    <t>The battery, at least a portion of which is covered by the electronic apparatus, is fixed to the attachment member, and includes a second power terminal which is electrically connected to the first power terminal and supplies a power to the electronic apparatus, in a state in which the attachment member is attached to the electronic apparatus.The same configuration elements are included in a plurality of embodiments or modification examples in the following description.</t>
+  </si>
+  <si>
+    <t>Thus, hereinafter, the same symbols or reference numerals will be attached to the same configuration elements, and repeated description thereof will be omitted.&lt;First Embodiment&gt;An attachment device 10 (gel sheet, adhesive pad, gel pad) according to the embodiment has a flexibility, and is a flat device, for example, a rectangular sheet type device.</t>
+  </si>
+  <si>
+    <t>The attachment device 10 is attachable to a surface 14a (sensor surface, top surface, first wall) which is a portion of a housing 14 of an electronic apparatus 12.The electronic apparatus 12 is a portable sensor unit which can detect, for example, a cardiac potential or the like.</t>
+  </si>
+  <si>
+    <t>The housing 14 of the electronic apparatus 12 is formed by insert molding using a synthetic resin material, and is formed in such a manner that a substrate which supports a plurality of electronic components or electrodes described later is covered, in a state in which a synthetic resin material is inserted at the time of insert molding.</t>
+  </si>
+  <si>
+    <t>The housing 14 has, for example, a flat cuboid shape, and electrodes 16a and 16b (probes, terminals, metals, conductors) are disposed on the surface 14a, in a state in which detection surfaces (sensor surfaces, end portions, surfaces, one-end surfaces) thereof are exposed from the surface 14a.</t>
+  </si>
+  <si>
+    <t>The electrode 16a is, for example, a "+ electrode", the electrode 16b is, for example, a "- electrode", and both are disposed in a state of being separated from each other.</t>
+  </si>
+  <si>
+    <t>When the electronic apparatus 12 detects a biological signal (potential, cardiac potential) for creating an electrocardiogram, if a distance between the electrode 16a and the electrode 16b is equal to or greater than a predetermined distance, a more stable detection result can be obtained.</t>
+  </si>
+  <si>
+    <t>Meanwhile, the smaller the electronic apparatus 12 is, the better portability and availability of the electronic apparatus 12 becomes.</t>
+  </si>
+  <si>
+    <t>Therefore, in the embodiment, the electrode 16a and the electrode 16b are diagonally disposed on the surface 14a, and thereby a size increment of the electronic apparatus 12 is suppressed, while a predetermined distance is secured between the electrode 16a and the electrode 16b.In a case of FIG.1, the electrode 16a is disposed in a position close to a corner 18a at which a side 14b and a side 14c of the housing 14 are intersected with each other.</t>
+  </si>
+  <si>
+    <t>Meanwhile, the electrode 16b is disposed in a position close to a corner 18b at which a side 14d and a side 14e are intersected with each other.</t>
+  </si>
+  <si>
+    <t>In this way, the electrode 16a and the electrode 16b are diagonally disposed, and thereby, it is possible to lengthen a distance between the electrode 16a and the electrode 16b without increasing the size of the housing 14, for example, compared to a case in which the electrode 16a and the electrode 16b are disposed in a position parallel to the side 14c or in a position parallel to the side 14b.</t>
+  </si>
+  <si>
+    <t>In addition, the housing 14 is bendable so as to include flexibility (softness).</t>
+  </si>
+  <si>
+    <t>For example, the housing 14 is configured by a soft resin with flexibility.</t>
+  </si>
+  <si>
+    <t>Then, it is possible for the housing 14 to be bent in a shape in which a bus occurs in a direction intersecting the sides 14c and 14e in a longitudinal direction of the housing 14.</t>
+  </si>
+  <si>
+    <t>Then, the electrode 16a is disposed in a position close to the corner 18a, that is, on one end side in a longitudinal direction of the housing 14, and the electrode 16b is disposed in a position close to the corner 18b, that is, on the other end side in a longitudinal direction of the housing 14.</t>
+  </si>
+  <si>
+    <t>As a result, when the electronic apparatus 12 is in contact with a body surface including a curved surface, it is possible to increase stickiness of the electrode 16a and the electrode 16b which exists in both positions in a longitudinal direction, to the body surface, using bending of the housing 14.In addition, data input and output terminals 20a and 20b (connectors, contact points, electrodes, metals, conductors) are disposed on the surface 14a in a state of being exposed.</t>
+  </si>
+  <si>
+    <t>The input and output terminals 20a and 20b can be used for, example, a case in which a detected value, data, information based on the detected value, or the like that is acquired by the electronic apparatus 12 is transferred to an external apparatus using a wire method, or a case in which updating of software for controlling the electronic apparatus 12 is performed using a wire method, or the like.</t>
+  </si>
+  <si>
+    <t>The input and output terminals 20a and 20b can be electrically connected to a terminal of an adaptor apparatus only for, for example, a cradle or the like.</t>
+  </si>
+  <si>
+    <t>In FIG.1, the input and output terminals 20a and 20b are disposed approximately in parallel to the side 14c, in a position close to, for example, the side 14c.</t>
+  </si>
+  <si>
+    <t>The input and output terminals 20a and 20b are not used in a situation in which the electronic apparatus 12 is detecting a biological signal.</t>
+  </si>
+  <si>
+    <t>In addition, a current does not flow between the input and output terminal 20a and the input and output terminal 20b.</t>
+  </si>
+  <si>
+    <t>Thus, it is not necessary to dispose the input and output terminals 20a and 20b so as to be separated from each other in the same manner as the electrodes 16a and 16b, and the input and output terminals 20a and 20b can be disposed in a state of being relatively close to each other.The disposal of the electrodes 16a and 16b, and the input and output terminals 20a and 20b is an example of disposal appropriate for the electronic apparatus 12 that detects a cardiac potential, and the position of each electrode or terminal is selected according to a specification of the electronic apparatus 12.In addition, in the surface 14a, conductors 22a and 22b (first power terminals, connectors, contact points, electrodes, metals) are disposed in a state of being exposed in an area in which other electrodes or terminals do not exist, for example, in a central area.</t>
+  </si>
+  <si>
+    <t>The conductors 22a and 22b are terminals for receiving a power from external power supply.</t>
+  </si>
+  <si>
+    <t>The conductor 22a is, for example, a "+ power supply terminal", the conductor 22b is, for example, a "- power supply terminal", and are both disposed so as to be separated by a predetermined distance from each other.A biological signal which is detected at the electrodes 16a and 16b is stored in a storage unit mounted on a substrate in the electronic apparatus 12, and is transferred to an external apparatus such as an output device (electrocardiograph, monitor device, printing device) of an electrocardiogram at a desired timing, or is transferred to a personal computer, a server, or the like.</t>
+  </si>
+  <si>
+    <t>In addition, the biological signal can be transferred to the output device of the electrocardiogram or a portable terminal in a real time.</t>
+  </si>
+  <si>
+    <t>The electronic apparatus 12 according to the embodiment can transfer the biological signal or the like to an external apparatus using a wire method which uses the input and output terminals 20a and 20b.</t>
+  </si>
+  <si>
+    <t>In addition, it is possible to transfer the biological signal to an external apparatus via a communication unit such as Bluetooth (registered trademark).</t>
+  </si>
+  <si>
+    <t>In this case, for example, it is possible to monitor a electrocardiogram for 24 hours.</t>
+  </si>
+  <si>
+    <t>It is possible to transfer data in a predetermined interval, to transfer data in a desired timing, or to update software of the electronic apparatus 12, via a communication unit such as Bluetooth.As illustrated in FIGS.1 and 2, the attachment device 10 includes an attachment member 24 (adhesive layer, base, retaining layer) with adhesion, and a battery 26 (battery cell, cell, battery layer).</t>
+  </si>
+  <si>
+    <t>The attachment member 24 can be attached to the surface 14a of the housing 14 of the electronic apparatus 12.</t>
+  </si>
+  <si>
+    <t>In order to increase stickiness of the electrode 16a and the electrode 16b of the electronic apparatus 12 to a body surface, the attachment device 10 is interposed between the surface 14a and a body surface, conductivity is held, and thereby it is possible to detect a cardiac potential of a user (subject) at the electrode 16a and the electrode 16b.The attachment member 24 has a first surface 24a (attachment surface, power supplying surface, first wall, surface), at least a portion of which is covered by the electronic apparatus 12 including the conductors 22a and 22b, and which is attached to the electronic apparatus 12, and a second surface 24b (attachment surface, contact surface, second wall, rear surface) which is positioned in an opposite side to the first surface, has adhesion, and is attached to a user.</t>
+  </si>
+  <si>
+    <t>It is desirable that the first surface 24a of the attachment member 24 is fixed to the surface 14a of the electronic apparatus 12, for example, the first surface 24a may be fixed to the surface 14a by adhesion the attachment member 24 has.</t>
+  </si>
+  <si>
+    <t>In addition, the first surface 24a may be fixed to the surface 14a of the electronic apparatus 12 by mechanically connecting a fixing member extending from the attachment member 24, for example, a belt-shaped member to the electronic apparatus 12.</t>
+  </si>
+  <si>
+    <t>In addition, for example, portions which fit to each other are provided in the first surface 24a of the attachment member 24 and the electronic apparatus 12, the first surface 24a may be fixed to the surface 14a by fitting the portions.</t>
+  </si>
+  <si>
+    <t>Meanwhile, the second surface 24b of the attachment member 24 has an adhesive strength for attaching the electronic apparatus 12 to a body surface of a user via the attachment member 24.</t>
+  </si>
+  <si>
+    <t>In the embodiment, the first surface 24a attaches the attachment device 10 to the surface 14a of the electronic apparatus 12 using adhesion of the attachment member 24, and has a mounting force for maintaining the attitude.The battery 26 is fixed to the attachment member 24 and at least a portion of the battery 26 is covered with the electronic apparatus 12.</t>
+  </si>
+  <si>
+    <t>Then, the battery 26 has electrode 26a and 26b (second power terminals, connectors, contact points, terminals, metals, conductors) that are electrically connected to the conductors 22a and 22b and supply power to the electronic apparatus 12 , in a state in which the attachment member 24 is attached to the electronic apparatus 12.</t>
+  </si>
+  <si>
+    <t>For example, the battery 26 can adopt a primary battery of a sheet shape which is bendable in correspondence to flexibility of the attachment member 24.</t>
+  </si>
+  <si>
+    <t>The battery 26 may be fixed on the first surface 24a of the attachment member 24 by an adhesive strength of the attachment member 24, and may be inserted and fixed in an internal layer of the attachment member 24.</t>
+  </si>
+  <si>
+    <t>The electrodes 26a and 26b are disposed in an approximately the central position of an attachment member 24 in which a central point of the side 24c (24e) in a longitudinal direction of the attachment member 24 interests a central point of the side 24d (24f) in a lateral direction, in a disposal interval corresponding to a disposal interval of the conductors 22a and 22b.</t>
+  </si>
+  <si>
+    <t>For example, the electrode 26a is a "+ electrode", and the electrode 26b is a "- electrode".</t>
+  </si>
+  <si>
+    <t>It is necessary for the electrode 16a and the electrode 16b which detects a cardiac potential to be insulated to each other.</t>
+  </si>
+  <si>
+    <t>For this reason, for example, by dividing the attachment member 24 into a first gel area 24g on the electrode 16a and a second gel area 24h on the electrode 16b by the battery 26, the electrode 16a and the electrode 16b may be electrically insulated to each other.</t>
+  </si>
+  <si>
+    <t>In addition, differently from the battery 26, the electrode 16a and the electrode 16b may be electrically insulated by disposing an insulating material in the attachment member 24.In the attachment device 10 configured in this way, it is possible to supply a power of the battery 26 to the electronic apparatus 12, by stacking the electrode 26a on the conductor 22a so as to be electrically connected to each other, and by stacking the electrode 26b on the conductor 22b so as to be electrically connected to each other, as illustrated in FIG.3.</t>
+  </si>
+  <si>
+    <t>A structure for a position determination may be provided in the surface 14a on the electronic apparatus 12 side and the first surface 24a on the attachment member 24 side, in such a manner that a connection of the electrode 26a and the conductor 22a and a connection of the electrode 26b and the conductor 22b can be easily and correctly realized.</t>
+  </si>
+  <si>
+    <t>For example, the conductors 22a and 22b are exposed in a state of being slightly protruded from the surface 14a.</t>
+  </si>
+  <si>
+    <t>Meanwhile, the electrodes 26a and 26b are recessed from the first surface 24a by an amount corresponding to an amount of protrusion of the conductors 22a and 22b.</t>
+  </si>
+  <si>
+    <t>With this configuration and a combined effect of a concave portion and a convex portion, it is possible to easily and correctly perform a position determination of the electrode 26a and the conductor 22a and a position determination of the electrode 26b and the conductor 22b.</t>
+  </si>
+  <si>
+    <t>In addition, by recessing the electrodes 26a and 26b from the first surface 24a of the attachment member 24 in this way, it is possible to suppress discharging of the battery 26 caused by an electrical connection of the electrode 26a to the electrode 26b, for example, in a state in which the attachment device 10 is not mounted on the electronic apparatus 12.In addition, in a modification example, a fitting structure for a position determination may be disposed in a position different from the electrodes 26a and 26b and the conductors 22a and 22b.</t>
+  </si>
+  <si>
+    <t>For example, when the battery 26 is fixed on the first surface 24a of the attachment member 24, the entire battery 26 is protruded from the first surface 24a.</t>
+  </si>
+  <si>
+    <t>At this time, a concave portion corresponding to a shape of the battery 26 is provided on the surface 14a of the electronic apparatus 12, and thereby the entire battery 26 can be contained in the concave portion, and alignments for an electrical connection of the electrode 26a and the conductor 22a, and for an electrical connection of the electrode 26b and the conductor 22b can be easily and correctly made.</t>
+  </si>
+  <si>
+    <t>In addition, by fitting the battery 26 to the concave portion, it is possible to suppress that the shifts of both the attachment member 24 and the electronic apparatus 12, and to maintain an electrical connection of the an electrical connection of the electrode 26a and the conductor 22a, and an electrical connection of the electrode 26b and the conductor 22b, after the attachment member 24 is attached to the electronic apparatus 12.As illustrated in FIG.4, by attaching the attachment device 10 to the electronic apparatus 12, it is possible to supply a power supply circuit 28 included in the electronic apparatus 12 with a power of the battery 26 fixed to the attachment member 24.</t>
+  </si>
+  <si>
+    <t>That is, it is not necessary for the electronic apparatus 12 to include a battery for driving the electronic apparatus 12, and miniaturization and a weight decrease of the electronic apparatus 12 is possible.</t>
+  </si>
+  <si>
+    <t>In addition, it is originally possible to dispose other electronic components in a space in which a battery is disposed inside the electronic apparatus 12, to suppress a size increase of the electronic apparatus 12, and to add a new function to the electronic apparatus 12.</t>
+  </si>
+  <si>
+    <t>That is, a higher performance can be easily realized.</t>
+  </si>
+  <si>
+    <t>Capacity of the battery 26 can be determined according to, for example, a continuous drive time of the electronic apparatus 12.</t>
+  </si>
+  <si>
+    <t>For example, when a continuous detection of a cardiac potential is performed for 24 hours, it is desirable that a sufficient capacity of the battery 26 is provided in the attachment device 10.</t>
+  </si>
+  <si>
+    <t>In addition, since including a sheet shape which can be bent according to flexibility of the attachment member 24, the battery 26 is easily bent along a curved surface of a body surface even when being attached to the body surface of a user together with the electronic apparatus 12, and burden on the user can be reduced even if the electronic apparatus 12 is used for a long time.</t>
+  </si>
+  <si>
+    <t>In addition, since it is possible to easily maintain stickiness of the electronic apparatus 12 and the body surface, it is possible to stabilize an acquirement of a biological signal such as a cardiac potential and to improve an acquirement situation of the biological signal.The battery 26 fixed to the attachment member 24 of the attachment device 10 according to the first embodiment is a primary battery which performs only discharge as described above.</t>
+  </si>
+  <si>
+    <t>Thus, when an output of the battery 26 is less than a predetermined value, the attachment device 10 is discarded together with the battery 26.</t>
+  </si>
+  <si>
+    <t>In addition, after being separated from each other, each of the attachment member 24 and the battery 26 are separately discarded.&lt;Second Embodiment&gt;FIG.5 is an explanatory view illustrating a configuration of the attachment device 10 and an electronic apparatus 30 according to a second embodiment.</t>
+  </si>
+  <si>
+    <t>The electronic apparatus 12 described in the first embodiment has a configuration in which an internal battery is not included, but a secondary battery 32 (a first secondary battery) is included in the inside of the electronic apparatus 30 according to the second embodiment.</t>
+  </si>
+  <si>
+    <t>In this case, the battery 26 on the attachment deice 10 can function as an auxiliary battery with respect to the electronic apparatus 30.</t>
+  </si>
+  <si>
+    <t>For example, basically, the electronic apparatus 30 provides a power supply circuit 28 with a power of a secondary battery 32, and performs a detection operation of a cardiac potential or the like, a retaining operation of the detected cardiac potential, or the like.</t>
+  </si>
+  <si>
+    <t>That is, when an output of the secondary battery 32 is equal to or higher than a predetermined value, even if the electrodes 26a and 26b are electrically connected to the conductors 22a and 22b, power supplying from the battery 26 to the electronic apparatus 30 (secondary battery32) is not performed.</t>
+  </si>
+  <si>
+    <t>Meanwhile, when the output of the secondary battery 32 is less than a predetermined value, the electronic apparatus 30 receives a power from the battery 26 on the attachment device 10 side via the secondary battery 32, provides the power supply circuit 28 with the power, and continues to perform a detection operation of a cardiac potential or the like, a retaining operation of the detected cardiac potential, or the like.</t>
+  </si>
+  <si>
+    <t>That is, by using the battery 26 as an auxiliary battery, it is possible to realize a long time drive of the electronic apparatus 30.</t>
+  </si>
+  <si>
+    <t>In addition, in another embodiment, drive of the electronic apparatus 12 is usually performed by power supplying from the battery 26, and when the output of the battery 26 is less than a predetermined value, the secondary battery 32 may supply a power for driving the electronic apparatus 30.In this way, a power for driving the electronic apparatus 30 is provided using the secondary battery 32 and the battery 26, and thereby it is possible to decrease each battery capacity.</t>
+  </si>
+  <si>
+    <t>That is, compared to a case in which the same long time drive is realized by only the electronic apparatus 30, miniaturization or a weight decrease of the electronic apparatus 30 are possible.</t>
+  </si>
+  <si>
+    <t>In addition, when the same long time drive is realized by the electronic apparatus 12 described in the first embodiment, it is necessary for the attachment device 10 to include the battery 26 with large capacity.</t>
+  </si>
+  <si>
+    <t>Meanwhile, according to the configuration of the second embodiment, the secondary battery 32 and the battery 26 can provide a required capacity together, and thus miniaturization and a weight decrease of each battery are possible.In addition, it is possible to achieve a configuration in which a standard drive time of the electronic apparatus 30 is provided by the secondary battery 32, and an additional drive time is provided by the battery 26.</t>
+  </si>
+  <si>
+    <t>For example, if a plurality of attachment devices 10 in which batteries 26 with capacities different from each other are included are prepared, it is possible to configure the electronic apparatus 30 which can realize drive times different from each other according to a selection of the disposable attachment device 10.</t>
+  </si>
+  <si>
+    <t>As a result, it is possible to increase a user's convenience.</t>
+  </si>
+  <si>
+    <t>When a power is supplied from the battery 26 to the electronic apparatus 30, the power may be supplied to the power supply circuit 28 without using the secondary battery 32.&lt;Third Embodiment&gt;FIG.6 is an explanatory view illustrating a configuration of an attachment device 34 and an electronic apparatus 30 according to a third embodiment.</t>
+  </si>
+  <si>
+    <t>Since a configuration of the electronic apparatus 30 is the same as in the second embodiment, description thereof will be omitted.The battery 26 included in the attachment device 10 described in the first embodiment and the second embodiment is a primary battery which performs only a discharge, but the attachment member 24 of the attachment device 34 according to the third embodiment includes a secondary battery 36 (second secondary battery) which can charge and discharge.</t>
+  </si>
+  <si>
+    <t>In the same manner as the second embodiment, also in the third embodiment, the secondary battery 36 on the attachment device 34 can function as an auxiliary battery with respect to the electronic apparatus 30.</t>
+  </si>
+  <si>
+    <t>That is, when an output of the secondary battery 32 on the electronic apparatus 30 side is equal to or greater than a predetermined value, a power is not supplied to the electronic apparatus 30 (secondary battery 32) from the secondary battery 36, even when the electrodes 36a and 36b are electrically connected to the conductors 22a and 22b.</t>
+  </si>
+  <si>
+    <t>Meanwhile, when the output of the secondary battery 32 is less than a predetermined value, the electronic apparatus 30 receives a power form the secondary battery 36 on the attachment device 34 via the secondary battery 32, provides the power supply circuit 28 with the power, and continues to perform a detection operation such as a cardiac potential, a retaining operation of the detected cardiac potential, or the like.</t>
+  </si>
+  <si>
+    <t>That is, it is possible to realize a long time drive of the electronic apparatus 30 by using the secondary battery 36 as an auxiliary battery.</t>
+  </si>
+  <si>
+    <t>In addition, in another embodiment, the secondary battery 32 may be used as an auxiliary battery, and the secondary battery 36 may be used as a battery for driving at the time of normally using the electronic apparatus 30.</t>
+  </si>
+  <si>
+    <t>As a result, also in the configuration according to the third embodiment, it is possible to obtain the same effects as in the second embodiment.Furthermore, since the secondary battery 36 of the attachment device 34 can be charged, for example, the secondary battery 36 can be charged from the secondary battery 32 on the electronic apparatus 30 side.</t>
+  </si>
+  <si>
+    <t>In the same manner, when the electronic apparatus 30 is connected to a cradle or the like, thereby being electrically connected to an external power supply, the secondary battery 36 can be charged.</t>
+  </si>
+  <si>
+    <t>That is, when the electronic apparatus 30 is not operated, the secondary battery 36 can be charged.However, in the same manner as an attachment device 38 illustrated in FIG.7, a battery 40 (primary battery or secondary battery) is configured to be attachable and detachable to the attachment member 24, and thereby the battery 40 can be used again.</t>
+  </si>
+  <si>
+    <t>For example, when the electronic apparatus 30 is fixed to a body surface of a user by an adhesive strength of the attachment member 24 for a long time, there is a possibility that the adhesive strength of the attachment member 24 may be decreased by sweat or attachment of a foreign material.</t>
+  </si>
+  <si>
+    <t>At this time, it is possible to separate the attachment member 24 from the battery 40, and to exchange only the attachment member 24 with a now one (one with sufficient adhesive strength).</t>
+  </si>
+  <si>
+    <t>Then, by fixing the charged battery 40, an attachment device 38 can be used as a new one.</t>
+  </si>
+  <si>
+    <t>That is, by exchanging only the attachment member 24, a user can use the attachment device 38 which has a sufficient adhesive strength, is clean, and moreover can supply a sufficient power, at a low cost.</t>
+  </si>
+  <si>
+    <t>When the battery 40 is fixed to the attachment member 24, the battery 40 may be fixed by an adhesive strength of the attachment member 24, or may include another structure for fixing.</t>
+  </si>
+  <si>
+    <t>For example, the battery 40 may be fixed using a double-sided tape, a surface fastener, or the like.</t>
+  </si>
+  <si>
+    <t>In addition, when the battery 40 is inserted in an inner layer portion of the attachment member 24 and supported, the attachment member 24 has a multi-layer structure, for example, a portion of a surface layer is formed so as to be freely opened and closed, the battery 40 is contained in an inner layer, the surface layer is covered from above, and thereby the battery 40 may be fixed.In addition, when the battery 40 is a primary battery, by providing an attachable and detachable structure as described above, the attachment member 24 and the battery 40 are separated from each other, thereby being able to be separately discarded, and it is easy to contribute to recycling.&lt;Fourth Embodiment&gt;FIG.8 is an explanatory view illustrating a configuration of an attachment device 42 according to a fourth embodiment.</t>
+  </si>
+  <si>
+    <t>A portion or the whole of the attachment member 24 is configured by a gel layer which uses, for example, sodium chloride and water as a main ingredient, and thus the gel layer can include a property of electrolyte, in a state in which adhesion or flexibility as an attachment device is maintained.</t>
+  </si>
+  <si>
+    <t>That is, the battery 44 can be configured using the configuration of the attachment device 42.In FIG.8, the attachment member 24 is configured by a gel layer which wholly uses, for example, sodium chloride and water as a main ingredient, and a cathode electrode 46, an anode electrode 48, and a separator 50 are disposed in an inner layer portion (in gel layer) of the attachment member 24.</t>
+  </si>
+  <si>
+    <t>The separator 50 is configured by non-woven fabric, a porous thin film, or the like which is disposed between the cathode electrode 46 and the anode electrode 48, and the cathode electrode 46 and the anode electrode 48 are separated so as not to be in direct contact.</t>
+  </si>
+  <si>
+    <t>In addition, a configuration portion of the battery 44 including the cathode electrode 46, the anode electrode 48, and the selector 50 is surrounded by a partition wall 52 which is configured by non-woven fabric, a porous thin film, or the like, and insulates an inside and an outside of the battery 44, in the gel layer of the attachment member 24.</t>
+  </si>
+  <si>
+    <t>As described above, the attachment member 24 is also in contact with the electrode 16a and the electrode 16b for detecting a cardiac potential, which are included in the electronic apparatus 12 (30), and thus a current of the battery 44 does not affect a detection of a cardiac potential.The electrode 46a (connector, contact point, terminal, metal, conductor) is derived from the cathode electrode 46, the electrode 48a (connector, contact point, terminal, metal, conductor) is derived from the anode electrode 48, and thus both can be electrically connected to the conductors 22a and 22b of the electronic apparatus 12 (30).</t>
+  </si>
+  <si>
+    <t>The attachment member 24 is configured by a first area 54a which is an outer side (side in which cathode electrode 46 and anode electrode 48 are not included) than the partition wall 52, a second area 54b which is in an internal side of the partition wall 52 including the cathode electrode 46, and a third area 54c which is in an internal side of the partition wall 52 including the anode electrode 48.</t>
+  </si>
+  <si>
+    <t>In the battery 44, if the second area 54b and the third area 54c are electrolytes, ions can move between the cathode electrode 46 and the anode electrode 48, and charging and discharging can be done.</t>
+  </si>
+  <si>
+    <t>Thus, it is not necessary for the first area 54a to be an electrolyte.</t>
+  </si>
+  <si>
+    <t>In the embodiment, the first area 54a, the second area 54b, and the third area 54c are configured by gel layers which use sodium chloride and water as a main ingredient.</t>
+  </si>
+  <si>
+    <t>That is, the battery 44 is configured by inserting the cathode electrode 46, the cathode electrode 48, the separator 50, the partition wall 52, and the like in the attachment member 24 of one type of sheet shape.</t>
+  </si>
+  <si>
+    <t>In this way, by configuring the entire attachment member 24 using a gel layer of an electrolyte, it is possible for the configuration to be simplified, and to reduce cost.</t>
+  </si>
+  <si>
+    <t>A type of metals which configure the cathode electrode 46 and the anode electrode 48, or ingredients of the gel layer which configures the attachment member 24, are appropriately selected according to a format of a battery to be configured.</t>
+  </si>
+  <si>
+    <t>As an example, as the battery terminals, the cathode electrode 46 (+ electrode) can be configured by copper and the anode electrode 48 (- electrode) can be configured by zinc.In this way, when the battery 44 is configured by including a gel layer with electrolyte included in the attachment member 24 and by disposing the cathode electrode 46 and the anode electrode 48 in the gel layer, the presence of the battery 44 can hardly cause a decrease of flexibility of the attachment member 24, for example, compared to when an independent battery is fixed to the attachment member 24.</t>
+  </si>
+  <si>
+    <t>As a result, it is possible to provide a soft attachment device 42 which is easily bent and easily adheres to a surface of a body or the electronic apparatus 12 (30).FIG.9 is an explanatory view illustrating a configuration of a battery 64 supported by the attachment device 24 (refer to FIG.2).</t>
+  </si>
+  <si>
+    <t>FIG.9 illustrated a case in which, in order to increase an output voltage of the battery 64, a plurality of battery cells 66 to 70 (three battery cells as an example, in FIG.9) is connected in series.</t>
+  </si>
+  <si>
+    <t>Then, an insulating materials 72 (insulating sheets) are disposed between the battery cell 66 and the battery cell 68, and between the battery cell 68 and the battery cell 70, and thereby the battery cells are insulated from each other.</t>
+  </si>
+  <si>
+    <t>In addition, a separator 74 is disposed between a cathode electrode 66a and an anode electrode 66b which are included in the battery cell 66, and the cathode electrode 66a and the anode electrode 66b are configured so as not to be in direct contact with each other.</t>
+  </si>
+  <si>
+    <t>In the same manner, a cathode electrode 68a and an anode electrode 68b of the battery cell 68, and a cathode electrode 70a and an anode electrode 70b of the battery cell 70 are respectively separated by the separators 74.</t>
+  </si>
+  <si>
+    <t>Each of the battery cells 66 to 70 is surrounded by an insulating member 76, and an electrolyte 78 contained in the battery cells is configured so as not to be leaked.</t>
+  </si>
+  <si>
+    <t>Then, the anode electrode 66b of the battery cell 66 is electrically connected to the cathode electrode 68a of the battery cell 68, and the anode electrode 68b of the battery cell 68 is electrically connected to the cathode electrode 70a of the battery cell 70.</t>
+  </si>
+  <si>
+    <t>That is, the battery cells 66 to 70 are connected in series, a terminal 64a extending from the cathode electrode 66a and a terminal 64b extending from the anode electrode 70b respectively become terminals of the battery 64, and are configured so as to be able to be electrically connected to the conductors 22a and 22b of the electronic apparatus 12 (30).</t>
+  </si>
+  <si>
+    <t>The battery 64 is bendable in a longitudinal direction of, for example, the insulating material 72, and thereby the battery cells 66 to 70 can be folded.</t>
+  </si>
+  <si>
+    <t>That is, each battery cell can be stacked in a state of being connected in series, can be folded in a compact manner, and can be supported by the attachment member 24 (refer to FIG.2).</t>
+  </si>
+  <si>
+    <t>As a result, it is possible to increase the output voltage without increasing a size (sheet area) of the attachment device 10 (34, 38, 42).FIG.10 is an explanatory view illustrating a configuration of a battery 80 which is supported by the attachment member 24 (refer to FIG.2).</t>
+  </si>
+  <si>
+    <t>FIG.10 illustrates a case in which, in order to increase capacity of the battery 80, a plurality of battery cells 82 to 86 (three battery cells as an example, in FIG.10) are connected in parallel.</t>
+  </si>
+  <si>
+    <t>Then, insulating materials 88 (insulating sheet) are disposed between the battery cell 82 and the battery cell 84, and between the battery cell 84 and the battery cell 86, and the battery cells are insulated from each other.</t>
+  </si>
+  <si>
+    <t>In addition, a separator 90 is disposed between a cathode electrode 82a and an anode electrode 82b which are included in the battery cell 82, and the cathode electrode 82a and the anode electrode 82b are configured so as not to be in direct contact with each other.</t>
+  </si>
+  <si>
+    <t>In the same manner, a cathode electrode 84a and an anode electrode 84b of the battery cell 84, and a cathode electrode 86a and an anode electrode 86b of the battery cell 86 are respectively separated by the separator 90.</t>
+  </si>
+  <si>
+    <t>Each of the battery cells 82 to 86 is surrounded by an insulating member 92, and an electrolyte 94 contained in the battery cells is configured so as not to be leaked.</t>
+  </si>
+  <si>
+    <t>Then, the cathode electrodes 82a, 84a, and 86a are electrically connected in series, the anode electrodes 82b, 84b, and 86b are electrically connected in series, and as the entire battery 80, the battery cell 82, the battery cell 84, and the battery cell 86 are electrically connected in parallel.</t>
+  </si>
+  <si>
+    <t>A terminal 80a extending from the cathode electrode 86a and a terminal 80b extending from the anode electrode 86b respectively become terminals of the battery 80, and are configured so as to be able to be electrically connected to the conductors 22a and 22b of the electronic apparatus 12 (30).</t>
+  </si>
+  <si>
+    <t>The battery 80 is bendable in a longitudinal direction of, for example, the insulating material 88, and thereby the battery cells 82 to 86 can be folded.</t>
+  </si>
+  <si>
+    <t>That is, each battery cell can be stacked in a state of being connected in parallel, can be folded in a compact manner, and can be supported by the attachment member 24 (refer to FIG.2).</t>
+  </si>
+  <si>
+    <t>As a result, it is possible to increase battery capacity without increasing a size (sheet area) of the attachment device 10 (34, 38, 42).</t>
+  </si>
+  <si>
+    <t>In FIG.9 and FIG.10, the number of battery cells that are connected in series or in parallel can be appropriately selected according to the output voltage or the battery capacity which is necessary for the attachment device 10 (34, 38, 42).</t>
+  </si>
+  <si>
+    <t>However, when the battery cell is a cell for a secondary battery, it is preferable that the number of battery cells to be connected is determined by taking a charging and discharging cycle or an amount of charging and discharging into account.&lt;Fifth Embodiment&gt;FIG.11 is an explanatory view illustrating a configuration of an attachment device 96 according to a fifth embodiment.</t>
+  </si>
+  <si>
+    <t>In the same manner as the configurations of other embodiments, a battery 98 is fixed to the attachment member 24, in the attachment device 96.</t>
+  </si>
+  <si>
+    <t>However, in the battery 98, differently from the battery 26 of the attachment device 10 illustrated in FIG.2, electrodes 96a and 96b for performing discharging or charging are disposed in a position separated from the battery 98 by lead wires 98a and 98b.</t>
+  </si>
+  <si>
+    <t>In a case of the attachment device 96 illustrated in FIG.11, a connection member 100a (connecting piece, winding piece, fixing piece) including flexibility in a strip shape in a direction in which a side 24c (24e) in a longitudinal direction from approximately the central portion of a side 24f in a lateral direction of the attachment member 24 is extended, is formed in a state of being protruded.</t>
+  </si>
+  <si>
+    <t>The electrodes 96a and 96b are disposed in parallel to, for example, the side 24f, on the connection member 100a, so as to be separated in a predetermined interval.</t>
+  </si>
+  <si>
+    <t>In the same manner, a connection member 100b (connecting piece, winding piece, fixing piece) of a strip shape in the same manner as the connection member 100a, is formed in a state of being protruded, in a direction in which a side 24c (24e) in a longitudinal direction from approximately the central portion of a side 24d of the attachment member 24 is extended.</t>
+  </si>
+  <si>
+    <t>In the example of FIG.11, the electrodes 96a and 96b are not disposed in the connection member 100b, but, for example, the electrode 96a may be disposed in the connection member 100a, and the electrode 96b may be disposed in the connection member 100b.</t>
+  </si>
+  <si>
+    <t>In addition, the connection members 100a and 100b includes a fixing member 102 such as surface fasteners in positions close to end portions on sides farther from the side 24f (24d).A configuration of an electronic apparatus 104 in which the attachment device 96 configured in this way is mounted is illustrated in FIG.12.</t>
+  </si>
+  <si>
+    <t>A basic configuration of the electronic apparatus 104 is the same as that of the electronic apparatus 12 (30) illustrated in other embodiments, but positions of conductors 108a and 108b which are exposed in a surface of a housing 106 so as to be connected to the battery 98 of the attachment device 96 are different from the electronic apparatus 12.</t>
+  </si>
+  <si>
+    <t>In the electronic apparatus 12 illustrated in FIG.1, the conductors 22a and 22b are disposed in approximately the central portion of the surface 14a of the housing 14 which is in contact with the first surface 24a of the attachment member 24 of the attachment device 10.</t>
+  </si>
+  <si>
+    <t>Meanwhile, in the electronic apparatus 104, the conductors 108a and 108b are disposed in the rear surface 106b on an opposite side to the surface 106a of the housing 106 which is in contact with the first surface 24a of the attachment member 24 of the attachment device 96.</t>
+  </si>
+  <si>
+    <t>Furthermore, the conductors 108a and 108b are disposed in positions close to a side 106c of the rear surface 106b.</t>
+  </si>
+  <si>
+    <t>That is, as illustrated in FIG.12, in a state in which the rear surface 106a (sensor surface, top surface, first wall) of the electronic apparatus 104 adheres to the first surface 24a of the attachment device 96 (attachment member 24), the connection members 100a and 100b are wound so as to be in contact with a rear surface 106b side of the housing 106.</t>
+  </si>
+  <si>
+    <t>That is, the conductors 108a and 108b are disposed in positions where the conductors can be in electrical contact with the electrodes 96a and 96b disposed in the connection member 100a.</t>
+  </si>
+  <si>
+    <t>In addition, in the rear surface 106b of the housing 106, a fixing member 110 (for example, surface fastener) is disposed in a position where the fixing member can be in mechanical contact with the fixing member 102 provided in the connection members 100a and 100b.When the attachment device 96 configured as described above is attached to the electronic apparatus 104, the first surface 24a of the attachment device 96 (attachment member 24) first adheres to the surface 106a of the housing 106 of the electronic apparatus 104. in this case, in the same manner as the attachment device 10 and the electronic apparatus 12 illustrated in FIG.1, in order for the electrodes 26a and 26b (refer to FIG.2) to be electrically connected to the conductors 22a and 22b, it is not necessary to perform a position determination of a mounting position.</t>
+  </si>
+  <si>
+    <t>Thereafter, the connection member 100a wraps around the rear surface 106b side so as to wind the housing 106, and thus the electrode 96a is electrically connected to the conductor 108a, and the electrode 96b is electrically connected to the conductor 108b.</t>
+  </si>
+  <si>
+    <t>In this case, since the connection member 100a is a strip shaped member with flexibility, it is possible to easily perform a position correction using flexibility of the connection member 100a, even if an attachment attitude of the attachment device 96 with respect to the electronic apparatus 104 is slightly shifted.</t>
+  </si>
+  <si>
+    <t>As a result, it is possible for the electrode 96a to be easily and electrically connected to the conductor 108a, and for the electrode 96b to be easily and electrically connected to the conductor 108b.</t>
+  </si>
+  <si>
+    <t>In addition, at the time of the winding operation, a connection (for example, surface fastener connection) of the fixing member 102 on the attachment device 96 side and the fixing member 110 on the electronic apparatus 104 side is performed, and the attachment device 96 is fixed to the electronic apparatus 104.</t>
+  </si>
+  <si>
+    <t>In the same manner, the connection member 100b wraps around the rear surface 106b side so as to wind the housing 106, a connection (for example, surface fastener connection) of the fixing member 102 on the attachment device 96 side and the fixing member 110 on the electronic apparatus 104 side is performed, and the attachment device 96 is fixed to the electronic apparatus 104.In this way, the attachment device 96 is mounted on the electronic apparatus 104 by the adhesive strength of the attachment member 24, and a fixing strength generated by winding the housing using the connection members 100a and 100b, and thus it is possible to maintain a stable mounting state (adhesion state of attachment device 96 and electronic apparatus 104) of the attachment device 96 and the electronic apparatus 104 for a long time.</t>
+  </si>
+  <si>
+    <t>As a result, it is possible to perform a stable detection of a biological signal being performed by the electronic apparatus 104.</t>
+  </si>
+  <si>
+    <t>In addition, as illustrated in FIG.12, since the conductors 108a and 10b are disposed in a position different from a body surface in the housing 106, it is possible to increase a sense of security of a user.</t>
+  </si>
+  <si>
+    <t>The example of FIG.12 illustrates a case in which the conductors 108a and 108b are disposed in the rear surface 106b of the housing 106, but it is possible to obtain the same effects, as long as the conductors 108a and 108b are disposed in a surface other than the surface 106a.</t>
+  </si>
+  <si>
+    <t>In addition, the examples of FIG.11 and FIG.12 illustrate the configuration in which the connection members 100a and 100b wind the end portions of the rear surface 106b of the housing 106, but for example, the connection members 100a and 100b may wind a wide area of the rear surface 106b.</t>
+  </si>
+  <si>
+    <t>For example, the connection member 100a and the connection member 100b may overlap each other on the rear surface 106b, and may completely enclose the housing 106.</t>
+  </si>
+  <si>
+    <t>In this case, a mounting force (adhesive strength) of the attachment device 96 with respect to the electronic apparatus 104 can be further increased.</t>
+  </si>
+  <si>
+    <t>In addition, in this way, fixing by winding is performed using the connection members 100a and 100b , shifting or detaching of the electronic apparatus 104 with respect to the attachment device 96 is further suppressed.&lt;Sixth Embodiment&gt;A usage example of the electronic apparatus 12 (30, 104) according to the above-described embodiments will be described using FIG.13.</t>
+  </si>
+  <si>
+    <t>When the electronic apparatus 12 detects, for example, a biological signal (potential, cardiac potential, detected value) for an electrocardiogram, the electronic apparatus 12 transmits biological information (information, transmission information) which is obtained based on the detected biological signal to an external apparatus.</t>
+  </si>
+  <si>
+    <t>The electronic apparatus 12 transfers the biological information (information, transmission information) to a communication terminal 200 (mobile phone, smart phone) being carried by a user through an embedded communication function, such as Bluetooth.</t>
+  </si>
+  <si>
+    <t>The communication terminal 200 transmits the acquired biological information to a server 206 which is an external apparatus through a base station 202 or a network 204.</t>
+  </si>
+  <si>
+    <t>The electronic apparatus 12 may be configured so as to transmit the detected biological signal as it is to the server 206.</t>
+  </si>
+  <si>
+    <t>In addition, when including a connection function to the network 204 such as a Wi-Fi communication function, the electronic apparatus 12 may be configured so as to transmit the biological information (biological signal) to the server 206 through the base station 202 and the network 204.</t>
+  </si>
+  <si>
+    <t>In addition, when being able to be connected to a wireless LAN, the electronic apparatus 12 transmits the biological information to the server 206 through a wireless router 208 and the network 204.</t>
+  </si>
+  <si>
+    <t>The electronic apparatus 12 may be configured so as to transmit the biological information through the wireless router 208 via a personal computer 210 once.</t>
+  </si>
+  <si>
+    <t>In the above-describe example, a communication network (electrical communication circuit) using wireless is described, but a communication network using a wire may be used.</t>
+  </si>
+  <si>
+    <t>The communication network includes, for example, a router, a modem, an access point, a cable, and the like.</t>
+  </si>
+  <si>
+    <t>In addition, each apparatus can transmit and receive data according to a predetermined communication protocol.Each time acquiring the biological information, the electronic apparatus 12 may transmit the acquired information to the server 206, and may transmit the information after a predetermined amount of signal is accumulated.</t>
+  </si>
+  <si>
+    <t>In addition, the electronic apparatus 12 may transmit the information every predetermined time period, and may transmit the information at a desired timing of a user in accordance with an operation of the electronic apparatus 12.When transmitting the biological information to the server 206, the electronic apparatus 12 transmits the biological information together with, for example, personal ID and password which are given to each user, in such a manner that each user can be identified on the server 206 side.</t>
+  </si>
+  <si>
+    <t>It is also possible to transmit the information using a method without specifying an individual person, and using a guest ID.When acquiring biological information, the server 206 stores the biological information in a storage device 206a, and performs processing according to the biological information.</t>
+  </si>
+  <si>
+    <t>For example, when the biological information indicates a cardiac potential, the server 206 creates an electrocardiogram.</t>
+  </si>
+  <si>
+    <t>Furthermore, the server 206 performs a creation of health state information for performing analysis based on the electrocardiogram.</t>
+  </si>
+  <si>
+    <t>In addition, when the biological information indicates a pulse wave signal or a temperature signal, the server 206 converts the signal into a pulse or body temperature, and creates the health state information based on the pulse or the body temperature.</t>
+  </si>
+  <si>
+    <t>When creating the health state information, for example, the server 206 creates an electrocardiogram based on development of the biological information of a predetermined time period, and creates a development graph of a pulse or body temperature.</t>
+  </si>
+  <si>
+    <t>In addition, the server 206 may create diagnostic information based on the development.</t>
+  </si>
+  <si>
+    <t>In addition, when the user continually transmits the biological information to the server 206 using a personal ID, the server 206 may perform development or diagnosis of a long-term health state based on a comparison of a past analysis result or diagnostic information and a newest analysis result or diagnostic information, and for example, may create future advice or the like as health state information.The server 206 stores the created health diagnosis information in the storage device 206a, and returns the health diagnosis information to the user who sends the biological information through the network 204.</t>
+  </si>
+  <si>
+    <t>For example, when the user transmits the biological information through the communication terminal 200, the health diagnosis information is displayed on a display screen of the communication terminal 200.</t>
+  </si>
+  <si>
+    <t>In addition, when the user directly transmits the biological information to the server 206, using the communication function of the electronic apparatus 12, the server 206 transmits the health diagnosis information to the electronic apparatus 12.</t>
+  </si>
+  <si>
+    <t>When receiving the health diagnosis information, the electronic apparatus 12 transfers the health diagnosis information which is received in the communication terminal 200 or the personal computer 210 that user has, and the health diagnosis information is displayed on a display screen of the communication terminal 200 or the personal computer 210.</t>
+  </si>
+  <si>
+    <t>In the same manner, when the electronic apparatus 12 transmits the biological information to the server 206 through the wireless router 208, the health diagnosis information may be transmitted to the personal computer 210 of the user, and the health diagnosis information may be displayed on the display screen of the personal computer 210 of the user.</t>
+  </si>
+  <si>
+    <t>The health diagnosis information transmitted from the server 206 may be stored in the communication terminal 200 or the personal computer 210.</t>
+  </si>
+  <si>
+    <t>The biological signal detected by the electronic apparatus 12 may be stored in the communication terminal 200 or the personal computer 210 as original data.In the embodiment, an example in which biological information based on a biological signal detected by the electronic apparatus 12 is transmitted to server 206 and is analyzed there is described, but in another embodiment, a dedicated program may be installed in the communication terminal 200 or the personal computer 210, and a creation of an electrocardiogram or the like, or a creation of health diagnosis information may be performed in the communication terminal 200 or the personal computer 210, thereby being provided to a user.</t>
+  </si>
+  <si>
+    <t>In addition, a creation of a simple analysis or simple health diagnosis information may be performed in the communication terminal 200 or the personal computer 210, and a creation of more detailed analysis or health diagnosis information may be performed in the server 206 according to a request of a user, thereby being provided to the user.As described above, the attachment device according to the embodiment includes: for example, an attachment member including a first surface, at least a portion of which is covered by an electronic apparatus including a first power terminal and which is attached to the electronic apparatus, and a second surface which is positioned in an opposite side to the first surface, includes adhesion, and is attached to a subject; and a battery, at least a portion of which is covered by the electronic apparatus, which is fixed to the attachment member, and which includes a second power terminal that is electrically connected to the first power terminal and supplies a power to the electronic apparatus, in a state in which the attachment member is attached to the electronic apparatus.</t>
+  </si>
+  <si>
+    <t>According to this configuration, for example, it is not necessary to include a battery in the inside of the electronic apparatus, and it is possible to secure a predetermined drive time, while reducing a size and a weight of the electronic apparatus.</t>
+  </si>
+  <si>
+    <t>In addition, by selecting capacity of the battery of the attachment device, a user can easily select a drive time of the electronic apparatus.In addition, the battery of the attachment device according to the embodiment may charge a first secondary battery which is provided in the electronic apparatus.</t>
+  </si>
+  <si>
+    <t>According to this configuration, for example, the battery on the attachment device side can function as an auxiliary battery with respect to the electronic apparatus.</t>
+  </si>
+  <si>
+    <t>As a result, a plurality of batteries can drive the electronic apparatus, and a long time drive of the electronic apparatus can be realized.In addition, the battery of the attachment device according to the embodiment may be a second secondary battery.</t>
+  </si>
+  <si>
+    <t>According to this configuration, for example, only the attachment member is exchanged, and the battery can be used again.</t>
+  </si>
+  <si>
+    <t>As a result, running cost of the electronic apparatus which uses the attachment device can be reduced.In addition, the attachment member of the attachment device according to the embodiment may include a gel layer with an electrolyte, and the battery may be configured by the gel layer, and an anode, a separator, and a cathode which are disposed in the gel layer.</t>
+  </si>
+  <si>
+    <t>According to this configuration, for example, the presence of the battery can hardly cause a decrease of flexibility of the attachment member, compared to when an independent battery is fixed to the attachment member.In addition, the battery of the attachment device according to the embodiment may be attachable and detachable to the attachment member.</t>
+  </si>
+  <si>
+    <t>According to this configuration, for example, it is easy to separate the battery from the attachment member, and to perform discarding work.</t>
+  </si>
+  <si>
+    <t>In addition, it is easy to use the battery again.In addition, the battery of the attachment device according to the embodiment may include a connection member which electrically connects the power terminal provided in a surface different from a surface facing the first surface.</t>
+  </si>
+  <si>
+    <t>According to this configuration, for example, it is easy to view a connection position of a power terminal of the electronic apparatus, and the battery, and to perform connection work.</t>
+  </si>
+  <si>
+    <t>In addition, since the power terminal is disposed on a side different from a body surface of a user, it is possible to increase a sense of secure of the user.In addition, the attachment member of the attachment device according to the embodiment may be configured so as to wind a housing of the electronic apparatus.</t>
+  </si>
+  <si>
+    <t>According to this configuration, for example, the attachment device can be mounted on the electronic apparatus by an adhesive strength of the attachment member, and a fixing strength generated by winding of the connection member, and thus it is possible to maintain a stable mounting state for a long time.In addition, the attachment device according to the embodiment includes: an attachment member including a first surface which is attached to an electronic apparatus including a first power terminal, and a second surface which is positioned in an opposite side to the first surface and includes adhesion; and a battery which is fixed to the attachment member, and includes a second power terminal that is electrically connected to the first power terminal and supplies a power to the electronic apparatus, in a state in which the attachment member is attached to the electronic apparatus.</t>
+  </si>
+  <si>
+    <t>In addition, by selecting capacity of the battery of the attachment device, a user can easily select a drive time of the electronic apparatus.In each embodiment described above, a case in which the electronic apparatus is a sensor unit for detecting a cardiac potential is illustrated, but the electronic apparatus may be an electronic apparatus which needs power supplying and needs fixing to the attachment device, may be, for example, a heart rate monitor or a pulsimeter, may be a low frequency therapeutic apparatus which does not detect a biological signal and conversely, gives an electrical stimulation, or the like, and it is possible to obtain the same effects as in each embodiment described above.While certain embodiments have been described, these embodiments have been presented by way of example only, and are not intended to limit the scope of the inventions.</t>
+  </si>
+  <si>
+    <t>Indeed, the novel embodiments described herein may be embodied in a variety of other forms; furthermore, various omissions, substitutions and changes in the form of the embodiments described herein may be made without departing from the spirit of the inventions.</t>
+  </si>
+  <si>
+    <t>The accompanying claims and their equivalents are intended to cover such forms or modifications as would fall within the scope and spirit of the inventions.WHAT IS CLAIMED IS: An attachment device comprising:an attachment member including a first surface, at least a portion of which is covered by an electronic apparatus including a first power terminal and which is attached to the electronic apparatus, and a second surface which is positioned in an opposite side to the first surface, includes adhesion, and is attached to a subject; anda battery, at least a portion of which is covered by the electronic apparatus, which is fixed to the attachment member, and which includes a second power terminal that is electrically connected to the first power terminal and supplies a power to the electronic apparatus, in a state in which the attachment member is attached to the electronic apparatus.</t>
+  </si>
+  <si>
+    <t>The device according to Claim 1, wherein the battery charges a first secondary battery which is provided in the electronic apparatus.</t>
+  </si>
+  <si>
+    <t>The device according to Claim 1 or 2, wherein the battery is a second secondary battery.</t>
+  </si>
+  <si>
+    <t>The device according to any one of Claims 1 to 3,wherein the attachment member includes a gel layer with an electrolyte, andwherein the battery is configured by the gel layer, and an anode, a separator, and a cathode which are disposed in the gel layer.</t>
+  </si>
+  <si>
+    <t>The device according to any one of Claims 1 to 4, wherein the battery can be attachable and detachable to the attachment member.</t>
+  </si>
+  <si>
+    <t>The device according to any one of Claims 1 to 5, wherein the battery includes a connection member which electrically connects the first power terminal provided in a surface different from a surface facing the first surface, to the second power terminal.</t>
+  </si>
+  <si>
+    <t>The device according to Claim 6, wherein the attachment member is configured so as to wind a housing of the electronic apparatus.</t>
+  </si>
+  <si>
+    <t>An electronic apparatus comprising:the attachment device according any one of Claims 1 to 7.</t>
+  </si>
+  <si>
+    <t>An attachment device comprising:an attachment member including a first surface which is attached to an electronic apparatus including a first power terminal, and a second surface which is positioned in an opposite side to the first surface and includes adhesion; anda battery which is fixed to the attachment member, and includes a second power terminal that is electrically connected to the first power terminal and supplies a power to the electronic apparatus, in a state in which the attachment member is attached to the electronic apparatus.ABSTRACTAccording to one embodiment, an attachment device includes an attachment member and a battery.</t>
+  </si>
+  <si>
+    <t>The attachment member includes a first surface at least a portion of which is covered by an electronic apparatus including a first power terminal and which is attached to the electronic apparatus, and a second surface which is positioned in an opposite side to the first surface, includes adhesion, and is attached to a subject.</t>
+  </si>
+  <si>
+    <t>The battery, at least a portion of which is covered by the electronic apparatus, is fixed to the attachment member, and includes a second power terminal which is electrically connected to the first power terminal and supplies a power to the electronic apparatus, in a state in which the attachment member is attached to the electronic apparatus.DrawingFIG.13208: wireless router202: base station204: network206: server206a: storage device</t>
   </si>
 </sst>
 </file>
@@ -1349,7 +1592,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C168"/>
+  <dimension ref="A1:C205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1371,7 +1614,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1382,7 +1625,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1393,7 +1636,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1404,7 +1647,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1415,7 +1658,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1426,7 +1669,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1437,7 +1680,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1448,7 +1691,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1459,7 +1702,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1470,7 +1713,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1481,7 +1724,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1492,7 +1735,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1503,7 +1746,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1514,7 +1757,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>177</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1525,7 +1768,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>178</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1536,7 +1779,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>179</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1544,10 +1787,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>173</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1555,10 +1798,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>174</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1566,10 +1809,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>175</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1577,10 +1820,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>180</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1588,10 +1831,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1599,10 +1842,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>182</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1610,10 +1853,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>178</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1621,10 +1864,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>183</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1632,10 +1875,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>184</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1643,10 +1886,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>185</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1654,10 +1897,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>186</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1665,10 +1908,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>187</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1676,10 +1919,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>188</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1687,10 +1930,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1698,10 +1941,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>190</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1709,10 +1952,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1720,10 +1963,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>192</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1731,10 +1974,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>193</v>
+        <v>237</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1742,10 +1985,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>194</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1753,10 +1996,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>195</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1764,10 +2007,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>196</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1775,10 +2018,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>197</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1786,10 +2029,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>198</v>
+        <v>242</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1797,10 +2040,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>199</v>
+        <v>243</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1808,10 +2051,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>200</v>
+        <v>244</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1819,10 +2062,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>178</v>
+        <v>245</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1830,10 +2073,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>201</v>
+        <v>246</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1841,10 +2084,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>202</v>
+        <v>247</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1852,10 +2095,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>203</v>
+        <v>248</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1863,10 +2106,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>204</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1874,10 +2117,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>205</v>
+        <v>250</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1885,10 +2128,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>206</v>
+        <v>251</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1896,10 +2139,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>207</v>
+        <v>252</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1907,10 +2150,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>208</v>
+        <v>253</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1918,10 +2161,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>209</v>
+        <v>254</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1929,10 +2172,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>210</v>
+        <v>255</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1940,10 +2183,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>211</v>
+        <v>256</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1951,10 +2194,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>212</v>
+        <v>257</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1962,10 +2205,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>213</v>
+        <v>258</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1973,10 +2216,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>214</v>
+        <v>259</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1984,10 +2227,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>215</v>
+        <v>260</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1995,10 +2238,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>216</v>
+        <v>261</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2006,10 +2249,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C60" t="s">
-        <v>217</v>
+        <v>262</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2017,10 +2260,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C61" t="s">
-        <v>218</v>
+        <v>263</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2028,10 +2271,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C62" t="s">
-        <v>219</v>
+        <v>264</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2039,10 +2282,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C63" t="s">
-        <v>220</v>
+        <v>265</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2050,10 +2293,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C64" t="s">
-        <v>221</v>
+        <v>266</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2061,10 +2304,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C65" t="s">
-        <v>222</v>
+        <v>267</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2072,10 +2315,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C66" t="s">
-        <v>223</v>
+        <v>268</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2083,10 +2326,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C67" t="s">
-        <v>224</v>
+        <v>269</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2094,10 +2337,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C68" t="s">
-        <v>225</v>
+        <v>270</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2105,10 +2348,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C69" t="s">
-        <v>226</v>
+        <v>271</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2116,10 +2359,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C70" t="s">
-        <v>227</v>
+        <v>272</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2127,10 +2370,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C71" t="s">
-        <v>228</v>
+        <v>273</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2138,10 +2381,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C72" t="s">
-        <v>229</v>
+        <v>274</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2149,10 +2392,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C73" t="s">
-        <v>230</v>
+        <v>275</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2160,10 +2403,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C74" t="s">
-        <v>231</v>
+        <v>276</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2171,10 +2414,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C75" t="s">
-        <v>232</v>
+        <v>277</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2182,10 +2425,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C76" t="s">
-        <v>233</v>
+        <v>278</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2193,10 +2436,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C77" t="s">
-        <v>234</v>
+        <v>279</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2204,10 +2447,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C78" t="s">
-        <v>235</v>
+        <v>280</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2215,10 +2458,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C79" t="s">
-        <v>236</v>
+        <v>281</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2226,10 +2469,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C80" t="s">
-        <v>237</v>
+        <v>282</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2237,10 +2480,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C81" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2248,10 +2491,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C82" t="s">
-        <v>239</v>
+        <v>284</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2259,10 +2502,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C83" t="s">
-        <v>240</v>
+        <v>285</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2270,10 +2513,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C84" t="s">
-        <v>241</v>
+        <v>286</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2281,10 +2524,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C85" t="s">
-        <v>242</v>
+        <v>287</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2292,10 +2535,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C86" t="s">
-        <v>243</v>
+        <v>288</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2303,10 +2546,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C87" t="s">
-        <v>244</v>
+        <v>289</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2314,10 +2557,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C88" t="s">
-        <v>245</v>
+        <v>290</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2325,10 +2568,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C89" t="s">
-        <v>246</v>
+        <v>291</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2336,10 +2579,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C90" t="s">
-        <v>247</v>
+        <v>292</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2347,10 +2590,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C91" t="s">
-        <v>248</v>
+        <v>293</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2358,10 +2601,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C92" t="s">
-        <v>249</v>
+        <v>294</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2369,10 +2612,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C93" t="s">
-        <v>250</v>
+        <v>295</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2380,10 +2623,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C94" t="s">
-        <v>251</v>
+        <v>296</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2391,10 +2634,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C95" t="s">
-        <v>252</v>
+        <v>297</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2402,10 +2645,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C96" t="s">
-        <v>253</v>
+        <v>298</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2413,10 +2656,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C97" t="s">
-        <v>254</v>
+        <v>299</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2424,10 +2667,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C98" t="s">
-        <v>255</v>
+        <v>300</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2435,10 +2678,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C99" t="s">
-        <v>256</v>
+        <v>301</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2446,10 +2689,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C100" t="s">
-        <v>257</v>
+        <v>302</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2457,10 +2700,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C101" t="s">
-        <v>258</v>
+        <v>303</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2468,10 +2711,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C102" t="s">
-        <v>259</v>
+        <v>304</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2479,10 +2722,10 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C103" t="s">
-        <v>260</v>
+        <v>305</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2490,10 +2733,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C104" t="s">
-        <v>261</v>
+        <v>306</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2501,10 +2744,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C105" t="s">
-        <v>262</v>
+        <v>307</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2512,10 +2755,10 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C106" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2523,10 +2766,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C107" t="s">
-        <v>264</v>
+        <v>309</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2534,10 +2777,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C108" t="s">
-        <v>265</v>
+        <v>310</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2545,10 +2788,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C109" t="s">
-        <v>266</v>
+        <v>311</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2556,10 +2799,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C110" t="s">
-        <v>267</v>
+        <v>312</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2567,10 +2810,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C111" t="s">
-        <v>268</v>
+        <v>313</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2578,10 +2821,10 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C112" t="s">
-        <v>269</v>
+        <v>314</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2589,10 +2832,10 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C113" t="s">
-        <v>270</v>
+        <v>315</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2600,10 +2843,10 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C114" t="s">
-        <v>271</v>
+        <v>316</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2611,10 +2854,10 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C115" t="s">
-        <v>272</v>
+        <v>317</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2622,10 +2865,10 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C116" t="s">
-        <v>273</v>
+        <v>318</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2633,10 +2876,10 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C117" t="s">
-        <v>274</v>
+        <v>319</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2644,10 +2887,10 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C118" t="s">
-        <v>275</v>
+        <v>320</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2655,10 +2898,10 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C119" t="s">
-        <v>276</v>
+        <v>321</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2666,10 +2909,10 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C120" t="s">
-        <v>277</v>
+        <v>322</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2677,10 +2920,10 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C121" t="s">
-        <v>278</v>
+        <v>323</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2688,10 +2931,10 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C122" t="s">
-        <v>279</v>
+        <v>324</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2699,10 +2942,10 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C123" t="s">
-        <v>280</v>
+        <v>325</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2710,10 +2953,10 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C124" t="s">
-        <v>281</v>
+        <v>326</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2721,10 +2964,10 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C125" t="s">
-        <v>282</v>
+        <v>327</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2732,10 +2975,10 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C126" t="s">
-        <v>283</v>
+        <v>328</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2743,10 +2986,10 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C127" t="s">
-        <v>284</v>
+        <v>329</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2754,10 +2997,10 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C128" t="s">
-        <v>285</v>
+        <v>330</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2765,10 +3008,10 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C129" t="s">
-        <v>286</v>
+        <v>331</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2776,10 +3019,10 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C130" t="s">
-        <v>287</v>
+        <v>332</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2787,10 +3030,10 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C131" t="s">
-        <v>288</v>
+        <v>333</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2798,10 +3041,10 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C132" t="s">
-        <v>289</v>
+        <v>334</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2809,10 +3052,10 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C133" t="s">
-        <v>290</v>
+        <v>335</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2820,10 +3063,10 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C134" t="s">
-        <v>291</v>
+        <v>336</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2831,10 +3074,10 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C135" t="s">
-        <v>292</v>
+        <v>337</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2842,10 +3085,10 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C136" t="s">
-        <v>293</v>
+        <v>338</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2853,10 +3096,10 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C137" t="s">
-        <v>294</v>
+        <v>339</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2864,10 +3107,10 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C138" t="s">
-        <v>295</v>
+        <v>340</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2875,10 +3118,10 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C139" t="s">
-        <v>296</v>
+        <v>341</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2886,10 +3129,10 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C140" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2897,10 +3140,10 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C141" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2908,10 +3151,10 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C142" t="s">
-        <v>299</v>
+        <v>344</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2919,10 +3162,10 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C143" t="s">
-        <v>300</v>
+        <v>345</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2930,10 +3173,10 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C144" t="s">
-        <v>301</v>
+        <v>346</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2941,10 +3184,10 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C145" t="s">
-        <v>302</v>
+        <v>347</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2952,10 +3195,10 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C146" t="s">
-        <v>303</v>
+        <v>348</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2963,10 +3206,10 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C147" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2974,10 +3217,10 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C148" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2985,10 +3228,10 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C149" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2996,10 +3239,10 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C150" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3007,10 +3250,10 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C151" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3018,10 +3261,10 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C152" t="s">
-        <v>309</v>
+        <v>354</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3029,10 +3272,10 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C153" t="s">
-        <v>310</v>
+        <v>355</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3040,10 +3283,10 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C154" t="s">
-        <v>311</v>
+        <v>356</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3051,10 +3294,10 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C155" t="s">
-        <v>312</v>
+        <v>357</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3062,10 +3305,10 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C156" t="s">
-        <v>313</v>
+        <v>358</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3073,10 +3316,10 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C157" t="s">
-        <v>314</v>
+        <v>359</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3084,10 +3327,10 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C158" t="s">
-        <v>315</v>
+        <v>360</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3095,10 +3338,10 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C159" t="s">
-        <v>316</v>
+        <v>361</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3106,10 +3349,10 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C160" t="s">
-        <v>317</v>
+        <v>362</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3117,10 +3360,10 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C161" t="s">
-        <v>318</v>
+        <v>363</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3128,10 +3371,10 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C162" t="s">
-        <v>319</v>
+        <v>364</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3139,10 +3382,10 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C163" t="s">
-        <v>320</v>
+        <v>365</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3150,10 +3393,10 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C164" t="s">
-        <v>321</v>
+        <v>366</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3161,10 +3404,10 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C165" t="s">
-        <v>322</v>
+        <v>367</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3172,10 +3415,10 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C166" t="s">
-        <v>323</v>
+        <v>368</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3183,10 +3426,10 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C167" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3194,10 +3437,417 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C168" t="s">
-        <v>325</v>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>169</v>
+      </c>
+      <c r="C169" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>170</v>
+      </c>
+      <c r="C170" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>171</v>
+      </c>
+      <c r="C171" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>172</v>
+      </c>
+      <c r="C172" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>173</v>
+      </c>
+      <c r="C173" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>174</v>
+      </c>
+      <c r="C174" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>175</v>
+      </c>
+      <c r="C175" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>176</v>
+      </c>
+      <c r="C176" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>177</v>
+      </c>
+      <c r="C177" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>178</v>
+      </c>
+      <c r="C178" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>179</v>
+      </c>
+      <c r="C179" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>180</v>
+      </c>
+      <c r="C180" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>181</v>
+      </c>
+      <c r="C181" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>182</v>
+      </c>
+      <c r="C182" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>183</v>
+      </c>
+      <c r="C183" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>184</v>
+      </c>
+      <c r="C184" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>185</v>
+      </c>
+      <c r="C185" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>186</v>
+      </c>
+      <c r="C186" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>187</v>
+      </c>
+      <c r="C187" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>188</v>
+      </c>
+      <c r="C188" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>189</v>
+      </c>
+      <c r="C189" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>190</v>
+      </c>
+      <c r="C190" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>191</v>
+      </c>
+      <c r="C191" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>180</v>
+      </c>
+      <c r="C192" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>192</v>
+      </c>
+      <c r="C193" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>193</v>
+      </c>
+      <c r="C194" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>194</v>
+      </c>
+      <c r="C195" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>195</v>
+      </c>
+      <c r="C196" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>196</v>
+      </c>
+      <c r="C197" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>197</v>
+      </c>
+      <c r="C198" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>198</v>
+      </c>
+      <c r="C199" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>199</v>
+      </c>
+      <c r="C200" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>200</v>
+      </c>
+      <c r="C201" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>201</v>
+      </c>
+      <c r="C202" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>202</v>
+      </c>
+      <c r="C203" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>2</v>
+      </c>
+      <c r="C204" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>203</v>
+      </c>
+      <c r="C205" t="s">
+        <v>406</v>
       </c>
     </row>
   </sheetData>
